--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>12707122.63954796</v>
+        <v>13486665.49666095</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>12721959.70906828</v>
+        <v>13502412.77472282</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>12736993.94586565</v>
+        <v>13518369.31566725</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>12752227.86822252</v>
+        <v>13534537.79226554</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>12767664.01971747</v>
+        <v>13550920.90413701</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>12783304.96900443</v>
+        <v>13567521.37751458</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>12799153.3095591</v>
+        <v>13584341.96497574</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>12815211.65939142</v>
+        <v>13601385.44513723</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>12831482.6607227</v>
+        <v>13618654.62231253</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>12847968.97962626</v>
+        <v>13636152.32613036</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>12864673.30563032</v>
+        <v>13653881.41111321</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>12881598.35128205</v>
+        <v>13671844.75621466</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>12898746.8516715</v>
+        <v>13690045.26431411</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>12916121.56391456</v>
+        <v>13708485.86166804</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>12933725.26659385</v>
+        <v>13727169.49731655</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>12951560.75915666</v>
+        <v>13746099.14244441</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>12969630.86126912</v>
+        <v>13765277.78969557</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>12987938.41212584</v>
+        <v>13784708.45244052</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>13006486.26971463</v>
+        <v>13804394.16399579</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>13025277.31003541</v>
+        <v>13824337.97679508</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>13044314.42627347</v>
+        <v>13844542.96151165</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>13063600.52792634</v>
+        <v>13865012.20613178</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>13083138.53988476</v>
+        <v>13885748.81497925</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>13102931.4014674</v>
+        <v>13906755.90769086</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>13122982.06541</v>
+        <v>13928036.6181436</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>13143293.4968091</v>
+        <v>13949594.09333358</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>13163868.67202147</v>
+        <v>13971431.49220788</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>13184710.57751972</v>
+        <v>13993551.98445001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>13205822.20870563</v>
+        <v>14015958.74922042</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>13227206.5686823</v>
+        <v>14038654.97385337</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>13248866.66698707</v>
+        <v>14061643.85251203</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>13270805.51828688</v>
+        <v>14084928.58480387</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>13293026.14103839</v>
+        <v>14108512.37435859</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>13315531.55611547</v>
+        <v>14132398.42737136</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>13338324.78540656</v>
+        <v>14156589.95111419</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>13361408.85038542</v>
+        <v>14181090.15241894</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>13384786.77065825</v>
+        <v>14205902.23613536</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>13408461.56249139</v>
+        <v>14231029.40356844</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>13432436.2373233</v>
+        <v>14256474.85089912</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>13456713.80026554</v>
+        <v>14282241.76759332</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>13481297.24859739</v>
+        <v>14308333.33480416</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>13506189.57025931</v>
+        <v>14334752.72377306</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>13531393.74235073</v>
+        <v>14361503.09423531</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>13556912.72963795</v>
+        <v>14388587.59283652</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>13582749.48307849</v>
+        <v>14416009.35156636</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>13608906.93836825</v>
+        <v>14443771.48621666</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>13635388.01451867</v>
+        <v>14471877.09487118</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>13662195.61247087</v>
+        <v>14500329.2564349</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>13689332.61375452</v>
+        <v>14529131.02921043</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>13716801.87919934</v>
+        <v>14558285.4495306</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>13744606.2477075</v>
+        <v>14587795.53045548</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>13772748.53509538</v>
+        <v>14617664.26054312</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>13801231.53301365</v>
+        <v>14647894.60270336</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>13830058.00795473</v>
+        <v>14678489.49314445</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>13859230.70035711</v>
+        <v>14709451.8404223</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>13888752.32381584</v>
+        <v>14740784.52460266</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>13918625.56440949</v>
+        <v>14772490.3965468</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>13948853.0801532</v>
+        <v>14804572.27733085</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>13979437.50058805</v>
+        <v>14837032.95781018</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>14010381.42651729</v>
+        <v>14869875.19833931</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>14041687.42989955</v>
+        <v>14903101.7286586</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>14073358.05390948</v>
+        <v>14936715.24795865</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>14105395.8131766</v>
+        <v>14970718.42513374</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>14137803.19421231</v>
+        <v>15005113.89923511</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>14170582.65603605</v>
+        <v>15039904.28013546</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>14203736.63101033</v>
+        <v>15075092.14941527</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>14237267.52589528</v>
+        <v>15110680.06148196</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>14271177.72313227</v>
+        <v>15146670.54493236</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>14305469.5823667</v>
+        <v>15183066.10416889</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>14340145.44221915</v>
+        <v>15219869.22127927</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>14375207.62231411</v>
+        <v>15257082.35818979</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>14410658.42557494</v>
+        <v>15294707.95910109</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>14446500.14079345</v>
+        <v>15332748.45321533</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>14482735.04548187</v>
+        <v>15371206.25776309</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>14519365.40901441</v>
+        <v>15410083.7813377</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>14556393.49606514</v>
+        <v>15449383.42754401</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>14593821.57034814</v>
+        <v>15489107.598968</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>14631651.89866535</v>
+        <v>15529258.70147294</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>14669886.75526669</v>
+        <v>15569839.14882691</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>14708528.42652595</v>
+        <v>15610851.3676658</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>14747579.21593598</v>
+        <v>15652297.8027946</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>14787041.44942451</v>
+        <v>15694180.92282953</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>14826917.48099222</v>
+        <v>15736503.226182</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>14867209.69867302</v>
+        <v>15779267.24738444</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>14907920.53081561</v>
+        <v>15822475.56375727</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>14949052.45268437</v>
+        <v>15866130.8024147</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>14990607.9933765</v>
+        <v>15910235.64760628</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>15032589.74305152</v>
+        <v>15954792.84838982</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>15075000.36046721</v>
+        <v>15999805.22662975</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>15117842.5808162</v>
+        <v>16045275.6853143</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>15161119.223855</v>
+        <v>16091207.21718337</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>15204833.20231665</v>
+        <v>16137602.91365721</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>15248987.53059713</v>
+        <v>16184465.97405574</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>15293585.33370396</v>
+        <v>16231799.71509605</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>15338629.85645434</v>
+        <v>16279607.58065489</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>15384124.47290923</v>
+        <v>16327893.15178145</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>15430072.6960282</v>
+        <v>16376660.1569446</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>15476478.18752907</v>
+        <v>16425912.48249724</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>15523344.76793467</v>
+        <v>16475654.18333951</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>15570676.42678828</v>
+        <v>16525889.49376095</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>15618477.33301843</v>
+        <v>16576622.83844095</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>15666751.84543174</v>
+        <v>16627858.84358554</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>15715504.52331268</v>
+        <v>16679602.34817724</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>15764740.13710707</v>
+        <v>16731858.41531403</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>15814463.67916594</v>
+        <v>16784632.34361232</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>15864680.37452515</v>
+        <v>16837929.67864785</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>15915395.69169544</v>
+        <v>16891756.22440763</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>15966615.35343694</v>
+        <v>16946118.05472551</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>16018345.34749146</v>
+        <v>17001021.52467285</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>16070591.93724542</v>
+        <v>17056473.28187552</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>16123361.67229553</v>
+        <v>17112480.27772788</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>16176661.39888941</v>
+        <v>17169049.7784737</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>16230498.27021246</v>
+        <v>17226189.37612431</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>16284879.75649294</v>
+        <v>17283906.99918346</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>16339813.65489599</v>
+        <v>17342210.92314842</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>16395308.09917874</v>
+        <v>17401109.78075725</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>16451371.56907738</v>
+        <v>17460612.57195184</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>16508012.89939842</v>
+        <v>17520728.6735269</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>16565241.28878619</v>
+        <v>17581467.84843525</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>16623066.30813911</v>
+        <v>17642840.2547205</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>16681497.90864809</v>
+        <v>17704856.45404845</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>16740546.42943091</v>
+        <v>17767527.41980999</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>16800222.60473739</v>
+        <v>17830864.54476806</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>16860537.57070084</v>
+        <v>17894879.6482235</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>16921502.87161287</v>
+        <v>17959584.98267464</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>16983130.46569892</v>
+        <v>18024993.2399473</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>17045432.73037431</v>
+        <v>18091117.55677305</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>17108422.46696049</v>
+        <v>18157971.51979506</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>17172112.90484435</v>
+        <v>18225569.16998237</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>17236517.7050633</v>
+        <v>18293925.00643501</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>17301650.96330187</v>
+        <v>18363053.9895643</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>17367527.21228651</v>
+        <v>18432971.54363476</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>17434161.42356715</v>
+        <v>18503693.5586548</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>17501569.00867674</v>
+        <v>18575236.39160754</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>17569765.81966066</v>
+        <v>18647616.86701244</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>17638768.14897095</v>
+        <v>18720852.27681343</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>17708592.72872227</v>
+        <v>18794960.37958879</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>17779256.72930783</v>
+        <v>18869959.39908257</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>17850777.75737686</v>
+        <v>18945868.02205773</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>17923173.85317645</v>
+        <v>19022705.39547494</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>17996463.48726304</v>
+        <v>19100491.12300245</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>18070665.55659149</v>
+        <v>19179245.26086512</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>18145799.37999127</v>
+        <v>19258988.31304315</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>18221884.69304195</v>
+        <v>19339741.22583313</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>18298941.642362</v>
+        <v>19421525.38178662</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>18376990.7793278</v>
+        <v>19504362.5930436</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>18456053.05324081</v>
+        <v>19588275.09408074</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>18536149.8039641</v>
+        <v>19673285.53389601</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>18617302.75405075</v>
+        <v>19759416.96765423</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>18699534.00038872</v>
+        <v>19846692.84781942</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>18782866.00538922</v>
+        <v>19935137.0148026</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>18867321.58774681</v>
+        <v>20024773.687155</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>18952923.91280158</v>
+        <v>20115627.45133894</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>19039696.48253549</v>
+        <v>20207723.2511107</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>19127663.12523635</v>
+        <v>20301086.37655015</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>19216847.98486461</v>
+        <v>20395742.45277544</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>19307275.51015926</v>
+        <v>20491717.42838041</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>19398970.44352051</v>
+        <v>20589037.56363532</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>19491957.80970831</v>
+        <v>20687729.41849217</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>19586262.90439631</v>
+        <v>20787819.84043629</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>19681911.2826221</v>
+        <v>20889335.95222814</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>19778928.7471751</v>
+        <v>20992305.13957888</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>19877341.33696452</v>
+        <v>21096755.03880464</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>19977175.31540956</v>
+        <v>21202713.52450452</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>20078457.1588949</v>
+        <v>21310208.69730788</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>20181213.54533492</v>
+        <v>21419268.87173707</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>20285471.34288945</v>
+        <v>21529922.56423077</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>20391257.59887424</v>
+        <v>21642198.48137436</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>20498599.52890949</v>
+        <v>21756125.50838248</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>20607524.50634816</v>
+        <v>21871732.69787908</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>20718060.05202721</v>
+        <v>21989049.25901974</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>20830233.82438223</v>
+        <v>22108104.54699992</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>20944073.60996698</v>
+        <v>22228928.0529929</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>21059607.31441727</v>
+        <v>22351549.39455939</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>21176862.95389824</v>
+        <v>22475998.30656996</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>21295868.6470728</v>
+        <v>22602304.63268101</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>21416652.60762814</v>
+        <v>22730498.31740252</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>21539243.13739498</v>
+        <v>22860609.39879541</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>21663668.62009425</v>
+        <v>22992668.00183455</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>21789957.51574307</v>
+        <v>23126704.33247148</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>21918138.35575136</v>
+        <v>23262748.67243027</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>22048239.73873801</v>
+        <v>23400831.37476707</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>22180290.32709432</v>
+        <v>23540982.86022263</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>22314318.84432059</v>
+        <v>23683233.61439563</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>22450354.07315988</v>
+        <v>23827614.18576173</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>22588424.85455088</v>
+        <v>23974155.18456249</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>22728560.08742058</v>
+        <v>24122887.28258509</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>22870788.7293349</v>
+        <v>24273841.21385295</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>23015139.79802383</v>
+        <v>24427047.77624453</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>23161642.37379588</v>
+        <v>24582537.83405568</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>23310325.60285401</v>
+        <v>24740342.32151923</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>23461218.70152463</v>
+        <v>24900492.24729326</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>23614350.96140776</v>
+        <v>25063018.69992733</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>23769751.75545589</v>
+        <v>25227952.85431407</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>23927450.54498653</v>
+        <v>25395325.9791322</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>24087476.8876321</v>
+        <v>25565169.44528383</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>24249860.44622846</v>
+        <v>25737514.73532855</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>24414630.99864246</v>
+        <v>25912393.45391363</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>24581818.44853673</v>
+        <v>26089837.33919938</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>24751452.83706843</v>
+        <v>26269878.27527544</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>24923564.35551735</v>
+        <v>26452548.30556372</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>25098183.35883735</v>
+        <v>26637879.64720103</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>25275340.38011827</v>
+        <v>26825904.70638825</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>25455066.14596452</v>
+        <v>27016656.09471246</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>25637391.59276632</v>
+        <v>27210166.64641614</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>25822347.88385705</v>
+        <v>27406469.43660723</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>26009966.4275448</v>
+        <v>27605597.80039686</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>26200278.89600507</v>
+        <v>27807585.35295099</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>26393317.24502108</v>
+        <v>28012466.01044178</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>26589113.73455695</v>
+        <v>28220274.01188282</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>26787700.95014898</v>
+        <v>28431043.94183278</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>26989111.82509891</v>
+        <v>28644810.75395005</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>27193379.66345348</v>
+        <v>28861609.79538215</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>27400538.16375355</v>
+        <v>29081476.83197167</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>27610621.44353592</v>
+        <v>29304448.07426126</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>27823664.06457093</v>
+        <v>29530560.20427951</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>28039701.05881881</v>
+        <v>29759850.40308951</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>28258767.95508704</v>
+        <v>29992356.37908176</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>28480900.80637217</v>
+        <v>30228116.39699314</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>28706136.21786857</v>
+        <v>30467169.30763404</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>28934511.37562684</v>
+        <v>30709554.57830479</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>29166064.07584567</v>
+        <v>30955312.32388448</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>29400832.75477977</v>
+        <v>31204483.33857372</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>29638856.51924822</v>
+        <v>31457109.12827464</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>29880175.17772645</v>
+        <v>31713231.94359002</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>30124829.27200673</v>
+        <v>31972894.81342629</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>30372860.10941127</v>
+        <v>32236141.57918277</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>30624309.79554331</v>
+        <v>32503016.92951181</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>30879221.26756098</v>
+        <v>32773566.43563398</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>31137638.3279602</v>
+        <v>33047836.58719354</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>31399605.67885216</v>
+        <v>33325874.82863858</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>31665168.95672181</v>
+        <v>33607729.59611189</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>31934374.76765423</v>
+        <v>33893450.35483845</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>32207270.72301533</v>
+        <v>34183087.63699486</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>32483905.47557459</v>
+        <v>34476693.08004825</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>32764328.75605633</v>
+        <v>34774319.46554982</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>33048591.41010769</v>
+        <v>35076020.75837056</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>33336745.43567</v>
+        <v>35381852.14636555</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>33628844.02074166</v>
+        <v>35691870.08045303</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>33924941.5815187</v>
+        <v>36006132.31509531</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>34225093.80090135</v>
+        <v>36324697.94916698</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>34529357.66735204</v>
+        <v>36647627.46719727</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>34837791.51409183</v>
+        <v>36974982.7809708</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>35150455.05862087</v>
+        <v>37306827.27147251</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>35467409.44254718</v>
+        <v>37643225.83115986</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>35788717.27170911</v>
+        <v>37984244.90654667</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>36114442.65657369</v>
+        <v>38329952.54107973</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>36444651.25289324</v>
+        <v>38680418.4182897</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>36779410.30260141</v>
+        <v>39035713.90519584</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>37118788.67492767</v>
+        <v>39395912.09594282</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>37462856.90770809</v>
+        <v>39761087.85564586</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>37811687.24886882</v>
+        <v>40131317.86441901</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>38165353.69805612</v>
+        <v>40506680.6615589</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>38523932.04838438</v>
+        <v>40887256.68985434</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>38887499.92827325</v>
+        <v>41273128.33998943</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>39256136.84333905</v>
+        <v>41664379.99500538</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>39629924.21830668</v>
+        <v>42061098.07478322</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>40008945.43890177</v>
+        <v>42463371.08050627</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>40393285.89368326</v>
+        <v>42871289.6390586</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>40783033.01576929</v>
+        <v>43284946.5473111</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>41178276.32440984</v>
+        <v>43704436.81624407</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>41579107.46635198</v>
+        <v>44129857.71485052</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>41985620.25694251</v>
+        <v>44561308.81375983</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>42397910.7209069</v>
+        <v>44998892.02851889</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>42816077.13273919</v>
+        <v>45442711.66245937</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>43240220.05663365</v>
+        <v>45892874.44907935</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>43670442.38588345</v>
+        <v>46349489.5938587</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>44106849.38166573</v>
+        <v>46812668.81542379</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>44549548.71112944</v>
+        <v>47282526.38597178</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>44998650.48469403</v>
+        <v>47759179.17085737</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>45454267.29246336</v>
+        <v>48242746.66724065</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>45916514.23965199</v>
+        <v>48733351.04168677</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>46385508.98091585</v>
+        <v>49231117.16660266</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>46861371.75347202</v>
+        <v>49736172.65538848</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>47344225.4088864</v>
+        <v>50248647.89617565</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>47834195.44340136</v>
+        <v>50768676.0840145</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>48331410.0266681</v>
+        <v>51296393.25136993</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>48836000.02874212</v>
+        <v>51831938.29677241</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>49348099.04519237</v>
+        <v>52375453.01146782</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>49867843.42016806</v>
+        <v>52927082.10389922</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>50395372.26725938</v>
+        <v>53486973.22184727</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>50930827.4879805</v>
+        <v>54055276.97204731</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>51474353.78769716</v>
+        <v>54632146.93709373</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>52026098.68881162</v>
+        <v>55217739.68943401</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>52586212.54101202</v>
+        <v>55812214.80224695</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>53154848.52838469</v>
+        <v>56415734.856991</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>53732162.6731805</v>
+        <v>57028465.44740175</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>54318313.83601943</v>
+        <v>57650575.17970921</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>54913463.71230968</v>
+        <v>58282235.6688372</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>55517776.82465132</v>
+        <v>58923621.53034075</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>56131420.5109864</v>
+        <v>59574910.36782957</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>56754564.90825173</v>
+        <v>60236282.7556178</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>57387382.93128411</v>
+        <v>60907922.21633519</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>58030050.24672049</v>
+        <v>61590015.19322616</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>58682745.24163181</v>
+        <v>62282751.01685921</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>59345648.98662183</v>
+        <v>62986321.86596236</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>60018945.19311977</v>
+        <v>63700922.72209538</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>60702820.16458876</v>
+        <v>64426751.31786539</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>61397462.74137118</v>
+        <v>65164008.0783885</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>62103064.23888692</v>
+        <v>65912896.05569666</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>62819818.37889888</v>
+        <v>66673620.85578661</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>63547921.21355999</v>
+        <v>67446390.5580073</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>64287571.04195338</v>
+        <v>68231415.62648015</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>65038968.31883888</v>
+        <v>69028908.81324752</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>65802315.55532113</v>
+        <v>69839085.05284685</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>66577817.21115527</v>
+        <v>70662161.34800991</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>67365679.57841159</v>
+        <v>71498356.64619049</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>68166110.65622498</v>
+        <v>72347891.70663004</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>68979320.01636069</v>
+        <v>73210988.95767641</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>69805518.65933594</v>
+        <v>74087872.34407926</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>70644918.86084761</v>
+        <v>74978767.16399577</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>71497734.00826356</v>
+        <v>75883899.89545211</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>72364178.42695133</v>
+        <v>76803498.01201724</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>73244467.19622862</v>
+        <v>77737789.78746305</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>74138815.95473933</v>
+        <v>78687004.08920024</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>75047440.6950721</v>
+        <v>79651370.16029805</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>75970557.5474627</v>
+        <v>80631117.38991679</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>76908382.55243954</v>
+        <v>81626475.07200626</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>77861131.42229569</v>
+        <v>82637672.15214467</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>78829019.29129839</v>
+        <v>83664936.96242431</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>79812260.45457159</v>
+        <v>84708496.94431527</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>80811068.09561875</v>
+        <v>85768578.35947283</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>81825654.00248381</v>
+        <v>86845405.98848534</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>82856228.27258338</v>
+        <v>87939202.81759915</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>83902999.00627615</v>
+        <v>89050189.71348947</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>84966171.98927847</v>
+        <v>90178585.0861928</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>86045950.3640691</v>
+        <v>91324604.54035355</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>87142534.29047309</v>
+        <v>92488460.51498611</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>88256120.5956559</v>
+        <v>93670361.91199647</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>89386902.41380535</v>
+        <v>94870513.71376027</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>90535068.81582624</v>
+        <v>96089116.59010041</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>91700804.4294222</v>
+        <v>97326366.49506184</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>92884289.04998897</v>
+        <v>98582454.25393426</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>94085697.24279504</v>
+        <v>99857565.141028</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>95305197.93697967</v>
+        <v>101151878.4487651</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>96542954.01195149</v>
+        <v>102465567.0487044</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>97799121.8768249</v>
+        <v>103798796.9451781</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>99073851.0435876</v>
+        <v>105151726.8222739</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>100367283.6947477</v>
+        <v>106524507.5849595</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>101679554.2462647</v>
+        <v>107917281.8951991</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>103010788.9066203</v>
+        <v>109330183.7039768</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>104361105.2329463</v>
+        <v>110763337.7801923</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>105730611.6851719</v>
+        <v>112216859.2374578</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>107119407.1792122</v>
+        <v>113690853.0598749</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>108527580.6402631</v>
+        <v>115185413.6279269</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>109955210.5573251</v>
+        <v>116700624.2456727</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>111402364.5401139</v>
+        <v>118236556.6704759</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>112869098.8795679</v>
+        <v>119793270.6465508</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>114355458.1131983</v>
+        <v>121370813.4436478</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>115861474.5965646</v>
+        <v>122969219.4022402</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>117387168.0821911</v>
+        <v>124588509.4866091</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>118932545.3072692</v>
+        <v>126228690.8472517</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>120497599.5915119</v>
+        <v>127889756.3940661</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>122082310.446546</v>
+        <v>129571684.3817803</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>123686643.198242</v>
+        <v>131274438.0091138</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>125310548.6233864</v>
+        <v>132997965.0331605</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>124957644.4903628</v>
+        <v>132623411.3179341</v>
       </c>
       <c r="C358" t="n">
-        <v>1996318.111740912</v>
+        <v>2022331.076652292</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>124600963.6794296</v>
+        <v>132244849.2372345</v>
       </c>
       <c r="C359" t="n">
-        <v>4015842.108000852</v>
+        <v>4068170.421424792</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>124240435.1369225</v>
+        <v>131862203.3784733</v>
       </c>
       <c r="C360" t="n">
-        <v>6058548.156507128</v>
+        <v>6137493.891499075</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>123875985.6711704</v>
+        <v>131475396.0598961</v>
       </c>
       <c r="C361" t="n">
-        <v>8124398.73204783</v>
+        <v>8230263.472692052</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>123507539.8947871</v>
+        <v>131084347.2693324</v>
       </c>
       <c r="C362" t="n">
-        <v>10213342.40346546</v>
+        <v>10346427.06367403</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>123135020.1657966</v>
+        <v>130688974.6017102</v>
       </c>
       <c r="C363" t="n">
-        <v>12325313.64438551</v>
+        <v>12485918.28423099</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>122758346.5276721</v>
+        <v>130289193.1954156</v>
       </c>
       <c r="C364" t="n">
-        <v>14460232.66887476</v>
+        <v>14648656.30878143</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>122377436.6483871</v>
+        <v>129884915.667606</v>
       </c>
       <c r="C365" t="n">
-        <v>16618005.29315217</v>
+        <v>16834545.7262853</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>121992205.7586012</v>
+        <v>129476052.0486028</v>
       </c>
       <c r="C366" t="n">
-        <v>18798522.82440129</v>
+        <v>19043476.42760758</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>121602566.5891217</v>
+        <v>129062509.715517</v>
       </c>
       <c r="C367" t="n">
-        <v>21001661.97764899</v>
+        <v>21275323.52131391</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>121208429.3078135</v>
+        <v>128644193.3252883</v>
       </c>
       <c r="C368" t="n">
-        <v>23227284.8215754</v>
+        <v>23529947.27877435</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>120809701.4561521</v>
+        <v>128221004.7473467</v>
       </c>
       <c r="C369" t="n">
-        <v>25475238.75402134</v>
+        <v>25807193.10935175</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>120406287.8856504</v>
+        <v>127792842.9961383</v>
       </c>
       <c r="C370" t="n">
-        <v>27745356.50784045</v>
+        <v>28106891.56633009</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>119998090.694417</v>
+        <v>127359604.1637918</v>
       </c>
       <c r="C371" t="n">
-        <v>30037456.18762387</v>
+        <v>30428858.38411768</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>119585009.1641431</v>
+        <v>126921181.3532403</v>
       </c>
       <c r="C372" t="n">
-        <v>32351341.3376935</v>
+        <v>32772894.54712645</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>119166939.69785</v>
+        <v>126477464.6121495</v>
       </c>
       <c r="C373" t="n">
-        <v>32351154.38832749</v>
+        <v>32772705.16172218</v>
       </c>
       <c r="D373" t="n">
-        <v>2335646.653290747</v>
+        <v>2561473.504932406</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>118743775.758772</v>
+        <v>126028340.8680507</v>
       </c>
       <c r="C374" t="n">
-        <v>32350938.07695479</v>
+        <v>32772486.03171045</v>
       </c>
       <c r="D374" t="n">
-        <v>4692671.97640665</v>
+        <v>5146392.720820569</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>118315407.810788</v>
+        <v>125573693.8651194</v>
       </c>
       <c r="C375" t="n">
-        <v>32350688.11561199</v>
+        <v>32772232.81325366</v>
       </c>
       <c r="D375" t="n">
-        <v>7070840.84440095</v>
+        <v>7754499.789173512</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>117881723.2608655</v>
+        <v>125113404.1030869</v>
       </c>
       <c r="C376" t="n">
-        <v>32350399.64347164</v>
+        <v>32771940.5821855</v>
       </c>
       <c r="D376" t="n">
-        <v>9469904.732422618</v>
+        <v>10385522.15599839</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>117442606.4040225</v>
+        <v>124647348.7788269</v>
       </c>
       <c r="C377" t="n">
-        <v>32350067.1586584</v>
+        <v>32771603.76493859</v>
       </c>
       <c r="D377" t="n">
-        <v>11889602.00900189</v>
+        <v>13039172.89344295</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>116997938.3713677</v>
+        <v>124175401.7312075</v>
       </c>
       <c r="C378" t="n">
-        <v>32349684.44318823</v>
+        <v>32771216.06250566</v>
       </c>
       <c r="D378" t="n">
-        <v>14329658.26665645</v>
+        <v>15715151.06236706</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>116547597.0818273</v>
+        <v>123697433.3898567</v>
       </c>
       <c r="C379" t="n">
-        <v>32349244.48051254</v>
+        <v>32770770.36690916</v>
       </c>
       <c r="D379" t="n">
-        <v>16789786.68960612</v>
+        <v>18413142.11561063</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>116091457.1982233</v>
+        <v>123213310.7285464</v>
       </c>
       <c r="C380" t="n">
-        <v>32348739.36513337</v>
+        <v>32770258.66963878</v>
       </c>
       <c r="D380" t="n">
-        <v>19269688.45821594</v>
+        <v>21132818.34154116</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>115629390.0884208</v>
+        <v>122722897.2239565</v>
       </c>
       <c r="C381" t="n">
-        <v>32348160.20374478</v>
+        <v>32769671.96150462</v>
       </c>
       <c r="D381" t="n">
-        <v>21769053.18961465</v>
+        <v>23873839.34727432</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>115161263.7923244</v>
+        <v>122226052.8206457</v>
       </c>
       <c r="C382" t="n">
-        <v>32347497.00734757</v>
+        <v>32769000.12334611</v>
       </c>
       <c r="D382" t="n">
-        <v>24287559.41375487</v>
+        <v>26635852.58076297</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>114686942.995554</v>
+        <v>121722633.9031134</v>
       </c>
       <c r="C383" t="n">
-        <v>32346738.57378159</v>
+        <v>32768231.80703367</v>
       </c>
       <c r="D383" t="n">
-        <v>24287513.79247222</v>
+        <v>26635802.54849179</v>
       </c>
       <c r="E383" t="n">
-        <v>2537361.291526128</v>
+        <v>2974777.50832506</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>114206289.0106973</v>
+        <v>121212493.2759013</v>
       </c>
       <c r="C384" t="n">
-        <v>32345872.36012225</v>
+        <v>32767354.30620251</v>
       </c>
       <c r="D384" t="n">
-        <v>24287459.40511016</v>
+        <v>26635742.90257457</v>
       </c>
       <c r="E384" t="n">
-        <v>5093198.716006135</v>
+        <v>5971216.253832061</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>113719159.7670902</v>
+        <v>120695480.1527476</v>
       </c>
       <c r="C385" t="n">
-        <v>32344884.34439686</v>
+        <v>32766353.41616704</v>
       </c>
       <c r="D385" t="n">
-        <v>24287394.6757081</v>
+        <v>26635671.91467573</v>
       </c>
       <c r="E385" t="n">
-        <v>7667162.313696334</v>
+        <v>8988905.947147623</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>113225409.8101393</v>
+        <v>120171440.1558671</v>
       </c>
       <c r="C386" t="n">
-        <v>32343758.87609163</v>
+        <v>32765213.2824799</v>
       </c>
       <c r="D386" t="n">
-        <v>24287317.76659093</v>
+        <v>26635587.56944069</v>
       </c>
       <c r="E386" t="n">
-        <v>10258893.53681942</v>
+        <v>12027426.23037193</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>112724890.3112547</v>
+        <v>119640215.3264943</v>
       </c>
       <c r="C387" t="n">
-        <v>32342478.51494452</v>
+        <v>32763916.23762422</v>
       </c>
       <c r="D387" t="n">
-        <v>24287226.53899787</v>
+        <v>26635487.52131817</v>
       </c>
       <c r="E387" t="n">
-        <v>12868025.92457227</v>
+        <v>15086347.46845125</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>112217449.0895255</v>
+        <v>119101644.147888</v>
       </c>
       <c r="C388" t="n">
-        <v>32341023.85755135</v>
+        <v>32762442.62536032</v>
       </c>
       <c r="D388" t="n">
-        <v>24287118.5085219</v>
+        <v>26635369.04569108</v>
       </c>
       <c r="E388" t="n">
-        <v>15494185.81032353</v>
+        <v>18165231.57828945</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>111702930.6463191</v>
+        <v>118555561.5820526</v>
       </c>
       <c r="C389" t="n">
-        <v>32339373.3513552</v>
+        <v>32760770.61229132</v>
       </c>
       <c r="D389" t="n">
-        <v>24286990.79479948</v>
+        <v>26635228.98370193</v>
       </c>
       <c r="E389" t="n">
-        <v>18136993.05944347</v>
+        <v>21263632.89377254</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>111181176.2140408</v>
+        <v>118001799.1214908</v>
       </c>
       <c r="C390" t="n">
-        <v>32337503.09564232</v>
+        <v>32758875.98626595</v>
       </c>
       <c r="D390" t="n">
-        <v>24286840.06485089</v>
+        <v>26635063.68011494</v>
       </c>
       <c r="E390" t="n">
-        <v>20796061.83603906</v>
+        <v>24381099.06468127</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>110652023.8203429</v>
+        <v>117440184.8573495</v>
       </c>
       <c r="C391" t="n">
-        <v>32335386.62923238</v>
+        <v>32756731.94130221</v>
       </c>
       <c r="D391" t="n">
-        <v>24286662.469431</v>
+        <v>26634868.91351273</v>
       </c>
       <c r="E391" t="n">
-        <v>23471001.39669367</v>
+        <v>27517171.98726386</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>110115308.3691098</v>
+        <v>116870543.5653751</v>
       </c>
       <c r="C392" t="n">
-        <v>32332994.70462836</v>
+        <v>32754308.84879442</v>
       </c>
       <c r="D392" t="n">
-        <v>24286453.571712</v>
+        <v>26634639.81808354</v>
       </c>
       <c r="E392" t="n">
-        <v>26161416.90913857</v>
+        <v>30671388.76403836</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>109570861.7395953</v>
+        <v>116292696.8111309</v>
       </c>
       <c r="C393" t="n">
-        <v>32330295.04848197</v>
+        <v>32751574.01485738</v>
       </c>
       <c r="D393" t="n">
-        <v>24286208.26758204</v>
+        <v>26634370.79621388</v>
       </c>
       <c r="E393" t="n">
-        <v>26161384.51638069</v>
+        <v>30671350.78708652</v>
       </c>
       <c r="F393" t="n">
-        <v>2705525.777223451</v>
+        <v>2466909.888318075</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>109018512.9051123</v>
+        <v>115706463.075969</v>
       </c>
       <c r="C394" t="n">
-        <v>32327252.10833535</v>
+        <v>32748491.42376796</v>
       </c>
       <c r="D394" t="n">
-        <v>24285920.69681018</v>
+        <v>26634055.42106419</v>
       </c>
       <c r="E394" t="n">
-        <v>26161345.28496413</v>
+        <v>30671304.79255827</v>
       </c>
       <c r="F394" t="n">
-        <v>5425735.799460933</v>
+        <v>4947208.933572873</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>108458088.0727109</v>
+        <v>115111657.9052771</v>
       </c>
       <c r="C395" t="n">
-        <v>32323826.7857193</v>
+        <v>32745021.4675855</v>
       </c>
       <c r="D395" t="n">
-        <v>24285584.14429709</v>
+        <v>26633686.32827179</v>
       </c>
       <c r="E395" t="n">
-        <v>26161297.8613795</v>
+        <v>30671249.19361246</v>
       </c>
       <c r="F395" t="n">
-        <v>8160229.447907005</v>
+        <v>7440531.849837014</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>107889410.8452918</v>
+        <v>114508094.0805366</v>
       </c>
       <c r="C396" t="n">
-        <v>32319976.15582346</v>
+        <v>32741120.66216913</v>
       </c>
       <c r="D396" t="n">
-        <v>24285190.93060549</v>
+        <v>26633255.09589707</v>
       </c>
       <c r="E396" t="n">
-        <v>26161240.64390298</v>
+        <v>30671182.11240382</v>
       </c>
       <c r="F396" t="n">
-        <v>10908605.73941721</v>
+        <v>9946513.018977262</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>107312302.4076179</v>
+        <v>113895581.8167466</v>
       </c>
       <c r="C397" t="n">
-        <v>32315653.17410451</v>
+        <v>32736741.34996303</v>
       </c>
       <c r="D397" t="n">
-        <v>24284732.29094514</v>
+        <v>26632752.11170781</v>
       </c>
       <c r="E397" t="n">
-        <v>26161171.74115225</v>
+        <v>30671101.33149421</v>
       </c>
       <c r="F397" t="n">
-        <v>13670464.27391675</v>
+        <v>12464787.35450574</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>106726581.737683</v>
+        <v>113273928.9867575</v>
       </c>
       <c r="C398" t="n">
-        <v>32310806.37036591</v>
+        <v>32731831.39008971</v>
       </c>
       <c r="D398" t="n">
-        <v>24284198.24177481</v>
+        <v>26632166.42688335</v>
       </c>
       <c r="E398" t="n">
-        <v>26161088.92452149</v>
+        <v>30671004.23808803</v>
       </c>
       <c r="F398" t="n">
-        <v>16445406.19662751</v>
+        <v>14994991.17894271</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>106132065.8448832</v>
+        <v>112642941.3740555</v>
       </c>
       <c r="C399" t="n">
-        <v>32305379.53102535</v>
+        <v>32726333.83647746</v>
       </c>
       <c r="D399" t="n">
-        <v>24283577.43418125</v>
+        <v>26631485.59521719</v>
       </c>
       <c r="E399" t="n">
-        <v>26160989.57373985</v>
+        <v>30670887.76020541</v>
       </c>
       <c r="F399" t="n">
-        <v>19233035.1725077</v>
+        <v>17536763.11231462</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>105528570.0364189</v>
+        <v>112002422.9555062</v>
       </c>
       <c r="C400" t="n">
-        <v>32299311.37048636</v>
+        <v>32720186.60494961</v>
       </c>
       <c r="D400" t="n">
-        <v>24282856.99320254</v>
+        <v>26630695.49690491</v>
       </c>
       <c r="E400" t="n">
-        <v>26160870.61473014</v>
+        <v>30670748.2938284</v>
       </c>
       <c r="F400" t="n">
-        <v>22032958.37016273</v>
+        <v>20089744.9692884</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>104915908.2133082</v>
+        <v>111352176.2155282</v>
       </c>
       <c r="C401" t="n">
-        <v>32292535.19274501</v>
+        <v>32713322.1304219</v>
       </c>
       <c r="D401" t="n">
-        <v>24282022.34228325</v>
+        <v>26629780.14602654</v>
       </c>
       <c r="E401" t="n">
-        <v>26160728.44887613</v>
+        <v>30670581.6199746</v>
       </c>
       <c r="F401" t="n">
-        <v>24844787.4523613</v>
+        <v>22653582.66232809</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>104293893.1973514</v>
+        <v>110692002.4931151</v>
       </c>
       <c r="C402" t="n">
-        <v>32284978.54459383</v>
+        <v>32705667.01558746</v>
       </c>
       <c r="D402" t="n">
-        <v>24281057.01208296</v>
+        <v>26628721.48086926</v>
       </c>
       <c r="E402" t="n">
-        <v>26160558.87273736</v>
+        <v>30670382.81057159</v>
       </c>
       <c r="F402" t="n">
-        <v>27668139.57014628</v>
+        <v>25227927.10812944</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>103662337.0903076</v>
+        <v>110021702.3630474</v>
       </c>
       <c r="C403" t="n">
-        <v>32276562.86202973</v>
+        <v>32697141.67271724</v>
       </c>
       <c r="D403" t="n">
-        <v>24279942.43290937</v>
+        <v>26627499.13629147</v>
       </c>
       <c r="E403" t="n">
-        <v>26160356.98718183</v>
+        <v>30670146.12192506</v>
       </c>
       <c r="F403" t="n">
-        <v>27668115.27004215</v>
+        <v>25227904.95119135</v>
       </c>
       <c r="G403" t="n">
-        <v>2834523.087354518</v>
+        <v>1827951.922506216</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>103021051.6664712</v>
+        <v>109341076.0525523</v>
       </c>
       <c r="C404" t="n">
-        <v>32267203.11173056</v>
+        <v>32687659.96046487</v>
       </c>
       <c r="D404" t="n">
-        <v>24278657.71011477</v>
+        <v>26626090.197403</v>
       </c>
       <c r="E404" t="n">
-        <v>26160117.09484012</v>
+        <v>30669864.87449495</v>
       </c>
       <c r="F404" t="n">
-        <v>27668085.44005911</v>
+        <v>25227877.75208618</v>
       </c>
       <c r="G404" t="n">
-        <v>5679829.482490053</v>
+        <v>3662857.878400703</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>102369848.7997285</v>
+        <v>108649923.8945577</v>
       </c>
       <c r="C405" t="n">
-        <v>32256807.42973537</v>
+        <v>32677128.81783874</v>
       </c>
       <c r="D405" t="n">
-        <v>24277179.38188178</v>
+        <v>26624468.93393189</v>
       </c>
       <c r="E405" t="n">
-        <v>26159832.5847205</v>
+        <v>30669531.31761931</v>
       </c>
       <c r="F405" t="n">
-        <v>27668048.89880563</v>
+        <v>25227844.43361614</v>
       </c>
       <c r="G405" t="n">
-        <v>8535559.93522707</v>
+        <v>5504486.191300484</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>101708540.9260579</v>
+        <v>107948046.8185668</v>
       </c>
       <c r="C406" t="n">
-        <v>32245276.75974209</v>
+        <v>32665447.89778652</v>
       </c>
       <c r="D406" t="n">
-        <v>24275481.15893264</v>
+        <v>26622606.51476691</v>
       </c>
       <c r="E406" t="n">
-        <v>26159495.80276643</v>
+        <v>30669136.47775732</v>
       </c>
       <c r="F406" t="n">
-        <v>27668004.23053389</v>
+        <v>25227803.70489636</v>
       </c>
       <c r="G406" t="n">
-        <v>11401364.86528027</v>
+        <v>7352611.420828149</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>101036941.5423002</v>
+        <v>107235246.8800258</v>
       </c>
       <c r="C407" t="n">
-        <v>32232504.49372428</v>
+        <v>32652509.203129</v>
       </c>
       <c r="D407" t="n">
-        <v>24273533.6458276</v>
+        <v>26620470.70230913</v>
       </c>
       <c r="E407" t="n">
-        <v>26159097.90708611</v>
+        <v>30668669.98876167</v>
       </c>
       <c r="F407" t="n">
-        <v>27667949.74266294</v>
+        <v>25227754.02262433</v>
       </c>
       <c r="G407" t="n">
-        <v>14276905.36661955</v>
+        <v>9207015.010312904</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>100354865.7418695</v>
+        <v>106511327.8288988</v>
       </c>
       <c r="C408" t="n">
-        <v>32218376.11785987</v>
+        <v>32638196.72787509</v>
       </c>
       <c r="D408" t="n">
-        <v>24271304.04367444</v>
+        <v>26618025.52643726</v>
       </c>
       <c r="E408" t="n">
-        <v>26158628.70654124</v>
+        <v>30668119.90264172</v>
       </c>
       <c r="F408" t="n">
-        <v>27667883.41644848</v>
+        <v>25227693.54610044</v>
       </c>
       <c r="G408" t="n">
-        <v>17161854.20106863</v>
+        <v>11067485.92755109</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>99662130.78789853</v>
+        <v>105776095.7179743</v>
       </c>
       <c r="C409" t="n">
-        <v>32202768.86705932</v>
+        <v>32622386.10724835</v>
       </c>
       <c r="D409" t="n">
-        <v>24268755.8342531</v>
+        <v>26615230.93809121</v>
       </c>
       <c r="E409" t="n">
-        <v>26158076.4813518</v>
+        <v>30667472.47924223</v>
       </c>
       <c r="F409" t="n">
-        <v>27667802.84986198</v>
+        <v>25227620.08514487</v>
       </c>
       <c r="G409" t="n">
-        <v>20055896.7779431</v>
+        <v>12933821.29656369</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>98958556.72411716</v>
+        <v>105029359.5512189</v>
       </c>
       <c r="C410" t="n">
-        <v>32185551.39167292</v>
+        <v>32604944.28005125</v>
       </c>
       <c r="D410" t="n">
-        <v>24265848.44576921</v>
+        <v>26612042.44270834</v>
       </c>
       <c r="E410" t="n">
-        <v>26157427.784357</v>
+        <v>30666711.95324371</v>
       </c>
       <c r="F410" t="n">
-        <v>27667705.19164519</v>
+        <v>25227531.03996825</v>
       </c>
       <c r="G410" t="n">
-        <v>22958732.11641376</v>
+        <v>14805827.0182136</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>98243967.0235486</v>
+        <v>104270931.9722694</v>
       </c>
       <c r="C411" t="n">
-        <v>32166583.44024415</v>
+        <v>32585729.16728479</v>
       </c>
       <c r="D411" t="n">
-        <v>24262536.90068834</v>
+        <v>26608410.71400782</v>
       </c>
       <c r="E411" t="n">
-        <v>26156667.22157397</v>
+        <v>30665820.27689153</v>
       </c>
       <c r="F411" t="n">
-        <v>27667587.06540571</v>
+        <v>25227423.33196167</v>
       </c>
       <c r="G411" t="n">
-        <v>25870073.78718161</v>
+        <v>16683318.37748117</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>97518189.27487291</v>
+        <v>103500629.9929019</v>
       </c>
       <c r="C412" t="n">
-        <v>32145715.56245447</v>
+        <v>32564589.37122241</v>
       </c>
       <c r="D412" t="n">
-        <v>24258771.44636963</v>
+        <v>26604281.18891128</v>
       </c>
       <c r="E412" t="n">
-        <v>26155777.21071692</v>
+        <v>30664776.83688613</v>
       </c>
       <c r="F412" t="n">
-        <v>27667444.48251553</v>
+        <v>25227293.32427714</v>
       </c>
       <c r="G412" t="n">
-        <v>28789650.82991639</v>
+        <v>18566120.63510998</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>96781055.90605345</v>
+        <v>102718275.7610513</v>
       </c>
       <c r="C413" t="n">
-        <v>32122788.83666894</v>
+        <v>32541363.89940543</v>
       </c>
       <c r="D413" t="n">
-        <v>24254497.16951346</v>
+        <v>26599593.64471259</v>
       </c>
       <c r="E413" t="n">
-        <v>26154737.71638471</v>
+        <v>30663558.14391961</v>
       </c>
       <c r="F413" t="n">
-        <v>27667272.74246929</v>
+        <v>25227136.73097397</v>
       </c>
       <c r="G413" t="n">
-        <v>28789631.47800729</v>
+        <v>18566108.15528238</v>
       </c>
       <c r="H413" t="n">
-        <v>2927577.164780885</v>
+        <v>1907437.904704372</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>96032404.94455238</v>
+        <v>101923697.3676631</v>
       </c>
       <c r="C414" t="n">
-        <v>32097634.62673798</v>
+        <v>32515881.91827585</v>
       </c>
       <c r="D414" t="n">
-        <v>24249653.5957631</v>
+        <v>26594281.75996614</v>
       </c>
       <c r="E414" t="n">
-        <v>26153525.9606975</v>
+        <v>30662137.4934289</v>
       </c>
       <c r="F414" t="n">
-        <v>27667066.31925341</v>
+        <v>25226948.5134095</v>
       </c>
       <c r="G414" t="n">
-        <v>28789607.46382051</v>
+        <v>18566092.66880457</v>
       </c>
       <c r="H414" t="n">
-        <v>5862902.376447791</v>
+        <v>3819923.983200921</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>95272080.8131696</v>
+        <v>101116729.691355</v>
       </c>
       <c r="C415" t="n">
-        <v>32070074.37293308</v>
+        <v>32487962.54138783</v>
       </c>
       <c r="D415" t="n">
-        <v>24244174.27615323</v>
+        <v>26588272.66095025</v>
       </c>
       <c r="E415" t="n">
-        <v>26152116.10826563</v>
+        <v>30660484.59625641</v>
       </c>
       <c r="F415" t="n">
-        <v>27666818.73217336</v>
+        <v>25226722.76245892</v>
       </c>
       <c r="G415" t="n">
-        <v>28789577.73185729</v>
+        <v>18566073.49499733</v>
       </c>
       <c r="H415" t="n">
-        <v>8805757.343365192</v>
+        <v>5737316.009438396</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>94499935.16023627</v>
+        <v>100297215.2795398</v>
       </c>
       <c r="C416" t="n">
-        <v>32039919.4220878</v>
+        <v>32457414.65733534</v>
       </c>
       <c r="D416" t="n">
-        <v>24237986.36247829</v>
+        <v>26581486.45597919</v>
       </c>
       <c r="E416" t="n">
-        <v>26150478.92451186</v>
+        <v>30658565.17807029</v>
       </c>
       <c r="F416" t="n">
-        <v>27666522.39948701</v>
+        <v>25226452.56505761</v>
       </c>
       <c r="G416" t="n">
-        <v>28789541.00441065</v>
+        <v>18566049.80988183</v>
       </c>
       <c r="H416" t="n">
-        <v>11755942.81673338</v>
+        <v>7659484.164562624</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>93715827.72257252</v>
+        <v>99465005.26432343</v>
       </c>
       <c r="C417" t="n">
-        <v>32006970.90217485</v>
+        <v>32424036.80269495</v>
       </c>
       <c r="D417" t="n">
-        <v>24231010.17405854</v>
+        <v>26573835.76028111</v>
       </c>
       <c r="E417" t="n">
-        <v>26148581.40654264</v>
+        <v>30656340.54660162</v>
       </c>
       <c r="F417" t="n">
-        <v>27666168.47309919</v>
+        <v>25226129.85347483</v>
       </c>
       <c r="G417" t="n">
-        <v>28789495.73872096</v>
+        <v>18566020.61854983</v>
       </c>
       <c r="H417" t="n">
-        <v>14713279.37146684</v>
+        <v>9586311.545691153</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>92919627.2192865</v>
+        <v>98619960.31113534</v>
       </c>
       <c r="C418" t="n">
-        <v>31971019.64667001</v>
+        <v>32387617.08540417</v>
       </c>
       <c r="D418" t="n">
-        <v>24223158.75880874</v>
+        <v>26565225.2146276</v>
       </c>
       <c r="E418" t="n">
-        <v>26146386.38598058</v>
+        <v>30653767.1260091</v>
       </c>
       <c r="F418" t="n">
-        <v>27665746.65248981</v>
+        <v>25225745.23565261</v>
       </c>
       <c r="G418" t="n">
-        <v>28789440.07674643</v>
+        <v>18565984.72277118</v>
       </c>
       <c r="H418" t="n">
-        <v>17677608.14571199</v>
+        <v>11517694.64773972</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>92111212.27414626</v>
+        <v>97761951.59768552</v>
       </c>
       <c r="C419" t="n">
-        <v>31931846.17412832</v>
+        <v>32347933.16407143</v>
       </c>
       <c r="D419" t="n">
-        <v>24214337.45195983</v>
+        <v>26555551.0013897</v>
       </c>
       <c r="E419" t="n">
-        <v>26143852.10343093</v>
+        <v>30650795.95798757</v>
       </c>
       <c r="F419" t="n">
-        <v>27665244.97597886</v>
+        <v>25225287.80488036</v>
       </c>
       <c r="G419" t="n">
-        <v>28789371.78645962</v>
+        <v>18565940.68313656</v>
       </c>
       <c r="H419" t="n">
-        <v>20648791.53532786</v>
+        <v>13453543.8159052</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>91290472.36390397</v>
+        <v>96890861.82046503</v>
       </c>
       <c r="C420" t="n">
-        <v>31889220.72842165</v>
+        <v>32304752.28873809</v>
       </c>
       <c r="D420" t="n">
-        <v>24204443.43624501</v>
+        <v>26544700.36219939</v>
       </c>
       <c r="E420" t="n">
-        <v>26140931.7545621</v>
+        <v>30647372.16959744</v>
       </c>
       <c r="F420" t="n">
-        <v>27664649.58738012</v>
+        <v>25224744.92702867</v>
       </c>
       <c r="G420" t="n">
-        <v>28789288.193457</v>
+        <v>18565886.77495337</v>
       </c>
       <c r="H420" t="n">
-        <v>23626713.8395372</v>
+        <v>15393783.66633408</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>90457308.78958955</v>
+        <v>96006586.22562581</v>
       </c>
       <c r="C421" t="n">
-        <v>31842903.38505539</v>
+        <v>32257831.40858043</v>
       </c>
       <c r="D421" t="n">
-        <v>24193365.30783068</v>
+        <v>26532551.12191189</v>
       </c>
       <c r="E421" t="n">
-        <v>26137573.00813789</v>
+        <v>30643434.40821034</v>
       </c>
       <c r="F421" t="n">
-        <v>27663944.47606586</v>
+        <v>25224102.00353922</v>
       </c>
       <c r="G421" t="n">
-        <v>28789186.10153801</v>
+        <v>18565820.93702796</v>
       </c>
       <c r="H421" t="n">
-        <v>26611281.85383312</v>
+        <v>17338353.47242573</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>89611635.66743007</v>
+        <v>95109033.66068982</v>
       </c>
       <c r="C422" t="n">
-        <v>31792644.22888856</v>
+        <v>32206917.35194552</v>
       </c>
       <c r="D422" t="n">
-        <v>24180982.65274742</v>
+        <v>26518971.22408282</v>
       </c>
       <c r="E422" t="n">
-        <v>26133717.49674756</v>
+        <v>30638914.24444599</v>
       </c>
       <c r="F422" t="n">
-        <v>27663111.18846201</v>
+        <v>25223342.20836481</v>
       </c>
       <c r="G422" t="n">
-        <v>28789061.70077237</v>
+        <v>18565740.71237934</v>
       </c>
       <c r="H422" t="n">
-        <v>29602425.4060883</v>
+        <v>19287207.51412975</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>88753380.93568368</v>
+        <v>94198127.64314932</v>
       </c>
       <c r="C423" t="n">
-        <v>31738183.60842303</v>
+        <v>32151747.08395393</v>
       </c>
       <c r="D423" t="n">
-        <v>24167165.63904629</v>
+        <v>26503818.28369139</v>
       </c>
       <c r="E423" t="n">
-        <v>26129300.28144068</v>
+        <v>30633735.54451538</v>
       </c>
       <c r="F423" t="n">
-        <v>27662128.50902283</v>
+        <v>25222446.19708081</v>
       </c>
       <c r="G423" t="n">
-        <v>28788910.46143363</v>
+        <v>18565643.17983807</v>
       </c>
       <c r="H423" t="n">
-        <v>32600097.83167572</v>
+        <v>21240315.38750684</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>87882487.37331764</v>
+        <v>93273807.44163719</v>
       </c>
       <c r="C424" t="n">
-        <v>31679252.47159862</v>
+        <v>32092048.04667047</v>
       </c>
       <c r="D424" t="n">
-        <v>24151774.63036737</v>
+        <v>26486939.16334599</v>
       </c>
       <c r="E424" t="n">
-        <v>26124249.29198815</v>
+        <v>30627813.81398834</v>
       </c>
       <c r="F424" t="n">
-        <v>27660972.10880062</v>
+        <v>25221391.78644942</v>
       </c>
       <c r="G424" t="n">
-        <v>28788727.01203184</v>
+        <v>18565524.87539094</v>
       </c>
       <c r="H424" t="n">
-        <v>35604276.38324643</v>
+        <v>23197662.27171603</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>86998913.62610164</v>
+        <v>92336029.16496845</v>
       </c>
       <c r="C425" t="n">
-        <v>31615572.78772865</v>
+        <v>32027538.58653772</v>
       </c>
       <c r="D425" t="n">
-        <v>24134659.82704956</v>
+        <v>26468169.57969389</v>
       </c>
       <c r="E425" t="n">
-        <v>26118484.74505673</v>
+        <v>30621055.51566696</v>
       </c>
       <c r="F425" t="n">
-        <v>27659614.15983624</v>
+        <v>25220153.60281935</v>
       </c>
       <c r="G425" t="n">
-        <v>28788504.99953404</v>
+        <v>18565381.70203879</v>
       </c>
       <c r="H425" t="n">
-        <v>38614962.5706545</v>
+        <v>25159249.15048985</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>86102635.23534383</v>
+        <v>91384766.8539858</v>
       </c>
       <c r="C426" t="n">
-        <v>31546858.05983063</v>
+        <v>31957928.47338261</v>
       </c>
       <c r="D426" t="n">
-        <v>24115660.94132638</v>
+        <v>26447333.74721272</v>
       </c>
       <c r="E426" t="n">
-        <v>26111918.5432012</v>
+        <v>30613357.36496993</v>
       </c>
       <c r="F426" t="n">
-        <v>27658022.91375505</v>
+        <v>25218702.69788787</v>
       </c>
       <c r="G426" t="n">
-        <v>28788236.92971891</v>
+        <v>18565208.82684292</v>
       </c>
       <c r="H426" t="n">
-        <v>41632182.42633339</v>
+        <v>27125092.98503804</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>85193645.66416147</v>
+        <v>90420013.57078892</v>
       </c>
       <c r="C427" t="n">
-        <v>31472813.93114875</v>
+        <v>31882919.51484222</v>
       </c>
       <c r="D427" t="n">
-        <v>24094606.9135317</v>
+        <v>26424244.06697697</v>
       </c>
       <c r="E427" t="n">
-        <v>26104453.65824282</v>
+        <v>30604605.60701155</v>
       </c>
       <c r="F427" t="n">
-        <v>27656162.24316729</v>
+        <v>25217006.13054762</v>
       </c>
       <c r="G427" t="n">
-        <v>28787913.98547511</v>
+        <v>18565000.56374782</v>
       </c>
       <c r="H427" t="n">
-        <v>44655986.69125145</v>
+        <v>29095226.83520526</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>84271957.31586444</v>
+        <v>89441782.47959246</v>
       </c>
       <c r="C428" t="n">
-        <v>31393138.88912609</v>
+        <v>31802206.26950905</v>
       </c>
       <c r="D428" t="n">
-        <v>24071315.67657203</v>
+        <v>26398700.86835776</v>
       </c>
       <c r="E428" t="n">
-        <v>26095983.50331067</v>
+        <v>30594675.28038903</v>
       </c>
       <c r="F428" t="n">
-        <v>27653991.14474634</v>
+        <v>25215026.51379133</v>
       </c>
       <c r="G428" t="n">
-        <v>28787525.82072707</v>
+        <v>18564750.2406862</v>
       </c>
       <c r="H428" t="n">
-        <v>47686450.91637798</v>
+        <v>31069699.92558052</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>83337602.53873491</v>
+        <v>88450107.91314621</v>
       </c>
       <c r="C429" t="n">
-        <v>31307525.06946468</v>
+        <v>31715476.86146838</v>
       </c>
       <c r="D429" t="n">
-        <v>24045593.97619818</v>
+        <v>26370492.21191711</v>
       </c>
       <c r="E429" t="n">
-        <v>26086391.29856759</v>
+        <v>30583429.47356591</v>
       </c>
       <c r="F429" t="n">
-        <v>27651463.20320006</v>
+        <v>25212721.52595861</v>
       </c>
       <c r="G429" t="n">
-        <v>28787060.3275594</v>
+        <v>18564450.04940022</v>
       </c>
       <c r="H429" t="n">
-        <v>50723675.4743884</v>
+        <v>33048577.6531234</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>82390634.61121716</v>
+        <v>87445046.41836296</v>
       </c>
       <c r="C430" t="n">
-        <v>31215659.16221232</v>
+        <v>31622413.89819179</v>
       </c>
       <c r="D430" t="n">
-        <v>24017237.25481821</v>
+        <v>26339393.76198711</v>
       </c>
       <c r="E430" t="n">
-        <v>26075549.43641884</v>
+        <v>30570718.58064885</v>
       </c>
       <c r="F430" t="n">
-        <v>27648526.01576297</v>
+        <v>25210043.38598545</v>
       </c>
       <c r="G430" t="n">
-        <v>28786503.37401946</v>
+        <v>18564090.87635322</v>
       </c>
       <c r="H430" t="n">
-        <v>53767785.47613429</v>
+        <v>35031941.53274104</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>81431128.70129246</v>
+        <v>86426677.77454825</v>
       </c>
       <c r="C431" t="n">
-        <v>31117223.42103713</v>
+        <v>31522695.49296313</v>
       </c>
       <c r="D431" t="n">
-        <v>23986029.60672494</v>
+        <v>26305168.73756848</v>
       </c>
       <c r="E431" t="n">
-        <v>26063318.85279901</v>
+        <v>30556379.5642906</v>
       </c>
       <c r="F431" t="n">
-        <v>27645120.57732598</v>
+        <v>25206938.2927629</v>
       </c>
       <c r="G431" t="n">
-        <v>28785838.51001112</v>
+        <v>18563662.11306402</v>
       </c>
       <c r="H431" t="n">
-        <v>56818930.58619194</v>
+        <v>37019889.07711019</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>80459182.79360825</v>
+        <v>85395105.97740597</v>
       </c>
       <c r="C432" t="n">
-        <v>31011896.77599851</v>
+        <v>31415996.39214931</v>
       </c>
       <c r="D432" t="n">
-        <v>23951743.81265471</v>
+        <v>26267567.95023075</v>
       </c>
       <c r="E432" t="n">
-        <v>26049548.41194163</v>
+        <v>30540235.23439993</v>
       </c>
       <c r="F432" t="n">
-        <v>27641180.62688934</v>
+        <v>25203345.82923014</v>
       </c>
       <c r="G432" t="n">
-        <v>28785046.63865909</v>
+        <v>18563151.44417345</v>
       </c>
       <c r="H432" t="n">
-        <v>59877284.73158972</v>
+        <v>39012533.60690111</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>79474918.57776041</v>
+        <v>84350460.18181424</v>
       </c>
       <c r="C433" t="n">
-        <v>30899356.04919947</v>
+        <v>31301989.20669315</v>
       </c>
       <c r="D433" t="n">
-        <v>23914141.46153926</v>
+        <v>26226329.93763596</v>
       </c>
       <c r="E433" t="n">
-        <v>26034074.31284396</v>
+        <v>30522093.55228667</v>
       </c>
       <c r="F433" t="n">
-        <v>27636631.9566757</v>
+        <v>25199198.33242077</v>
       </c>
       <c r="G433" t="n">
-        <v>28784105.65052891</v>
+        <v>18562544.61155694</v>
       </c>
       <c r="H433" t="n">
-        <v>62943045.69760898</v>
+        <v>41010003.98742511</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>78478482.29100159</v>
+        <v>83292895.59623079</v>
       </c>
       <c r="C434" t="n">
-        <v>30779277.27171781</v>
+        <v>31180345.74620487</v>
       </c>
       <c r="D434" t="n">
-        <v>23872973.1671502</v>
+        <v>26181181.20112983</v>
       </c>
       <c r="E434" t="n">
-        <v>26016719.52643279</v>
+        <v>30501746.97080056</v>
       </c>
       <c r="F434" t="n">
-        <v>27631391.68597533</v>
+        <v>25194420.23135183</v>
       </c>
       <c r="G434" t="n">
-        <v>28782990.01814044</v>
+        <v>18561825.15283092</v>
       </c>
       <c r="H434" t="n">
-        <v>66016434.60434344</v>
+        <v>43012444.28759121</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>77470045.50856374</v>
+        <v>82222594.32150002</v>
       </c>
       <c r="C435" t="n">
-        <v>30651337.09916749</v>
+        <v>31050738.45296886</v>
       </c>
       <c r="D435" t="n">
-        <v>23827978.88705665</v>
+        <v>26131836.55553854</v>
       </c>
       <c r="E435" t="n">
-        <v>25997293.27320099</v>
+        <v>30478971.82191736</v>
       </c>
       <c r="F435" t="n">
-        <v>27625367.50261476</v>
+        <v>25188927.3553917</v>
       </c>
       <c r="G435" t="n">
-        <v>28781670.34832157</v>
+        <v>18560974.11267068</v>
       </c>
       <c r="H435" t="n">
-        <v>69097695.25751325</v>
+        <v>45020013.35693464</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>76449805.8747486</v>
+        <v>81139766.12679313</v>
       </c>
       <c r="C436" t="n">
-        <v>30515214.32214704</v>
+        <v>30912841.93207391</v>
       </c>
       <c r="D436" t="n">
-        <v>23778888.3509142</v>
+        <v>26077999.5988676</v>
       </c>
       <c r="E436" t="n">
-        <v>25975590.55180158</v>
+        <v>30453527.76406717</v>
       </c>
       <c r="F436" t="n">
-        <v>27618456.87584102</v>
+        <v>25182626.21656457</v>
       </c>
       <c r="G436" t="n">
-        <v>28780112.8901209</v>
+        <v>18559969.72546888</v>
       </c>
       <c r="H436" t="n">
-        <v>72187093.36684161</v>
+        <v>47032884.31635681</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>75417987.76795492</v>
+        <v>80044649.15543292</v>
       </c>
       <c r="C437" t="n">
-        <v>30370591.46669694</v>
+        <v>30766334.57272531</v>
       </c>
       <c r="D437" t="n">
-        <v>23725421.60456966</v>
+        <v>26019363.30901464</v>
       </c>
       <c r="E437" t="n">
-        <v>25951391.72973946</v>
+        <v>30425157.30226548</v>
       </c>
       <c r="F437" t="n">
-        <v>27610546.24539244</v>
+        <v>25175413.27014184</v>
       </c>
       <c r="G437" t="n">
-        <v>28778278.99624287</v>
+        <v>18558787.06802115</v>
       </c>
       <c r="H437" t="n">
-        <v>75284915.62515146</v>
+        <v>49051243.9581186</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>74374842.8928802</v>
+        <v>78937510.55342531</v>
       </c>
       <c r="C438" t="n">
-        <v>30217156.47872574</v>
+        <v>30610900.2546199</v>
       </c>
       <c r="D438" t="n">
-        <v>23667289.67579858</v>
+        <v>25955610.77387497</v>
       </c>
       <c r="E438" t="n">
-        <v>25924462.20787063</v>
+        <v>30393585.39477525</v>
       </c>
       <c r="F438" t="n">
-        <v>27601510.19257823</v>
+        <v>25167174.15882884</v>
       </c>
       <c r="G438" t="n">
-        <v>28776124.53629544</v>
+        <v>18557397.68113614</v>
       </c>
       <c r="H438" t="n">
-        <v>78391468.64119668</v>
+        <v>51075292.05053561</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>73320650.7932604</v>
+        <v>77818647.01365381</v>
       </c>
       <c r="C439" t="n">
-        <v>30054604.48518538</v>
+        <v>30446230.13207027</v>
       </c>
       <c r="D439" t="n">
-        <v>23604195.36668515</v>
+        <v>25886416.06033457</v>
       </c>
       <c r="E439" t="n">
-        <v>25894552.1708859</v>
+        <v>30358519.16057656</v>
       </c>
       <c r="F439" t="n">
-        <v>27591210.60030261</v>
+        <v>25157782.94687134</v>
       </c>
       <c r="G439" t="n">
-        <v>28773599.26055527</v>
+        <v>18555769.15933481</v>
       </c>
       <c r="H439" t="n">
-        <v>81507077.71915385</v>
+        <v>53105240.5427665</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>72255719.27869146</v>
+        <v>76688385.22888561</v>
       </c>
       <c r="C440" t="n">
-        <v>29882639.62359466</v>
+        <v>30272024.48736774</v>
       </c>
       <c r="D440" t="n">
-        <v>23535834.17670946</v>
+        <v>25811445.22660778</v>
       </c>
       <c r="E440" t="n">
-        <v>25861396.43630046</v>
+        <v>30319647.70232339</v>
       </c>
       <c r="F440" t="n">
-        <v>27579495.81013614</v>
+        <v>25147101.35146962</v>
       </c>
       <c r="G440" t="n">
-        <v>28770646.11346888</v>
+        <v>18553864.70813521</v>
       </c>
       <c r="H440" t="n">
-        <v>84632085.47763401</v>
+        <v>55141312.66504187</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>71180384.75931951</v>
+        <v>75547082.24699374</v>
       </c>
       <c r="C441" t="n">
-        <v>29700976.9303394</v>
+        <v>30087994.64368813</v>
       </c>
       <c r="D441" t="n">
-        <v>23461895.35952247</v>
+        <v>25730357.4811889</v>
       </c>
       <c r="E441" t="n">
-        <v>25824714.41467162</v>
+        <v>30276642.05970332</v>
       </c>
       <c r="F441" t="n">
-        <v>27566199.78574088</v>
+        <v>25134977.97998593</v>
       </c>
       <c r="G441" t="n">
-        <v>28767200.49672582</v>
+        <v>18551642.66881657</v>
       </c>
       <c r="H441" t="n">
-        <v>87766850.30107984</v>
+        <v>57183741.91968524</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>70095012.48248628</v>
+        <v>74395125.72211991</v>
       </c>
       <c r="C442" t="n">
-        <v>29509344.27703464</v>
+        <v>29893864.92668547</v>
       </c>
       <c r="D442" t="n">
-        <v>23382063.11517198</v>
+        <v>25642806.49035089</v>
       </c>
       <c r="E442" t="n">
-        <v>25784210.19380536</v>
+        <v>30229155.30816045</v>
       </c>
       <c r="F442" t="n">
-        <v>27551141.29318221</v>
+        <v>25121247.58254936</v>
       </c>
       <c r="G442" t="n">
-        <v>28763189.48246807</v>
+        <v>18549056.01102699</v>
       </c>
       <c r="H442" t="n">
-        <v>90911744.61646549</v>
+        <v>59232770.95831177</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>68999996.66577549</v>
+        <v>73232934.05588312</v>
       </c>
       <c r="C443" t="n">
-        <v>29307484.34313241</v>
+        <v>29689374.66280389</v>
       </c>
       <c r="D443" t="n">
-        <v>23296017.91819592</v>
+        <v>25548441.83464823</v>
       </c>
       <c r="E443" t="n">
-        <v>25739572.75956861</v>
+        <v>30176822.81777358</v>
       </c>
       <c r="F443" t="n">
-        <v>27534123.10988798</v>
+        <v>25105730.33078146</v>
       </c>
       <c r="G443" t="n">
-        <v>28758530.97804347</v>
+        <v>18546051.79414234</v>
       </c>
       <c r="H443" t="n">
-        <v>94067152.98834893</v>
+        <v>61288650.34067553</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>67895760.52132769</v>
+        <v>72060956.42318594</v>
       </c>
       <c r="C444" t="n">
-        <v>29095156.61191629</v>
+        <v>29474280.20128094</v>
       </c>
       <c r="D444" t="n">
-        <v>23203437.98053443</v>
+        <v>25446910.61327359</v>
       </c>
       <c r="E444" t="n">
-        <v>25690476.36558086</v>
+        <v>30119262.68667899</v>
       </c>
       <c r="F444" t="n">
-        <v>27514931.27522285</v>
+        <v>25088231.13446667</v>
       </c>
       <c r="G444" t="n">
-        <v>28753132.84467277</v>
+        <v>18542570.59890462</v>
       </c>
       <c r="H444" t="n">
-        <v>97233470.02554569</v>
+        <v>63351637.17078093</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>66782756.16676554</v>
+        <v>70879672.67767543</v>
       </c>
       <c r="C445" t="n">
-        <v>28872139.37605606</v>
+        <v>29248356.94583548</v>
       </c>
       <c r="D445" t="n">
-        <v>23104000.84663827</v>
+        <v>25337859.19339269</v>
       </c>
       <c r="E445" t="n">
-        <v>25636581.06349935</v>
+        <v>30056076.36277159</v>
       </c>
       <c r="F445" t="n">
-        <v>27493334.39680771</v>
+        <v>25068539.00905147</v>
       </c>
       <c r="G445" t="n">
-        <v>28746891.97348006</v>
+        <v>18538545.93156437</v>
       </c>
       <c r="H445" t="n">
-        <v>100411098.0930063</v>
+        <v>65421993.60607594</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>65661464.41860827</v>
+        <v>69689593.13248414</v>
       </c>
       <c r="C446" t="n">
-        <v>28638231.73801868</v>
+        <v>29011401.38114505</v>
       </c>
       <c r="D446" t="n">
-        <v>22997385.11648481</v>
+        <v>25220935.09975363</v>
       </c>
       <c r="E446" t="n">
-        <v>25577533.40482385</v>
+        <v>29986849.46649404</v>
       </c>
       <c r="F446" t="n">
-        <v>27469083.0278028</v>
+        <v>25046426.50784853</v>
       </c>
       <c r="G446" t="n">
-        <v>28739693.32353358</v>
+        <v>18533903.60352414</v>
       </c>
       <c r="H446" t="n">
-        <v>103600444.8229062</v>
+        <v>67499985.23582396</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>64532394.46463951</v>
+        <v>68491258.21249874</v>
       </c>
       <c r="C447" t="n">
-        <v>28393255.58986343</v>
+        <v>28763233.07843856</v>
       </c>
       <c r="D447" t="n">
-        <v>22883272.29046932</v>
+        <v>25095789.03795537</v>
       </c>
       <c r="E447" t="n">
-        <v>25512967.32411852</v>
+        <v>29911152.82631734</v>
       </c>
       <c r="F447" t="n">
-        <v>27441909.13135948</v>
+        <v>25021649.23372144</v>
       </c>
       <c r="G447" t="n">
-        <v>28731408.92785331</v>
+        <v>18528561.09032392</v>
       </c>
       <c r="H447" t="n">
-        <v>106801920.4195098</v>
+        <v>69585879.32511085</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>63396083.41233329</v>
+        <v>67285237.97508346</v>
       </c>
       <c r="C448" t="n">
-        <v>28137057.55630133</v>
+        <v>28503696.66387485</v>
       </c>
       <c r="D448" t="n">
-        <v>22761348.72833965</v>
+        <v>24962077.04278601</v>
       </c>
       <c r="E448" t="n">
-        <v>25442505.21227196</v>
+        <v>29828543.73702043</v>
       </c>
       <c r="F448" t="n">
-        <v>27411525.64929745</v>
+        <v>24993945.44580289</v>
       </c>
       <c r="G448" t="n">
-        <v>28721896.87475425</v>
+        <v>18522426.87472095</v>
       </c>
       <c r="H448" t="n">
-        <v>110015934.7530612</v>
+        <v>71679942.92139453</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>62253095.71112792</v>
+        <v>66072131.49691204</v>
       </c>
       <c r="C449" t="n">
-        <v>27869510.88439127</v>
+        <v>28232663.73286228</v>
       </c>
       <c r="D449" t="n">
-        <v>22631307.71250738</v>
+        <v>24819462.74102956</v>
       </c>
       <c r="E449" t="n">
-        <v>25365759.18688967</v>
+        <v>29738567.44908578</v>
       </c>
       <c r="F449" t="n">
-        <v>27377626.19274979</v>
+        <v>24963035.77742345</v>
       </c>
       <c r="G449" t="n">
-        <v>28711000.2734</v>
+        <v>18515399.77958697</v>
       </c>
       <c r="H449" t="n">
-        <v>113242894.2388079</v>
+        <v>73782440.82105947</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>61104022.44706708</v>
+        <v>64852566.12533742</v>
       </c>
       <c r="C450" t="n">
-        <v>27590517.26288611</v>
+        <v>27950034.69311189</v>
       </c>
       <c r="D450" t="n">
-        <v>22492851.60422428</v>
+        <v>24667619.71611672</v>
       </c>
       <c r="E450" t="n">
-        <v>25282332.56513541</v>
+        <v>29640758.89544427</v>
       </c>
       <c r="F450" t="n">
-        <v>27339884.87300351</v>
+        <v>24928623.08187123</v>
       </c>
       <c r="G450" t="n">
-        <v>28698546.21402247</v>
+        <v>18507368.2973656</v>
       </c>
       <c r="H450" t="n">
-        <v>116483198.4982698</v>
+        <v>75893633.39409453</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>59949480.50909489</v>
+        <v>63627196.59354136</v>
       </c>
       <c r="C451" t="n">
-        <v>27300008.55404858</v>
+        <v>27655740.5190196</v>
       </c>
       <c r="D451" t="n">
-        <v>22345694.07928379</v>
+        <v>24506233.95998986</v>
       </c>
       <c r="E451" t="n">
-        <v>25191821.54231583</v>
+        <v>29534644.6594313</v>
       </c>
       <c r="F451" t="n">
-        <v>27297956.29101449</v>
+        <v>24890392.42283162</v>
       </c>
       <c r="G451" t="n">
-        <v>28684344.734902</v>
+        <v>18498209.92388948</v>
       </c>
       <c r="H451" t="n">
-        <v>119737236.8010752</v>
+        <v>78013774.2658025</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>58790111.6270903</v>
+        <v>62396703.99955553</v>
       </c>
       <c r="C452" t="n">
-        <v>26997948.4207354</v>
+        <v>27349744.39995205</v>
       </c>
       <c r="D452" t="n">
-        <v>22189562.42812277</v>
+        <v>24335006.39559487</v>
       </c>
       <c r="E452" t="n">
-        <v>25093817.07724651</v>
+        <v>29419745.18517146</v>
       </c>
       <c r="F452" t="n">
-        <v>27251475.70406211</v>
+        <v>24848011.2263437</v>
       </c>
       <c r="G452" t="n">
-        <v>28668187.80987329</v>
+        <v>18487790.5054343</v>
       </c>
       <c r="H452" t="n">
-        <v>123005384.2870812</v>
+        <v>80143107.8553541</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>13486665.49666095</v>
+        <v>23847147.04472806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>13502412.77472282</v>
+        <v>23874991.41112009</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>13518369.31566725</v>
+        <v>23903205.79653071</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>13534537.79226554</v>
+        <v>23931794.92695915</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>13550920.90413701</v>
+        <v>23960763.57587729</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>13567521.37751458</v>
+        <v>23990116.56381527</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>13584341.96497574</v>
+        <v>24019858.75788571</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>13601385.44513723</v>
+        <v>24049995.07124395</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>13618654.62231253</v>
+        <v>24080530.46248226</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>13636152.32613036</v>
+        <v>24111469.93495544</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>13653881.41111321</v>
+        <v>24142818.53603546</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>13671844.75621466</v>
+        <v>24174581.3562934</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>13690045.26431411</v>
+        <v>24206763.52860603</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>13708485.86166804</v>
+        <v>24239370.22718549</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>13727169.49731655</v>
+        <v>24272406.66653002</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>13746099.14244441</v>
+        <v>24305878.100294</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>13765277.78969557</v>
+        <v>24339789.82007609</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>13784708.45244052</v>
+        <v>24374147.15412356</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>13804394.16399579</v>
+        <v>24408955.46595238</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>13824337.97679508</v>
+        <v>24444220.15288147</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>13844542.96151165</v>
+        <v>24479946.64448103</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>13865012.20613178</v>
+        <v>24516140.40093416</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>13885748.81497925</v>
+        <v>24552806.91131188</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>13906755.90769086</v>
+        <v>24589951.6917619</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>13928036.6181436</v>
+        <v>24627580.28361125</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>13949594.09333358</v>
+        <v>24665698.25138437</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>13971431.49220788</v>
+        <v>24704311.18073734</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>13993551.98445001</v>
+        <v>24743424.67631048</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>14015958.74922042</v>
+        <v>24783044.35950117</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>14038654.97385337</v>
+        <v>24823175.86615981</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>14061643.85251203</v>
+        <v>24863824.84421166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>14084928.58480387</v>
+        <v>24904996.95120861</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>14108512.37435859</v>
+        <v>24946697.85181468</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>14132398.42737136</v>
+        <v>24988933.2152301</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>14156589.95111419</v>
+        <v>25031708.71255923</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>14181090.15241894</v>
+        <v>25075030.01412812</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>14205902.23613536</v>
+        <v>25118902.78675813</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>14231029.40356844</v>
+        <v>25163332.69100262</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>14256474.85089912</v>
+        <v>25208325.37835471</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>14282241.76759332</v>
+        <v>25253886.48843398</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>14308333.33480416</v>
+        <v>25300021.64616132</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>14334752.72377306</v>
+        <v>25346736.45893168</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>14361503.09423531</v>
+        <v>25394036.51379494</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>14388587.59283652</v>
+        <v>25441927.37465567</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>14416009.35156636</v>
+        <v>25490414.57950387</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>14443771.48621666</v>
+        <v>25539503.63768839</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>14471877.09487118</v>
+        <v>25589200.02724683</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>14500329.2564349</v>
+        <v>25639509.19230458</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>14529131.02921043</v>
+        <v>25690436.54055808</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>14558285.4495306</v>
+        <v>25741987.44085667</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>14587795.53045548</v>
+        <v>25794167.2208988</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>14617664.26054312</v>
+        <v>25846981.16505835</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>14647894.60270336</v>
+        <v>25900434.51235803</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>14678489.49314445</v>
+        <v>25954532.45460674</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>14709451.8404223</v>
+        <v>26009280.13471844</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>14740784.52460266</v>
+        <v>26064682.64523081</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>14772490.3965468</v>
+        <v>26120745.02704196</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>14804572.27733085</v>
+        <v>26177472.26838401</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>14837032.95781018</v>
+        <v>26234869.30405264</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>14869875.19833931</v>
+        <v>26292941.0149118</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>14903101.7286586</v>
+        <v>26351692.22769353</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>14936715.24795865</v>
+        <v>26411127.71511163</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>14970718.42513374</v>
+        <v>26471252.19630997</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>15005113.89923511</v>
+        <v>26532070.33766384</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>15039904.28013546</v>
+        <v>26593586.75395503</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>15075092.14941527</v>
+        <v>26655806.00993897</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>15110680.06148196</v>
+        <v>26718732.62232358</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>15146670.54493236</v>
+        <v>26782371.06217851</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>15183066.10416889</v>
+        <v>26846725.75779273</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>15219869.22127927</v>
+        <v>26911801.09799841</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>15257082.35818979</v>
+        <v>26977601.43597822</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>15294707.95910109</v>
+        <v>27044131.09357226</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>15332748.45321533</v>
+        <v>27111394.36610027</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>15371206.25776309</v>
+        <v>27179395.52771394</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>15410083.7813377</v>
+        <v>27248138.83729247</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>15449383.42754401</v>
+        <v>27317628.54489437</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>15489107.598968</v>
+        <v>27387868.89877667</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>15529258.70147294</v>
+        <v>27458864.15299129</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>15569839.14882691</v>
+        <v>27530618.57556751</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>15610851.3676658</v>
+        <v>27603136.4572873</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>15652297.8027946</v>
+        <v>27676422.1210595</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>15694180.92282953</v>
+        <v>27750479.93189586</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>15736503.226182</v>
+        <v>27825314.30749211</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>15779267.24738444</v>
+        <v>27900929.72941316</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>15822475.56375727</v>
+        <v>27977330.75488183</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>15866130.8024147</v>
+        <v>28054522.02916638</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>15910235.64760628</v>
+        <v>28132508.2985618</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>15954792.84838982</v>
+        <v>28211294.42395726</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>15999805.22662975</v>
+        <v>28290885.39497868</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>16045275.6853143</v>
+        <v>28371286.3446953</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>16091207.21718337</v>
+        <v>28452502.56487534</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>16137602.91365721</v>
+        <v>28534539.52177386</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>16184465.97405574</v>
+        <v>28617402.87243428</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>16231799.71509605</v>
+        <v>28701098.48148199</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>16279607.58065489</v>
+        <v>28785632.43838617</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>16327893.15178145</v>
+        <v>28871011.07516477</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>16376660.1569446</v>
+        <v>28957240.98450333</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>16425912.48249724</v>
+        <v>29044329.0382583</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>16475654.18333951</v>
+        <v>29132282.40631168</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>16525889.49376095</v>
+        <v>29221108.57574208</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>16576622.83844095</v>
+        <v>29310815.37027584</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>16627858.84358554</v>
+        <v>29401410.96997913</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>16679602.34817724</v>
+        <v>29492903.9311498</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>16731858.41531403</v>
+        <v>29585303.20636715</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>16784632.34361232</v>
+        <v>29678618.16465458</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>16837929.67864785</v>
+        <v>29772858.61170942</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>16891756.22440763</v>
+        <v>29868034.8101523</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>16946118.05472551</v>
+        <v>29964157.49974759</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>17001021.52467285</v>
+        <v>30061237.9175443</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>17056473.28187552</v>
+        <v>30159287.81788684</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>17112480.27772788</v>
+        <v>30258319.49224365</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>17169049.7784737</v>
+        <v>30358345.7888005</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>17226189.37612431</v>
+        <v>30459380.13176602</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>17283906.99918346</v>
+        <v>30561436.54033527</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>17342210.92314842</v>
+        <v>30664529.6472579</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>17401109.78075725</v>
+        <v>30768674.71695742</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>17460612.57195184</v>
+        <v>30873887.66314789</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>17520728.6735269</v>
+        <v>30980185.06589518</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>17581467.84843525</v>
+        <v>31087584.18807061</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>17642840.2547205</v>
+        <v>31196102.99114579</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>17704856.45404845</v>
+        <v>31305760.15027792</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>17767527.41980999</v>
+        <v>31416575.0686371</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>17830864.54476806</v>
+        <v>31528567.89092808</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>17894879.6482235</v>
+        <v>31641759.51606056</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>17959584.98267464</v>
+        <v>31756171.60892494</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>18024993.2399473</v>
+        <v>31871826.61123125</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>18091117.55677305</v>
+        <v>31988747.75137269</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>18157971.51979506</v>
+        <v>32106959.05327704</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>18225569.16998237</v>
+        <v>32226485.34421189</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>18293925.00643501</v>
+        <v>32347352.26151287</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>18363053.9895643</v>
+        <v>32469586.25820727</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>18432971.54363476</v>
+        <v>32593214.60750816</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>18503693.5586548</v>
+        <v>32718265.40615817</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>18575236.39160754</v>
+        <v>32844767.57660513</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>18647616.86701244</v>
+        <v>32972750.86799589</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>18720852.27681343</v>
+        <v>33102245.85597766</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>18794960.37958879</v>
+        <v>33233283.94130185</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>18869959.39908257</v>
+        <v>33365897.34722649</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>18945868.02205773</v>
+        <v>33500119.11572067</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>19022705.39547494</v>
+        <v>33635983.10247591</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>19100491.12300245</v>
+        <v>33773523.97073491</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>19179245.26086512</v>
+        <v>33912777.18395186</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>19258988.31304315</v>
+        <v>34053778.99730267</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>19339741.22583313</v>
+        <v>34196566.44806799</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>19421525.38178662</v>
+        <v>34341177.34491529</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>19504362.5930436</v>
+        <v>34487650.25611113</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>19588275.09408074</v>
+        <v>34636024.49669856</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>19673285.53389601</v>
+        <v>34786340.11467792</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>19759416.96765423</v>
+        <v>34938637.87623462</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>19846692.84781942</v>
+        <v>35092959.25005923</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>19935137.0148026</v>
+        <v>35249346.39081087</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>20024773.687155</v>
+        <v>35407842.12177686</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>20115627.45133894</v>
+        <v>35568489.91678584</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>20207723.2511107</v>
+        <v>35731333.88143389</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>20301086.37655015</v>
+        <v>35896418.73368751</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>20395742.45277544</v>
+        <v>36063789.78392825</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>20491717.42838041</v>
+        <v>36233492.914508</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>20589037.56363532</v>
+        <v>36405574.55888569</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>20687729.41849217</v>
+        <v>36580081.68041775</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>20787819.84043629</v>
+        <v>36757061.75087781</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>20889335.95222814</v>
+        <v>36936562.72878141</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>20992305.13957888</v>
+        <v>37118633.037594</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>21096755.03880464</v>
+        <v>37303321.54390127</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>21202713.52450452</v>
+        <v>37490677.53562117</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>21310208.69730788</v>
+        <v>37680750.70033896</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>21419268.87173707</v>
+        <v>37873591.10384568</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>21529922.56423077</v>
+        <v>38069249.16896141</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>21642198.48137436</v>
+        <v>38267775.65472377</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>21756125.50838248</v>
+        <v>38469221.63602312</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>21871732.69787908</v>
+        <v>38673638.4837633</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>21989049.25901974</v>
+        <v>38881077.84562747</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>22108104.54699992</v>
+        <v>39091591.62752698</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>22228928.0529929</v>
+        <v>39305231.97580935</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>22351549.39455939</v>
+        <v>39522051.26030051</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>22475998.30656996</v>
+        <v>39742102.05825403</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>22602304.63268101</v>
+        <v>39965437.13927872</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>22730498.31740252</v>
+        <v>40192109.45131287</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>22860609.39879541</v>
+        <v>40422172.10771178</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>22992668.00183455</v>
+        <v>40655678.37551197</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>23126704.33247148</v>
+        <v>40892681.66493338</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>23262748.67243027</v>
+        <v>41133235.52017681</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>23400831.37476707</v>
+        <v>41377393.61157268</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>23540982.86022263</v>
+        <v>41625209.72913142</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>23683233.61439563</v>
+        <v>41876737.77754532</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>23827614.18576173</v>
+        <v>42132031.77268612</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>23974155.18456249</v>
+        <v>42391145.83963969</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>24122887.28258509</v>
+        <v>42654134.21231746</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>24273841.21385295</v>
+        <v>42921051.23467675</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>24427047.77624453</v>
+        <v>43191951.36358361</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>24582537.83405568</v>
+        <v>43466889.17334348</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>24740342.32151923</v>
+        <v>43745919.3619244</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>24900492.24729326</v>
+        <v>44029096.75889341</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>25063018.69992733</v>
+        <v>44316476.33508156</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>25227952.85431407</v>
+        <v>44608113.21399226</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>25395325.9791322</v>
+        <v>44904062.68496133</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>25565169.44528383</v>
+        <v>45204380.21807632</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>25737514.73532855</v>
+        <v>45509121.48085767</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>25912393.45391363</v>
+        <v>45818342.35670169</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>26089837.33919938</v>
+        <v>46132098.96508235</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>26269878.27527544</v>
+        <v>46450447.68350643</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>26452548.30556372</v>
+        <v>46773445.1712122</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>26637879.64720103</v>
+        <v>47101148.39460094</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>26825904.70638825</v>
+        <v>47433614.65437743</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>27016656.09471246</v>
+        <v>47770901.61441064</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>27210166.64641614</v>
+        <v>48113067.33226924</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>27406469.43660723</v>
+        <v>48460170.29142076</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>27605597.80039686</v>
+        <v>48812269.43507066</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>27807585.35295099</v>
+        <v>49169424.20161809</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>28012466.01044178</v>
+        <v>49531694.56170175</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>28220274.01188282</v>
+        <v>49899141.05680934</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>28431043.94183278</v>
+        <v>50271824.83942167</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>28644810.75395005</v>
+        <v>50649807.71466286</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>28861609.79538215</v>
+        <v>51033152.18342477</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>29081476.83197167</v>
+        <v>51421921.48693696</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>29304448.07426126</v>
+        <v>51816179.65274837</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>29530560.20427951</v>
+        <v>52215991.54209024</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>29759850.40308951</v>
+        <v>52621422.89858755</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>29992356.37908176</v>
+        <v>53032540.39828666</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>30228116.39699314</v>
+        <v>53449411.70096651</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>30467169.30763404</v>
+        <v>53872105.50270241</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>30709554.57830479</v>
+        <v>54300691.58964821</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>30955312.32388448</v>
+        <v>54735240.89300796</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>31204483.33857372</v>
+        <v>55175825.54516312</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>31457109.12827464</v>
+        <v>55622518.93692695</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>31713231.94359002</v>
+        <v>56075395.77589414</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>31972894.81342629</v>
+        <v>56534532.1458571</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>32236141.57918277</v>
+        <v>57000005.56725975</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>32503016.92951181</v>
+        <v>57471895.05866037</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>32773566.43563398</v>
+        <v>57950281.19917607</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>33047836.58719354</v>
+        <v>58435246.19188239</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>33325874.82863858</v>
+        <v>58926873.9281408</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>33607729.59611189</v>
+        <v>59425250.05282915</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>33893450.35483845</v>
+        <v>59930462.03045028</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>34183087.63699486</v>
+        <v>60442599.21209312</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>34476693.08004825</v>
+        <v>60961752.90322308</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>34774319.46554982</v>
+        <v>61488016.43227731</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>35076020.75837056</v>
+        <v>62021485.22004124</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>35381852.14636555</v>
+        <v>62562256.84978286</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>35691870.08045303</v>
+        <v>63110431.13812105</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>36006132.31509531</v>
+        <v>63666110.20660347</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>36324697.94916698</v>
+        <v>64229398.55397034</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>36647627.46719727</v>
+        <v>64800403.12907887</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>36974982.7809708</v>
+        <v>65379233.40446191</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>37306827.27147251</v>
+        <v>65966001.45049495</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>37643225.83115986</v>
+        <v>66560822.01014215</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>37984244.90654667</v>
+        <v>67163812.57425304</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>38329952.54107973</v>
+        <v>67775093.45737693</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>38680418.4182897</v>
+        <v>68394787.8740624</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>39035713.90519584</v>
+        <v>69023022.0156059</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>39395912.09594282</v>
+        <v>69659925.12721008</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>39761087.85564586</v>
+        <v>70305629.58551115</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>40131317.86441901</v>
+        <v>70960270.97642945</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>40506680.6615589</v>
+        <v>71623988.17329562</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>40887256.68985434</v>
+        <v>72296923.41519858</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>41273128.33998943</v>
+        <v>72979222.38549936</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>41664379.99500538</v>
+        <v>73671034.29044865</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>42061098.07478322</v>
+        <v>74372511.93784094</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>42463371.08050627</v>
+        <v>75083811.81563337</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>42871289.6390586</v>
+        <v>75805094.17045115</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>43284946.5473111</v>
+        <v>76536523.08589409</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>43704436.81624407</v>
+        <v>77278266.56055468</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>44129857.71485052</v>
+        <v>78030496.58564715</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>44561308.81375983</v>
+        <v>78793389.22214416</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>44998892.02851889</v>
+        <v>79567124.67730515</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>45442711.66245937</v>
+        <v>80351887.38047567</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>45892874.44907935</v>
+        <v>81147866.05802564</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>46349489.5938587</v>
+        <v>81955253.80728799</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>46812668.81542379</v>
+        <v>82774248.1693459</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>47282526.38597178</v>
+        <v>83605051.20051104</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>47759179.17085737</v>
+        <v>84447869.54232125</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>48242746.66724065</v>
+        <v>85302914.48987767</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>48733351.04168677</v>
+        <v>86170402.05832821</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>49231117.16660266</v>
+        <v>87050553.04729517</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>49736172.65538848</v>
+        <v>87943593.10303064</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>50248647.89617565</v>
+        <v>88849752.77807102</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>50768676.0840145</v>
+        <v>89769267.58815263</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>51296393.25136993</v>
+        <v>90702378.06613322</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>51831938.29677241</v>
+        <v>91649329.81265272</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>52375453.01146782</v>
+        <v>92610373.54325642</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>52927082.10389922</v>
+        <v>93585765.13168265</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>53486973.22184727</v>
+        <v>94575765.64901222</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>54055276.97204731</v>
+        <v>95580641.39835486</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>54632146.93709373</v>
+        <v>96600663.94474001</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>55217739.68943401</v>
+        <v>97636110.13986093</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>55812214.80224695</v>
+        <v>98687262.14130944</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>56415734.856991</v>
+        <v>99754407.42592299</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>57028465.44740175</v>
+        <v>100837838.7968535</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>57650575.17970921</v>
+        <v>101937854.3839507</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>58282235.6688372</v>
+        <v>103054757.6370423</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>58923621.53034075</v>
+        <v>104188857.3116781</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>59574910.36782957</v>
+        <v>105340467.4468914</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>60236282.7556178</v>
+        <v>106509907.3345207</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>60907922.21633519</v>
+        <v>107697501.4796216</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>61590015.19322616</v>
+        <v>108903579.5514862</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>62282751.01685921</v>
+        <v>110128476.3247782</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>62986321.86596236</v>
+        <v>111372531.6102823</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>63700922.72209538</v>
+        <v>112636090.1747555</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>64426751.31786539</v>
+        <v>113919501.6493623</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>65164008.0783885</v>
+        <v>115223120.4261658</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>65912896.05569666</v>
+        <v>116547305.542147</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>66673620.85578661</v>
+        <v>117892420.5502123</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>67446390.5580073</v>
+        <v>118493488.3365386</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>68231415.62648015</v>
+        <v>119105245.5182933</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>69028908.81324752</v>
+        <v>119727895.7464864</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>69839085.05284685</v>
+        <v>120361644.734226</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>70662161.34800991</v>
+        <v>121006700.1313354</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>71498356.64619049</v>
+        <v>121663271.3904382</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>72347891.70663004</v>
+        <v>122331569.6242577</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>73210988.95767641</v>
+        <v>123011807.4538838</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>74087872.34407926</v>
+        <v>123704198.8477671</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>74978767.16399577</v>
+        <v>124408958.9512142</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>75883899.89545211</v>
+        <v>125126303.9061668</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>76803498.01201724</v>
+        <v>125856450.6610604</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>77737789.78746305</v>
+        <v>126599616.7705767</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>78687004.08920024</v>
+        <v>127356020.1851195</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>79651370.16029805</v>
+        <v>128125879.0298593</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>80631117.38991679</v>
+        <v>128909411.3732213</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>81626475.07200626</v>
+        <v>129706834.9847049</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>82637672.15214467</v>
+        <v>130518367.0819537</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>83664936.96242431</v>
+        <v>131344224.067022</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>84708496.94431527</v>
+        <v>132184621.25181</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>85768578.35947283</v>
+        <v>133039772.5726727</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>86845405.98848534</v>
+        <v>133909890.2942418</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>87939202.81759915</v>
+        <v>134795184.7025359</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>89050189.71348947</v>
+        <v>135695863.7874664</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>90178585.0861928</v>
+        <v>136612132.9148958</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>91324604.54035355</v>
+        <v>137544194.488437</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>92488460.51498611</v>
+        <v>138492247.6012331</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>93670361.91199647</v>
+        <v>139456487.6779971</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>94870513.71376027</v>
+        <v>140437106.1076427</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>96089116.59010041</v>
+        <v>141434289.8668841</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>97326366.49506184</v>
+        <v>142448221.1352315</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>98582454.25393426</v>
+        <v>143479076.9018635</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>99857565.141028</v>
+        <v>144527028.5649103</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>101151878.4487651</v>
+        <v>145592241.5237325</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>102465567.0487044</v>
+        <v>146674874.764838</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>103798796.9451781</v>
+        <v>147775080.4421349</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>105151726.8222739</v>
+        <v>148893003.452269</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>106524507.5849595</v>
+        <v>150028781.0058571</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>107917281.8951991</v>
+        <v>151182542.1954771</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>109330183.7039768</v>
+        <v>152354407.5613317</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>110763337.7801923</v>
+        <v>153544488.6555575</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>112216859.2374578</v>
+        <v>154752887.6062018</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>113690853.0598749</v>
+        <v>155979696.6819434</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>115185413.6279269</v>
+        <v>157224997.8586753</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>116700624.2456727</v>
+        <v>158488862.3891238</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>118236556.6704759</v>
+        <v>159771350.3767124</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>119793270.6465508</v>
+        <v>161072510.3549247</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>121370813.4436478</v>
+        <v>162392378.8734553</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>122969219.4022402</v>
+        <v>163730980.0924714</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>124588509.4866091</v>
+        <v>165088325.3863359</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>126228690.8472517</v>
+        <v>166464412.9581626</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>127889756.3940661</v>
+        <v>167859227.4666012</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>129571684.3817803</v>
+        <v>169272739.6662508</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>131274438.0091138</v>
+        <v>170704906.0631195</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>132997965.0331605</v>
+        <v>172155668.586537</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>132623411.3179341</v>
+        <v>171506168.1963763</v>
       </c>
       <c r="C358" t="n">
         <v>2022331.076652292</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>132244849.2372345</v>
+        <v>170850473.3456461</v>
       </c>
       <c r="C359" t="n">
         <v>4068170.421424792</v>
@@ -9788,7 +9788,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>131862203.3784733</v>
+        <v>170188505.7449939</v>
       </c>
       <c r="C360" t="n">
         <v>6137493.891499075</v>
@@ -9814,7 +9814,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>131475396.0598961</v>
+        <v>169520185.9414427</v>
       </c>
       <c r="C361" t="n">
         <v>8230263.472692052</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>131084347.2693324</v>
+        <v>168845433.3193823</v>
       </c>
       <c r="C362" t="n">
         <v>10346427.06367403</v>
@@ -9866,7 +9866,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>130688974.6017102</v>
+        <v>168164166.1009226</v>
       </c>
       <c r="C363" t="n">
         <v>12485918.28423099</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>130289193.1954156</v>
+        <v>167476301.3455604</v>
       </c>
       <c r="C364" t="n">
         <v>14648656.30878143</v>
@@ -9918,7 +9918,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>129884915.667606</v>
+        <v>166781754.9491317</v>
       </c>
       <c r="C365" t="n">
         <v>16834545.7262853</v>
@@ -9944,7 +9944,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>129476052.0486028</v>
+        <v>166080441.6420246</v>
       </c>
       <c r="C366" t="n">
         <v>19043476.42760758</v>
@@ -9970,7 +9970,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>129062509.715517</v>
+        <v>165372274.9866598</v>
       </c>
       <c r="C367" t="n">
         <v>21275323.52131391</v>
@@ -9996,7 +9996,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>128644193.3252883</v>
+        <v>164657167.3742555</v>
       </c>
       <c r="C368" t="n">
         <v>23529947.27877435</v>
@@ -10022,7 +10022,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>128221004.7473467</v>
+        <v>163935030.0209219</v>
       </c>
       <c r="C369" t="n">
         <v>25807193.10935175</v>
@@ -10048,7 +10048,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>127792842.9961383</v>
+        <v>163205772.9631557</v>
       </c>
       <c r="C370" t="n">
         <v>28106891.56633009</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>127359604.1637918</v>
+        <v>162469305.0528313</v>
       </c>
       <c r="C371" t="n">
         <v>30428858.38411768</v>
@@ -10100,7 +10100,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>126921181.3532403</v>
+        <v>161725533.9518209</v>
       </c>
       <c r="C372" t="n">
         <v>32772894.54712645</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>126477464.6121495</v>
+        <v>160974366.1264063</v>
       </c>
       <c r="C373" t="n">
         <v>32772705.16172218</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>126028340.8680507</v>
+        <v>160215706.8416887</v>
       </c>
       <c r="C374" t="n">
         <v>32772486.03171045</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>125573693.8651194</v>
+        <v>159449460.1562346</v>
       </c>
       <c r="C375" t="n">
         <v>32772232.81325366</v>
@@ -10204,7 +10204,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>125113404.1030869</v>
+        <v>158675528.9172517</v>
       </c>
       <c r="C376" t="n">
         <v>32771940.5821855</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>124647348.7788269</v>
+        <v>157893814.7566255</v>
       </c>
       <c r="C377" t="n">
         <v>32771603.76493859</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>124175401.7312075</v>
+        <v>157104218.0882039</v>
       </c>
       <c r="C378" t="n">
         <v>32771216.06250566</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>123697433.3898567</v>
+        <v>156306638.1067672</v>
       </c>
       <c r="C379" t="n">
         <v>32770770.36690916</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>123213310.7285464</v>
+        <v>155500972.7891782</v>
       </c>
       <c r="C380" t="n">
         <v>32770258.66963878</v>
@@ -10334,7 +10334,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>122722897.2239565</v>
+        <v>154687118.8982647</v>
       </c>
       <c r="C381" t="n">
         <v>32769671.96150462</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>122226052.8206457</v>
+        <v>153864971.9900482</v>
       </c>
       <c r="C382" t="n">
         <v>32769000.12334611</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>121722633.9031134</v>
+        <v>153034426.4249938</v>
       </c>
       <c r="C383" t="n">
         <v>32768231.80703367</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>121212493.2759013</v>
+        <v>152195375.3840225</v>
       </c>
       <c r="C384" t="n">
         <v>32767354.30620251</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>120695480.1527476</v>
+        <v>151347710.8900925</v>
       </c>
       <c r="C385" t="n">
         <v>32766353.41616704</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>120171440.1558671</v>
+        <v>150491323.8362196</v>
       </c>
       <c r="C386" t="n">
         <v>32765213.2824799</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>119640215.3264943</v>
+        <v>149626104.0208774</v>
       </c>
       <c r="C387" t="n">
         <v>32763916.23762422</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>119101644.147888</v>
+        <v>148751940.1917795</v>
       </c>
       <c r="C388" t="n">
         <v>32762442.62536032</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>118555561.5820526</v>
+        <v>147868720.0991157</v>
       </c>
       <c r="C389" t="n">
         <v>32760770.61229132</v>
@@ -10568,7 +10568,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>118001799.1214908</v>
+        <v>146976330.5593709</v>
       </c>
       <c r="C390" t="n">
         <v>32758875.98626595</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>117440184.8573495</v>
+        <v>146074657.5309219</v>
       </c>
       <c r="C391" t="n">
         <v>32756731.94130221</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>116870543.5653751</v>
+        <v>145163586.2026577</v>
       </c>
       <c r="C392" t="n">
         <v>32754308.84879442</v>
@@ -10646,7 +10646,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>116292696.8111309</v>
+        <v>144243001.0969252</v>
       </c>
       <c r="C393" t="n">
         <v>32751574.01485738</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>115706463.075969</v>
+        <v>143312786.1881467</v>
       </c>
       <c r="C394" t="n">
         <v>32748491.42376796</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>115111657.9052771</v>
+        <v>142372825.0384949</v>
       </c>
       <c r="C395" t="n">
         <v>32745021.4675855</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>114508094.0805366</v>
+        <v>141423000.952043</v>
       </c>
       <c r="C396" t="n">
         <v>32741120.66216913</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>113895581.8167466</v>
+        <v>140463197.1488325</v>
       </c>
       <c r="C397" t="n">
         <v>32736741.34996303</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>113273928.9867575</v>
+        <v>139493296.9603097</v>
       </c>
       <c r="C398" t="n">
         <v>32731831.39008971</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>112642941.3740555</v>
+        <v>138513184.0475898</v>
       </c>
       <c r="C399" t="n">
         <v>32726333.83647746</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>112002422.9555062</v>
+        <v>137522742.6439921</v>
       </c>
       <c r="C400" t="n">
         <v>32720186.60494961</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>111352176.2155282</v>
+        <v>136521857.8232664</v>
       </c>
       <c r="C401" t="n">
         <v>32713322.1304219</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>110692002.4931151</v>
+        <v>135510415.7948952</v>
       </c>
       <c r="C402" t="n">
         <v>32705667.01558746</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>110021702.3630474</v>
+        <v>134488304.2277967</v>
       </c>
       <c r="C403" t="n">
         <v>32697141.67271724</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>109341076.0525523</v>
+        <v>133455412.6036869</v>
       </c>
       <c r="C404" t="n">
         <v>32687659.96046487</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>108649923.8945577</v>
+        <v>132411632.601266</v>
       </c>
       <c r="C405" t="n">
         <v>32677128.81783874</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>107948046.8185668</v>
+        <v>131356858.5122906</v>
       </c>
       <c r="C406" t="n">
         <v>32665447.89778652</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>107235246.8800258</v>
+        <v>130290987.6904624</v>
       </c>
       <c r="C407" t="n">
         <v>32652509.203129</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>106511327.8288988</v>
+        <v>129213921.033919</v>
       </c>
       <c r="C408" t="n">
         <v>32638196.72787509</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>105776095.7179743</v>
+        <v>128125563.5019443</v>
       </c>
       <c r="C409" t="n">
         <v>32622386.10724835</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>105029359.5512189</v>
+        <v>127025824.6663294</v>
       </c>
       <c r="C410" t="n">
         <v>32604944.28005125</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>104270931.9722694</v>
+        <v>125914619.2976032</v>
       </c>
       <c r="C411" t="n">
         <v>32585729.16728479</v>
@@ -11140,7 +11140,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>103500629.9929019</v>
+        <v>124791867.9861233</v>
       </c>
       <c r="C412" t="n">
         <v>32564589.37122241</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>102718275.7610513</v>
+        <v>123657497.7977705</v>
       </c>
       <c r="C413" t="n">
         <v>32541363.89940543</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>101923697.3676631</v>
+        <v>122511442.9637158</v>
       </c>
       <c r="C414" t="n">
         <v>32515881.91827585</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>101116729.691355</v>
+        <v>121353645.6034454</v>
       </c>
       <c r="C415" t="n">
         <v>32487962.54138783</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>100297215.2795398</v>
+        <v>120184056.4799189</v>
       </c>
       <c r="C416" t="n">
         <v>32457414.65733534</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>99465005.26432343</v>
+        <v>119002635.7854164</v>
       </c>
       <c r="C417" t="n">
         <v>32424036.80269495</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>98619960.31113534</v>
+        <v>117809353.9562926</v>
       </c>
       <c r="C418" t="n">
         <v>32387617.08540417</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>97761951.59768552</v>
+        <v>116604192.5145049</v>
       </c>
       <c r="C419" t="n">
         <v>32347933.16407143</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>96890861.82046503</v>
+        <v>115387144.9334272</v>
       </c>
       <c r="C420" t="n">
         <v>32304752.28873809</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>96006586.22562581</v>
+        <v>114158217.5250874</v>
       </c>
       <c r="C421" t="n">
         <v>32257831.40858043</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>95109033.66068982</v>
+        <v>112917430.3456007</v>
       </c>
       <c r="C422" t="n">
         <v>32206917.35194552</v>
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>94198127.64314932</v>
+        <v>111664818.1151924</v>
       </c>
       <c r="C423" t="n">
         <v>32151747.08395393</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>93273807.44163719</v>
+        <v>110400431.1488349</v>
       </c>
       <c r="C424" t="n">
         <v>32092048.04667047</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>92336029.16496845</v>
+        <v>109124336.2931532</v>
       </c>
       <c r="C425" t="n">
         <v>32027538.58653772</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>91384766.8539858</v>
+        <v>107836617.8649002</v>
       </c>
       <c r="C426" t="n">
         <v>31957928.47338261</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>90420013.57078892</v>
+        <v>106537378.5859524</v>
       </c>
       <c r="C427" t="n">
         <v>31882919.51484222</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>89441782.47959246</v>
+        <v>105226740.5094532</v>
       </c>
       <c r="C428" t="n">
         <v>31802206.26950905</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>88450107.91314621</v>
+        <v>103904845.9314228</v>
       </c>
       <c r="C429" t="n">
         <v>31715476.86146838</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>87445046.41836296</v>
+        <v>102571858.2818735</v>
       </c>
       <c r="C430" t="n">
         <v>31622413.89819179</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>86426677.77454825</v>
+        <v>101227962.9892166</v>
       </c>
       <c r="C431" t="n">
         <v>31522695.49296313</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>85395105.97740597</v>
+        <v>99873368.31153184</v>
       </c>
       <c r="C432" t="n">
         <v>31415996.39214931</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>84350460.18181424</v>
+        <v>98508306.12809022</v>
       </c>
       <c r="C433" t="n">
         <v>31301989.20669315</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>83292895.59623079</v>
+        <v>97133032.68438391</v>
       </c>
       <c r="C434" t="n">
         <v>31180345.74620487</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>82222594.32150002</v>
+        <v>95747829.28382841</v>
       </c>
       <c r="C435" t="n">
         <v>31050738.45296886</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>81139766.12679313</v>
+        <v>94353002.9192552</v>
       </c>
       <c r="C436" t="n">
         <v>30912841.93207391</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>80044649.15543292</v>
+        <v>92948886.83733094</v>
       </c>
       <c r="C437" t="n">
         <v>30766334.57272531</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>78937510.55342531</v>
+        <v>91535841.02909866</v>
       </c>
       <c r="C438" t="n">
         <v>30610900.2546199</v>
@@ -11842,7 +11842,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>77818647.01365381</v>
+        <v>90114252.63996556</v>
       </c>
       <c r="C439" t="n">
         <v>30446230.13207027</v>
@@ -11868,7 +11868,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>76688385.22888561</v>
+        <v>88684536.29264233</v>
       </c>
       <c r="C440" t="n">
         <v>30272024.48736774</v>
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>75547082.24699374</v>
+        <v>87247134.31678464</v>
       </c>
       <c r="C441" t="n">
         <v>30087994.64368813</v>
@@ -11920,7 +11920,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>74395125.72211991</v>
+        <v>85802516.87939411</v>
       </c>
       <c r="C442" t="n">
         <v>29893864.92668547</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>73232934.05588312</v>
+        <v>84351182.01040336</v>
       </c>
       <c r="C443" t="n">
         <v>29689374.66280389</v>
@@ -11972,7 +11972,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>72060956.42318594</v>
+        <v>82893655.51830085</v>
       </c>
       <c r="C444" t="n">
         <v>29474280.20128094</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>70879672.67767543</v>
+        <v>81430490.79114088</v>
       </c>
       <c r="C445" t="n">
         <v>29248356.94583548</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>69689593.13248414</v>
+        <v>79962268.47883373</v>
       </c>
       <c r="C446" t="n">
         <v>29011401.38114505</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>68491258.21249874</v>
+        <v>78489596.05321638</v>
       </c>
       <c r="C447" t="n">
         <v>28763233.07843856</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>67285237.97508346</v>
+        <v>77013107.24306276</v>
       </c>
       <c r="C448" t="n">
         <v>28503696.66387485</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>66072131.49691204</v>
+        <v>75533461.34190074</v>
       </c>
       <c r="C449" t="n">
         <v>28232663.73286228</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>64852566.12533742</v>
+        <v>74051342.38725519</v>
       </c>
       <c r="C450" t="n">
         <v>27950034.69311189</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>63627196.59354136</v>
+        <v>72567458.21073027</v>
       </c>
       <c r="C451" t="n">
         <v>27655740.5190196</v>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>62396703.99955553</v>
+        <v>71082539.35916865</v>
       </c>
       <c r="C452" t="n">
         <v>27349744.39995205</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>23847147.04472806</v>
+        <v>24171598.02492844</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>23874991.41112009</v>
+        <v>24199821.22623737</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>23903205.79653071</v>
+        <v>24228419.48083726</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>23931794.92695915</v>
+        <v>24257397.57902663</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>23960763.57587729</v>
+        <v>24286760.35922255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>23990116.56381527</v>
+        <v>24316512.70754065</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>24019858.75788571</v>
+        <v>24346659.55731273</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24049995.07124395</v>
+        <v>24377205.88853979</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24080530.46248226</v>
+        <v>24408156.72727795</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>24111469.93495544</v>
+        <v>24439517.14495484</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>24142818.53603546</v>
+        <v>24471292.25761418</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>24174581.3562934</v>
+        <v>24503487.22508651</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24206763.52860603</v>
+        <v>24536107.25008366</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24239370.22718549</v>
+        <v>24569157.57721524</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24272406.66653002</v>
+        <v>24602643.49192499</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24305878.100294</v>
+        <v>24636570.31934562</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24339789.82007609</v>
+        <v>24670943.42307031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24374147.15412356</v>
+        <v>24705768.20383953</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24408955.46595238</v>
+        <v>24741050.09814221</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24444220.15288147</v>
+        <v>24776794.57673021</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24479946.64448103</v>
+        <v>24813007.1430454</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24516140.40093416</v>
+        <v>24849693.33155911</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>24552806.91131188</v>
+        <v>24886858.7060236</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>24589951.6917619</v>
+        <v>24924508.8576362</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>24627580.28361125</v>
+        <v>24962649.40311618</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>24665698.25138437</v>
+        <v>25001285.98269573</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>24704311.18073734</v>
+        <v>25040424.2580263</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>24743424.67631048</v>
+        <v>25080069.91000178</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>24783044.35950117</v>
+        <v>25120228.63650119</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>24823175.86615981</v>
+        <v>25160906.15005315</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>24863824.84421166</v>
+        <v>25202108.17542543</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>24904996.95120861</v>
+        <v>25243840.44714344</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>24946697.85181468</v>
+        <v>25286108.70694141</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>24988933.2152301</v>
+        <v>25328918.70115159</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>25031708.71255923</v>
+        <v>25372276.17803622</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>25075030.01412812</v>
+        <v>25416186.88506864</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>25118902.78675813</v>
+        <v>25460656.56616979</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>25163332.69100262</v>
+        <v>25505690.95890741</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25208325.37835471</v>
+        <v>25551295.79166567</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25253886.48843398</v>
+        <v>25597476.78079364</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25300021.64616132</v>
+        <v>25644239.62774175</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>25346736.45893168</v>
+        <v>25691590.01619605</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25394036.51379494</v>
+        <v>25739533.60922073</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25441927.37465567</v>
+        <v>25788076.0464197</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>25490414.57950387</v>
+        <v>25837222.94112977</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>25539503.63768839</v>
+        <v>25886979.87765696</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>25589200.02724683</v>
+        <v>25937352.40856992</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>25639509.19230458</v>
+        <v>25988346.05206383</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>25690436.54055808</v>
+        <v>26039966.28940921</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>25741987.44085667</v>
+        <v>26092218.56250099</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>25794167.2208988</v>
+        <v>26145108.27152326</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>25846981.16505835</v>
+        <v>26198640.77274622</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>25900434.51235803</v>
+        <v>26252821.37647175</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>25954532.45460674</v>
+        <v>26307655.34514562</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>26009280.13471844</v>
+        <v>26363147.89165339</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>26064682.64523081</v>
+        <v>26419304.17781898</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>26120745.02704196</v>
+        <v>26476129.31312416</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>26177472.26838401</v>
+        <v>26533628.35366814</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>26234869.30405264</v>
+        <v>26591806.30138668</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26292941.0149118</v>
+        <v>26650668.10355006</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26351692.22769353</v>
+        <v>26710218.6525601</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26411127.71511163</v>
+        <v>26770462.78606553</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>26471252.19630997</v>
+        <v>26831405.28741622</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>26532070.33766384</v>
+        <v>26893050.88647562</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>26593586.75395503</v>
+        <v>26955404.26081158</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>26655806.00993897</v>
+        <v>27018470.03728509</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>26718732.62232358</v>
+        <v>27082252.79405588</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>26782371.06217851</v>
+        <v>27146757.06302447</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>26846725.75779273</v>
+        <v>27211987.33272868</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>26911801.09799841</v>
+        <v>27277948.05171267</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>26977601.43597822</v>
+        <v>27344643.63238612</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>27044131.09357226</v>
+        <v>27412078.45538958</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>27111394.36610027</v>
+        <v>27480256.8744826</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>27179395.52771394</v>
+        <v>27549183.22196856</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>27248138.83729247</v>
+        <v>27618861.81467059</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>27317628.54489437</v>
+        <v>27689296.96047115</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>27387868.89877667</v>
+        <v>27760492.96542669</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>27458864.15299129</v>
+        <v>27832454.14146737</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>27530618.57556751</v>
+        <v>27905184.81469085</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>27603136.4572873</v>
+        <v>27978689.33425722</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>27676422.1210595</v>
+        <v>28052972.08189022</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>27750479.93189586</v>
+        <v>28128037.48198969</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>27825314.30749211</v>
+        <v>28203890.01235595</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>27900929.72941316</v>
+        <v>28280534.21552763</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>27977330.75488183</v>
+        <v>28357974.71073059</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>28054522.02916638</v>
+        <v>28436216.20643393</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>28132508.2985618</v>
+        <v>28515263.51350822</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>28211294.42395726</v>
+        <v>28595121.55897711</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>28290885.39497868</v>
+        <v>28675795.40035255</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>28371286.3446953</v>
+        <v>28757290.24054151</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>28452502.56487534</v>
+        <v>28839611.44330901</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>28534539.52177386</v>
+        <v>28922764.54928098</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>28617402.87243428</v>
+        <v>29006755.29246739</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>28701098.48148199</v>
+        <v>29091589.61728445</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>28785632.43838617</v>
+        <v>29177273.6960513</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>28871011.07516477</v>
+        <v>29263813.94693573</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>28957240.98450333</v>
+        <v>29351217.05231969</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>29044329.0382583</v>
+        <v>29439489.97755434</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>29132282.40631168</v>
+        <v>29528639.99007101</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>29221108.57574208</v>
+        <v>29618674.67881341</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>29310815.37027584</v>
+        <v>29709601.9739531</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>29401410.96997913</v>
+        <v>29801430.16684959</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>29492903.9311498</v>
+        <v>29894167.93021306</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>29585303.20636715</v>
+        <v>29987824.33842657</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>29678618.16465458</v>
+        <v>30082408.88798323</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>29772858.61170942</v>
+        <v>30177931.51799119</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>29868034.8101523</v>
+        <v>30274402.6306986</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>29964157.49974759</v>
+        <v>30371833.11198905</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>30061237.9175443</v>
+        <v>30470234.35179659</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>30159287.81788684</v>
+        <v>30569618.26438871</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>30258319.49224365</v>
+        <v>30669997.30846464</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>30358345.7888005</v>
+        <v>30771384.50701548</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>30459380.13176602</v>
+        <v>30873793.46689207</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>30561436.54033527</v>
+        <v>30977238.39802689</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>30664529.6472579</v>
+        <v>31081734.13225461</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>30768674.71695742</v>
+        <v>31187296.14167792</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>30873887.66314789</v>
+        <v>31293940.55652407</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>30980185.06589518</v>
+        <v>31401684.18243797</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>31087584.18807061</v>
+        <v>31510544.51716004</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>31196102.99114579</v>
+        <v>31620539.76653552</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>31305760.15027792</v>
+        <v>31731688.85980549</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>31416575.0686371</v>
+        <v>31844011.46412876</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>31528567.89092808</v>
+        <v>31957527.99828766</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>31641759.51606056</v>
+        <v>32072259.64553079</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>31756171.60892494</v>
+        <v>32188228.36550898</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>31871826.61123125</v>
+        <v>32305456.9052616</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>31988747.75137269</v>
+        <v>32423968.80921448</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>32106959.05327704</v>
+        <v>32543788.42815156</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>32226485.34421189</v>
+        <v>32664940.92712634</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>32347352.26151287</v>
+        <v>32787452.29228175</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>32469586.25820727</v>
+        <v>32911349.33655023</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>32593214.60750816</v>
+        <v>33036659.70420896</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>32718265.40615817</v>
+        <v>33163411.87426917</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>32844767.57660513</v>
+        <v>33291635.16268143</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>32972750.86799589</v>
+        <v>33421359.72334277</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>33102245.85597766</v>
+        <v>33552616.54789574</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>33233283.94130185</v>
+        <v>33685437.46431276</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>33365897.34722649</v>
+        <v>33819855.13426355</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>33500119.11572067</v>
+        <v>33955903.0492679</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>33635983.10247591</v>
+        <v>34093615.52563886</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>33773523.97073491</v>
+        <v>34233027.69822791</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>33912777.18395186</v>
+        <v>34374175.51298524</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>34053778.99730267</v>
+        <v>34517095.71835441</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>34196566.44806799</v>
+        <v>34661825.85552471</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>34341177.34491529</v>
+        <v>34808404.24756718</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>34487650.25611113</v>
+        <v>34956869.98748681</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>34636024.49669856</v>
+        <v>35107262.92522506</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>34786340.11467792</v>
+        <v>35259623.65365314</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>34938637.87623462</v>
+        <v>35413993.49359838</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>35092959.25005923</v>
+        <v>35570414.4779512</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>35249346.39081087</v>
+        <v>35728929.33490355</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35407842.12177686</v>
+        <v>35889581.47037248</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>35568489.91678584</v>
+        <v>36052414.94966727</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>35731333.88143389</v>
+        <v>36217474.4784602</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>35896418.73368751</v>
+        <v>36384805.38312545</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36063789.78392825</v>
+        <v>36554453.5905123</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36233492.914508</v>
+        <v>36726465.6072224</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36405574.55888569</v>
+        <v>36900888.49846233</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>36580081.68041775</v>
+        <v>37077769.86654589</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>36757061.75087781</v>
+        <v>37257157.82912105</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>36936562.72878141</v>
+        <v>37439100.99720021</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37118633.037594</v>
+        <v>37623648.45307148</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>37303321.54390127</v>
+        <v>37810849.72817202</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>37490677.53562117</v>
+        <v>38000754.78100376</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>37680750.70033896</v>
+        <v>38193413.97517347</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>37873591.10384568</v>
+        <v>38388878.05763952</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>38069249.16896141</v>
+        <v>38587198.13724658</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>38267775.65472377</v>
+        <v>38788425.66363157</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>38469221.63602312</v>
+        <v>38992612.40658126</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>38673638.4837633</v>
+        <v>39199810.43592333</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>38881077.84562747</v>
+        <v>39410072.10203057</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>39091591.62752698</v>
+        <v>39623450.01701712</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39305231.97580935</v>
+        <v>39839997.03670471</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>39522051.26030051</v>
+        <v>40059766.24343386</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>39742102.05825403</v>
+        <v>40282810.92979492</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>39965437.13927872</v>
+        <v>40509184.58335055</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40192109.45131287</v>
+        <v>40738940.87241916</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>40422172.10771178</v>
+        <v>40972133.63298675</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>40655678.37551197</v>
+        <v>41208816.85681152</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>40892681.66493338</v>
+        <v>41449044.6807828</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41133235.52017681</v>
+        <v>41692871.3775942</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>41377393.61157268</v>
+        <v>41940351.34778456</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>41625209.72913142</v>
+        <v>42191539.11320122</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>41876737.77754532</v>
+        <v>42446489.3119337</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42132031.77268612</v>
+        <v>42705256.69476348</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>42391145.83963969</v>
+        <v>42967896.12317223</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>42654134.21231746</v>
+        <v>43234462.56894763</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>42921051.23467675</v>
+        <v>43505011.11542066</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43191951.36358361</v>
+        <v>43779596.96036709</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>43466889.17334348</v>
+        <v>44058275.42059984</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>43745919.3619244</v>
+        <v>44341101.93827713</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44029096.75889341</v>
+        <v>44628132.08894637</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>44316476.33508156</v>
+        <v>44919421.5913412</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>44608113.21399226</v>
+        <v>45215026.31894453</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>44904062.68496133</v>
+        <v>45515002.31332813</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45204380.21807632</v>
+        <v>45819405.79927465</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>45509121.48085767</v>
+        <v>46128293.20168567</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>45818342.35670169</v>
+        <v>46441721.16427583</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46132098.96508235</v>
+        <v>46759746.57004946</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>46450447.68350643</v>
+        <v>47082426.56355414</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>46773445.1712122</v>
+        <v>47409818.57490218</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47101148.39460094</v>
+        <v>47741980.34554787</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>47433614.65437743</v>
+        <v>48078969.95579753</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>47770901.61441064</v>
+        <v>48420845.85406247</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48113067.33226924</v>
+        <v>48767666.88781032</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>48460170.29142076</v>
+        <v>49119492.33620198</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>48812269.43507066</v>
+        <v>49476381.94439136</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>49169424.20161809</v>
+        <v>49838395.95946325</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>49531694.56170175</v>
+        <v>50205595.1679834</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>49899141.05680934</v>
+        <v>50578040.93513325</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>50271824.83942167</v>
+        <v>50955795.24540021</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>50649807.71466286</v>
+        <v>51338920.74479432</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>51033152.18342477</v>
+        <v>51727480.78455978</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>51421921.48693696</v>
+        <v>52121539.46635107</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>51816179.65274837</v>
+        <v>52521161.68884017</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52215991.54209024</v>
+        <v>52926413.19572411</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>52621422.89858755</v>
+        <v>53337360.62509898</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53032540.39828666</v>
+        <v>53754071.5601681</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>53449411.70096651</v>
+        <v>54176614.58125177</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>53872105.50270241</v>
+        <v>54605059.31906569</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>54300691.58964821</v>
+        <v>55039476.50923528</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>54735240.89300796</v>
+        <v>55479938.04801486</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55175825.54516312</v>
+        <v>55926517.04917889</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>55622518.93692695</v>
+        <v>56379287.90205519</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56075395.77589414</v>
+        <v>56838326.3306682</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>56534532.1458571</v>
+        <v>57303709.45396406</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57000005.56725975</v>
+        <v>57775515.84708644</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>57471895.05866037</v>
+        <v>58253825.60367616</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>57950281.19917607</v>
+        <v>58738720.39916489</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>58435246.19188239</v>
+        <v>59230283.55503728</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>58926873.9281408</v>
+        <v>59728600.10403387</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>59425250.05282915</v>
+        <v>60233756.85626897</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>59930462.03045028</v>
+        <v>60745842.46623874</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>60442599.21209312</v>
+        <v>61264947.50069305</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>60961752.90322308</v>
+        <v>61791164.50734856</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>61488016.43227731</v>
+        <v>62324588.08441712</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>62021485.22004124</v>
+        <v>62865314.95092617</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>62562256.84978286</v>
+        <v>63413444.01780713</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>63110431.13812105</v>
+        <v>63969076.45972815</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>63666110.20660347</v>
+        <v>64532315.7876457</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>64229398.55397034</v>
+        <v>65103267.92205159</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>64800403.12907887</v>
+        <v>65682041.26688948</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>65379233.40446191</v>
+        <v>66268746.78411447</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>65966001.45049495</v>
+        <v>66863498.06886901</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>66560822.01014215</v>
+        <v>67466411.42524613</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>67163812.57425304</v>
+        <v>68077605.9426102</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>67775093.45737693</v>
+        <v>68697203.57244329</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>68394787.8740624</v>
+        <v>69325329.20568229</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>69023022.0156059</v>
+        <v>69962110.75051208</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>69659925.12721008</v>
+        <v>70607679.21057348</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>70305629.58551115</v>
+        <v>71262168.76354532</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>70960270.97642945</v>
+        <v>71925716.84005432</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>71623988.17329562</v>
+        <v>72598464.20286424</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>72296923.41519858</v>
+        <v>73280555.02628969</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>72979222.38549936</v>
+        <v>73972136.97577833</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>73671034.29044865</v>
+        <v>74673361.28759761</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>74372511.93784094</v>
+        <v>75384382.8485599</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>75083811.81563337</v>
+        <v>76105360.27571006</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>75805094.17045115</v>
+        <v>76836455.99589947</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>76536523.08589409</v>
+        <v>77577836.32515799</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>77278266.56055468</v>
+        <v>78329671.54777308</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>78030496.58564715</v>
+        <v>79092135.99497567</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>78793389.22214416</v>
+        <v>79865408.12312567</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>79567124.67730515</v>
+        <v>80649670.59128208</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>80351887.38047567</v>
+        <v>81445110.33803318</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>81147866.05802564</v>
+        <v>82251918.65745457</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>81955253.80728799</v>
+        <v>83070291.2740538</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>82774248.1693459</v>
+        <v>83900428.41654782</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>83605051.20051104</v>
+        <v>84742534.89031388</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>84447869.54232125</v>
+        <v>85596820.14833926</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>85302914.48987767</v>
+        <v>86463498.36048824</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>86170402.05832821</v>
+        <v>87342788.48089044</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>87050553.04729517</v>
+        <v>88234914.31324473</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>87943593.10303064</v>
+        <v>89140104.57382011</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>88849752.77807102</v>
+        <v>90058592.95192225</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>89769267.58815263</v>
+        <v>90990618.16758335</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>90702378.06613322</v>
+        <v>91936424.02621658</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>91649329.81265272</v>
+        <v>92896259.46996781</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>92610373.54325642</v>
+        <v>93870378.6254776</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>93585765.13168265</v>
+        <v>94859040.84775999</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>94575765.64901222</v>
+        <v>95862510.75988314</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>95580641.39835486</v>
+        <v>96881058.28812839</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>96600663.94474001</v>
+        <v>97914958.6922875</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>97636110.13986093</v>
+        <v>98964492.59074338</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>98687262.14130944</v>
+        <v>100029945.9799667</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>99754407.42592299</v>
+        <v>101111610.2480444</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>100837838.7968535</v>
+        <v>102209782.1818447</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>101937854.3839507</v>
+        <v>103324763.9674058</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>103054757.6370423</v>
+        <v>104456863.1831245</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>104188857.3116781</v>
+        <v>105606392.7853063</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>105340467.4468914</v>
+        <v>106773671.0856245</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>106509907.3345207</v>
+        <v>107959021.7200244</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>107697501.4796216</v>
+        <v>109162773.6085961</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>108903579.5514862</v>
+        <v>110385260.9059282</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>110128476.3247782</v>
+        <v>111626822.9414418</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>111372531.6102823</v>
+        <v>112887804.1491977</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>112636090.1747555</v>
+        <v>114168553.986657</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>113919501.6493623</v>
+        <v>115469426.8418706</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>115223120.4261658</v>
+        <v>116790781.9285625</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>116547305.542147</v>
+        <v>118132983.1685708</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>117892420.5502123</v>
+        <v>119496399.0610996</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>118493488.3365386</v>
+        <v>120329059.0058915</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>119105245.5182933</v>
+        <v>121175759.1528775</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>119727895.7464864</v>
+        <v>122036756.2898274</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>120361644.734226</v>
+        <v>122912309.8192313</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>121006700.1313354</v>
+        <v>123802681.6088142</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>121663271.3904382</v>
+        <v>124708135.8311584</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>122331569.6242577</v>
+        <v>125628938.7921022</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>123011807.4538838</v>
+        <v>126565358.7475893</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>123704198.8477671</v>
+        <v>127517665.7086513</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>124408958.9512142</v>
+        <v>128486131.2342245</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>125126303.9061668</v>
+        <v>129471028.2115117</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>125856450.6610604</v>
+        <v>130472630.6236172</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>126599616.7705767</v>
+        <v>131491213.3042027</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>127356020.1851195</v>
+        <v>132527051.6789322</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>128125879.0298593</v>
+        <v>133580421.4934988</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>128909411.3732213</v>
+        <v>134651598.5280491</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>129706834.9847049</v>
+        <v>135740858.2978534</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>130518367.0819537</v>
+        <v>136848475.7400958</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>131344224.067022</v>
+        <v>137974724.8866983</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>132184621.25181</v>
+        <v>139119878.5231224</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>133039772.5726727</v>
+        <v>140284207.8331338</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>133909890.2942418</v>
+        <v>141467982.0295595</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>134795184.7025359</v>
+        <v>142671467.9711056</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>135695863.7874664</v>
+        <v>143894929.7653551</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>136612132.9148958</v>
+        <v>145138628.3581128</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>137544194.488437</v>
+        <v>146402821.1093154</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>138492247.6012331</v>
+        <v>147687761.3557829</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>139456487.6779971</v>
+        <v>148993697.9611385</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>140437106.1076427</v>
+        <v>150320874.8532899</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>141434289.8668841</v>
+        <v>151669530.5499207</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>142448221.1352315</v>
+        <v>153039897.6725064</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>143479076.9018635</v>
+        <v>154432202.449435</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>144527028.5649103</v>
+        <v>155846664.2088754</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>145592241.5237325</v>
+        <v>157283494.8621115</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>146674874.764838</v>
+        <v>158742898.3781181</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>147775080.4421349</v>
+        <v>160225070.2502379</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>148893003.452269</v>
+        <v>161730196.9558751</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>150028781.0058571</v>
+        <v>163258455.4102042</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>151182542.1954771</v>
+        <v>164810012.414953</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>152354407.5613317</v>
+        <v>166385024.1033933</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>153544488.6555575</v>
+        <v>167983635.3827413</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>154752887.6062018</v>
+        <v>169605979.3752331</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>155979696.6819434</v>
+        <v>171252176.8592113</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>157224997.8586753</v>
+        <v>172922335.7116156</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>158488862.3891238</v>
+        <v>174616550.3533355</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>159771350.3767124</v>
+        <v>176334901.1989349</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>161072510.3549247</v>
+        <v>178077454.1123172</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>162392378.8734553</v>
+        <v>179844259.8699395</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>163730980.0924714</v>
+        <v>181635353.6332388</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>165088325.3863359</v>
+        <v>183450754.4319594</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>166464412.9581626</v>
+        <v>185290464.6601149</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>167859227.4666012</v>
+        <v>187154469.5863343</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>169272739.6662508</v>
+        <v>189042736.8803669</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>170704906.0631195</v>
+        <v>190955216.157532</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>172155668.586537</v>
+        <v>192891838.5429003</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>171506168.1963763</v>
+        <v>192229768.9553398</v>
       </c>
       <c r="C358" t="n">
-        <v>2022331.076652292</v>
+        <v>2504866.434124908</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>170850473.3456461</v>
+        <v>191561159.9097982</v>
       </c>
       <c r="C359" t="n">
-        <v>4068170.421424792</v>
+        <v>5038850.292403825</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>170188505.7449939</v>
+        <v>190885915.9803822</v>
       </c>
       <c r="C360" t="n">
-        <v>6137493.891499075</v>
+        <v>7601921.671456343</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>169520185.9414427</v>
+        <v>190203939.7301628</v>
       </c>
       <c r="C361" t="n">
-        <v>8230263.472692052</v>
+        <v>10194033.48678065</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>168845433.3193823</v>
+        <v>189515131.6802773</v>
       </c>
       <c r="C362" t="n">
-        <v>10346427.06367403</v>
+        <v>12815121.20548525</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>168164166.1009226</v>
+        <v>188819390.2779298</v>
       </c>
       <c r="C363" t="n">
-        <v>12485918.28423099</v>
+        <v>15465102.60880198</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>167476301.3455604</v>
+        <v>188116611.8633043</v>
       </c>
       <c r="C364" t="n">
-        <v>14648656.30878143</v>
+        <v>18143877.5858793</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>166781754.9491317</v>
+        <v>187406690.6354176</v>
       </c>
       <c r="C365" t="n">
-        <v>16834545.7262853</v>
+        <v>20851327.9602651</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>166080441.6420246</v>
+        <v>186689518.616967</v>
       </c>
       <c r="C366" t="n">
-        <v>19043476.42760758</v>
+        <v>23587317.35039477</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>165372274.9866598</v>
+        <v>185964985.6182514</v>
       </c>
       <c r="C367" t="n">
-        <v>21275323.52131391</v>
+        <v>26351691.06529536</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>164657167.3742555</v>
+        <v>185232979.2002745</v>
       </c>
       <c r="C368" t="n">
-        <v>23529947.27877435</v>
+        <v>29144276.03659096</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>163935030.0209219</v>
+        <v>184493384.637168</v>
       </c>
       <c r="C369" t="n">
-        <v>25807193.10935175</v>
+        <v>31964880.78777086</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>163205772.9631557</v>
+        <v>183746084.8781125</v>
       </c>
       <c r="C370" t="n">
-        <v>28106891.56633009</v>
+        <v>34813295.44153249</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>162469305.0528313</v>
+        <v>182990960.5089688</v>
       </c>
       <c r="C371" t="n">
-        <v>30428858.38411768</v>
+        <v>37689291.76586131</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>161725533.9518209</v>
+        <v>182227889.713874</v>
       </c>
       <c r="C372" t="n">
-        <v>32772894.54712645</v>
+        <v>40592623.25934511</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>160974366.1264063</v>
+        <v>181456748.2371055</v>
       </c>
       <c r="C373" t="n">
-        <v>32772705.16172218</v>
+        <v>40592388.68591263</v>
       </c>
       <c r="D373" t="n">
-        <v>2561473.504932406</v>
+        <v>3125222.410658046</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>160215706.8416887</v>
+        <v>180677409.3455644</v>
       </c>
       <c r="C374" t="n">
-        <v>32772486.03171045</v>
+        <v>40592117.270704</v>
       </c>
       <c r="D374" t="n">
-        <v>5146392.720820569</v>
+        <v>6279050.645726006</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>159449460.1562346</v>
+        <v>179889743.7922795</v>
       </c>
       <c r="C375" t="n">
-        <v>32772232.81325366</v>
+        <v>40591803.63342658</v>
       </c>
       <c r="D375" t="n">
-        <v>7754499.789173512</v>
+        <v>9461170.095221296</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>158675528.9172517</v>
+        <v>179093619.7813938</v>
       </c>
       <c r="C376" t="n">
-        <v>32771940.5821855</v>
+        <v>40591441.67499056</v>
       </c>
       <c r="D376" t="n">
-        <v>10385522.15599839</v>
+        <v>12671248.21935972</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>157893814.7566255</v>
+        <v>178288902.9351535</v>
       </c>
       <c r="C377" t="n">
-        <v>32771603.76493859</v>
+        <v>40591024.49195562</v>
       </c>
       <c r="D377" t="n">
-        <v>13039172.89344295</v>
+        <v>15908934.94098748</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>157104218.0882039</v>
+        <v>177475456.2634834</v>
       </c>
       <c r="C378" t="n">
-        <v>32771216.06250566</v>
+        <v>40590544.28234904</v>
       </c>
       <c r="D378" t="n">
-        <v>15715151.06236706</v>
+        <v>19173863.08795029</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>156306638.1067672</v>
+        <v>176653140.1367981</v>
       </c>
       <c r="C379" t="n">
-        <v>32770770.36690916</v>
+        <v>40589992.24220469</v>
       </c>
       <c r="D379" t="n">
-        <v>18413142.11561063</v>
+        <v>22465648.88511559</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>155500972.7891782</v>
+        <v>175821812.2627702</v>
       </c>
       <c r="C380" t="n">
-        <v>32770258.66963878</v>
+        <v>40589358.45215327</v>
       </c>
       <c r="D380" t="n">
-        <v>21132818.34154116</v>
+        <v>25783892.49553947</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>154687118.8982647</v>
+        <v>174981327.6678485</v>
       </c>
       <c r="C381" t="n">
-        <v>32769671.96150462</v>
+        <v>40588631.75338033</v>
       </c>
       <c r="D381" t="n">
-        <v>23873839.34727432</v>
+        <v>29128178.61003815</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>153864971.9900482</v>
+        <v>174131538.684394</v>
       </c>
       <c r="C382" t="n">
-        <v>32769000.12334611</v>
+        <v>40587799.61225773</v>
       </c>
       <c r="D382" t="n">
-        <v>26635852.58076297</v>
+        <v>32498077.08418247</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>153034426.4249938</v>
+        <v>173272294.9443775</v>
       </c>
       <c r="C383" t="n">
-        <v>32768231.80703367</v>
+        <v>40586847.97295195</v>
       </c>
       <c r="D383" t="n">
-        <v>26635802.54849179</v>
+        <v>32498016.04042198</v>
       </c>
       <c r="E383" t="n">
-        <v>2974777.50832506</v>
+        <v>3667315.346344217</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>152195375.3840225</v>
+        <v>172403443.3806665</v>
       </c>
       <c r="C384" t="n">
-        <v>32767354.30620251</v>
+        <v>40585761.0973146</v>
       </c>
       <c r="D384" t="n">
-        <v>26635742.90257457</v>
+        <v>32497943.26716986</v>
       </c>
       <c r="E384" t="n">
-        <v>5971216.253832061</v>
+        <v>7361334.736038171</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>151347710.8900925</v>
+        <v>171524828.2370006</v>
       </c>
       <c r="C385" t="n">
-        <v>32766353.41616704</v>
+        <v>40584521.39137177</v>
       </c>
       <c r="D385" t="n">
-        <v>26635671.91467573</v>
+        <v>32497856.65570503</v>
       </c>
       <c r="E385" t="n">
-        <v>8988905.947147623</v>
+        <v>11081552.3630136</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>150491323.8362196</v>
+        <v>170636291.087842</v>
       </c>
       <c r="C386" t="n">
-        <v>32765213.2824799</v>
+        <v>40583109.21774881</v>
       </c>
       <c r="D386" t="n">
-        <v>26635587.56944069</v>
+        <v>32497753.74711813</v>
       </c>
       <c r="E386" t="n">
-        <v>12027426.23037193</v>
+        <v>14827450.00869024</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>149626104.0208774</v>
+        <v>169737670.8693662</v>
       </c>
       <c r="C387" t="n">
-        <v>32763916.23762422</v>
+        <v>40581502.69339675</v>
       </c>
       <c r="D387" t="n">
-        <v>26635487.52131817</v>
+        <v>32497631.67963079</v>
       </c>
       <c r="E387" t="n">
-        <v>15086347.46845125</v>
+        <v>18598498.01758245</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>148751940.1917795</v>
+        <v>168828803.9229334</v>
       </c>
       <c r="C388" t="n">
-        <v>32762442.62536032</v>
+        <v>40579677.47202753</v>
       </c>
       <c r="D388" t="n">
-        <v>26635369.04569108</v>
+        <v>32497487.12897111</v>
       </c>
       <c r="E388" t="n">
-        <v>18165231.57828945</v>
+        <v>22394156.31943054</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>147868720.0991157</v>
+        <v>167909524.0524625</v>
       </c>
       <c r="C389" t="n">
-        <v>32760770.61229132</v>
+        <v>40577606.51071842</v>
       </c>
       <c r="D389" t="n">
-        <v>26635228.98370193</v>
+        <v>32497316.24105581</v>
       </c>
       <c r="E389" t="n">
-        <v>21263632.89377254</v>
+        <v>26213875.49560585</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>146976330.5593709</v>
+        <v>166979662.597201</v>
       </c>
       <c r="C390" t="n">
-        <v>32758875.98626595</v>
+        <v>40575259.82021312</v>
       </c>
       <c r="D390" t="n">
-        <v>26635063.68011494</v>
+        <v>32497114.55617652</v>
       </c>
       <c r="E390" t="n">
-        <v>24381099.06468127</v>
+        <v>30057097.88729312</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>146074657.5309219</v>
+        <v>166039048.5214575</v>
       </c>
       <c r="C391" t="n">
-        <v>32756731.94130221</v>
+        <v>40572604.19852737</v>
       </c>
       <c r="D391" t="n">
-        <v>26634868.91351273</v>
+        <v>32496876.9238337</v>
       </c>
       <c r="E391" t="n">
-        <v>27517171.98726386</v>
+        <v>33923258.74270353</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>145163586.2026577</v>
+        <v>165087508.522925</v>
       </c>
       <c r="C392" t="n">
-        <v>32754308.84879442</v>
+        <v>40569602.94756525</v>
       </c>
       <c r="D392" t="n">
-        <v>26634639.81808354</v>
+        <v>32496597.40731006</v>
       </c>
       <c r="E392" t="n">
-        <v>30671388.76403836</v>
+        <v>37811787.40032223</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>144243001.0969252</v>
+        <v>164124867.1612854</v>
       </c>
       <c r="C393" t="n">
-        <v>32751574.01485738</v>
+        <v>40566215.57256474</v>
       </c>
       <c r="D393" t="n">
-        <v>26634370.79621388</v>
+        <v>32496269.17702604</v>
       </c>
       <c r="E393" t="n">
-        <v>30671350.78708652</v>
+        <v>37811740.58221301</v>
       </c>
       <c r="F393" t="n">
-        <v>2466909.888318075</v>
+        <v>3300967.228038217</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>143312786.1881467</v>
+        <v>163150947.0088358</v>
       </c>
       <c r="C394" t="n">
-        <v>32748491.42376796</v>
+        <v>40562397.46432362</v>
       </c>
       <c r="D394" t="n">
-        <v>26634055.42106419</v>
+        <v>32495884.39167351</v>
       </c>
       <c r="E394" t="n">
-        <v>30671304.79255827</v>
+        <v>37811683.88000962</v>
       </c>
       <c r="F394" t="n">
-        <v>4947208.933572873</v>
+        <v>6619850.460413877</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>142372825.0384949</v>
+        <v>162165568.8249244</v>
       </c>
       <c r="C395" t="n">
-        <v>32745021.4675855</v>
+        <v>40558099.56430633</v>
       </c>
       <c r="D395" t="n">
-        <v>26633686.32827179</v>
+        <v>32495434.06608389</v>
       </c>
       <c r="E395" t="n">
-        <v>30671249.19361246</v>
+        <v>37811615.33744917</v>
       </c>
       <c r="F395" t="n">
-        <v>7440531.849837014</v>
+        <v>9956160.908752156</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>141423000.952043</v>
+        <v>161168551.7560089</v>
       </c>
       <c r="C396" t="n">
-        <v>32741120.66216913</v>
+        <v>40553268.01290195</v>
       </c>
       <c r="D396" t="n">
-        <v>26633255.09589707</v>
+        <v>32494907.92475193</v>
       </c>
       <c r="E396" t="n">
-        <v>30671182.11240382</v>
+        <v>37811532.6395179</v>
       </c>
       <c r="F396" t="n">
-        <v>9946513.018977262</v>
+        <v>13309409.34015423</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>140463197.1488325</v>
+        <v>160159713.5631821</v>
       </c>
       <c r="C397" t="n">
-        <v>32736741.34996303</v>
+        <v>40547843.78129306</v>
       </c>
       <c r="D397" t="n">
-        <v>26632752.11170781</v>
+        <v>32494294.23991098</v>
       </c>
       <c r="E397" t="n">
-        <v>30671101.33149421</v>
+        <v>37811433.05255092</v>
       </c>
       <c r="F397" t="n">
-        <v>12464787.35450574</v>
+        <v>16679107.23311489</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>139493296.9603097</v>
+        <v>159138870.8790099</v>
       </c>
       <c r="C398" t="n">
-        <v>32731831.39008971</v>
+        <v>40541762.28760414</v>
       </c>
       <c r="D398" t="n">
-        <v>26632166.42688335</v>
+        <v>32493579.65303922</v>
       </c>
       <c r="E398" t="n">
-        <v>30671004.23808803</v>
+        <v>37811313.35548533</v>
       </c>
       <c r="F398" t="n">
-        <v>14994991.17894271</v>
+        <v>20064767.9515199</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>138513184.0475898</v>
+        <v>158105839.495528</v>
       </c>
       <c r="C399" t="n">
-        <v>32726333.83647746</v>
+        <v>40534952.99822905</v>
       </c>
       <c r="D399" t="n">
-        <v>26631485.59521719</v>
+        <v>32492748.97867272</v>
       </c>
       <c r="E399" t="n">
-        <v>30670887.76020541</v>
+        <v>37811169.76117443</v>
       </c>
       <c r="F399" t="n">
-        <v>17536763.11231462</v>
+        <v>23465907.93354352</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>137522742.6439921</v>
+        <v>157060434.6852192</v>
       </c>
       <c r="C400" t="n">
-        <v>32720186.60494961</v>
+        <v>40527339.01548672</v>
       </c>
       <c r="D400" t="n">
-        <v>26630695.49690491</v>
+        <v>32491784.98941131</v>
       </c>
       <c r="E400" t="n">
-        <v>30670748.2938284</v>
+        <v>37810997.82657317</v>
       </c>
       <c r="F400" t="n">
-        <v>20089744.9692884</v>
+        <v>26882047.89210207</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>136521857.8232664</v>
+        <v>156002471.5567549</v>
       </c>
       <c r="C401" t="n">
-        <v>32713322.1304219</v>
+        <v>40518836.65302448</v>
       </c>
       <c r="D401" t="n">
-        <v>26629780.14602654</v>
+        <v>32490668.18103005</v>
       </c>
       <c r="E401" t="n">
-        <v>30670581.6199746</v>
+        <v>37810792.35050642</v>
       </c>
       <c r="F401" t="n">
-        <v>22653582.66232809</v>
+        <v>30312714.02336609</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>135510415.7948952</v>
+        <v>154931765.4472311</v>
       </c>
       <c r="C402" t="n">
-        <v>32705667.01558746</v>
+        <v>40509355.00067808</v>
       </c>
       <c r="D402" t="n">
-        <v>26628721.48086926</v>
+        <v>32489376.51665463</v>
       </c>
       <c r="E402" t="n">
-        <v>30670382.81057159</v>
+        <v>37810547.25763053</v>
       </c>
       <c r="F402" t="n">
-        <v>25227927.10812944</v>
+        <v>33757439.21965863</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>134488304.2277967</v>
+        <v>153848132.3525503</v>
       </c>
       <c r="C403" t="n">
-        <v>32697141.67271724</v>
+        <v>40498795.48080441</v>
       </c>
       <c r="D403" t="n">
-        <v>26627499.13629147</v>
+        <v>32487885.14902553</v>
       </c>
       <c r="E403" t="n">
-        <v>30670146.12192506</v>
+        <v>37810255.46710055</v>
       </c>
       <c r="F403" t="n">
-        <v>25227904.95119135</v>
+        <v>33757409.57150371</v>
       </c>
       <c r="G403" t="n">
-        <v>1827951.922506216</v>
+        <v>2380097.940660746</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>133455412.6036869</v>
+        <v>152751389.3975025</v>
       </c>
       <c r="C404" t="n">
-        <v>32687659.96046487</v>
+        <v>40487051.39842681</v>
       </c>
       <c r="D404" t="n">
-        <v>26626090.197403</v>
+        <v>32486166.11996626</v>
       </c>
       <c r="E404" t="n">
-        <v>30669864.87449495</v>
+        <v>37809908.74435785</v>
       </c>
       <c r="F404" t="n">
-        <v>25227877.75208618</v>
+        <v>33757373.17643505</v>
       </c>
       <c r="G404" t="n">
-        <v>3662857.878400703</v>
+        <v>4769250.430482728</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>132411632.601266</v>
+        <v>151641355.3469834</v>
       </c>
       <c r="C405" t="n">
-        <v>32677128.81783874</v>
+        <v>40474007.48787144</v>
       </c>
       <c r="D405" t="n">
-        <v>26624468.93393189</v>
+        <v>32484188.03628758</v>
       </c>
       <c r="E405" t="n">
-        <v>30669531.31761931</v>
+        <v>37809497.53436133</v>
       </c>
       <c r="F405" t="n">
-        <v>25227844.43361614</v>
+        <v>33757328.59305637</v>
       </c>
       <c r="G405" t="n">
-        <v>5504486.191300484</v>
+        <v>7167155.81356612</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>131356858.5122906</v>
+        <v>150517851.1596403</v>
       </c>
       <c r="C406" t="n">
-        <v>32665447.89778652</v>
+        <v>40459539.45892392</v>
       </c>
       <c r="D406" t="n">
-        <v>26622606.51476691</v>
+        <v>32481915.72150423</v>
       </c>
       <c r="E406" t="n">
-        <v>30669136.47775732</v>
+        <v>37809010.77450074</v>
       </c>
       <c r="F406" t="n">
-        <v>25227803.70489636</v>
+        <v>33757274.09403723</v>
       </c>
       <c r="G406" t="n">
-        <v>7352611.420828149</v>
+        <v>9573520.553646972</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>130290987.6904624</v>
+        <v>149380700.5850703</v>
       </c>
       <c r="C407" t="n">
-        <v>32652509.203129</v>
+        <v>40443513.54589555</v>
       </c>
       <c r="D407" t="n">
-        <v>26620470.70230913</v>
+        <v>32479309.8429171</v>
       </c>
       <c r="E407" t="n">
-        <v>30668669.98876167</v>
+        <v>37808435.68535614</v>
       </c>
       <c r="F407" t="n">
-        <v>25227754.02262433</v>
+        <v>33757207.61428759</v>
       </c>
       <c r="G407" t="n">
-        <v>9207015.010312904</v>
+        <v>11988060.07744101</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>129213921.033919</v>
+        <v>148229730.8055075</v>
       </c>
       <c r="C408" t="n">
-        <v>32638196.72787509</v>
+        <v>40425786.0633549</v>
       </c>
       <c r="D408" t="n">
-        <v>26618025.52643726</v>
+        <v>32476326.51382232</v>
       </c>
       <c r="E408" t="n">
-        <v>30668119.90264172</v>
+        <v>37807757.53740596</v>
       </c>
       <c r="F408" t="n">
-        <v>25227693.54610044</v>
+        <v>33757126.69077093</v>
       </c>
       <c r="G408" t="n">
-        <v>11067485.92755109</v>
+        <v>14410499.60895049</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>128125563.5019443</v>
+        <v>147064773.1227133</v>
       </c>
       <c r="C409" t="n">
-        <v>32622386.10724835</v>
+        <v>40406202.97264941</v>
       </c>
       <c r="D409" t="n">
-        <v>26615230.93809121</v>
+        <v>32472916.87085281</v>
       </c>
       <c r="E409" t="n">
-        <v>30667472.47924223</v>
+        <v>37806959.39174233</v>
       </c>
       <c r="F409" t="n">
-        <v>25227620.08514487</v>
+        <v>33757028.392812</v>
       </c>
       <c r="G409" t="n">
-        <v>12933821.29656369</v>
+        <v>16840574.9920486</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>127025824.6663294</v>
+        <v>145885663.6905437</v>
       </c>
       <c r="C410" t="n">
-        <v>32604944.28005125</v>
+        <v>40384599.46370856</v>
       </c>
       <c r="D410" t="n">
-        <v>26612042.44270834</v>
+        <v>32469026.62673838</v>
       </c>
       <c r="E410" t="n">
-        <v>30666711.95324371</v>
+        <v>37806021.81282832</v>
       </c>
       <c r="F410" t="n">
-        <v>25227531.03996825</v>
+        <v>33756909.24163781</v>
       </c>
       <c r="G410" t="n">
-        <v>14805827.0182136</v>
+        <v>19278033.4985586</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>125914619.2976032</v>
+        <v>144692244.2934012</v>
       </c>
       <c r="C411" t="n">
-        <v>32585729.16728479</v>
+        <v>40360799.55698096</v>
       </c>
       <c r="D411" t="n">
-        <v>26608410.71400782</v>
+        <v>32464595.5990887</v>
       </c>
       <c r="E411" t="n">
-        <v>30665820.27689153</v>
+        <v>37804922.55133357</v>
       </c>
       <c r="F411" t="n">
-        <v>25227423.33196167</v>
+        <v>33756765.11776785</v>
       </c>
       <c r="G411" t="n">
-        <v>16683318.37748117</v>
+        <v>21722634.61896136</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>124791867.9861233</v>
+        <v>143484363.1704791</v>
       </c>
       <c r="C412" t="n">
-        <v>32564589.37122241</v>
+        <v>40334615.73070631</v>
       </c>
       <c r="D412" t="n">
-        <v>26604281.18891128</v>
+        <v>32459557.21616097</v>
       </c>
       <c r="E412" t="n">
-        <v>30664776.83688613</v>
+        <v>37803636.19511564</v>
       </c>
       <c r="F412" t="n">
-        <v>25227293.32427714</v>
+        <v>33756591.15474308</v>
       </c>
       <c r="G412" t="n">
-        <v>18566120.63510998</v>
+        <v>24174150.83275198</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>123657497.7977705</v>
+        <v>142261875.8853923</v>
       </c>
       <c r="C413" t="n">
-        <v>32541363.89940543</v>
+        <v>40305848.57905506</v>
       </c>
       <c r="D413" t="n">
-        <v>26599593.64471259</v>
+        <v>32453838.00096999</v>
       </c>
       <c r="E413" t="n">
-        <v>30663558.14391961</v>
+        <v>37802133.78647968</v>
       </c>
       <c r="F413" t="n">
-        <v>25227136.73097397</v>
+        <v>33756381.61755473</v>
       </c>
       <c r="G413" t="n">
-        <v>18566108.15528238</v>
+        <v>24174134.58330275</v>
       </c>
       <c r="H413" t="n">
-        <v>1907437.904704372</v>
+        <v>2555345.061603618</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>122511442.9637158</v>
+        <v>141024646.240444</v>
       </c>
       <c r="C414" t="n">
-        <v>32515881.91827585</v>
+        <v>40274286.50697726</v>
       </c>
       <c r="D414" t="n">
-        <v>26594281.75996614</v>
+        <v>32447357.03553331</v>
       </c>
       <c r="E414" t="n">
-        <v>30662137.4934289</v>
+        <v>37800382.40395384</v>
       </c>
       <c r="F414" t="n">
-        <v>25226948.5134095</v>
+        <v>33756129.76400507</v>
       </c>
       <c r="G414" t="n">
-        <v>18566092.66880457</v>
+        <v>24174114.419023</v>
       </c>
       <c r="H414" t="n">
-        <v>3819923.983200921</v>
+        <v>5117453.030633025</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>121353645.6034454</v>
+        <v>139772547.234408</v>
       </c>
       <c r="C415" t="n">
-        <v>32487962.54138783</v>
+        <v>40239705.46788042</v>
       </c>
       <c r="D415" t="n">
-        <v>26588272.66095025</v>
+        <v>32440025.40751679</v>
       </c>
       <c r="E415" t="n">
-        <v>30660484.59625641</v>
+        <v>37798344.70696653</v>
       </c>
       <c r="F415" t="n">
-        <v>25226722.76245892</v>
+        <v>33755827.68710592</v>
       </c>
       <c r="G415" t="n">
-        <v>18566073.49499733</v>
+        <v>24174089.45362944</v>
       </c>
       <c r="H415" t="n">
-        <v>5737316.009438396</v>
+        <v>7686133.370538225</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>120184056.4799189</v>
+        <v>138505462.0623226</v>
       </c>
       <c r="C416" t="n">
-        <v>32457414.65733534</v>
+        <v>40201868.75050016</v>
       </c>
       <c r="D416" t="n">
-        <v>26581486.45597919</v>
+        <v>32431745.64205445</v>
       </c>
       <c r="E416" t="n">
-        <v>30658565.17807029</v>
+        <v>37795978.44201048</v>
       </c>
       <c r="F416" t="n">
-        <v>25226452.56505761</v>
+        <v>33755466.1364992</v>
       </c>
       <c r="G416" t="n">
-        <v>18566049.80988183</v>
+        <v>24174058.61425456</v>
       </c>
       <c r="H416" t="n">
-        <v>7659484.164562624</v>
+        <v>10261212.16636917</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>119002635.7854164</v>
+        <v>137223285.1553817</v>
       </c>
       <c r="C417" t="n">
-        <v>32424036.80269495</v>
+        <v>40160526.82152668</v>
       </c>
       <c r="D417" t="n">
-        <v>26573835.76028111</v>
+        <v>32422411.12205776</v>
       </c>
       <c r="E417" t="n">
-        <v>30656340.54660162</v>
+        <v>37793235.90913124</v>
       </c>
       <c r="F417" t="n">
-        <v>25226129.85347483</v>
+        <v>33755034.31677043</v>
       </c>
       <c r="G417" t="n">
-        <v>18566020.61854983</v>
+        <v>24174020.60547089</v>
       </c>
       <c r="H417" t="n">
-        <v>9586311.545691153</v>
+        <v>12842532.80636795</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>117809353.9562926</v>
+        <v>135925923.2585828</v>
       </c>
       <c r="C418" t="n">
-        <v>32387617.08540417</v>
+        <v>40115417.23070091</v>
       </c>
       <c r="D418" t="n">
-        <v>26565225.2146276</v>
+        <v>32411905.50090162</v>
       </c>
       <c r="E418" t="n">
-        <v>30653767.1260091</v>
+        <v>37790063.38789051</v>
       </c>
       <c r="F418" t="n">
-        <v>25225745.23565261</v>
+        <v>33754519.66042548</v>
       </c>
       <c r="G418" t="n">
-        <v>18565984.72277118</v>
+        <v>24173973.86711426</v>
       </c>
       <c r="H418" t="n">
-        <v>11517694.64773972</v>
+        <v>15429956.6274592</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>116604192.5145049</v>
+        <v>134613296.5433522</v>
       </c>
       <c r="C419" t="n">
-        <v>32347933.16407143</v>
+        <v>40066264.5851878</v>
       </c>
       <c r="D419" t="n">
-        <v>26555551.0013897</v>
+        <v>32400102.11197006</v>
       </c>
       <c r="E419" t="n">
-        <v>30650795.95798757</v>
+        <v>37786400.52233119</v>
       </c>
       <c r="F419" t="n">
-        <v>25225287.80488036</v>
+        <v>33753907.57321652</v>
       </c>
       <c r="G419" t="n">
-        <v>18565940.68313656</v>
+        <v>24173916.52499143</v>
       </c>
       <c r="H419" t="n">
-        <v>13453543.8159052</v>
+        <v>18023363.52142979</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>115387144.9334272</v>
+        <v>133285339.7519111</v>
       </c>
       <c r="C420" t="n">
-        <v>32304752.28873809</v>
+        <v>40012780.60006423</v>
       </c>
       <c r="D420" t="n">
-        <v>26544700.36219939</v>
+        <v>32386863.38016111</v>
       </c>
       <c r="E420" t="n">
-        <v>30647372.16959744</v>
+        <v>37782179.66491561</v>
       </c>
       <c r="F420" t="n">
-        <v>25224744.92702867</v>
+        <v>33753181.14944007</v>
       </c>
       <c r="G420" t="n">
-        <v>18565886.77495337</v>
+        <v>24173846.33345401</v>
       </c>
       <c r="H420" t="n">
-        <v>15393783.66633408</v>
+        <v>20622652.49848742</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>114158217.5250874</v>
+        <v>131942003.3696903</v>
       </c>
       <c r="C421" t="n">
-        <v>32257831.40858043</v>
+        <v>39954664.23171911</v>
       </c>
       <c r="D421" t="n">
-        <v>26532551.12191189</v>
+        <v>32372040.24107893</v>
       </c>
       <c r="E421" t="n">
-        <v>30643434.40821034</v>
+        <v>37777325.17992479</v>
       </c>
       <c r="F421" t="n">
-        <v>25224102.00353922</v>
+        <v>33752320.85479417</v>
       </c>
       <c r="G421" t="n">
-        <v>18565820.93702796</v>
+        <v>24173760.60870996</v>
       </c>
       <c r="H421" t="n">
-        <v>17338353.47242573</v>
+        <v>23227742.20478113</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>112917430.3456007</v>
+        <v>130583254.8216251</v>
       </c>
       <c r="C422" t="n">
-        <v>32206917.35194552</v>
+        <v>39891601.90084644</v>
       </c>
       <c r="D422" t="n">
-        <v>26518971.22408282</v>
+        <v>32355471.57427518</v>
       </c>
       <c r="E422" t="n">
-        <v>30638914.24444599</v>
+        <v>37771752.70739713</v>
       </c>
       <c r="F422" t="n">
-        <v>25223342.20836481</v>
+        <v>33751304.17437848</v>
       </c>
       <c r="G422" t="n">
-        <v>18565740.71237934</v>
+        <v>24173656.15162953</v>
       </c>
       <c r="H422" t="n">
-        <v>19287207.51412975</v>
+        <v>25838571.39034586</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>111664818.1151924</v>
+        <v>129209079.6876996</v>
       </c>
       <c r="C423" t="n">
-        <v>32151747.08395393</v>
+        <v>39823267.81151298</v>
       </c>
       <c r="D423" t="n">
-        <v>26503818.28369139</v>
+        <v>32336983.65753216</v>
       </c>
       <c r="E423" t="n">
-        <v>30633735.54451538</v>
+        <v>37765368.389351</v>
       </c>
       <c r="F423" t="n">
-        <v>25222446.19708081</v>
+        <v>33750105.22345674</v>
       </c>
       <c r="G423" t="n">
-        <v>18565643.17983807</v>
+        <v>24173529.15868308</v>
       </c>
       <c r="H423" t="n">
-        <v>21240315.38750684</v>
+        <v>28455099.32381316</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>110400431.1488349</v>
+        <v>127819482.9326378</v>
       </c>
       <c r="C424" t="n">
-        <v>32092048.04667047</v>
+        <v>39749324.37249484</v>
       </c>
       <c r="D424" t="n">
-        <v>26486939.16334599</v>
+        <v>32316389.64979634</v>
       </c>
       <c r="E424" t="n">
-        <v>30627813.81398834</v>
+        <v>37758068.06077922</v>
       </c>
       <c r="F424" t="n">
-        <v>25221391.78644942</v>
+        <v>33748694.31868247</v>
       </c>
       <c r="G424" t="n">
-        <v>18565524.87539094</v>
+        <v>24173375.11952728</v>
       </c>
       <c r="H424" t="n">
-        <v>23197662.27171603</v>
+        <v>31077306.15008695</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>109124336.2931532</v>
+        <v>126414490.1441842</v>
       </c>
       <c r="C425" t="n">
-        <v>32027538.58653772</v>
+        <v>39669422.72669829</v>
       </c>
       <c r="D425" t="n">
-        <v>26468169.57969389</v>
+        <v>32293489.11096378</v>
       </c>
       <c r="E425" t="n">
-        <v>30621055.51566696</v>
+        <v>37749736.40872128</v>
       </c>
       <c r="F425" t="n">
-        <v>25220153.60281935</v>
+        <v>33747037.50762322</v>
       </c>
       <c r="G425" t="n">
-        <v>18565381.70203879</v>
+        <v>24173188.69963494</v>
       </c>
       <c r="H425" t="n">
-        <v>25159249.15048985</v>
+        <v>33705193.18704819</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>107836617.8649002</v>
+        <v>124994148.7739606</v>
       </c>
       <c r="C426" t="n">
-        <v>31957928.47338261</v>
+        <v>39583203.394003</v>
       </c>
       <c r="D426" t="n">
-        <v>26447333.74721272</v>
+        <v>32268067.56727439</v>
       </c>
       <c r="E426" t="n">
-        <v>30613357.36496993</v>
+        <v>37740246.10361083</v>
       </c>
       <c r="F426" t="n">
-        <v>25218702.69788787</v>
+        <v>33745096.05461252</v>
       </c>
       <c r="G426" t="n">
-        <v>18565208.82684292</v>
+        <v>24172963.60624346</v>
       </c>
       <c r="H426" t="n">
-        <v>27125092.98503804</v>
+        <v>36338783.15718942</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>106537378.5859524</v>
+        <v>123558529.3744644</v>
       </c>
       <c r="C427" t="n">
-        <v>31882919.51484222</v>
+        <v>39490297.03229219</v>
       </c>
       <c r="D427" t="n">
-        <v>26424244.06697697</v>
+        <v>32239896.13157977</v>
       </c>
       <c r="E427" t="n">
-        <v>30604605.60701155</v>
+        <v>37729456.90805639</v>
       </c>
       <c r="F427" t="n">
-        <v>25217006.13054762</v>
+        <v>33742825.88121994</v>
       </c>
       <c r="G427" t="n">
-        <v>18565000.56374782</v>
+        <v>24172692.43578341</v>
       </c>
       <c r="H427" t="n">
-        <v>29095226.83520526</v>
+        <v>38978120.34992661</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>105226740.5094532</v>
+        <v>122107726.825357</v>
       </c>
       <c r="C428" t="n">
-        <v>31802206.26950905</v>
+        <v>39390325.3207567</v>
       </c>
       <c r="D428" t="n">
-        <v>26398700.86835776</v>
+        <v>32208731.18819428</v>
       </c>
       <c r="E428" t="n">
-        <v>30594675.28038903</v>
+        <v>37717214.76923591</v>
       </c>
       <c r="F428" t="n">
-        <v>25215026.51379133</v>
+        <v>33740176.95996524</v>
       </c>
       <c r="G428" t="n">
-        <v>18564750.2406862</v>
+        <v>24172366.50084163</v>
       </c>
       <c r="H428" t="n">
-        <v>31069699.92558052</v>
+        <v>41623270.71016422</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>103904845.9314228</v>
+        <v>120641861.5418098</v>
       </c>
       <c r="C429" t="n">
-        <v>31715476.86146838</v>
+        <v>39282901.96878397</v>
       </c>
       <c r="D429" t="n">
-        <v>26370492.21191711</v>
+        <v>32174314.15240878</v>
       </c>
       <c r="E429" t="n">
-        <v>30583429.47356591</v>
+        <v>37703350.90216382</v>
       </c>
       <c r="F429" t="n">
-        <v>25212721.52595861</v>
+        <v>33737092.66031861</v>
       </c>
       <c r="G429" t="n">
-        <v>18564450.04940022</v>
+        <v>24171975.63461984</v>
       </c>
       <c r="H429" t="n">
-        <v>33048577.6531234</v>
+        <v>44274321.84851193</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>102571858.2818735</v>
+        <v>119161080.6573282</v>
       </c>
       <c r="C430" t="n">
-        <v>31622413.89819179</v>
+        <v>39167633.85286421</v>
       </c>
       <c r="D430" t="n">
-        <v>26339393.76198711</v>
+        <v>32136371.31502599</v>
       </c>
       <c r="E430" t="n">
-        <v>30570718.58064885</v>
+        <v>37687680.87221031</v>
       </c>
       <c r="F430" t="n">
-        <v>25210043.38598545</v>
+        <v>33733509.04653306</v>
       </c>
       <c r="G430" t="n">
-        <v>18564090.87635322</v>
+        <v>24171507.97077212</v>
       </c>
       <c r="H430" t="n">
-        <v>35031941.53274104</v>
+        <v>46931382.96837543</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>101227962.9892166</v>
+        <v>117665559.1731587</v>
       </c>
       <c r="C431" t="n">
-        <v>31522695.49296313</v>
+        <v>39044122.28297071</v>
       </c>
       <c r="D431" t="n">
-        <v>26305168.73756848</v>
+        <v>32094613.78245247</v>
       </c>
       <c r="E431" t="n">
-        <v>30556379.5642906</v>
+        <v>37670003.6864057</v>
       </c>
       <c r="F431" t="n">
-        <v>25206938.2927629</v>
+        <v>33729354.12745142</v>
       </c>
       <c r="G431" t="n">
-        <v>18563662.11306402</v>
+        <v>24170949.69644932</v>
       </c>
       <c r="H431" t="n">
-        <v>37019889.07711019</v>
+        <v>49594584.70495732</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>99873368.31153184</v>
+        <v>116155501.066115</v>
       </c>
       <c r="C432" t="n">
-        <v>31415996.39214931</v>
+        <v>38911964.39880156</v>
       </c>
       <c r="D432" t="n">
-        <v>26267567.95023075</v>
+        <v>32048737.52294014</v>
       </c>
       <c r="E432" t="n">
-        <v>30540235.23439993</v>
+        <v>37650100.90423162</v>
       </c>
       <c r="F432" t="n">
-        <v>25203345.82923014</v>
+        <v>33724547.05912447</v>
       </c>
       <c r="G432" t="n">
-        <v>18563151.44417345</v>
+        <v>24170284.77634948</v>
       </c>
       <c r="H432" t="n">
-        <v>39012533.60690111</v>
+        <v>52264078.87101871</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>98508306.12809022</v>
+        <v>114631140.3464389</v>
       </c>
       <c r="C433" t="n">
-        <v>31301989.20669315</v>
+        <v>38770754.69511105</v>
       </c>
       <c r="D433" t="n">
-        <v>26226329.93763596</v>
+        <v>31998423.52949688</v>
       </c>
       <c r="E433" t="n">
-        <v>30522093.55228667</v>
+        <v>37627735.77976895</v>
       </c>
       <c r="F433" t="n">
-        <v>25199198.33242077</v>
+        <v>33718997.30187108</v>
       </c>
       <c r="G433" t="n">
-        <v>18562544.61155694</v>
+        <v>24169494.64557904</v>
       </c>
       <c r="H433" t="n">
-        <v>41010003.98742511</v>
+        <v>54940038.10407305</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>97133032.68438391</v>
+        <v>113092742.0571401</v>
       </c>
       <c r="C434" t="n">
-        <v>31180345.74620487</v>
+        <v>38620086.67412</v>
       </c>
       <c r="D434" t="n">
-        <v>26181181.20112983</v>
+        <v>31943338.10976868</v>
       </c>
       <c r="E434" t="n">
-        <v>30501746.97080056</v>
+        <v>37602652.44821867</v>
       </c>
       <c r="F434" t="n">
-        <v>25194420.23135183</v>
+        <v>33712603.73430888</v>
       </c>
       <c r="G434" t="n">
-        <v>18561825.15283092</v>
+        <v>24168557.8691731</v>
       </c>
       <c r="H434" t="n">
-        <v>43012444.28759121</v>
+        <v>57622655.40949906</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>95747829.28382841</v>
+        <v>111540603.206152</v>
       </c>
       <c r="C435" t="n">
-        <v>31050738.45296886</v>
+        <v>38459554.62168175</v>
       </c>
       <c r="D435" t="n">
-        <v>26131836.55553854</v>
+        <v>31883133.31282234</v>
       </c>
       <c r="E435" t="n">
-        <v>30478971.82191736</v>
+        <v>37574575.17091611</v>
       </c>
       <c r="F435" t="n">
-        <v>25188927.3553917</v>
+        <v>33705253.72788265</v>
       </c>
       <c r="G435" t="n">
-        <v>18560974.11267068</v>
+        <v>24167449.76621488</v>
       </c>
       <c r="H435" t="n">
-        <v>45020013.35693464</v>
+        <v>60312143.59389689</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>94353002.9192552</v>
+        <v>109975053.6225858</v>
       </c>
       <c r="C436" t="n">
-        <v>30912841.93207391</v>
+        <v>38288755.50250677</v>
       </c>
       <c r="D436" t="n">
-        <v>26077999.5988676</v>
+        <v>31817447.50221933</v>
       </c>
       <c r="E436" t="n">
-        <v>30453527.76406717</v>
+        <v>37543207.65399557</v>
       </c>
       <c r="F436" t="n">
-        <v>25182626.21656457</v>
+        <v>33696822.18651742</v>
       </c>
       <c r="G436" t="n">
-        <v>18559969.72546888</v>
+        <v>24166141.99663889</v>
       </c>
       <c r="H436" t="n">
-        <v>47032884.31635681</v>
+        <v>63008734.58284546</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>92948886.83733094</v>
+        <v>108396456.7283868</v>
       </c>
       <c r="C437" t="n">
-        <v>30766334.57272531</v>
+        <v>38107290.96832573</v>
       </c>
       <c r="D437" t="n">
-        <v>26019363.30901464</v>
+        <v>31745906.08405769</v>
       </c>
       <c r="E437" t="n">
-        <v>30425157.30226548</v>
+        <v>37508232.45680617</v>
       </c>
       <c r="F437" t="n">
-        <v>25175413.27014184</v>
+        <v>33687170.55721723</v>
       </c>
       <c r="G437" t="n">
-        <v>18558787.06802115</v>
+        <v>24164602.10900772</v>
       </c>
       <c r="H437" t="n">
-        <v>49051243.9581186</v>
+        <v>65712678.61708932</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>91535841.02909866</v>
+        <v>106805210.2167784</v>
       </c>
       <c r="C438" t="n">
-        <v>30610900.2546199</v>
+        <v>37914769.47141146</v>
       </c>
       <c r="D438" t="n">
-        <v>25955610.77387497</v>
+        <v>31668122.39776499</v>
       </c>
       <c r="E438" t="n">
-        <v>30393585.39477525</v>
+        <v>37469310.50700379</v>
       </c>
       <c r="F438" t="n">
-        <v>25167174.15882884</v>
+        <v>33676145.81871293</v>
       </c>
       <c r="G438" t="n">
-        <v>18557397.68113614</v>
+        <v>24162793.04782668</v>
       </c>
       <c r="H438" t="n">
-        <v>51075292.05053561</v>
+        <v>68424243.32105683</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>90114252.63996556</v>
+        <v>105201746.6290385</v>
       </c>
       <c r="C439" t="n">
-        <v>30446230.13207027</v>
+        <v>37710808.4744017</v>
       </c>
       <c r="D439" t="n">
-        <v>25886416.06033457</v>
+        <v>31583698.77634586</v>
       </c>
       <c r="E439" t="n">
-        <v>30358519.16057656</v>
+        <v>37426080.73991853</v>
       </c>
       <c r="F439" t="n">
-        <v>25157782.94687134</v>
+        <v>33663579.45662161</v>
       </c>
       <c r="G439" t="n">
-        <v>18555769.15933481</v>
+        <v>24160672.61930888</v>
       </c>
       <c r="H439" t="n">
-        <v>53105240.5427665</v>
+        <v>71143712.6375355</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>88684536.29264233</v>
+        <v>103586533.8213879</v>
       </c>
       <c r="C440" t="n">
-        <v>30272024.48736774</v>
+        <v>37495036.74588099</v>
       </c>
       <c r="D440" t="n">
-        <v>25811445.22660778</v>
+        <v>31492227.78152296</v>
       </c>
       <c r="E440" t="n">
-        <v>30319647.70232339</v>
+        <v>37378159.88029536</v>
       </c>
       <c r="F440" t="n">
-        <v>25147101.35146962</v>
+        <v>33649286.43500327</v>
       </c>
       <c r="G440" t="n">
-        <v>18553864.70813521</v>
+        <v>24158192.91493457</v>
       </c>
       <c r="H440" t="n">
-        <v>55141312.66504187</v>
+        <v>73871385.62227233</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>87247134.31678464</v>
+        <v>101960075.3140713</v>
       </c>
       <c r="C441" t="n">
-        <v>30087994.64368813</v>
+        <v>37267096.72971242</v>
       </c>
       <c r="D441" t="n">
-        <v>25730357.4811889</v>
+        <v>31393293.61775947</v>
       </c>
       <c r="E441" t="n">
-        <v>30276642.05970332</v>
+        <v>37325142.38479576</v>
       </c>
       <c r="F441" t="n">
-        <v>25134977.97998593</v>
+        <v>33633064.17566963</v>
       </c>
       <c r="G441" t="n">
-        <v>18551642.66881657</v>
+        <v>24155299.69266694</v>
       </c>
       <c r="H441" t="n">
-        <v>57183741.91968524</v>
+        <v>76607575.09227061</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>85802516.87939411</v>
+        <v>100322910.5151086</v>
       </c>
       <c r="C442" t="n">
-        <v>29893864.92668547</v>
+        <v>37026646.97467475</v>
       </c>
       <c r="D442" t="n">
-        <v>25642806.49035089</v>
+        <v>31286473.72752231</v>
       </c>
       <c r="E442" t="n">
-        <v>30229155.30816045</v>
+        <v>37266600.56370363</v>
       </c>
       <c r="F442" t="n">
-        <v>25121247.58254936</v>
+        <v>33614691.55809626</v>
       </c>
       <c r="G442" t="n">
-        <v>18549056.01102699</v>
+        <v>24151931.7162982</v>
       </c>
       <c r="H442" t="n">
-        <v>59232770.95831177</v>
+        <v>79352606.12160218</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>84351182.01040336</v>
+        <v>98675614.81164506</v>
       </c>
       <c r="C443" t="n">
-        <v>29689374.66280389</v>
+        <v>36773364.6095784</v>
       </c>
       <c r="D443" t="n">
-        <v>25548441.83464823</v>
+        <v>31171340.56834338</v>
       </c>
       <c r="E443" t="n">
-        <v>30176822.81777358</v>
+        <v>37202084.90007129</v>
       </c>
       <c r="F443" t="n">
-        <v>25105730.33078146</v>
+        <v>33593927.95428663</v>
       </c>
       <c r="G443" t="n">
-        <v>18546051.79414234</v>
+        <v>24148020.05410818</v>
       </c>
       <c r="H443" t="n">
-        <v>61288650.34067553</v>
+        <v>82106814.37866737</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>82893655.51830085</v>
+        <v>97018799.52237895</v>
       </c>
       <c r="C444" t="n">
-        <v>29474280.20128094</v>
+        <v>36506947.84772609</v>
       </c>
       <c r="D444" t="n">
-        <v>25446910.61327359</v>
+        <v>31047463.57027547</v>
       </c>
       <c r="E444" t="n">
-        <v>30119262.68667899</v>
+        <v>37131124.58404428</v>
       </c>
       <c r="F444" t="n">
-        <v>25088231.13446667</v>
+        <v>33570512.31441033</v>
       </c>
       <c r="G444" t="n">
-        <v>18542570.59890462</v>
+        <v>24143487.33882485</v>
       </c>
       <c r="H444" t="n">
-        <v>63351637.17078093</v>
+        <v>84870544.29902893</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>81430490.79114088</v>
+        <v>95353111.70515436</v>
       </c>
       <c r="C445" t="n">
-        <v>29248356.94583548</v>
+        <v>36227118.50336851</v>
       </c>
       <c r="D445" t="n">
-        <v>25337859.19339269</v>
+        <v>30914411.27023427</v>
       </c>
       <c r="E445" t="n">
-        <v>30056076.36277159</v>
+        <v>37053228.2792967</v>
       </c>
       <c r="F445" t="n">
-        <v>25068539.00905147</v>
+        <v>33544162.32045481</v>
       </c>
       <c r="G445" t="n">
-        <v>18538545.93156437</v>
+        <v>24138246.99178376</v>
       </c>
       <c r="H445" t="n">
-        <v>65421993.60607594</v>
+        <v>87644147.08821663</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>79962268.47883373</v>
+        <v>93679233.81449974</v>
       </c>
       <c r="C446" t="n">
-        <v>29011401.38114505</v>
+        <v>35933624.50170647</v>
       </c>
       <c r="D446" t="n">
-        <v>25220935.09975363</v>
+        <v>30771753.61748751</v>
       </c>
       <c r="E446" t="n">
-        <v>29986849.46649404</v>
+        <v>36967885.1373683</v>
       </c>
       <c r="F446" t="n">
-        <v>25046426.50784853</v>
+        <v>33514573.62645894</v>
       </c>
       <c r="G446" t="n">
-        <v>18533903.60352414</v>
+        <v>24132202.41518829</v>
       </c>
       <c r="H446" t="n">
-        <v>67499985.23582396</v>
+        <v>90427978.54927443</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>78489596.05321638</v>
+        <v>91997883.20464857</v>
       </c>
       <c r="C447" t="n">
-        <v>28763233.07843856</v>
+        <v>35626242.36302508</v>
       </c>
       <c r="D447" t="n">
-        <v>25095789.03795537</v>
+        <v>30619064.44222007</v>
       </c>
       <c r="E447" t="n">
-        <v>29911152.82631734</v>
+        <v>36874566.07420819</v>
       </c>
       <c r="F447" t="n">
-        <v>25021649.23372144</v>
+        <v>33481419.20509927</v>
       </c>
       <c r="G447" t="n">
-        <v>18528561.09032392</v>
+        <v>24125246.15747207</v>
       </c>
       <c r="H447" t="n">
-        <v>69585879.32511085</v>
+        <v>93222396.73030223</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>77013107.24306276</v>
+        <v>90309811.47440648</v>
       </c>
       <c r="C448" t="n">
-        <v>28503696.66387485</v>
+        <v>35304779.64073436</v>
       </c>
       <c r="D448" t="n">
-        <v>24962077.04278601</v>
+        <v>30455924.07669515</v>
       </c>
       <c r="E448" t="n">
-        <v>29828543.73702043</v>
+        <v>36772725.32138607</v>
       </c>
       <c r="F448" t="n">
-        <v>24993945.44580289</v>
+        <v>33444348.82144045</v>
       </c>
       <c r="G448" t="n">
-        <v>18522426.87472095</v>
+        <v>24117259.05795133</v>
       </c>
       <c r="H448" t="n">
-        <v>71679942.92139453</v>
+        <v>96027759.38784923</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>75533461.34190074</v>
+        <v>88615803.65111461</v>
       </c>
       <c r="C449" t="n">
-        <v>28232663.73286228</v>
+        <v>34969077.29245234</v>
       </c>
       <c r="D449" t="n">
-        <v>24819462.74102956</v>
+        <v>30281922.11607702</v>
       </c>
       <c r="E449" t="n">
-        <v>29738567.44908578</v>
+        <v>36661802.26222404</v>
       </c>
       <c r="F449" t="n">
-        <v>24963035.77742345</v>
+        <v>33402988.65549631</v>
       </c>
       <c r="G449" t="n">
-        <v>18515399.77958697</v>
+        <v>24108109.37821891</v>
       </c>
       <c r="H449" t="n">
-        <v>73782440.82105947</v>
+        <v>98844421.26276015</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>74051342.38725519</v>
+        <v>86916677.21190144</v>
       </c>
       <c r="C450" t="n">
-        <v>27950034.69311189</v>
+        <v>34619011.96281718</v>
       </c>
       <c r="D450" t="n">
-        <v>24667619.71611672</v>
+        <v>30096660.30351254</v>
       </c>
       <c r="E450" t="n">
-        <v>29640758.89544427</v>
+        <v>36541223.56053311</v>
       </c>
       <c r="F450" t="n">
-        <v>24928623.08187123</v>
+        <v>33356941.09584111</v>
       </c>
       <c r="G450" t="n">
-        <v>18507368.2973656</v>
+        <v>24097651.92905945</v>
       </c>
       <c r="H450" t="n">
-        <v>75893633.39409453</v>
+        <v>101672731.1659523</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>72567458.21073027</v>
+        <v>85213280.94140887</v>
       </c>
       <c r="C451" t="n">
-        <v>27655740.5190196</v>
+        <v>34254498.1564712</v>
       </c>
       <c r="D451" t="n">
-        <v>24506233.95998986</v>
+        <v>29899755.52162138</v>
       </c>
       <c r="E451" t="n">
-        <v>29534644.6594313</v>
+        <v>36410405.58671594</v>
       </c>
       <c r="F451" t="n">
-        <v>24890392.42283162</v>
+        <v>33305784.72681701</v>
       </c>
       <c r="G451" t="n">
-        <v>18498209.92388948</v>
+        <v>24085727.20304124</v>
       </c>
       <c r="H451" t="n">
-        <v>78013774.2658025</v>
+        <v>104513028.872662</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>71082539.35916865</v>
+        <v>83506493.62621099</v>
       </c>
       <c r="C452" t="n">
-        <v>27349744.39995205</v>
+        <v>33875490.27963355</v>
       </c>
       <c r="D452" t="n">
-        <v>24335006.39559487</v>
+        <v>29690842.8701576</v>
       </c>
       <c r="E452" t="n">
-        <v>29419745.18517146</v>
+        <v>36268757.14273626</v>
       </c>
       <c r="F452" t="n">
-        <v>24848011.2263437</v>
+        <v>33249074.53186657</v>
       </c>
       <c r="G452" t="n">
-        <v>18487790.5054343</v>
+        <v>24072160.52434323</v>
       </c>
       <c r="H452" t="n">
-        <v>80143107.8553541</v>
+        <v>107365641.8249094</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24171598.02492844</v>
+        <v>24106707.82888837</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>24199821.22623737</v>
+        <v>24134855.26321391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>24228419.48083726</v>
+        <v>24163376.74397595</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>24257397.57902663</v>
+        <v>24192277.04861313</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>24286760.35922255</v>
+        <v>24221561.0025535</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>24316512.70754065</v>
+        <v>24251233.47879558</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>24346659.55731273</v>
+        <v>24281299.39742733</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24377205.88853979</v>
+        <v>24311763.72508062</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24408156.72727795</v>
+        <v>24342631.47431882</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>24439517.14495484</v>
+        <v>24373907.70295496</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>24471292.25761418</v>
+        <v>24405597.51329844</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>24503487.22508651</v>
+        <v>24437706.05132789</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24536107.25008366</v>
+        <v>24470238.50578814</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24569157.57721524</v>
+        <v>24503200.10720929</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24602643.49192499</v>
+        <v>24536596.12684599</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24636570.31934562</v>
+        <v>24570431.87553531</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24670943.42307031</v>
+        <v>24604712.70247149</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24705768.20383953</v>
+        <v>24639443.99389634</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24741050.09814221</v>
+        <v>24674631.17170425</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24776794.57673021</v>
+        <v>24710279.69196047</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24813007.1430454</v>
+        <v>24746395.04333253</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24849693.33155911</v>
+        <v>24782982.74543413</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>24886858.7060236</v>
+        <v>24820048.34708127</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>24924508.8576362</v>
+        <v>24857597.42446135</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>24962649.40311618</v>
+        <v>24895635.5792152</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>25001285.98269573</v>
+        <v>24934168.43643345</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>25040424.2580263</v>
+        <v>24973201.64256851</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>25080069.91000178</v>
+        <v>25012740.86326353</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>25120228.63650119</v>
+        <v>25052791.78110119</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25160906.15005315</v>
+        <v>25093360.09327449</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>25202108.17542543</v>
+        <v>25134451.50918268</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>25243840.44714344</v>
+        <v>25176071.74795648</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>25286108.70694141</v>
+        <v>25218226.53591608</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>25328918.70115159</v>
+        <v>25260921.6039673</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>25372276.17803622</v>
+        <v>25304162.68494083</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>25416186.88506864</v>
+        <v>25347955.51088054</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>25460656.56616979</v>
+        <v>25392305.81028746</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>25505690.95890741</v>
+        <v>25437219.30532645</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25551295.79166567</v>
+        <v>25482701.70900349</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25597476.78079364</v>
+        <v>25528758.72232171</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25644239.62774175</v>
+        <v>25575396.03142566</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>25691590.01619605</v>
+        <v>25622619.3047432</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25739533.60922073</v>
+        <v>25670434.19013558</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25788076.0464197</v>
+        <v>25718846.3120669</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>25837222.94112977</v>
+        <v>25767861.26880459</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>25886979.87765696</v>
+        <v>25817484.62966325</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>25937352.40856992</v>
+        <v>25867721.9323053</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>25988346.05206383</v>
+        <v>25918578.68011199</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>26039966.28940921</v>
+        <v>25970060.33963898</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>26092218.56250099</v>
+        <v>26022172.33817213</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>26145108.27152326</v>
+        <v>26074920.06139838</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>26198640.77274622</v>
+        <v>26128308.85120864</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>26252821.37647175</v>
+        <v>26182344.00364903</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>26307655.34514562</v>
+        <v>26237030.76703785</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>26363147.89165339</v>
+        <v>26292374.3402664</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>26419304.17781898</v>
+        <v>26348379.87130135</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>26476129.31312416</v>
+        <v>26405052.45590773</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>26533628.35366814</v>
+        <v>26462397.13661131</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>26591806.30138668</v>
+        <v>26520418.90191985</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26650668.10355006</v>
+        <v>26579122.6858224</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26710218.6525601</v>
+        <v>26638513.36758679</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26770462.78606553</v>
+        <v>26698595.77187473</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>26831405.28741622</v>
+        <v>26759374.66919499</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>26893050.88647562</v>
+        <v>26820854.77671326</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>26955404.26081158</v>
+        <v>26883040.75944027</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>27018470.03728509</v>
+        <v>26945937.23181586</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>27082252.79405588</v>
+        <v>27009548.75970941</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>27146757.06302447</v>
+        <v>27073879.86285528</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>27211987.33272868</v>
+        <v>27138935.01774149</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>27277948.05171267</v>
+        <v>27204718.66096982</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>27344643.63238612</v>
+        <v>27271235.19310452</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>27412078.45538958</v>
+        <v>27338488.98302613</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>27480256.8744826</v>
+        <v>27406484.37280616</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>27549183.22196856</v>
+        <v>27475225.68311765</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>27618861.81467059</v>
+        <v>27544717.21919496</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>27689296.96047115</v>
+        <v>27614963.27735581</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>27760492.96542669</v>
+        <v>27685968.1520967</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>27832454.14146737</v>
+        <v>27757736.14377214</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>27905184.81469085</v>
+        <v>27830271.5668662</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>27978689.33425722</v>
+        <v>27903578.75886324</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>28052972.08189022</v>
+        <v>27977662.08972408</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>28128037.48198969</v>
+        <v>28052525.97197092</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>28203890.01235595</v>
+        <v>28128174.87138316</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>28280534.21552763</v>
+        <v>28204613.31830474</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>28357974.71073059</v>
+        <v>28281845.91956084</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>28436216.20643393</v>
+        <v>28359877.37098042</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>28515263.51350822</v>
+        <v>28438712.47051896</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>28595121.55897711</v>
+        <v>28518356.13197313</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>28675795.40035255</v>
+        <v>28598813.3992778</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>28757290.24054151</v>
+        <v>28680089.46137226</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>28839611.44330901</v>
+        <v>28762189.66762228</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>28922764.54928098</v>
+        <v>28845119.54377957</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>29006755.29246739</v>
+        <v>28928884.80846079</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>29091589.61728445</v>
+        <v>29013491.39012396</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>29177273.6960513</v>
+        <v>29098945.44451828</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>29263813.94693573</v>
+        <v>29185253.37258151</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>29351217.05231969</v>
+        <v>29272421.8387564</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>29439489.97755434</v>
+        <v>29360457.78969512</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>29528639.99007101</v>
+        <v>29449368.47331917</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>29618674.67881341</v>
+        <v>29539161.45819916</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>29709601.9739531</v>
+        <v>29629844.65321764</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>29801430.16684959</v>
+        <v>29721426.32747552</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>29894167.93021306</v>
+        <v>29813915.1304004</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>29987824.33842657</v>
+        <v>29907320.11201468</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>30082408.88798323</v>
+        <v>30001650.7433175</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>30177931.51799119</v>
+        <v>30096916.93673482</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>30274402.6306986</v>
+        <v>30193129.06658934</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>30371833.11198905</v>
+        <v>30290297.98954075</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>30470234.35179659</v>
+        <v>30388435.06494611</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>30569618.26438871</v>
+        <v>30487552.17508831</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>30669997.30846464</v>
+        <v>30587661.74522043</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>30771384.50701548</v>
+        <v>30688776.7633725</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>30873793.46689207</v>
+        <v>30790910.79986687</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>30977238.39802689</v>
+        <v>30894078.02648856</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>31081734.13225461</v>
+        <v>30998293.23525524</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>31187296.14167792</v>
+        <v>31103571.85673383</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>31293940.55652407</v>
+        <v>31209929.97784881</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>31401684.18243797</v>
+        <v>31317384.35912938</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>31510544.51716004</v>
+        <v>31425952.45134215</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>31620539.76653552</v>
+        <v>31535652.41145758</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>31731688.85980549</v>
+        <v>31646503.11789997</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>31844011.46412876</v>
+        <v>31758524.18503045</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>31957527.99828766</v>
+        <v>31871735.97681575</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>32072259.64553079</v>
+        <v>31986159.61963676</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>32188228.36550898</v>
+        <v>32101817.01419217</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>32305456.9052616</v>
+        <v>32218730.84645552</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>32423968.80921448</v>
+        <v>32336924.59764616</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>32543788.42815156</v>
+        <v>32456422.55317668</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>32664940.92712634</v>
+        <v>32577249.81054344</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>32787452.29228175</v>
+        <v>32699432.28612799</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>32911349.33655023</v>
+        <v>32822996.72088164</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>33036659.70420896</v>
+        <v>32947970.68486883</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>33163411.87426917</v>
+        <v>33074382.58064698</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>33291635.16268143</v>
+        <v>33202261.64546617</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>33421359.72334277</v>
+        <v>33331637.95227337</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>33552616.54789574</v>
+        <v>33462542.40951211</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>33685437.46431276</v>
+        <v>33595006.75971058</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>33819855.13426355</v>
+        <v>33729063.57685615</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>33955903.0492679</v>
+        <v>33864746.26255845</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>34093615.52563886</v>
+        <v>34002089.04100628</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>34233027.69822791</v>
+        <v>34141126.95272931</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>34374175.51298524</v>
+        <v>34281895.84717856</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>34517095.71835441</v>
+        <v>34424432.37414408</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>34661825.85552471</v>
+        <v>34568773.97403336</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>34808404.24756718</v>
+        <v>34714958.86703681</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>34956869.98748681</v>
+        <v>34863026.04121166</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>35107262.92522506</v>
+        <v>35013015.23951977</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>35259623.65365314</v>
+        <v>35164966.94585811</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>35413993.49359838</v>
+        <v>35318922.37012562</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>35570414.4779512</v>
+        <v>35474923.43237281</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>35728929.33490355</v>
+        <v>35633012.746085</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35889581.47037248</v>
+        <v>35793233.60065337</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>36052414.94966727</v>
+        <v>35955629.94309098</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>36217474.4784602</v>
+        <v>36120246.35905494</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>36384805.38312545</v>
+        <v>36287128.05323786</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36554453.5905123</v>
+        <v>36456320.8291955</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36726465.6072224</v>
+        <v>36627871.06867954</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36900888.49846233</v>
+        <v>36801825.71054701</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>37077769.86654589</v>
+        <v>36978232.22932025</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>37257157.82912105</v>
+        <v>37157138.61347241</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>37439100.99720021</v>
+        <v>37338593.34351644</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37623648.45307148</v>
+        <v>37522645.36997598</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>37810849.72817202</v>
+        <v>37709344.09131791</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>38000754.78100376</v>
+        <v>37898739.33192724</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>38193413.97517347</v>
+        <v>38090881.3202066</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>38388878.05763952</v>
+        <v>38285820.66688075</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>38587198.13724658</v>
+        <v>38483608.34358955</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>38788425.66363157</v>
+        <v>38684295.66185004</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>38992612.40658126</v>
+        <v>38887934.25246964</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>39199810.43592333</v>
+        <v>39094576.04549132</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>39410072.10203057</v>
+        <v>39304273.25074994</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>39623450.01701712</v>
+        <v>39517078.33911911</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39839997.03670471</v>
+        <v>39733044.02452569</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>40059766.24343386</v>
+        <v>39952223.2468072</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>40282810.92979492</v>
+        <v>40174669.15548674</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>40509184.58335055</v>
+        <v>40400435.09453619</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40738940.87241916</v>
+        <v>40629574.58819792</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>40972133.63298675</v>
+        <v>40862141.32793178</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>41208816.85681152</v>
+        <v>41098189.16055157</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>41449044.6807828</v>
+        <v>41337772.07761294</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41692871.3775942</v>
+        <v>41580944.20611072</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>41940351.34778456</v>
+        <v>41827759.80054218</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>42191539.11320122</v>
+        <v>42078273.23638727</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>42446489.3119337</v>
+        <v>42332539.00505605</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42705256.69476348</v>
+        <v>42590611.710348</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>42967896.12317223</v>
+        <v>42852546.06646573</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>43234462.56894763</v>
+        <v>43118396.8976216</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>43505011.11542066</v>
+        <v>43388219.13927188</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43779596.96036709</v>
+        <v>43662067.84101037</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>44058275.42059984</v>
+        <v>43939998.17114857</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>44341101.93827713</v>
+        <v>44222065.42300659</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44628132.08894637</v>
+        <v>44508325.02293579</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>44919421.5913412</v>
+        <v>44798832.54008926</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>45215026.31894453</v>
+        <v>45093643.69795408</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>45515002.31332813</v>
+        <v>45392814.38765476</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45819405.79927465</v>
+        <v>45696400.68303496</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>46128293.20168567</v>
+        <v>46004458.85752008</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>46441721.16427583</v>
+        <v>46317045.40276101</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46759746.57004946</v>
+        <v>46634217.04905605</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>47082426.56355414</v>
+        <v>46956030.78754462</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>47409818.57490218</v>
+        <v>47282543.89416416</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47741980.34554787</v>
+        <v>47613813.95535848</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>48078969.95579753</v>
+        <v>47949898.89551352</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>48420845.85406247</v>
+        <v>48290857.00613213</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48767666.88781032</v>
+        <v>48636746.97670209</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>49119492.33620198</v>
+        <v>48987627.92724576</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>49476381.94439136</v>
+        <v>49343559.44252726</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>49838395.95946325</v>
+        <v>49704601.6078942</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>50205595.1679834</v>
+        <v>50070815.04672706</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>50578040.93513325</v>
+        <v>50442260.95946845</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>50955795.24540021</v>
+        <v>50819001.16420448</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>51338920.74479432</v>
+        <v>51201098.13876797</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>51727480.78455978</v>
+        <v>51588615.0643328</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>52121539.46635107</v>
+        <v>51981615.87046824</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>52521161.68884017</v>
+        <v>52380165.28162181</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52926413.19572411</v>
+        <v>52784328.86499733</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>53337360.62509898</v>
+        <v>53194173.07979671</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53754071.5601681</v>
+        <v>53609765.32779183</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>54176614.58125177</v>
+        <v>54031174.00519474</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>54605059.31906569</v>
+        <v>54458468.55579301</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>55039476.50923528</v>
+        <v>54891719.52531788</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>55479938.04801486</v>
+        <v>55330998.61701346</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55926517.04917889</v>
+        <v>55776378.74837574</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>56379287.90205519</v>
+        <v>56227934.10902957</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56838326.3306682</v>
+        <v>56685740.21971341</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>57303709.45396406</v>
+        <v>57149873.99234266</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57775515.84708644</v>
+        <v>57620413.7911211</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>58253825.60367616</v>
+        <v>58097439.49467301</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>58738720.39916489</v>
+        <v>58581032.55916715</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>59230283.55503728</v>
+        <v>59071276.0824063</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>59728600.10403387</v>
+        <v>59568254.86885525</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>60233756.85626897</v>
+        <v>60072055.49558102</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>60745842.46623874</v>
+        <v>60582766.379081</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>61264947.50069305</v>
+        <v>61100477.84297305</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>61791164.50734856</v>
+        <v>61625282.18652348</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>62324588.08441712</v>
+        <v>62157273.75398914</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>62865314.95092617</v>
+        <v>62696549.00474916</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>63413444.01780713</v>
+        <v>63243206.58420228</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>63969076.45972815</v>
+        <v>63797347.39540673</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>64532315.7876457</v>
+        <v>64359074.67143725</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>65103267.92205159</v>
+        <v>64928494.04843533</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>65682041.26688948</v>
+        <v>65505713.63932736</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>66268746.78411447</v>
+        <v>66090844.10818394</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>66863498.06886901</v>
+        <v>66683998.74519421</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>67466411.42524613</v>
+        <v>67285293.54222533</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>68077605.9426102</v>
+        <v>67894847.26893884</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>68697203.57244329</v>
+        <v>68512781.54942998</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>69325329.20568229</v>
+        <v>69139220.93935832</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>69962110.75051208</v>
+        <v>69774293.00353086</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>70607679.21057348</v>
+        <v>70418128.39390077</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>71262168.76354532</v>
+        <v>71070860.92793849</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>71925716.84005432</v>
+        <v>71732627.66732936</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>72598464.20286424</v>
+        <v>72403568.99695052</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>73280555.02628969</v>
+        <v>73083828.70407151</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>73972136.97577833</v>
+        <v>73773554.05772254</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>74673361.28759761</v>
+        <v>74472895.88816784</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>75384382.8485599</v>
+        <v>75182008.66641608</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>76105360.27571006</v>
+        <v>75901050.5836947</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>76836455.99589947</v>
+        <v>76630183.63080978</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>77577836.32515799</v>
+        <v>77369573.67730519</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>78329671.54777308</v>
+        <v>78119390.55032939</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>79092135.99497567</v>
+        <v>78879808.11311001</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>79865408.12312567</v>
+        <v>79651004.34292935</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>80649670.59128208</v>
+        <v>80433161.40848674</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>81445110.33803318</v>
+        <v>81226465.74652167</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>82251918.65745457</v>
+        <v>82031108.13756883</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>83070291.2740538</v>
+        <v>82847283.78070059</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>83900428.41654782</v>
+        <v>83675192.36710741</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>84742534.89031388</v>
+        <v>84515038.15235327</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>85596820.14833926</v>
+        <v>85367030.02713566</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>86463498.36048824</v>
+        <v>86231381.58636613</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>87342788.48089044</v>
+        <v>87108311.19637796</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>88234914.31324473</v>
+        <v>87998042.06005484</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>89140104.57382011</v>
+        <v>88900802.27966224</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>90058592.95192225</v>
+        <v>89816824.91715206</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>90990618.16758335</v>
+        <v>90746348.05169724</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>91936424.02621658</v>
+        <v>91689614.83419991</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>92896259.46996781</v>
+        <v>92646873.53850475</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>93870378.6254776</v>
+        <v>93618377.60903336</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>94859040.84775999</v>
+        <v>94604385.70454457</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>95862510.75988314</v>
+        <v>95605161.73770896</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>96881058.28812839</v>
+        <v>96620974.91017365</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>97914958.6922875</v>
+        <v>97652099.74277805</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>98964492.59074338</v>
+        <v>98698816.10056683</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>100029945.9799667</v>
+        <v>99761409.21223518</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>101111610.2480444</v>
+        <v>100840169.6836202</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>102209782.1818447</v>
+        <v>101935393.5048465</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>103324763.9674058</v>
+        <v>103047382.0507148</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>104456863.1831245</v>
+        <v>104176442.0739081</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>105606392.7853063</v>
+        <v>105322885.6905807</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>106773671.0856245</v>
+        <v>106487030.357878</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>107959021.7200244</v>
+        <v>107669198.8429236</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>109162773.6085961</v>
+        <v>108869719.1828011</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>110385260.9059282</v>
+        <v>110088924.6350399</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>111626822.9414418</v>
+        <v>111327153.6181091</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>112887804.1491977</v>
+        <v>112584749.6414146</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>114168553.986657</v>
+        <v>113862061.2242767</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>115469426.8418706</v>
+        <v>115159441.8033689</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>116790781.9285625</v>
+        <v>116477249.6280832</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>118132983.1685708</v>
+        <v>117815847.643286</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>119496399.0610996</v>
+        <v>119175603.3589221</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>120329059.0058915</v>
+        <v>120051113.4277143</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>121175759.1528775</v>
+        <v>120941272.8573398</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>122036756.2898274</v>
+        <v>121846347.9101614</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>122912309.8192313</v>
+        <v>122766607.5621015</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>123802681.6088142</v>
+        <v>123702323.3490376</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>124708135.8311584</v>
+        <v>124653769.201884</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>125628938.7921022</v>
+        <v>125621221.2700098</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>126565358.7475893</v>
+        <v>126604957.7326564</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>127517665.7086513</v>
+        <v>127605258.5980223</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>128486131.2342245</v>
+        <v>128622405.4897027</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>129471028.2115117</v>
+        <v>129656681.420181</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>130472630.6236172</v>
+        <v>130708370.5510886</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>131491213.3042027</v>
+        <v>131777757.9399686</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>132527051.6789322</v>
+        <v>132865129.2733012</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>133580421.4934988</v>
+        <v>133970770.5855701</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>134651598.5280491</v>
+        <v>135094967.9641804</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>135740858.2978534</v>
+        <v>136238007.2400638</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>136848475.7400958</v>
+        <v>137400173.6638395</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>137974724.8866983</v>
+        <v>138581751.5674384</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>139119878.5231224</v>
+        <v>139783024.0111262</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>140284207.8331338</v>
+        <v>141004272.4159132</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>141467982.0295595</v>
+        <v>142245776.1813687</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>142671467.9711056</v>
+        <v>143507812.2889155</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>143894929.7653551</v>
+        <v>144790654.89072</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>145138628.3581128</v>
+        <v>146094574.884348</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>146402821.1093154</v>
+        <v>147419839.4734099</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>147687761.3557829</v>
+        <v>148766711.7144747</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>148993697.9611385</v>
+        <v>150135450.0505926</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>150320874.8532899</v>
+        <v>151526307.8318237</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>151669530.5499207</v>
+        <v>152939532.8232394</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>153039897.6725064</v>
+        <v>154375366.7009216</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>154432202.449435</v>
+        <v>155834044.5365592</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>155846664.2088754</v>
+        <v>157315794.2713046</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>157283494.8621115</v>
+        <v>158820836.1796269</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>158742898.3781181</v>
+        <v>160349382.3239687</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>160225070.2502379</v>
+        <v>161901636.0010857</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>161730196.9558751</v>
+        <v>163477791.1810206</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>163258455.4102042</v>
+        <v>165078031.9397385</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>164810012.414953</v>
+        <v>166702531.8865198</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>166385024.1033933</v>
+        <v>168351453.5872814</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>167983635.3827413</v>
+        <v>170024947.9850683</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>169605979.3752331</v>
+        <v>171723153.8190259</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>171252176.8592113</v>
+        <v>173446197.043232</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>172922335.7116156</v>
+        <v>175194190.2468317</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>174616550.3533355</v>
+        <v>176967232.076984</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>176334901.1989349</v>
+        <v>178765406.6661824</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>178077454.1123172</v>
+        <v>180588783.0655728</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>179844259.8699395</v>
+        <v>182437414.6859371</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>181635353.6332388</v>
+        <v>184311338.7480624</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>183450754.4319594</v>
+        <v>186210575.7442478</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>185290464.6601149</v>
+        <v>188135128.9127452</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>187154469.5863343</v>
+        <v>190084983.7269475</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>189042736.8803669</v>
+        <v>192060107.401164</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>190955216.157532</v>
+        <v>194060448.4148379</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>192891838.5429003</v>
+        <v>196085936.0570576</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>192229768.9553398</v>
+        <v>195424890.620368</v>
       </c>
       <c r="C358" t="n">
-        <v>2504866.434124908</v>
+        <v>2623712.437316245</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>191561159.9097982</v>
+        <v>194757270.6676813</v>
       </c>
       <c r="C359" t="n">
-        <v>5038850.292403825</v>
+        <v>5277923.805375747</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>190885915.9803822</v>
+        <v>194082977.7860456</v>
       </c>
       <c r="C360" t="n">
-        <v>7601921.671456343</v>
+        <v>7962602.782000994</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>190203939.7301628</v>
+        <v>193401911.3890579</v>
       </c>
       <c r="C361" t="n">
-        <v>10194033.48678065</v>
+        <v>10677700.04871683</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>189515131.6802773</v>
+        <v>192713968.6796098</v>
       </c>
       <c r="C362" t="n">
-        <v>12815121.20548525</v>
+        <v>13423148.01080134</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>188819390.2779298</v>
+        <v>192019044.6114464</v>
       </c>
       <c r="C363" t="n">
-        <v>15465102.60880198</v>
+        <v>16198860.54853106</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>188116611.8633043</v>
+        <v>191317031.849557</v>
       </c>
       <c r="C364" t="n">
-        <v>18143877.5858793</v>
+        <v>19004732.8011906</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>187406690.6354176</v>
+        <v>190607820.7294444</v>
       </c>
       <c r="C365" t="n">
-        <v>20851327.9602651</v>
+        <v>21840640.98532267</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>186689518.616967</v>
+        <v>189891299.2153389</v>
       </c>
       <c r="C366" t="n">
-        <v>23587317.35039477</v>
+        <v>24706442.24859696</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>185964985.6182514</v>
+        <v>189167352.8574491</v>
       </c>
       <c r="C367" t="n">
-        <v>26351691.06529536</v>
+        <v>27601974.56056577</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>185232979.2002745</v>
+        <v>188435864.7483824</v>
       </c>
       <c r="C368" t="n">
-        <v>29144276.03659096</v>
+        <v>30527056.64144343</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>184493384.637168</v>
+        <v>187696715.4788828</v>
       </c>
       <c r="C369" t="n">
-        <v>31964880.78777086</v>
+        <v>33481487.92991627</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>183746084.8781125</v>
+        <v>186949783.0930931</v>
       </c>
       <c r="C370" t="n">
-        <v>34813295.44153249</v>
+        <v>36465048.59083393</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>182990960.5089688</v>
+        <v>186194943.043569</v>
       </c>
       <c r="C371" t="n">
-        <v>37689291.76586131</v>
+        <v>39477499.56347573</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>182227889.713874</v>
+        <v>185432068.1463296</v>
       </c>
       <c r="C372" t="n">
-        <v>40592623.25934511</v>
+        <v>42518582.65091254</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>181456748.2371055</v>
+        <v>184661028.5362718</v>
       </c>
       <c r="C373" t="n">
-        <v>40592388.68591263</v>
+        <v>42518336.94789864</v>
       </c>
       <c r="D373" t="n">
-        <v>3125222.410658046</v>
+        <v>3225594.29598559</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>180677409.3455644</v>
+        <v>183881691.6233249</v>
       </c>
       <c r="C374" t="n">
-        <v>40592117.270704</v>
+        <v>42518052.65511206</v>
       </c>
       <c r="D374" t="n">
-        <v>6279050.645726006</v>
+        <v>6480713.141562886</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>179889743.7922795</v>
+        <v>183093922.0497845</v>
       </c>
       <c r="C375" t="n">
-        <v>40591803.63342658</v>
+        <v>42517724.13698655</v>
       </c>
       <c r="D375" t="n">
-        <v>9461170.095221296</v>
+        <v>9765031.822509365</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>179093619.7813938</v>
+        <v>182297581.6493138</v>
       </c>
       <c r="C376" t="n">
-        <v>40591441.67499056</v>
+        <v>42517345.00505464</v>
       </c>
       <c r="D376" t="n">
-        <v>12671248.21935972</v>
+        <v>13078207.11895452</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>178288902.9351535</v>
+        <v>181492529.4081694</v>
       </c>
       <c r="C377" t="n">
-        <v>40591024.49195562</v>
+        <v>42516908.02833503</v>
       </c>
       <c r="D377" t="n">
-        <v>15908934.94098748</v>
+        <v>16419877.7104155</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>177475456.2634834</v>
+        <v>180678621.4292743</v>
       </c>
       <c r="C378" t="n">
-        <v>40590544.28234904</v>
+        <v>42516405.03468232</v>
       </c>
       <c r="D378" t="n">
-        <v>19173863.08795029</v>
+        <v>19789664.63237367</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>176653140.1367981</v>
+        <v>179855710.8998269</v>
       </c>
       <c r="C379" t="n">
-        <v>40589992.24220469</v>
+        <v>42515826.80241694</v>
       </c>
       <c r="D379" t="n">
-        <v>22465648.88511559</v>
+        <v>23187171.78409893</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>175821812.2627702</v>
+        <v>179023648.0632068</v>
       </c>
       <c r="C380" t="n">
-        <v>40589358.45215327</v>
+        <v>42515162.94153483</v>
       </c>
       <c r="D380" t="n">
-        <v>25783892.49553947</v>
+        <v>26611986.48719719</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>174981327.6678485</v>
+        <v>178182280.1960199</v>
       </c>
       <c r="C381" t="n">
-        <v>40588631.75338033</v>
+        <v>42514401.76377989</v>
       </c>
       <c r="D381" t="n">
-        <v>29128178.61003815</v>
+        <v>30063680.09411696</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>174131538.684394</v>
+        <v>177331451.5911933</v>
       </c>
       <c r="C382" t="n">
-        <v>40587799.61225773</v>
+        <v>42513530.14085291</v>
       </c>
       <c r="D382" t="n">
-        <v>32498077.08418247</v>
+        <v>33541808.64560194</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>173272294.9443775</v>
+        <v>176471003.5481181</v>
       </c>
       <c r="C383" t="n">
-        <v>40586847.97295195</v>
+        <v>42512533.35002672</v>
       </c>
       <c r="D383" t="n">
-        <v>32498016.04042198</v>
+        <v>33541745.64131624</v>
       </c>
       <c r="E383" t="n">
-        <v>3667315.346344217</v>
+        <v>3542759.191250204</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>172403443.3806665</v>
+        <v>175600774.3709162</v>
       </c>
       <c r="C384" t="n">
-        <v>40585761.0973146</v>
+        <v>42511394.90643998</v>
       </c>
       <c r="D384" t="n">
-        <v>32497943.26716986</v>
+        <v>33541670.53082613</v>
       </c>
       <c r="E384" t="n">
-        <v>7361334.736038171</v>
+        <v>7111315.453678137</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>171524828.2370006</v>
+        <v>174720599.3759877</v>
       </c>
       <c r="C385" t="n">
-        <v>40584521.39137177</v>
+        <v>42510096.38135438</v>
       </c>
       <c r="D385" t="n">
-        <v>32497856.65570503</v>
+        <v>33541581.13768537</v>
       </c>
       <c r="E385" t="n">
-        <v>11081552.3630136</v>
+        <v>10705180.1603379</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>170636291.087842</v>
+        <v>173830310.9100835</v>
       </c>
       <c r="C386" t="n">
-        <v>40583109.21774881</v>
+        <v>42508617.20567949</v>
       </c>
       <c r="D386" t="n">
-        <v>32497753.74711813</v>
+        <v>33541474.92401244</v>
       </c>
       <c r="E386" t="n">
-        <v>14827450.00869024</v>
+        <v>14323852.69334833</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>169737670.8693662</v>
+        <v>172929738.3802243</v>
       </c>
       <c r="C387" t="n">
-        <v>40581502.69339675</v>
+        <v>42506934.45810225</v>
       </c>
       <c r="D387" t="n">
-        <v>32497631.67963079</v>
+        <v>33541348.9361181</v>
       </c>
       <c r="E387" t="n">
-        <v>18598498.01758245</v>
+        <v>17966821.3863642</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>168828803.9229334</v>
+        <v>172018708.2968733</v>
       </c>
       <c r="C388" t="n">
-        <v>40579677.47202753</v>
+        <v>42505022.63719952</v>
       </c>
       <c r="D388" t="n">
-        <v>32497487.12897111</v>
+        <v>33541199.74296571</v>
       </c>
       <c r="E388" t="n">
-        <v>22394156.31943054</v>
+        <v>21633564.51199213</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>167909524.0524625</v>
+        <v>171097044.3318447</v>
       </c>
       <c r="C389" t="n">
-        <v>40577606.51071842</v>
+        <v>42502853.4169689</v>
       </c>
       <c r="D389" t="n">
-        <v>32497316.24105581</v>
+        <v>33541023.36669151</v>
       </c>
       <c r="E389" t="n">
-        <v>26213875.49560585</v>
+        <v>25323551.31197635</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>166979662.597201</v>
+        <v>170164567.3925094</v>
       </c>
       <c r="C390" t="n">
-        <v>40575259.82021312</v>
+        <v>42500395.38528249</v>
       </c>
       <c r="D390" t="n">
-        <v>32497114.55617652</v>
+        <v>33540815.20435593</v>
       </c>
       <c r="E390" t="n">
-        <v>30057097.88729312</v>
+        <v>29036243.067743</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>166039048.5214575</v>
+        <v>169221095.7139322</v>
       </c>
       <c r="C391" t="n">
-        <v>40572604.19852737</v>
+        <v>42497613.76485324</v>
       </c>
       <c r="D391" t="n">
-        <v>32496876.9238337</v>
+        <v>33540569.94004228</v>
       </c>
       <c r="E391" t="n">
-        <v>33923258.74270353</v>
+        <v>32771094.20864933</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>165087508.522925</v>
+        <v>168266444.9706359</v>
       </c>
       <c r="C392" t="n">
-        <v>40569602.94756525</v>
+        <v>42494470.11640575</v>
       </c>
       <c r="D392" t="n">
-        <v>32496597.40731006</v>
+        <v>33540281.44636541</v>
       </c>
       <c r="E392" t="n">
-        <v>37811787.40032223</v>
+        <v>36527553.45504362</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>164124867.1612854</v>
+        <v>167300428.4097567</v>
       </c>
       <c r="C393" t="n">
-        <v>40566215.57256474</v>
+        <v>42490922.02386173</v>
       </c>
       <c r="D393" t="n">
-        <v>32496269.17702604</v>
+        <v>33539942.67440208</v>
       </c>
       <c r="E393" t="n">
-        <v>37811740.58221301</v>
+        <v>36527508.22705774</v>
       </c>
       <c r="F393" t="n">
-        <v>3300967.228038217</v>
+        <v>3368375.468772976</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>163150947.0088358</v>
+        <v>166322857.0074005</v>
       </c>
       <c r="C394" t="n">
-        <v>40562397.46432362</v>
+        <v>42486922.76148878</v>
       </c>
       <c r="D394" t="n">
-        <v>32495884.39167351</v>
+        <v>33539545.53100708</v>
       </c>
       <c r="E394" t="n">
-        <v>37811683.88000962</v>
+        <v>36527453.45067958</v>
       </c>
       <c r="F394" t="n">
-        <v>6619850.460413877</v>
+        <v>6755032.800206107</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>162165568.8249244</v>
+        <v>165333539.6500585</v>
       </c>
       <c r="C395" t="n">
-        <v>40558099.56430633</v>
+        <v>42482420.94311792</v>
       </c>
       <c r="D395" t="n">
-        <v>32495434.06608389</v>
+        <v>33539080.7424377</v>
       </c>
       <c r="E395" t="n">
-        <v>37811615.33744917</v>
+        <v>36527387.2360885</v>
       </c>
       <c r="F395" t="n">
-        <v>9956160.908752156</v>
+        <v>10159473.22449726</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>161168551.7560089</v>
+        <v>164332283.3429708</v>
       </c>
       <c r="C396" t="n">
-        <v>40553268.01290195</v>
+        <v>42477360.15371274</v>
       </c>
       <c r="D396" t="n">
-        <v>32494907.92475193</v>
+        <v>33538537.70317321</v>
       </c>
       <c r="E396" t="n">
-        <v>37811532.6395179</v>
+        <v>36527307.34689752</v>
       </c>
       <c r="F396" t="n">
-        <v>13309409.34015423</v>
+        <v>13581197.51824279</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>160159713.5631821</v>
+        <v>163318893.4473508</v>
       </c>
       <c r="C397" t="n">
-        <v>40547843.78129306</v>
+        <v>42471678.56377195</v>
       </c>
       <c r="D397" t="n">
-        <v>32494294.23991098</v>
+        <v>33537904.30878958</v>
       </c>
       <c r="E397" t="n">
-        <v>37811433.05255092</v>
+        <v>36527211.14228753</v>
       </c>
       <c r="F397" t="n">
-        <v>16679107.23311489</v>
+        <v>17019707.18395986</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>159138870.8790099</v>
+        <v>162293173.948388</v>
       </c>
       <c r="C398" t="n">
-        <v>40541762.28760414</v>
+        <v>42465308.52726553</v>
       </c>
       <c r="D398" t="n">
-        <v>32493579.65303922</v>
+        <v>33537166.77173313</v>
       </c>
       <c r="E398" t="n">
-        <v>37811313.35548533</v>
+        <v>36527095.51059534</v>
       </c>
       <c r="F398" t="n">
-        <v>20064767.9515199</v>
+        <v>20474505.64805768</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>158105839.495528</v>
+        <v>161254927.7559449</v>
       </c>
       <c r="C399" t="n">
-        <v>40534952.99822905</v>
+        <v>42458176.16404676</v>
       </c>
       <c r="D399" t="n">
-        <v>32492748.97867272</v>
+        <v>33536309.41883266</v>
       </c>
       <c r="E399" t="n">
-        <v>37811169.76117443</v>
+        <v>36526956.79330033</v>
       </c>
       <c r="F399" t="n">
-        <v>23465907.93354352</v>
+        <v>23945099.47401332</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>157060434.6852192</v>
+        <v>160203957.0398359</v>
       </c>
       <c r="C400" t="n">
-        <v>40527339.01548672</v>
+        <v>42450200.9279438</v>
       </c>
       <c r="D400" t="n">
-        <v>32491784.98941131</v>
+        <v>33535314.46940045</v>
       </c>
       <c r="E400" t="n">
-        <v>37810997.82657317</v>
+        <v>36526790.6982604</v>
       </c>
       <c r="F400" t="n">
-        <v>26882047.89210207</v>
+        <v>27430999.5873393</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>156002471.5567549</v>
+        <v>159140063.6015382</v>
       </c>
       <c r="C401" t="n">
-        <v>40518836.65302448</v>
+        <v>42441295.16201756</v>
       </c>
       <c r="D401" t="n">
-        <v>32490668.18103005</v>
+        <v>33534161.79279989</v>
       </c>
       <c r="E401" t="n">
-        <v>37810792.35050642</v>
+        <v>36526592.20095234</v>
       </c>
       <c r="F401" t="n">
-        <v>30312714.02336609</v>
+        <v>30931722.50877457</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>154931765.4472311</v>
+        <v>158063049.284126</v>
       </c>
       <c r="C402" t="n">
-        <v>40509355.00067808</v>
+        <v>42431363.64277621</v>
       </c>
       <c r="D402" t="n">
-        <v>32489376.51665463</v>
+        <v>33532828.64440461</v>
       </c>
       <c r="E402" t="n">
-        <v>37810547.25763053</v>
+        <v>36526355.43237457</v>
       </c>
       <c r="F402" t="n">
-        <v>33757439.21965863</v>
+        <v>34446791.59195106</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>153848132.3525503</v>
+        <v>156972716.4221353</v>
       </c>
       <c r="C403" t="n">
-        <v>40498795.48080441</v>
+        <v>42420303.11545739</v>
       </c>
       <c r="D403" t="n">
-        <v>32487885.14902553</v>
+        <v>33531289.37894265</v>
       </c>
       <c r="E403" t="n">
-        <v>37810255.46710055</v>
+        <v>36526073.55217493</v>
       </c>
       <c r="F403" t="n">
-        <v>33757409.57150371</v>
+        <v>34446761.33835846</v>
       </c>
       <c r="G403" t="n">
-        <v>2380097.940660746</v>
+        <v>1827603.135091102</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>152751389.3975025</v>
+        <v>155868868.3329676</v>
       </c>
       <c r="C404" t="n">
-        <v>40487051.39842681</v>
+        <v>42408001.82282989</v>
       </c>
       <c r="D404" t="n">
-        <v>32486166.11996626</v>
+        <v>33529515.1403127</v>
       </c>
       <c r="E404" t="n">
-        <v>37809908.74435785</v>
+        <v>36525738.6054721</v>
       </c>
       <c r="F404" t="n">
-        <v>33757373.17643505</v>
+        <v>34446724.20007503</v>
       </c>
       <c r="G404" t="n">
-        <v>4769250.430482728</v>
+        <v>3662158.976686927</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>151641355.3469834</v>
+        <v>154751309.8513163</v>
       </c>
       <c r="C405" t="n">
-        <v>40474007.48787144</v>
+        <v>42394339.03031963</v>
       </c>
       <c r="D405" t="n">
-        <v>32484188.03628758</v>
+        <v>33527473.52707929</v>
       </c>
       <c r="E405" t="n">
-        <v>37809497.53436133</v>
+        <v>36525341.36175096</v>
       </c>
       <c r="F405" t="n">
-        <v>33757328.59305637</v>
+        <v>34446678.70627014</v>
       </c>
       <c r="G405" t="n">
-        <v>7167155.81356612</v>
+        <v>5503435.892610152</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>150517851.1596403</v>
+        <v>153619847.9079455</v>
       </c>
       <c r="C406" t="n">
-        <v>40459539.45892392</v>
+        <v>42379184.55063324</v>
       </c>
       <c r="D406" t="n">
-        <v>32481915.72150423</v>
+        <v>33525128.23300394</v>
       </c>
       <c r="E406" t="n">
-        <v>37809010.77450074</v>
+        <v>36524871.13413016</v>
       </c>
       <c r="F406" t="n">
-        <v>33757274.09403723</v>
+        <v>34446623.09433991</v>
       </c>
       <c r="G406" t="n">
-        <v>9573520.553646972</v>
+        <v>7351208.48549914</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>149380700.5850703</v>
+        <v>152474292.1539827</v>
       </c>
       <c r="C407" t="n">
-        <v>40443513.54589555</v>
+        <v>42362398.27142925</v>
       </c>
       <c r="D407" t="n">
-        <v>32479309.8429171</v>
+        <v>33522438.66215035</v>
       </c>
       <c r="E407" t="n">
-        <v>37808435.68535614</v>
+        <v>36524315.57722806</v>
       </c>
       <c r="F407" t="n">
-        <v>33757207.61428759</v>
+        <v>34446555.25702363</v>
       </c>
       <c r="G407" t="n">
-        <v>11988060.07744101</v>
+        <v>9205258.240385408</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>148229730.8055075</v>
+        <v>151314455.6316846</v>
       </c>
       <c r="C408" t="n">
-        <v>40425786.0633549</v>
+        <v>42343829.68997096</v>
       </c>
       <c r="D408" t="n">
-        <v>32476326.51382232</v>
+        <v>33519359.51831779</v>
       </c>
       <c r="E408" t="n">
-        <v>37807757.53740596</v>
+        <v>36523660.46179441</v>
       </c>
       <c r="F408" t="n">
-        <v>33757126.69077093</v>
+        <v>34446472.68098773</v>
       </c>
       <c r="G408" t="n">
-        <v>14410499.60895049</v>
+        <v>11065374.16533187</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>147064773.1227133</v>
+        <v>150140155.4924066</v>
       </c>
       <c r="C409" t="n">
-        <v>40406202.97264941</v>
+        <v>42323317.45908108</v>
       </c>
       <c r="D409" t="n">
-        <v>32472916.87085281</v>
+        <v>33515840.36880822</v>
       </c>
       <c r="E409" t="n">
-        <v>37806959.39174233</v>
+        <v>36522889.42423185</v>
       </c>
       <c r="F409" t="n">
-        <v>33757028.392812</v>
+        <v>34446372.37571034</v>
       </c>
       <c r="G409" t="n">
-        <v>16840574.9920486</v>
+        <v>12931353.42306985</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>145885663.6905437</v>
+        <v>148951213.7622588</v>
       </c>
       <c r="C410" t="n">
-        <v>40384599.46370856</v>
+        <v>42300688.94910323</v>
       </c>
       <c r="D410" t="n">
-        <v>32469026.62673838</v>
+        <v>33511825.1828225</v>
       </c>
       <c r="E410" t="n">
-        <v>37806021.81282832</v>
+        <v>36521983.68910916</v>
       </c>
       <c r="F410" t="n">
-        <v>33756909.24163781</v>
+        <v>34446250.79137929</v>
       </c>
       <c r="G410" t="n">
-        <v>19278033.4985586</v>
+        <v>14803001.95149782</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>144692244.2934012</v>
+        <v>147747458.1556479</v>
       </c>
       <c r="C411" t="n">
-        <v>40360799.55698096</v>
+        <v>42275759.83095248</v>
       </c>
       <c r="D411" t="n">
-        <v>32464595.5990887</v>
+        <v>33507251.84510951</v>
       </c>
       <c r="E411" t="n">
-        <v>37804922.55133357</v>
+        <v>36520921.76276896</v>
       </c>
       <c r="F411" t="n">
-        <v>33756765.11776785</v>
+        <v>34446103.72439118</v>
       </c>
       <c r="G411" t="n">
-        <v>21722634.61896136</v>
+        <v>16680135.07084122</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>143484363.1704791</v>
+        <v>146528722.9366004</v>
       </c>
       <c r="C412" t="n">
-        <v>40334615.73070631</v>
+        <v>42248333.68570279</v>
       </c>
       <c r="D412" t="n">
-        <v>32459557.21616097</v>
+        <v>33502051.64586057</v>
       </c>
       <c r="E412" t="n">
-        <v>37803636.19511564</v>
+        <v>36519679.09616305</v>
       </c>
       <c r="F412" t="n">
-        <v>33756591.15474308</v>
+        <v>34445926.20891023</v>
       </c>
       <c r="G412" t="n">
-        <v>24174150.83275198</v>
+        <v>18562578.07518523</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>142261875.8853923</v>
+        <v>145294849.8274327</v>
       </c>
       <c r="C413" t="n">
-        <v>40305848.57905506</v>
+        <v>42218201.64650691</v>
       </c>
       <c r="D413" t="n">
-        <v>32453838.00096999</v>
+        <v>33496148.74825091</v>
       </c>
       <c r="E413" t="n">
-        <v>37802133.78647968</v>
+        <v>36518227.7151114</v>
       </c>
       <c r="F413" t="n">
-        <v>33756381.61755473</v>
+        <v>34445712.39281445</v>
       </c>
       <c r="G413" t="n">
-        <v>24174134.58330275</v>
+        <v>18562565.59773888</v>
       </c>
       <c r="H413" t="n">
-        <v>2555345.061603618</v>
+        <v>2011806.083753903</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>141024646.240444</v>
+        <v>144045688.9639719</v>
       </c>
       <c r="C414" t="n">
-        <v>40274286.50697726</v>
+        <v>42185142.07896675</v>
       </c>
       <c r="D414" t="n">
-        <v>32447357.03553331</v>
+        <v>33489459.63547809</v>
       </c>
       <c r="E414" t="n">
-        <v>37800382.40395384</v>
+        <v>36516535.81628219</v>
       </c>
       <c r="F414" t="n">
-        <v>33756129.76400507</v>
+        <v>34445455.39622533</v>
       </c>
       <c r="G414" t="n">
-        <v>24174114.419023</v>
+        <v>18562550.11421602</v>
       </c>
       <c r="H414" t="n">
-        <v>5117453.030633025</v>
+        <v>4028936.559312068</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>139772547.234408</v>
+        <v>142781099.8961578</v>
       </c>
       <c r="C415" t="n">
-        <v>40239705.46788042</v>
+        <v>42148920.30636537</v>
       </c>
       <c r="D415" t="n">
-        <v>32440025.40751679</v>
+        <v>33481892.53963565</v>
       </c>
       <c r="E415" t="n">
-        <v>37798344.70696653</v>
+        <v>36514567.32733346</v>
       </c>
       <c r="F415" t="n">
-        <v>33755827.68710592</v>
+        <v>34445147.15068804</v>
       </c>
       <c r="G415" t="n">
-        <v>24174089.45362944</v>
+        <v>18562530.94406728</v>
       </c>
       <c r="H415" t="n">
-        <v>7686133.370538225</v>
+        <v>6051241.418522479</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>138505462.0623226</v>
+        <v>141500952.6324469</v>
       </c>
       <c r="C416" t="n">
-        <v>40201868.75050016</v>
+        <v>42109288.38642532</v>
       </c>
       <c r="D416" t="n">
-        <v>32431745.64205445</v>
+        <v>33473346.85528488</v>
       </c>
       <c r="E416" t="n">
-        <v>37795978.44201048</v>
+        <v>36512281.4298498</v>
       </c>
       <c r="F416" t="n">
-        <v>33755466.1364992</v>
+        <v>34444778.21694522</v>
       </c>
       <c r="G416" t="n">
-        <v>24174058.61425456</v>
+        <v>18562507.26347109</v>
       </c>
       <c r="H416" t="n">
-        <v>10261212.16636917</v>
+        <v>8078583.739307635</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>137223285.1553817</v>
+        <v>140205128.7260207</v>
       </c>
       <c r="C417" t="n">
-        <v>40160526.82152668</v>
+        <v>42065984.94646833</v>
       </c>
       <c r="D417" t="n">
-        <v>32422411.12205776</v>
+        <v>33463712.54114634</v>
       </c>
       <c r="E417" t="n">
-        <v>37793235.90913124</v>
+        <v>36509632.04395096</v>
       </c>
       <c r="F417" t="n">
-        <v>33755034.31677043</v>
+        <v>34444337.57913185</v>
       </c>
       <c r="G417" t="n">
-        <v>24174020.60547089</v>
+        <v>18562478.07770902</v>
       </c>
       <c r="H417" t="n">
-        <v>12842532.80636795</v>
+        <v>10110840.22227753</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>135925923.2585828</v>
+        <v>138893522.4003563</v>
       </c>
       <c r="C418" t="n">
-        <v>40115417.23070091</v>
+        <v>42018735.08400884</v>
       </c>
       <c r="D418" t="n">
-        <v>32411905.50090162</v>
+        <v>33452869.51392323</v>
       </c>
       <c r="E418" t="n">
-        <v>37790063.38789051</v>
+        <v>36506567.27375163</v>
       </c>
       <c r="F418" t="n">
-        <v>33754519.66042548</v>
+        <v>34443812.41311613</v>
       </c>
       <c r="G418" t="n">
-        <v>24173973.86711426</v>
+        <v>18562442.18877956</v>
       </c>
       <c r="H418" t="n">
-        <v>15429956.6274592</v>
+        <v>12147901.69891994</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>134613296.5433522</v>
+        <v>137566041.7112617</v>
       </c>
       <c r="C419" t="n">
-        <v>40066264.5851878</v>
+        <v>41967250.33991117</v>
       </c>
       <c r="D419" t="n">
-        <v>32400102.11197006</v>
+        <v>33440687.03888367</v>
       </c>
       <c r="E419" t="n">
-        <v>37786400.52233119</v>
+        <v>36503028.81321549</v>
       </c>
       <c r="F419" t="n">
-        <v>33753907.57321652</v>
+        <v>34443187.82662466</v>
       </c>
       <c r="G419" t="n">
-        <v>24173916.52499143</v>
+        <v>18562398.15754805</v>
       </c>
       <c r="H419" t="n">
-        <v>18023363.52142979</v>
+        <v>14189673.60884161</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>133285339.7519111</v>
+        <v>136222609.7420059</v>
       </c>
       <c r="C420" t="n">
-        <v>40012780.60006423</v>
+        <v>41911228.75127307</v>
       </c>
       <c r="D420" t="n">
-        <v>32386863.38016111</v>
+        <v>33427023.12246499</v>
       </c>
       <c r="E420" t="n">
-        <v>37782179.66491561</v>
+        <v>36498951.31237583</v>
       </c>
       <c r="F420" t="n">
-        <v>33753181.14944007</v>
+        <v>34442446.56872675</v>
       </c>
       <c r="G420" t="n">
-        <v>24173846.33345401</v>
+        <v>18562344.25965096</v>
       </c>
       <c r="H420" t="n">
-        <v>20622652.49848742</v>
+        <v>16236076.44345424</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>131942003.3696903</v>
+        <v>134863165.8276986</v>
       </c>
       <c r="C421" t="n">
-        <v>39954664.23171911</v>
+        <v>41850354.99115499</v>
       </c>
       <c r="D421" t="n">
-        <v>32372040.24107893</v>
+        <v>33411723.91281224</v>
       </c>
       <c r="E421" t="n">
-        <v>37777325.17992479</v>
+        <v>36494261.70439404</v>
       </c>
       <c r="F421" t="n">
-        <v>33752320.85479417</v>
+        <v>34441568.70621525</v>
       </c>
       <c r="G421" t="n">
-        <v>24173760.60870996</v>
+        <v>18562278.43428794</v>
       </c>
       <c r="H421" t="n">
-        <v>23227742.20478113</v>
+        <v>18287046.1534148</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>130583254.8216251</v>
+        <v>133487666.8045847</v>
       </c>
       <c r="C422" t="n">
-        <v>39891601.90084644</v>
+        <v>41784300.60215338</v>
       </c>
       <c r="D422" t="n">
-        <v>32355471.57427518</v>
+        <v>33394623.1148172</v>
       </c>
       <c r="E422" t="n">
-        <v>37771752.70739713</v>
+        <v>36488878.49449772</v>
       </c>
       <c r="F422" t="n">
-        <v>33751304.17437848</v>
+        <v>34440531.26441859</v>
       </c>
       <c r="G422" t="n">
-        <v>24173656.15162953</v>
+        <v>18562198.2249468</v>
       </c>
       <c r="H422" t="n">
-        <v>25838571.39034586</v>
+        <v>20342534.51703532</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>129209079.6876996</v>
+        <v>132096088.2794354</v>
       </c>
       <c r="C423" t="n">
-        <v>39823267.81151298</v>
+        <v>41712724.33060677</v>
       </c>
       <c r="D423" t="n">
-        <v>32336983.65753216</v>
+        <v>33375541.42687473</v>
       </c>
       <c r="E423" t="n">
-        <v>37765368.389351</v>
+        <v>36482711.01248384</v>
       </c>
       <c r="F423" t="n">
-        <v>33750105.22345674</v>
+        <v>34439307.83001465</v>
       </c>
       <c r="G423" t="n">
-        <v>24173529.15868308</v>
+        <v>18562100.71101549</v>
       </c>
       <c r="H423" t="n">
-        <v>28455099.32381316</v>
+        <v>22402509.46678167</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>127819482.9326378</v>
+        <v>130688425.9137337</v>
       </c>
       <c r="C424" t="n">
-        <v>39749324.37249484</v>
+        <v>41635272.56792323</v>
       </c>
       <c r="D424" t="n">
-        <v>32316389.64979634</v>
+        <v>33354286.00721002</v>
       </c>
       <c r="E424" t="n">
-        <v>37758068.06077922</v>
+        <v>36475658.63119009</v>
       </c>
       <c r="F424" t="n">
-        <v>33748694.31868247</v>
+        <v>34437868.11350064</v>
       </c>
       <c r="G424" t="n">
-        <v>24173375.11952728</v>
+        <v>18561982.42914178</v>
       </c>
       <c r="H424" t="n">
-        <v>31077306.15008695</v>
+        <v>24466955.37086949</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>126414490.1441842</v>
+        <v>129264696.7168752</v>
       </c>
       <c r="C425" t="n">
-        <v>39669422.72669829</v>
+        <v>41551579.90511996</v>
       </c>
       <c r="D425" t="n">
-        <v>32293489.11096378</v>
+        <v>33330649.97824089</v>
       </c>
       <c r="E425" t="n">
-        <v>37749736.40872128</v>
+        <v>36467609.95412827</v>
       </c>
       <c r="F425" t="n">
-        <v>33747037.50762322</v>
+        <v>34436177.46910982</v>
       </c>
       <c r="G425" t="n">
-        <v>24173188.69963494</v>
+        <v>18561839.28310822</v>
       </c>
       <c r="H425" t="n">
-        <v>33705193.18704819</v>
+        <v>26535873.26685763</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>124994148.7739606</v>
+        <v>127824940.3421393</v>
       </c>
       <c r="C426" t="n">
-        <v>39583203.394003</v>
+        <v>41461269.80616702</v>
       </c>
       <c r="D426" t="n">
-        <v>32268067.56727439</v>
+        <v>33304411.97801409</v>
       </c>
       <c r="E426" t="n">
-        <v>37740246.10361083</v>
+        <v>36458441.97633457</v>
       </c>
       <c r="F426" t="n">
-        <v>33745096.05461252</v>
+        <v>34434196.37016419</v>
       </c>
       <c r="G426" t="n">
-        <v>24172963.60624346</v>
+        <v>18561666.44089827</v>
       </c>
       <c r="H426" t="n">
-        <v>36338783.15718942</v>
+        <v>28609281.04401257</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>123558529.3744644</v>
+        <v>126369220.3787443</v>
       </c>
       <c r="C427" t="n">
-        <v>39490297.03229219</v>
+        <v>41363955.40512525</v>
       </c>
       <c r="D427" t="n">
-        <v>32239896.13157977</v>
+        <v>33275335.76827733</v>
       </c>
       <c r="E427" t="n">
-        <v>37729456.90805639</v>
+        <v>36448019.22341947</v>
       </c>
       <c r="F427" t="n">
-        <v>33742825.88121994</v>
+        <v>34431879.83811853</v>
       </c>
       <c r="G427" t="n">
-        <v>24172692.43578341</v>
+        <v>18561458.21754138</v>
       </c>
       <c r="H427" t="n">
-        <v>38978120.34992661</v>
+        <v>30687213.57109539</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>122107726.825357</v>
+        <v>124897625.6328697</v>
       </c>
       <c r="C428" t="n">
-        <v>39390325.3207567</v>
+        <v>41259240.43135976</v>
       </c>
       <c r="D428" t="n">
-        <v>32208731.18819428</v>
+        <v>33243169.90920883</v>
       </c>
       <c r="E428" t="n">
-        <v>37717214.76923591</v>
+        <v>36436192.87478816</v>
       </c>
       <c r="F428" t="n">
-        <v>33740176.95996524</v>
+        <v>34429176.82389371</v>
       </c>
       <c r="G428" t="n">
-        <v>24172366.50084163</v>
+        <v>18561207.94224335</v>
       </c>
       <c r="H428" t="n">
-        <v>41623270.71016422</v>
+        <v>32769722.76608853</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>120641861.5418098</v>
+        <v>123410271.3901383</v>
       </c>
       <c r="C429" t="n">
-        <v>39282901.96878397</v>
+        <v>41146720.26629654</v>
       </c>
       <c r="D429" t="n">
-        <v>32174314.15240878</v>
+        <v>33207647.51120739</v>
       </c>
       <c r="E429" t="n">
-        <v>37703350.90216382</v>
+        <v>36422799.87804332</v>
       </c>
       <c r="F429" t="n">
-        <v>33737092.66031861</v>
+        <v>34426029.54052179</v>
       </c>
       <c r="G429" t="n">
-        <v>24171975.63461984</v>
+        <v>18560907.8082362</v>
       </c>
       <c r="H429" t="n">
-        <v>44274321.84851193</v>
+        <v>34856877.60423929</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>119161080.6573282</v>
+        <v>121907300.6516855</v>
       </c>
       <c r="C430" t="n">
-        <v>39167633.85286421</v>
+        <v>41025983.13427044</v>
       </c>
       <c r="D430" t="n">
-        <v>32136371.31502599</v>
+        <v>33168486.07443474</v>
       </c>
       <c r="E430" t="n">
-        <v>37687680.87221031</v>
+        <v>36407662.06266557</v>
       </c>
       <c r="F430" t="n">
-        <v>33733509.04653306</v>
+        <v>34422372.74663959</v>
       </c>
       <c r="G430" t="n">
-        <v>24171507.97077212</v>
+        <v>18560548.7037222</v>
       </c>
       <c r="H430" t="n">
-        <v>46931382.96837543</v>
+        <v>36948764.06065891</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>117665559.1731587</v>
+        <v>120388885.3356203</v>
       </c>
       <c r="C431" t="n">
-        <v>39044122.28297071</v>
+        <v>40896611.42899017</v>
       </c>
       <c r="D431" t="n">
-        <v>32094613.78245247</v>
+        <v>33125387.42698353</v>
       </c>
       <c r="E431" t="n">
-        <v>37670003.6864057</v>
+        <v>36390585.26218066</v>
       </c>
       <c r="F431" t="n">
-        <v>33729354.12745142</v>
+        <v>34418132.98097623</v>
       </c>
       <c r="G431" t="n">
-        <v>24170949.69644932</v>
+        <v>18560120.02224436</v>
       </c>
       <c r="H431" t="n">
-        <v>49594584.70495732</v>
+        <v>39045484.98356903</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>116155501.066115</v>
+        <v>118855227.4354058</v>
       </c>
       <c r="C432" t="n">
-        <v>38911964.39880156</v>
+        <v>40758183.17602621</v>
       </c>
       <c r="D432" t="n">
-        <v>32048737.52294014</v>
+        <v>33078037.77260389</v>
       </c>
       <c r="E432" t="n">
-        <v>37650100.90423162</v>
+        <v>36371358.45515165</v>
       </c>
       <c r="F432" t="n">
-        <v>33724547.05912447</v>
+        <v>34413227.74868805</v>
       </c>
       <c r="G432" t="n">
-        <v>24170284.77634948</v>
+        <v>18559609.45079338</v>
       </c>
       <c r="H432" t="n">
-        <v>52264078.87101871</v>
+        <v>41147159.8941416</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>114631140.3464389</v>
+        <v>117306560.1264533</v>
       </c>
       <c r="C433" t="n">
-        <v>38770754.69511105</v>
+        <v>40610273.63051306</v>
       </c>
       <c r="D433" t="n">
-        <v>31998423.52949688</v>
+        <v>33026107.85884628</v>
       </c>
       <c r="E433" t="n">
-        <v>37627735.77976895</v>
+        <v>36349752.93646275</v>
       </c>
       <c r="F433" t="n">
-        <v>33718997.30187108</v>
+        <v>34407564.66120534</v>
       </c>
       <c r="G433" t="n">
-        <v>24169494.64557904</v>
+        <v>18559002.73396526</v>
       </c>
       <c r="H433" t="n">
-        <v>54940038.10407305</v>
+        <v>43253924.70873683</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>113092742.0571401</v>
+        <v>115743148.8120552</v>
       </c>
       <c r="C434" t="n">
-        <v>38620086.67412</v>
+        <v>40452457.00796004</v>
       </c>
       <c r="D434" t="n">
-        <v>31943338.10976868</v>
+        <v>32969253.27625361</v>
       </c>
       <c r="E434" t="n">
-        <v>37602652.44821867</v>
+        <v>36325521.53146903</v>
       </c>
       <c r="F434" t="n">
-        <v>33712603.73430888</v>
+        <v>34401040.5321708</v>
       </c>
       <c r="G434" t="n">
-        <v>24168557.8691731</v>
+        <v>18558283.41251753</v>
       </c>
       <c r="H434" t="n">
-        <v>57622655.40949906</v>
+        <v>45365931.37919906</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>111540603.206152</v>
+        <v>114165292.0996622</v>
       </c>
       <c r="C435" t="n">
-        <v>38459554.62168175</v>
+        <v>40284308.34468918</v>
       </c>
       <c r="D435" t="n">
-        <v>31883133.31282234</v>
+        <v>32907114.89885084</v>
       </c>
       <c r="E435" t="n">
-        <v>37574575.17091611</v>
+        <v>36298397.866653</v>
       </c>
       <c r="F435" t="n">
-        <v>33705253.72788265</v>
+        <v>34393540.4330692</v>
       </c>
       <c r="G435" t="n">
-        <v>24167449.76621488</v>
+        <v>18557432.53474237</v>
       </c>
       <c r="H435" t="n">
-        <v>60312143.59389689</v>
+        <v>47483347.4467419</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>109975053.6225858</v>
+        <v>112573322.6984631</v>
       </c>
       <c r="C436" t="n">
-        <v>38288755.50250677</v>
+        <v>40105405.48298088</v>
       </c>
       <c r="D436" t="n">
-        <v>31817447.50221933</v>
+        <v>32839319.47562408</v>
       </c>
       <c r="E436" t="n">
-        <v>37543207.65399557</v>
+        <v>36268095.7114299</v>
       </c>
       <c r="F436" t="n">
-        <v>33696822.18651742</v>
+        <v>34384936.71326934</v>
       </c>
       <c r="G436" t="n">
-        <v>24166141.99663889</v>
+        <v>18556428.33918544</v>
       </c>
       <c r="H436" t="n">
-        <v>63008734.58284546</v>
+        <v>49606355.50482319</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>108396456.7283868</v>
+        <v>110967608.2292399</v>
       </c>
       <c r="C437" t="n">
-        <v>38107290.96832573</v>
+        <v>39915331.17451622</v>
       </c>
       <c r="D437" t="n">
-        <v>31745906.08405769</v>
+        <v>32765480.38194489</v>
       </c>
       <c r="E437" t="n">
-        <v>37508232.45680617</v>
+        <v>36234308.40665612</v>
       </c>
       <c r="F437" t="n">
-        <v>33687170.55721723</v>
+        <v>34375087.99041855</v>
       </c>
       <c r="G437" t="n">
-        <v>24164602.10900772</v>
+        <v>18555245.90739793</v>
       </c>
       <c r="H437" t="n">
-        <v>65712678.61708932</v>
+        <v>51735152.56630816</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>106805210.2167784</v>
+        <v>109348551.9375632</v>
       </c>
       <c r="C438" t="n">
-        <v>37914769.47141146</v>
+        <v>39713675.29417736</v>
       </c>
       <c r="D438" t="n">
-        <v>31668122.39776499</v>
+        <v>32685198.53897242</v>
       </c>
       <c r="E438" t="n">
-        <v>37469310.50700379</v>
+        <v>36196708.39619037</v>
       </c>
       <c r="F438" t="n">
-        <v>33676145.81871293</v>
+        <v>34363838.11843798</v>
       </c>
       <c r="G438" t="n">
-        <v>24162793.04782668</v>
+        <v>18553856.78561871</v>
       </c>
       <c r="H438" t="n">
-        <v>68424243.32105683</v>
+        <v>53869949.33012006</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>105201746.6290385</v>
+        <v>107716593.3015532</v>
       </c>
       <c r="C439" t="n">
-        <v>37710808.4744017</v>
+        <v>39500037.1547175</v>
       </c>
       <c r="D439" t="n">
-        <v>31583698.77634586</v>
+        <v>32598063.50795278</v>
       </c>
       <c r="E439" t="n">
-        <v>37426080.73991853</v>
+        <v>36154946.87850971</v>
       </c>
       <c r="F439" t="n">
-        <v>33663579.45662161</v>
+        <v>34351015.14175388</v>
       </c>
       <c r="G439" t="n">
-        <v>24160672.61930888</v>
+        <v>18552228.57455199</v>
       </c>
       <c r="H439" t="n">
-        <v>71143712.6375355</v>
+        <v>56010969.34251731</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>103586533.8213879</v>
+        <v>106072208.525676</v>
       </c>
       <c r="C440" t="n">
-        <v>37495036.74588099</v>
+        <v>39274027.91125905</v>
       </c>
       <c r="D440" t="n">
-        <v>31492227.78152296</v>
+        <v>32503654.76502854</v>
       </c>
       <c r="E440" t="n">
-        <v>37378159.88029536</v>
+        <v>36108653.59586309</v>
       </c>
       <c r="F440" t="n">
-        <v>33649286.43500327</v>
+        <v>34336430.24585278</v>
       </c>
       <c r="G440" t="n">
-        <v>24158192.91493457</v>
+        <v>18550324.48673646</v>
       </c>
       <c r="H440" t="n">
-        <v>73871385.62227233</v>
+        <v>58158448.04809024</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>101960075.3140713</v>
+        <v>104415910.9123619</v>
       </c>
       <c r="C441" t="n">
-        <v>37267096.72971242</v>
+        <v>39035273.04304092</v>
       </c>
       <c r="D441" t="n">
-        <v>31393293.61775947</v>
+        <v>32401543.1606751</v>
       </c>
       <c r="E441" t="n">
-        <v>37325142.38479576</v>
+        <v>36057436.77872585</v>
       </c>
       <c r="F441" t="n">
-        <v>33633064.17566963</v>
+        <v>34319876.715747</v>
       </c>
       <c r="G441" t="n">
-        <v>24155299.69266694</v>
+        <v>18548102.87140017</v>
       </c>
       <c r="H441" t="n">
-        <v>76607575.09227061</v>
+        <v>60312631.72557428</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>100322910.5151086</v>
+        <v>102748251.1036346</v>
       </c>
       <c r="C442" t="n">
-        <v>37026646.97467475</v>
+        <v>38783414.89833213</v>
       </c>
       <c r="D442" t="n">
-        <v>31286473.72752231</v>
+        <v>32291292.56619845</v>
       </c>
       <c r="E442" t="n">
-        <v>37266600.56370363</v>
+        <v>36000883.26337207</v>
       </c>
       <c r="F442" t="n">
-        <v>33614691.55809626</v>
+        <v>34301128.91546421</v>
       </c>
       <c r="G442" t="n">
-        <v>24151931.7162982</v>
+        <v>18545516.70716497</v>
       </c>
       <c r="H442" t="n">
-        <v>79352606.12160218</v>
+        <v>62473776.30361293</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>98675614.81164506</v>
+        <v>101069817.1854183</v>
       </c>
       <c r="C443" t="n">
-        <v>36773364.6095784</v>
+        <v>38518115.28698248</v>
       </c>
       <c r="D443" t="n">
-        <v>31171340.56834338</v>
+        <v>32172461.70786983</v>
       </c>
       <c r="E443" t="n">
-        <v>37202084.90007129</v>
+        <v>35938558.80018105</v>
       </c>
       <c r="F443" t="n">
-        <v>33593927.95428663</v>
+        <v>34279941.3032027</v>
       </c>
       <c r="G443" t="n">
-        <v>24148020.05410818</v>
+        <v>18542513.06350823</v>
       </c>
       <c r="H443" t="n">
-        <v>82106814.37866737</v>
+        <v>64642146.05169374</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>97018799.52237895</v>
+        <v>99381234.64775123</v>
       </c>
       <c r="C444" t="n">
-        <v>36506947.84772609</v>
+        <v>38239058.10370971</v>
       </c>
       <c r="D444" t="n">
-        <v>31047463.57027547</v>
+        <v>32044606.18724865</v>
       </c>
       <c r="E444" t="n">
-        <v>37131124.58404428</v>
+        <v>35870008.56981449</v>
       </c>
       <c r="F444" t="n">
-        <v>33570512.31441033</v>
+        <v>34256047.49829757</v>
       </c>
       <c r="G444" t="n">
-        <v>24143487.33882485</v>
+        <v>18539032.53250957</v>
       </c>
       <c r="H444" t="n">
-        <v>84870544.29902893</v>
+        <v>66818012.14163259</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>95353111.70515436</v>
+        <v>97683166.19477031</v>
       </c>
       <c r="C445" t="n">
-        <v>36227118.50336851</v>
+        <v>37945951.96395118</v>
       </c>
       <c r="D445" t="n">
-        <v>30914411.27023427</v>
+        <v>31907280.6840726</v>
       </c>
       <c r="E445" t="n">
-        <v>37053228.2792967</v>
+        <v>35794757.92362068</v>
       </c>
       <c r="F445" t="n">
-        <v>33544162.32045481</v>
+        <v>34229159.41758954</v>
       </c>
       <c r="G445" t="n">
-        <v>24138246.99178376</v>
+        <v>18535008.6331071</v>
       </c>
       <c r="H445" t="n">
-        <v>87644147.08821663</v>
+        <v>69001651.07519518</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>93679233.81449974</v>
+        <v>95976311.39904562</v>
       </c>
       <c r="C446" t="n">
-        <v>35933624.50170647</v>
+        <v>37638532.83295571</v>
       </c>
       <c r="D446" t="n">
-        <v>30771753.61748751</v>
+        <v>31760041.33579155</v>
       </c>
       <c r="E446" t="n">
-        <v>36967885.1373683</v>
+        <v>35712313.36352076</v>
       </c>
       <c r="F446" t="n">
-        <v>33514573.62645894</v>
+        <v>34198966.50014333</v>
       </c>
       <c r="G446" t="n">
-        <v>24132202.41518829</v>
+        <v>18530367.19085909</v>
       </c>
       <c r="H446" t="n">
-        <v>90427978.54927443</v>
+        <v>71193342.9737394</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>91997883.20464857</v>
+        <v>94261406.19563103</v>
       </c>
       <c r="C447" t="n">
-        <v>35626242.36302508</v>
+        <v>37316566.62777998</v>
       </c>
       <c r="D447" t="n">
-        <v>30619064.44222007</v>
+        <v>31602448.2854148</v>
       </c>
       <c r="E447" t="n">
-        <v>36874566.07420819</v>
+        <v>35622163.77519617</v>
       </c>
       <c r="F447" t="n">
-        <v>33481419.20509927</v>
+        <v>34165135.04049093</v>
       </c>
       <c r="G447" t="n">
-        <v>24125246.15747207</v>
+        <v>18525025.69705185</v>
       </c>
       <c r="H447" t="n">
-        <v>93222396.73030223</v>
+        <v>73393369.7261406</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>90309811.47440648</v>
+        <v>92539222.21204983</v>
       </c>
       <c r="C448" t="n">
-        <v>35304779.64073436</v>
+        <v>36979851.77100465</v>
       </c>
       <c r="D448" t="n">
-        <v>30455924.07669515</v>
+        <v>31434068.38685539</v>
       </c>
       <c r="E448" t="n">
-        <v>36772725.32138607</v>
+        <v>35523781.92661475</v>
       </c>
       <c r="F448" t="n">
-        <v>33444348.82144045</v>
+        <v>34127307.65163541</v>
       </c>
       <c r="G448" t="n">
-        <v>24117259.05795133</v>
+        <v>18518892.65190484</v>
       </c>
       <c r="H448" t="n">
-        <v>96027759.38784923</v>
+        <v>75602012.99173827</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>88615803.65111461</v>
+        <v>90810565.93135536</v>
       </c>
       <c r="C449" t="n">
-        <v>34969077.29245234</v>
+        <v>36628221.67431588</v>
       </c>
       <c r="D449" t="n">
-        <v>30281922.11607702</v>
+        <v>31254478.05442143</v>
       </c>
       <c r="E449" t="n">
-        <v>36661802.26222404</v>
+        <v>35416626.24180035</v>
       </c>
       <c r="F449" t="n">
-        <v>33402988.65549631</v>
+        <v>34085102.87990449</v>
       </c>
       <c r="G449" t="n">
-        <v>24108109.37821891</v>
+        <v>18511866.89759515</v>
       </c>
       <c r="H449" t="n">
-        <v>98844421.26276015</v>
+        <v>77819552.0556279</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>86916677.21190144</v>
+        <v>89076277.68638128</v>
       </c>
       <c r="C450" t="n">
-        <v>34619011.96281718</v>
+        <v>36261547.12962789</v>
       </c>
       <c r="D450" t="n">
-        <v>30096660.30351254</v>
+        <v>31063266.24055691</v>
       </c>
       <c r="E450" t="n">
-        <v>36541223.56053311</v>
+        <v>35300142.85726937</v>
       </c>
       <c r="F450" t="n">
-        <v>33356941.09584111</v>
+        <v>34038114.99434719</v>
       </c>
       <c r="G450" t="n">
-        <v>24097651.92905945</v>
+        <v>18503836.94784293</v>
       </c>
       <c r="H450" t="n">
-        <v>101672731.1659523</v>
+        <v>80046261.53431274</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>85213280.94140887</v>
+        <v>87337230.48432374</v>
       </c>
       <c r="C451" t="n">
-        <v>34254498.1564712</v>
+        <v>35879738.5851665</v>
       </c>
       <c r="D451" t="n">
-        <v>29899755.52162138</v>
+        <v>30860037.52340885</v>
       </c>
       <c r="E451" t="n">
-        <v>36410405.58671594</v>
+        <v>35173767.96573366</v>
       </c>
       <c r="F451" t="n">
-        <v>33305784.72681701</v>
+        <v>33985913.97368007</v>
       </c>
       <c r="G451" t="n">
-        <v>24085727.20304124</v>
+        <v>18494680.32185555</v>
       </c>
       <c r="H451" t="n">
-        <v>104513028.872662</v>
+        <v>82282408.93056495</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>83506493.62621099</v>
+        <v>85594328.66187117</v>
       </c>
       <c r="C452" t="n">
-        <v>33875490.27963355</v>
+        <v>35482748.28390631</v>
       </c>
       <c r="D452" t="n">
-        <v>29690842.8701576</v>
+        <v>30644415.28333318</v>
       </c>
       <c r="E452" t="n">
-        <v>36268757.14273626</v>
+        <v>35036930.44851945</v>
       </c>
       <c r="F452" t="n">
-        <v>33249074.53186657</v>
+        <v>33928045.71377192</v>
       </c>
       <c r="G452" t="n">
-        <v>24072160.52434323</v>
+        <v>18484262.89150628</v>
       </c>
       <c r="H452" t="n">
-        <v>107365641.8249094</v>
+        <v>84528252.03729789</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24106707.82888837</v>
+        <v>13258689.3058886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>24134855.26321391</v>
+        <v>13274170.39476766</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>24163376.74397595</v>
+        <v>13289857.20918677</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>24192277.04861313</v>
+        <v>13305752.37673722</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>24221561.0025535</v>
+        <v>13321858.55140443</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>24251233.47879558</v>
+        <v>13338178.41333757</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>24281299.39742733</v>
+        <v>13354714.66858503</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24311763.72508062</v>
+        <v>13371470.04879434</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24342631.47431882</v>
+        <v>13388447.31087535</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>24373907.70295496</v>
+        <v>13405649.23662523</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>24405597.51329844</v>
+        <v>13423078.63231415</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>24437706.05132789</v>
+        <v>13440738.32823034</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24470238.50578814</v>
+        <v>13458631.17818348</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24503200.10720929</v>
+        <v>13476760.05896511</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24536596.12684599</v>
+        <v>13495127.8697653</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24570431.87553531</v>
+        <v>13513737.53154442</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24604712.70247149</v>
+        <v>13532591.98635931</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24639443.99389634</v>
+        <v>13551694.19664299</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24674631.17170425</v>
+        <v>13571047.14443734</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24710279.69196047</v>
+        <v>13590653.83057825</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24746395.04333253</v>
+        <v>13610517.27383289</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24782982.74543413</v>
+        <v>13630640.50998877</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>24820048.34708127</v>
+        <v>13651026.5908947</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>24857597.42446135</v>
+        <v>13671678.58345374</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>24895635.5792152</v>
+        <v>13692599.56856836</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>24934168.43643345</v>
+        <v>13713792.6400384</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>24973201.64256851</v>
+        <v>13735260.90341268</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>25012740.86326353</v>
+        <v>13757007.47479493</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>25052791.78110119</v>
+        <v>13779035.47960566</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25093360.09327449</v>
+        <v>13801348.05130096</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>25134451.50918268</v>
+        <v>13823948.33005048</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>25176071.74795648</v>
+        <v>13846839.46137607</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>25218226.53591608</v>
+        <v>13870024.59475384</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>25260921.6039673</v>
+        <v>13893506.88218201</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>25304162.68494083</v>
+        <v>13917289.47671746</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>25347955.51088054</v>
+        <v>13941375.5309843</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>25392305.81028746</v>
+        <v>13965768.1956581</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>25437219.30532645</v>
+        <v>13990470.61792956</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25482701.70900349</v>
+        <v>14015485.93995192</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25528758.72232171</v>
+        <v>14040817.29727694</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25575396.03142566</v>
+        <v>14066467.81728411</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>25622619.3047432</v>
+        <v>14092440.61760875</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25670434.19013558</v>
+        <v>14118738.80457456</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25718846.3120669</v>
+        <v>14145365.47163679</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>25767861.26880459</v>
+        <v>14172323.69784252</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>25817484.62966325</v>
+        <v>14199616.54631479</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>25867721.9323053</v>
+        <v>14227247.06276791</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>25918578.68011199</v>
+        <v>14255218.27406158</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>25970060.33963898</v>
+        <v>14283533.18680144</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>26022172.33817213</v>
+        <v>14312194.78599467</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>26074920.06139838</v>
+        <v>14341206.0337691</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>26128308.85120864</v>
+        <v>14370569.86816476</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>26182344.00364903</v>
+        <v>14400289.20200696</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>26237030.76703785</v>
+        <v>14430366.92187081</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>26292374.3402664</v>
+        <v>14460805.88714653</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>26348379.87130135</v>
+        <v>14491608.92921575</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>26405052.45590773</v>
+        <v>14522778.85074925</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>26462397.13661131</v>
+        <v>14554318.42513623</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>26520418.90191985</v>
+        <v>14586230.39605593</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26579122.6858224</v>
+        <v>14618517.47720233</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26638513.36758679</v>
+        <v>14651182.35217273</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26698595.77187473</v>
+        <v>14684227.67453112</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>26759374.66919499</v>
+        <v>14717656.06805725</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>26820854.77671326</v>
+        <v>14751470.1271923</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>26883040.75944027</v>
+        <v>14785672.41769215</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>26945937.23181586</v>
+        <v>14820265.47749873</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>27009548.75970941</v>
+        <v>14855251.81784019</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>27073879.86285528</v>
+        <v>14890633.9245704</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>27138935.01774149</v>
+        <v>14926414.25975782</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>27204718.66096982</v>
+        <v>14962595.2635334</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>27271235.19310452</v>
+        <v>14999179.35620749</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>27338488.98302613</v>
+        <v>15036168.94066437</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>27406484.37280616</v>
+        <v>15073566.40504337</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>27475225.68311765</v>
+        <v>15111374.1257147</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>27544717.21919496</v>
+        <v>15149594.47055723</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>27614963.27735581</v>
+        <v>15188229.80254569</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>27685968.1520967</v>
+        <v>15227282.48365317</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>27757736.14377214</v>
+        <v>15266754.87907468</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>27830271.5668662</v>
+        <v>15306649.36177641</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>27903578.75886324</v>
+        <v>15346968.31737478</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>27977662.08972408</v>
+        <v>15387714.14934825</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>28052525.97197092</v>
+        <v>15428889.284584</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>28128174.87138316</v>
+        <v>15470496.17926075</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>28204613.31830474</v>
+        <v>15512537.32506761</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>28281845.91956084</v>
+        <v>15555015.25575846</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>28359877.37098042</v>
+        <v>15597932.55403922</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>28438712.47051896</v>
+        <v>15641291.85878542</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>28518356.13197313</v>
+        <v>15685095.87258522</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>28598813.3992778</v>
+        <v>15729347.36960278</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>28680089.46137226</v>
+        <v>15774049.20375475</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>28762189.66762228</v>
+        <v>15819204.31719226</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>28845119.54377957</v>
+        <v>15864815.74907877</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>28928884.80846079</v>
+        <v>15910886.64465343</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>29013491.39012396</v>
+        <v>15957420.26456818</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>29098945.44451828</v>
+        <v>16004419.99448504</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>29185253.37258151</v>
+        <v>16051889.35491984</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>29272421.8387564</v>
+        <v>16099832.01131603</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>29360457.78969512</v>
+        <v>16148251.78433233</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>29449368.47331917</v>
+        <v>16197152.66032554</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>29539161.45819916</v>
+        <v>16246538.80200954</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>29629844.65321764</v>
+        <v>16296414.55926971</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>29721426.32747552</v>
+        <v>16346784.48011153</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>29813915.1304004</v>
+        <v>16397653.32172022</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>29907320.11201468</v>
+        <v>16449026.06160808</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>30001650.7433175</v>
+        <v>16500907.90882462</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>30096916.93673482</v>
+        <v>16553304.31520416</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>30193129.06658934</v>
+        <v>16606220.98662414</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>30290297.98954075</v>
+        <v>16659663.89424743</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>30388435.06494611</v>
+        <v>16713639.28572038</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>30487552.17508831</v>
+        <v>16768153.69629858</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>30587661.74522043</v>
+        <v>16823213.95987125</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>30688776.7633725</v>
+        <v>16878827.21985487</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>30790910.79986687</v>
+        <v>16935000.93992679</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>30894078.02648856</v>
+        <v>16991742.9145687</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>30998293.23525524</v>
+        <v>17049061.27939039</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>31103571.85673383</v>
+        <v>17106964.52120361</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>31209929.97784881</v>
+        <v>17165461.48781686</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>31317384.35912938</v>
+        <v>17224561.39752117</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>31425952.45134215</v>
+        <v>17284273.84823817</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>31535652.41145758</v>
+        <v>17344608.82630166</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>31646503.11789997</v>
+        <v>17405576.714845</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>31758524.18503045</v>
+        <v>17467188.30176675</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>31871735.97681575</v>
+        <v>17529454.78724866</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>31986159.61963676</v>
+        <v>17592387.79080021</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>32101817.01419217</v>
+        <v>17655999.35780571</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>32218730.84645552</v>
+        <v>17720301.96555054</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>32336924.59764616</v>
+        <v>17785308.52870538</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>32456422.55317668</v>
+        <v>17851032.40424716</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>32577249.81054344</v>
+        <v>17917487.3957989</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>32699432.28612799</v>
+        <v>17984687.75737039</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>32822996.72088164</v>
+        <v>18052648.1964849</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>32947970.68486883</v>
+        <v>18121383.87667783</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>33074382.58064698</v>
+        <v>18190910.41935584</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>33202261.64546617</v>
+        <v>18261243.9050064</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>33331637.95227337</v>
+        <v>18332400.87375037</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>33462542.40951211</v>
+        <v>18404398.32523168</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>33595006.75971058</v>
+        <v>18477253.71784081</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>33729063.57685615</v>
+        <v>18550984.96727088</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>33864746.26255845</v>
+        <v>18625610.44440714</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>34002089.04100628</v>
+        <v>18701148.97255345</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>34141126.95272931</v>
+        <v>18777619.82400113</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>34281895.84717856</v>
+        <v>18855042.71594822</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>34424432.37414408</v>
+        <v>18933437.80577923</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>34568773.97403336</v>
+        <v>19012825.68571836</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>34714958.86703681</v>
+        <v>19093227.37687026</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>34863026.04121166</v>
+        <v>19174664.32266642</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>35013015.23951977</v>
+        <v>19257158.38173588</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>35164966.94585811</v>
+        <v>19340731.82022196</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>35318922.37012562</v>
+        <v>19425407.3035691</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>35474923.43237281</v>
+        <v>19511207.88780505</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>35633012.746085</v>
+        <v>19598157.01034677</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35793233.60065337</v>
+        <v>19686278.48035935</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>35955629.94309098</v>
+        <v>19775596.46870004</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>36120246.35905494</v>
+        <v>19866135.49748021</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>36287128.05323786</v>
+        <v>19957920.42928082</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36456320.8291955</v>
+        <v>20050976.45605753</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36627871.06867954</v>
+        <v>20145329.08777375</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36801825.71054701</v>
+        <v>20241004.14080087</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>36978232.22932025</v>
+        <v>20338027.72612614</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>37157138.61347241</v>
+        <v>20436426.23740982</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>37338593.34351644</v>
+        <v>20536226.33893404</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37522645.36997598</v>
+        <v>20637454.95348679</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>37709344.09131791</v>
+        <v>20740139.25022483</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>37898739.33192724</v>
+        <v>20844306.63255999</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>38090881.3202066</v>
+        <v>20949984.72611364</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>38285820.66688075</v>
+        <v>21057201.3667844</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>38483608.34358955</v>
+        <v>21165984.58897425</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>38684295.66185004</v>
+        <v>21276362.61401753</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>38887934.25246964</v>
+        <v>21388363.83885831</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>39094576.04549132</v>
+        <v>21502016.82502024</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>39304273.25074994</v>
+        <v>21617350.28791247</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>39517078.33911911</v>
+        <v>21734393.0865155</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39733044.02452569</v>
+        <v>21853174.21348912</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>39952223.2468072</v>
+        <v>21973722.78574396</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>40174669.15548674</v>
+        <v>22096068.03551771</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>40400435.09453619</v>
+        <v>22220239.3019949</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40629574.58819792</v>
+        <v>22346266.02350885</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>40862141.32793178</v>
+        <v>22474177.73036247</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>41098189.16055157</v>
+        <v>22604004.03830336</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>41337772.07761294</v>
+        <v>22735774.64268711</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41580944.20611072</v>
+        <v>22869519.31336089</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>41827759.80054218</v>
+        <v>23005267.89029819</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>42078273.23638727</v>
+        <v>23143050.280013</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>42332539.00505605</v>
+        <v>23282896.45278082</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42590611.710348</v>
+        <v>23424836.44069141</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>42852546.06646573</v>
+        <v>23568900.33655616</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>43118396.8976216</v>
+        <v>23715118.29369187</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>43388219.13927188</v>
+        <v>23863520.52659953</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43662067.84101037</v>
+        <v>24014137.31255571</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>43939998.17114857</v>
+        <v>24166998.99413173</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>44222065.42300659</v>
+        <v>24322135.98265363</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44508325.02293579</v>
+        <v>24479578.76261469</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>44798832.54008926</v>
+        <v>24639357.8970491</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>45093643.69795408</v>
+        <v>24801504.03387474</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>45392814.38765476</v>
+        <v>24966047.91321013</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45696400.68303496</v>
+        <v>25133020.37566923</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>46004458.85752008</v>
+        <v>25302452.37163606</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>46317045.40276101</v>
+        <v>25474374.97151857</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46634217.04905605</v>
+        <v>25648819.37698083</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>46956030.78754462</v>
+        <v>25825816.93314953</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>47282543.89416416</v>
+        <v>26005399.1417903</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47613813.95535848</v>
+        <v>26187597.67544717</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>47949898.89551352</v>
+        <v>26372444.39253245</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>48290857.00613213</v>
+        <v>26559971.35337266</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48636746.97670209</v>
+        <v>26750210.83718617</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>48987627.92724576</v>
+        <v>26943195.35998517</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>49343559.44252726</v>
+        <v>27138957.69338998</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>49704601.6078942</v>
+        <v>27337530.88434181</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>50070815.04672706</v>
+        <v>27538948.27569989</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>50442260.95946845</v>
+        <v>27743243.52770765</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>50819001.16420448</v>
+        <v>27950450.64031248</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>51201098.13876797</v>
+        <v>28160603.9763224</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>51588615.0643328</v>
+        <v>28373738.28538306</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>51981615.87046824</v>
+        <v>28589888.72875754</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>52380165.28162181</v>
+        <v>28809090.904892</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52784328.86499733</v>
+        <v>29031380.87574854</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>53194173.07979671</v>
+        <v>29256795.19388817</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53609765.32779183</v>
+        <v>29485370.9302855</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>54031174.00519474</v>
+        <v>29717145.7028571</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>54458468.55579301</v>
+        <v>29952157.70568618</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>54891719.52531788</v>
+        <v>30190445.73892483</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>55330998.61701346</v>
+        <v>30432049.23935743</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55776378.74837574</v>
+        <v>30677008.31160665</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>56227934.10902957</v>
+        <v>30925363.75996628</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56685740.21971341</v>
+        <v>31177157.12084237</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>57149873.99234266</v>
+        <v>31432430.69578844</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57620413.7911211</v>
+        <v>31691227.58511661</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>58097439.49467301</v>
+        <v>31953591.72207015</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>58581032.55916715</v>
+        <v>32219567.90754193</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>59071276.0824063</v>
+        <v>32489201.84532348</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>59568254.86885525</v>
+        <v>32762540.17787037</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>60072055.49558102</v>
+        <v>33039630.52256956</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>60582766.379081</v>
+        <v>33320521.50849457</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>61100477.84297305</v>
+        <v>33605262.81363518</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>61625282.18652348</v>
+        <v>33893905.20258793</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>62157273.75398914</v>
+        <v>34186500.56469405</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>62696549.00474916</v>
+        <v>34483101.95261203</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>63243206.58420228</v>
+        <v>34783763.62131124</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>63797347.39540673</v>
+        <v>35088541.06747373</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>64359074.67143725</v>
+        <v>35397491.06929048</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>64928494.04843533</v>
+        <v>35710671.72663943</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>65505713.63932736</v>
+        <v>36028142.50163006</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>66090844.10818394</v>
+        <v>36349964.2595012</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>66683998.74519421</v>
+        <v>36676199.30985682</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>67285293.54222533</v>
+        <v>37006911.44822394</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>67894847.26893884</v>
+        <v>37342165.99791634</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>68512781.54942998</v>
+        <v>37682029.85218649</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>69139220.93935832</v>
+        <v>38026571.51664706</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>69774293.00353086</v>
+        <v>38375861.15194196</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>70418128.39390077</v>
+        <v>38729970.61664546</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>71070860.92793849</v>
+        <v>39088973.51036616</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>71732627.66732936</v>
+        <v>39452945.21703117</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>72403568.99695052</v>
+        <v>39821962.9483228</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>73083828.70407151</v>
+        <v>40196105.78723933</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>73773554.05772254</v>
+        <v>40575454.73174741</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>74472895.88816784</v>
+        <v>40960092.73849232</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>75182008.66641608</v>
+        <v>41350104.76652884</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>75901050.5836947</v>
+        <v>41745577.82103208</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>76630183.63080978</v>
+        <v>42146600.99694541</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>77369573.67730519</v>
+        <v>42553265.52251785</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>78119390.55032939</v>
+        <v>42965664.80268114</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>78879808.11311001</v>
+        <v>43383894.46221051</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>79651004.34292935</v>
+        <v>43808052.38861114</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>80433161.40848674</v>
+        <v>44238238.77466769</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>81226465.74652167</v>
+        <v>44674556.16058692</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>82031108.13756883</v>
+        <v>45117109.47566284</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>82847283.78070059</v>
+        <v>45566006.07938537</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>83675192.36710741</v>
+        <v>46021355.80190908</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>84515038.15235327</v>
+        <v>46483270.98379435</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>85367030.02713566</v>
+        <v>46951866.51492459</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>86231381.58636613</v>
+        <v>47427259.87250137</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>87108311.19637796</v>
+        <v>47909571.15800792</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>87998042.06005484</v>
+        <v>48398923.1330302</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>88900802.27966224</v>
+        <v>48895441.25381423</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>89816824.91715206</v>
+        <v>49399253.70443363</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>90746348.05169724</v>
+        <v>49910491.42843347</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>91689614.83419991</v>
+        <v>50429288.15880994</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>92646873.53850475</v>
+        <v>50955780.44617762</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>93618377.60903336</v>
+        <v>51490107.68496835</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>94604385.70454457</v>
+        <v>52032412.13749952</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>95605161.73770896</v>
+        <v>52582838.95573995</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>96620974.91017365</v>
+        <v>53141536.20059552</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>97652099.74277805</v>
+        <v>53708654.85852794</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>98698816.10056683</v>
+        <v>54284348.85531179</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>99761409.21223518</v>
+        <v>54868775.06672936</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>100840169.6836202</v>
+        <v>55462093.32599108</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>101935393.5048465</v>
+        <v>56064466.42766555</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>103047382.0507148</v>
+        <v>56676060.12789313</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>104176442.0739081</v>
+        <v>57297043.14064948</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>105322885.6905807</v>
+        <v>57927587.12981942</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>106487030.357878</v>
+        <v>58567866.6968329</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>107669198.8429236</v>
+        <v>59218059.363608</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>108869719.1828011</v>
+        <v>59878345.55054063</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>110088924.6350399</v>
+        <v>60548908.5492719</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>111327153.6181091</v>
+        <v>61229934.48996001</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>112584749.6414146</v>
+        <v>61921612.30277803</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>113862061.2242767</v>
+        <v>62624133.67335222</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>115159441.8033689</v>
+        <v>63337692.9918529</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>116477249.6280832</v>
+        <v>64062487.29544575</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>117815847.643286</v>
+        <v>64798716.20380729</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>119175603.3589221</v>
+        <v>65546581.84740718</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>120051113.4277143</v>
+        <v>66028112.38524285</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>120941272.8573398</v>
+        <v>66517700.07153685</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>121846347.9101614</v>
+        <v>67015491.35058879</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>122766607.5621015</v>
+        <v>67521634.15915583</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>123702323.3490376</v>
+        <v>68036277.84197068</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>124653769.201884</v>
+        <v>68559573.06103618</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>125621221.2700098</v>
+        <v>69091671.69850534</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>126604957.7326564</v>
+        <v>69632726.75296098</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>127605258.5980223</v>
+        <v>70182892.22891229</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>128622405.4897027</v>
+        <v>70742323.01933645</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>129656681.420181</v>
+        <v>71311174.78109956</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>130708370.5510886</v>
+        <v>71889603.80309869</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>131777757.9399686</v>
+        <v>72477766.86698273</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>132865129.2733012</v>
+        <v>73075821.10031568</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>133970770.5855701</v>
+        <v>73683923.82206358</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>135094967.9641804</v>
+        <v>74302232.38029923</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>136238007.2400638</v>
+        <v>74930903.98203507</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>137400173.6638395</v>
+        <v>75570095.51511177</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>138581751.5674384</v>
+        <v>76219963.36209111</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>139783024.0111262</v>
+        <v>76880663.20611945</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>141004272.4159132</v>
+        <v>77552349.82875229</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>142245776.1813687</v>
+        <v>78235176.89975275</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>143507812.2889155</v>
+        <v>78929296.75890346</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>144790654.89072</v>
+        <v>79634860.18989596</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>146094574.884348</v>
+        <v>80352016.18639143</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>147419839.4734099</v>
+        <v>81080911.71037546</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>148766711.7144747</v>
+        <v>81821691.4429611</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>150135450.0505926</v>
+        <v>82574497.52782588</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>151526307.8318237</v>
+        <v>83339469.30750306</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>152939532.8232394</v>
+        <v>84116743.05278169</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>154375366.7009216</v>
+        <v>84906451.6855069</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>155834044.5365592</v>
+        <v>85708724.49510756</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>157315794.2713046</v>
+        <v>86523686.8492175</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>158820836.1796269</v>
+        <v>87351459.89879479</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>160349382.3239687</v>
+        <v>88192160.27818282</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>161901636.0010857</v>
+        <v>89045899.80059713</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>163477791.1810206</v>
+        <v>89912785.14956138</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>165078031.9397385</v>
+        <v>90792917.56685615</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>166702531.8865198</v>
+        <v>91686392.5375859</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>168351453.5872814</v>
+        <v>92593299.4730047</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>170024947.9850683</v>
+        <v>93513721.39178762</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>171723153.8190259</v>
+        <v>94447734.60046424</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>173446197.043232</v>
+        <v>95395408.37377764</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>175194190.2468317</v>
+        <v>96356804.63575745</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>176967232.076984</v>
+        <v>97331977.64234127</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>178765406.6661824</v>
+        <v>98320973.66640033</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>180588783.0655728</v>
+        <v>99323830.68606502</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>182437414.6859371</v>
+        <v>100340578.0772655</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>184311338.7480624</v>
+        <v>101371236.3114343</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>186210575.7442478</v>
+        <v>102415816.6593363</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>188135128.9127452</v>
+        <v>103474320.9020099</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>190084983.7269475</v>
+        <v>104546741.0498212</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>192060107.401164</v>
+        <v>105633059.0706401</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>194060448.4148379</v>
+        <v>106733246.6281608</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>196085936.0570576</v>
+        <v>107847264.8313816</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>195424890.620368</v>
+        <v>107483689.8412024</v>
       </c>
       <c r="C358" t="n">
-        <v>2623712.437316245</v>
+        <v>1443041.840523935</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>194757270.6676813</v>
+        <v>107116498.8672248</v>
       </c>
       <c r="C359" t="n">
-        <v>5277923.805375747</v>
+        <v>2902858.092956661</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>194082977.7860456</v>
+        <v>106745637.7823251</v>
       </c>
       <c r="C360" t="n">
-        <v>7962602.782000994</v>
+        <v>4379431.530100547</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>193401911.3890579</v>
+        <v>106371051.2639818</v>
       </c>
       <c r="C361" t="n">
-        <v>10677700.04871683</v>
+        <v>5872735.026794255</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>192713968.6796098</v>
+        <v>105992682.7737854</v>
       </c>
       <c r="C362" t="n">
-        <v>13423148.01080134</v>
+        <v>7382731.405940737</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>192019044.6114464</v>
+        <v>105610474.5362955</v>
       </c>
       <c r="C363" t="n">
-        <v>16198860.54853106</v>
+        <v>8909373.301692083</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>191317031.849557</v>
+        <v>105224367.5172564</v>
       </c>
       <c r="C364" t="n">
-        <v>19004732.8011906</v>
+        <v>10452603.04065483</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>190607820.7294444</v>
+        <v>104834301.4011945</v>
       </c>
       <c r="C365" t="n">
-        <v>21840640.98532267</v>
+        <v>12012352.54192747</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>189891299.2153389</v>
+        <v>104440214.5684363</v>
       </c>
       <c r="C366" t="n">
-        <v>24706442.24859696</v>
+        <v>13588543.23672833</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>189167352.8574491</v>
+        <v>104042044.0715971</v>
       </c>
       <c r="C367" t="n">
-        <v>27601974.56056577</v>
+        <v>15181086.00831117</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>188435864.7483824</v>
+        <v>103639725.6116102</v>
       </c>
       <c r="C368" t="n">
-        <v>30527056.64144343</v>
+        <v>16789881.15279388</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>187696715.4788828</v>
+        <v>103233193.5133855</v>
       </c>
       <c r="C369" t="n">
-        <v>33481487.92991627</v>
+        <v>18414818.36145395</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>186949783.0930931</v>
+        <v>102822380.7012013</v>
       </c>
       <c r="C370" t="n">
-        <v>36465048.59083393</v>
+        <v>20055776.72495867</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>186194943.043569</v>
+        <v>102407218.673963</v>
       </c>
       <c r="C371" t="n">
-        <v>39477499.56347573</v>
+        <v>21712624.75991165</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>185432068.1463296</v>
+        <v>101987637.4804813</v>
       </c>
       <c r="C372" t="n">
-        <v>42518582.65091254</v>
+        <v>23385220.4580019</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>184661028.5362718</v>
+        <v>101563565.6949495</v>
       </c>
       <c r="C373" t="n">
-        <v>42518336.94789864</v>
+        <v>23385085.32134426</v>
       </c>
       <c r="D373" t="n">
-        <v>3225594.29598559</v>
+        <v>1774076.862792075</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>183881691.6233249</v>
+        <v>101134930.3928287</v>
       </c>
       <c r="C374" t="n">
-        <v>42518052.65511206</v>
+        <v>23384928.96031164</v>
       </c>
       <c r="D374" t="n">
-        <v>6480713.141562886</v>
+        <v>3564392.227859587</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>183093922.0497845</v>
+        <v>100701657.1273815</v>
       </c>
       <c r="C375" t="n">
-        <v>42517724.13698655</v>
+        <v>23384748.27534261</v>
       </c>
       <c r="D375" t="n">
-        <v>9765031.822509365</v>
+        <v>5370767.502380151</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>182297581.6493138</v>
+        <v>100263669.9071226</v>
       </c>
       <c r="C376" t="n">
-        <v>42517345.00505464</v>
+        <v>23384539.75278005</v>
       </c>
       <c r="D376" t="n">
-        <v>13078207.11895452</v>
+        <v>7193013.915424987</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>181492529.4081694</v>
+        <v>99820891.17449307</v>
       </c>
       <c r="C377" t="n">
-        <v>42516908.02833503</v>
+        <v>23384299.41558427</v>
       </c>
       <c r="D377" t="n">
-        <v>16419877.7104155</v>
+        <v>9030932.740728527</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>180678621.4292743</v>
+        <v>99373241.78610089</v>
       </c>
       <c r="C378" t="n">
-        <v>42516405.03468232</v>
+        <v>23384022.76907528</v>
       </c>
       <c r="D378" t="n">
-        <v>19789664.63237367</v>
+        <v>10884315.54780552</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>179855710.8998269</v>
+        <v>98920640.99490483</v>
       </c>
       <c r="C379" t="n">
-        <v>42515826.80241694</v>
+        <v>23383704.74132932</v>
       </c>
       <c r="D379" t="n">
-        <v>23187171.78409893</v>
+        <v>12752944.48125441</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>179023648.0632068</v>
+        <v>98463006.43476373</v>
       </c>
       <c r="C380" t="n">
-        <v>42515162.94153483</v>
+        <v>23383339.61784416</v>
       </c>
       <c r="D380" t="n">
-        <v>26611986.48719719</v>
+        <v>14636592.56795846</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>178182280.1960199</v>
+        <v>98000254.10781096</v>
       </c>
       <c r="C381" t="n">
-        <v>42514401.76377989</v>
+        <v>23382920.97007895</v>
       </c>
       <c r="D381" t="n">
-        <v>30063680.09411696</v>
+        <v>16535024.05176433</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>177331451.5911933</v>
+        <v>97532298.3751563</v>
       </c>
       <c r="C382" t="n">
-        <v>42513530.14085291</v>
+        <v>23382441.5774691</v>
       </c>
       <c r="D382" t="n">
-        <v>33541808.64560194</v>
+        <v>18447994.75508107</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>176471003.5481181</v>
+        <v>97059051.95146503</v>
       </c>
       <c r="C383" t="n">
-        <v>42512533.35002672</v>
+        <v>23381893.34251469</v>
       </c>
       <c r="D383" t="n">
-        <v>33541745.64131624</v>
+        <v>18447960.10272393</v>
       </c>
       <c r="E383" t="n">
-        <v>3542759.191250204</v>
+        <v>1948517.555187612</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>175600774.3709162</v>
+        <v>96580425.90400402</v>
       </c>
       <c r="C384" t="n">
-        <v>42511394.90643998</v>
+        <v>23381267.19854201</v>
       </c>
       <c r="D384" t="n">
-        <v>33541670.53082613</v>
+        <v>18447918.79195437</v>
       </c>
       <c r="E384" t="n">
-        <v>7111315.453678137</v>
+        <v>3911223.499522976</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>174720599.3759877</v>
+        <v>96096329.65679325</v>
       </c>
       <c r="C385" t="n">
-        <v>42510096.38135438</v>
+        <v>23380553.00974491</v>
       </c>
       <c r="D385" t="n">
-        <v>33541581.13768537</v>
+        <v>18447869.62572696</v>
       </c>
       <c r="E385" t="n">
-        <v>10705180.1603379</v>
+        <v>5887849.088185847</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>173830310.9100835</v>
+        <v>95606671.0005459</v>
       </c>
       <c r="C386" t="n">
-        <v>42508617.20567949</v>
+        <v>23379739.46312372</v>
       </c>
       <c r="D386" t="n">
-        <v>33541474.92401244</v>
+        <v>18447811.20820684</v>
       </c>
       <c r="E386" t="n">
-        <v>14323852.69334833</v>
+        <v>7878118.981341582</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>172929738.3802243</v>
+        <v>95111356.10912333</v>
       </c>
       <c r="C387" t="n">
-        <v>42506934.45810225</v>
+        <v>23378813.95195624</v>
       </c>
       <c r="D387" t="n">
-        <v>33541348.9361181</v>
+        <v>18447741.91486496</v>
       </c>
       <c r="E387" t="n">
-        <v>17966821.3863642</v>
+        <v>9881751.762500312</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>172018708.2968733</v>
+        <v>94610289.56328024</v>
       </c>
       <c r="C388" t="n">
-        <v>42505022.63719952</v>
+        <v>23377762.45045974</v>
       </c>
       <c r="D388" t="n">
-        <v>33541199.74296571</v>
+        <v>18447659.85863114</v>
       </c>
       <c r="E388" t="n">
-        <v>21633564.51199213</v>
+        <v>13548500.77271251</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>171097044.3318447</v>
+        <v>94103374.38251451</v>
       </c>
       <c r="C389" t="n">
-        <v>42502853.4169689</v>
+        <v>23376569.3793329</v>
       </c>
       <c r="D389" t="n">
-        <v>33541023.36669151</v>
+        <v>18447562.85168033</v>
       </c>
       <c r="E389" t="n">
-        <v>25323551.31197635</v>
+        <v>17238494.73853675</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>170164567.3925094</v>
+        <v>93590512.06588013</v>
       </c>
       <c r="C390" t="n">
-        <v>42500395.38528249</v>
+        <v>23375217.46190537</v>
       </c>
       <c r="D390" t="n">
-        <v>33540815.20435593</v>
+        <v>18447448.36239576</v>
       </c>
       <c r="E390" t="n">
-        <v>29036243.067743</v>
+        <v>20951195.20355317</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>169221095.7139322</v>
+        <v>93071602.64266267</v>
       </c>
       <c r="C391" t="n">
-        <v>42497613.76485324</v>
+        <v>23373687.57066928</v>
       </c>
       <c r="D391" t="n">
-        <v>33540569.94004228</v>
+        <v>18447313.46702325</v>
       </c>
       <c r="E391" t="n">
-        <v>32771094.20864933</v>
+        <v>24686056.90914403</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>168266444.9706359</v>
+        <v>92546544.7338497</v>
       </c>
       <c r="C392" t="n">
-        <v>42494470.11640575</v>
+        <v>23371958.56402316</v>
       </c>
       <c r="D392" t="n">
-        <v>33540281.44636541</v>
+        <v>18447154.79550098</v>
       </c>
       <c r="E392" t="n">
-        <v>36527553.45504362</v>
+        <v>28442528.946238</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,16 +10646,16 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>167300428.4097567</v>
+        <v>92015235.62536621</v>
       </c>
       <c r="C393" t="n">
-        <v>42490922.02386173</v>
+        <v>23370007.11312395</v>
       </c>
       <c r="D393" t="n">
-        <v>33539942.67440208</v>
+        <v>18446968.47092115</v>
       </c>
       <c r="E393" t="n">
-        <v>36527508.22705774</v>
+        <v>28442499.17413738</v>
       </c>
       <c r="F393" t="n">
         <v>3368375.468772976</v>
@@ -10672,16 +10672,16 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>166322857.0074005</v>
+        <v>91477571.35407029</v>
       </c>
       <c r="C394" t="n">
-        <v>42486922.76148878</v>
+        <v>23367807.51881883</v>
       </c>
       <c r="D394" t="n">
-        <v>33539545.53100708</v>
+        <v>18446750.0420539</v>
       </c>
       <c r="E394" t="n">
-        <v>36527453.45067958</v>
+        <v>28442463.03815442</v>
       </c>
       <c r="F394" t="n">
         <v>6755032.800206107</v>
@@ -10698,16 +10698,16 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>165333539.6500585</v>
+        <v>90933446.80753221</v>
       </c>
       <c r="C395" t="n">
-        <v>42482420.94311792</v>
+        <v>23365331.51871485</v>
       </c>
       <c r="D395" t="n">
-        <v>33539080.7424377</v>
+        <v>18446494.40834074</v>
       </c>
       <c r="E395" t="n">
-        <v>36527387.2360885</v>
+        <v>28442419.26123695</v>
       </c>
       <c r="F395" t="n">
         <v>10159473.22449726</v>
@@ -10724,16 +10724,16 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>164332283.3429708</v>
+        <v>90382755.838634</v>
       </c>
       <c r="C396" t="n">
-        <v>42477360.15371274</v>
+        <v>23362548.08454201</v>
       </c>
       <c r="D396" t="n">
-        <v>33538537.70317321</v>
+        <v>18446195.73674527</v>
       </c>
       <c r="E396" t="n">
-        <v>36527307.34689752</v>
+        <v>28442366.32844342</v>
       </c>
       <c r="F396" t="n">
         <v>13581197.51824279</v>
@@ -10750,16 +10750,16 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>163318893.4473508</v>
+        <v>89825391.39604294</v>
       </c>
       <c r="C397" t="n">
-        <v>42471678.56377195</v>
+        <v>23359423.21007458</v>
       </c>
       <c r="D397" t="n">
-        <v>33537904.30878958</v>
+        <v>18445847.36983427</v>
       </c>
       <c r="E397" t="n">
-        <v>36527211.14228753</v>
+        <v>28442302.44648821</v>
       </c>
       <c r="F397" t="n">
         <v>17019707.18395986</v>
@@ -10776,16 +10776,16 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>162293173.948388</v>
+        <v>89261245.67161335</v>
       </c>
       <c r="C398" t="n">
-        <v>42465308.52726553</v>
+        <v>23355919.68999604</v>
       </c>
       <c r="D398" t="n">
-        <v>33537166.77173313</v>
+        <v>18445441.72445322</v>
       </c>
       <c r="E398" t="n">
-        <v>36527095.51059534</v>
+        <v>28442225.49717522</v>
       </c>
       <c r="F398" t="n">
         <v>20474505.64805768</v>
@@ -10802,16 +10802,16 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>161254927.7559449</v>
+        <v>88690210.26576972</v>
       </c>
       <c r="C399" t="n">
-        <v>42458176.16404676</v>
+        <v>23351996.89022573</v>
       </c>
       <c r="D399" t="n">
-        <v>33536309.41883266</v>
+        <v>18444970.18035797</v>
       </c>
       <c r="E399" t="n">
-        <v>36526956.79330033</v>
+        <v>28442132.98394115</v>
       </c>
       <c r="F399" t="n">
         <v>23945099.47401332</v>
@@ -10828,16 +10828,16 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>160203957.0398359</v>
+        <v>88112176.37190978</v>
       </c>
       <c r="C400" t="n">
-        <v>42450200.9279438</v>
+        <v>23347610.51036909</v>
       </c>
       <c r="D400" t="n">
-        <v>33535314.46940045</v>
+        <v>18444422.95817025</v>
       </c>
       <c r="E400" t="n">
-        <v>36526790.6982604</v>
+        <v>28442021.97065619</v>
       </c>
       <c r="F400" t="n">
         <v>27430999.5873393</v>
@@ -10854,16 +10854,16 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>159140063.6015382</v>
+        <v>87527034.98084602</v>
       </c>
       <c r="C401" t="n">
-        <v>42441295.16201756</v>
+        <v>23342712.33910966</v>
       </c>
       <c r="D401" t="n">
-        <v>33534161.79279989</v>
+        <v>18443788.98603995</v>
       </c>
       <c r="E401" t="n">
-        <v>36526592.20095234</v>
+        <v>28441889.0117543</v>
       </c>
       <c r="F401" t="n">
         <v>30931722.50877457</v>
@@ -10880,16 +10880,16 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>158063049.284126</v>
+        <v>86934677.10626934</v>
       </c>
       <c r="C402" t="n">
-        <v>42431363.64277621</v>
+        <v>23337250.00352691</v>
       </c>
       <c r="D402" t="n">
-        <v>33532828.64440461</v>
+        <v>18443055.75442254</v>
       </c>
       <c r="E402" t="n">
-        <v>36526355.43237457</v>
+        <v>28441730.07268783</v>
       </c>
       <c r="F402" t="n">
         <v>34446791.59195106</v>
@@ -10906,16 +10906,16 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>156972716.4221353</v>
+        <v>86334994.03217439</v>
       </c>
       <c r="C403" t="n">
-        <v>42420303.11545739</v>
+        <v>23331166.71350157</v>
       </c>
       <c r="D403" t="n">
-        <v>33531289.37894265</v>
+        <v>18442209.15841846</v>
       </c>
       <c r="E403" t="n">
-        <v>36526073.55217493</v>
+        <v>28441540.43962352</v>
       </c>
       <c r="F403" t="n">
         <v>34446761.33835846</v>
@@ -10932,16 +10932,16 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>155868868.3329676</v>
+        <v>85727877.58313221</v>
       </c>
       <c r="C404" t="n">
-        <v>42408001.82282989</v>
+        <v>23324401.00255644</v>
       </c>
       <c r="D404" t="n">
-        <v>33529515.1403127</v>
+        <v>18441233.32717199</v>
       </c>
       <c r="E404" t="n">
-        <v>36525738.6054721</v>
+        <v>28441314.61721958</v>
       </c>
       <c r="F404" t="n">
         <v>34446724.20007503</v>
@@ -10958,16 +10958,16 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>154751309.8513163</v>
+        <v>85113220.41822402</v>
       </c>
       <c r="C405" t="n">
-        <v>42394339.03031963</v>
+        <v>23316886.4666758</v>
       </c>
       <c r="D405" t="n">
-        <v>33527473.52707929</v>
+        <v>18440110.43989361</v>
       </c>
       <c r="E405" t="n">
-        <v>36525341.36175096</v>
+        <v>28441046.2132488</v>
       </c>
       <c r="F405" t="n">
         <v>34446678.70627014</v>
@@ -10984,16 +10984,16 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>153619847.9079455</v>
+        <v>84490916.34937003</v>
       </c>
       <c r="C406" t="n">
-        <v>42379184.55063324</v>
+        <v>23308551.50284828</v>
       </c>
       <c r="D406" t="n">
-        <v>33525128.23300394</v>
+        <v>18438820.52815217</v>
       </c>
       <c r="E406" t="n">
-        <v>36524871.13413016</v>
+        <v>28440727.80876129</v>
       </c>
       <c r="F406" t="n">
         <v>34446623.09433991</v>
@@ -11010,16 +11010,16 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>152474292.1539827</v>
+        <v>83860860.68469051</v>
       </c>
       <c r="C407" t="n">
-        <v>42362398.27142925</v>
+        <v>23299319.04928609</v>
       </c>
       <c r="D407" t="n">
-        <v>33522438.66215035</v>
+        <v>18437341.26418269</v>
       </c>
       <c r="E407" t="n">
-        <v>36524315.57722806</v>
+        <v>28440350.81241555</v>
       </c>
       <c r="F407" t="n">
         <v>34446555.25702363</v>
@@ -11036,16 +11036,16 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>151314455.6316846</v>
+        <v>83222950.59742653</v>
       </c>
       <c r="C408" t="n">
-        <v>42343829.68997096</v>
+        <v>23289106.32948403</v>
       </c>
       <c r="D408" t="n">
-        <v>33519359.51831779</v>
+        <v>18435647.73507478</v>
       </c>
       <c r="E408" t="n">
-        <v>36523660.46179441</v>
+        <v>28439905.29754924</v>
       </c>
       <c r="F408" t="n">
         <v>34446472.68098773</v>
@@ -11062,16 +11062,16 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>150140155.4924066</v>
+        <v>82577085.52082363</v>
       </c>
       <c r="C409" t="n">
-        <v>42323317.45908108</v>
+        <v>23277824.6024946</v>
       </c>
       <c r="D409" t="n">
-        <v>33515840.36880822</v>
+        <v>18433712.20284452</v>
       </c>
       <c r="E409" t="n">
-        <v>36522889.42423185</v>
+        <v>28439379.82051507</v>
       </c>
       <c r="F409" t="n">
         <v>34446372.37571034</v>
@@ -11088,16 +11088,16 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>148951213.7622588</v>
+        <v>81923167.56924236</v>
       </c>
       <c r="C410" t="n">
-        <v>42300688.94910323</v>
+        <v>23265378.92200677</v>
       </c>
       <c r="D410" t="n">
-        <v>33511825.1828225</v>
+        <v>18431503.85055238</v>
       </c>
       <c r="E410" t="n">
-        <v>36521983.68910916</v>
+        <v>28438761.21877396</v>
       </c>
       <c r="F410" t="n">
         <v>34446250.79137929</v>
@@ -11114,16 +11114,16 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>147747458.1556479</v>
+        <v>81261101.98560636</v>
       </c>
       <c r="C411" t="n">
-        <v>42275759.83095248</v>
+        <v>23251667.90702386</v>
       </c>
       <c r="D411" t="n">
-        <v>33507251.84510951</v>
+        <v>18428988.51481023</v>
       </c>
       <c r="E411" t="n">
-        <v>36520921.76276896</v>
+        <v>28438034.38722193</v>
       </c>
       <c r="F411" t="n">
         <v>34446103.72439118</v>
@@ -11140,16 +11140,16 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>146528722.9366004</v>
+        <v>80590797.61513026</v>
       </c>
       <c r="C412" t="n">
-        <v>42248333.68570279</v>
+        <v>23236583.52713653</v>
       </c>
       <c r="D412" t="n">
-        <v>33502051.64586057</v>
+        <v>18426128.40522332</v>
       </c>
       <c r="E412" t="n">
-        <v>36519679.09616305</v>
+        <v>28437182.03123054</v>
       </c>
       <c r="F412" t="n">
         <v>34445926.20891023</v>
@@ -11166,16 +11166,16 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>145294849.8274327</v>
+        <v>79912167.40508796</v>
       </c>
       <c r="C413" t="n">
-        <v>42218201.64650691</v>
+        <v>23220010.9055788</v>
       </c>
       <c r="D413" t="n">
-        <v>33496148.74825091</v>
+        <v>18422881.811538</v>
       </c>
       <c r="E413" t="n">
-        <v>36518227.7151114</v>
+        <v>28436184.39490851</v>
       </c>
       <c r="F413" t="n">
         <v>34445712.39281445</v>
@@ -11192,16 +11192,16 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>144045688.9639719</v>
+        <v>79225128.93018459</v>
       </c>
       <c r="C414" t="n">
-        <v>42185142.07896675</v>
+        <v>23201828.14343172</v>
       </c>
       <c r="D414" t="n">
-        <v>33489459.63547809</v>
+        <v>18419202.79951295</v>
       </c>
       <c r="E414" t="n">
-        <v>36516535.81628219</v>
+        <v>28435018.96314641</v>
       </c>
       <c r="F414" t="n">
         <v>34445455.39622533</v>
@@ -11218,16 +11218,16 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>142781099.8961578</v>
+        <v>78529604.94288677</v>
       </c>
       <c r="C415" t="n">
-        <v>42148920.30636537</v>
+        <v>23181906.16850096</v>
       </c>
       <c r="D415" t="n">
-        <v>33481892.53963565</v>
+        <v>18415040.89679961</v>
       </c>
       <c r="E415" t="n">
-        <v>36514567.32733346</v>
+        <v>28433660.13609251</v>
       </c>
       <c r="F415" t="n">
         <v>34445147.15068804</v>
@@ -11244,16 +11244,16 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>141500952.6324469</v>
+        <v>77825523.94784582</v>
       </c>
       <c r="C416" t="n">
-        <v>42109288.38642532</v>
+        <v>23160108.61253392</v>
       </c>
       <c r="D416" t="n">
-        <v>33473346.85528488</v>
+        <v>18410340.77040669</v>
       </c>
       <c r="E416" t="n">
-        <v>36512281.4298498</v>
+        <v>28432078.87482907</v>
       </c>
       <c r="F416" t="n">
         <v>34444778.21694522</v>
@@ -11270,16 +11270,16 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>140205128.7260207</v>
+        <v>77112820.79931138</v>
       </c>
       <c r="C417" t="n">
-        <v>42065984.94646833</v>
+        <v>23136291.72055758</v>
       </c>
       <c r="D417" t="n">
-        <v>33463712.54114634</v>
+        <v>18405041.89763049</v>
       </c>
       <c r="E417" t="n">
-        <v>36509632.04395096</v>
+        <v>28430242.31717868</v>
       </c>
       <c r="F417" t="n">
         <v>34444337.57913185</v>
@@ -11296,16 +11296,16 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>138893522.4003563</v>
+        <v>76391437.32019605</v>
       </c>
       <c r="C418" t="n">
-        <v>42018735.08400884</v>
+        <v>23110304.29620486</v>
       </c>
       <c r="D418" t="n">
-        <v>33452869.51392323</v>
+        <v>18399078.23265778</v>
       </c>
       <c r="E418" t="n">
-        <v>36506567.27375163</v>
+        <v>28428113.36277416</v>
       </c>
       <c r="F418" t="n">
         <v>34443812.41311613</v>
@@ -11322,16 +11322,16 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>137566041.7112617</v>
+        <v>75661322.94119398</v>
       </c>
       <c r="C419" t="n">
-        <v>41967250.33991117</v>
+        <v>23081987.68695115</v>
       </c>
       <c r="D419" t="n">
-        <v>33440687.03888367</v>
+        <v>18392377.87138602</v>
       </c>
       <c r="E419" t="n">
-        <v>36503028.81321549</v>
+        <v>28425650.22677648</v>
       </c>
       <c r="F419" t="n">
         <v>34443187.82662466</v>
@@ -11348,16 +11348,16 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>136222609.7420059</v>
+        <v>74922435.35810326</v>
       </c>
       <c r="C420" t="n">
-        <v>41911228.75127307</v>
+        <v>23051175.81320019</v>
       </c>
       <c r="D420" t="n">
-        <v>33427023.12246499</v>
+        <v>18384862.71735575</v>
       </c>
       <c r="E420" t="n">
-        <v>36498951.31237583</v>
+        <v>28422805.96192618</v>
       </c>
       <c r="F420" t="n">
         <v>34442446.56872675</v>
@@ -11374,16 +11374,16 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>134863165.8276986</v>
+        <v>74174741.2052343</v>
       </c>
       <c r="C421" t="n">
-        <v>41850354.99115499</v>
+        <v>23017695.24513525</v>
       </c>
       <c r="D421" t="n">
-        <v>33411723.91281224</v>
+        <v>18376448.15204674</v>
       </c>
       <c r="E421" t="n">
-        <v>36494261.70439404</v>
+        <v>28419527.94896968</v>
       </c>
       <c r="F421" t="n">
         <v>34441568.70621525</v>
@@ -11400,16 +11400,16 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>133487666.8045847</v>
+        <v>73418216.74252161</v>
       </c>
       <c r="C422" t="n">
-        <v>41784300.60215338</v>
+        <v>22981365.33118436</v>
       </c>
       <c r="D422" t="n">
-        <v>33394623.1148172</v>
+        <v>18367042.71314946</v>
       </c>
       <c r="E422" t="n">
-        <v>36488878.49449772</v>
+        <v>28415757.35591296</v>
       </c>
       <c r="F422" t="n">
         <v>34440531.26441859</v>
@@ -11426,16 +11426,16 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>132096088.2794354</v>
+        <v>72652848.55368944</v>
       </c>
       <c r="C423" t="n">
-        <v>41712724.33060677</v>
+        <v>22941998.38183372</v>
       </c>
       <c r="D423" t="n">
-        <v>33375541.42687473</v>
+        <v>18356547.78478111</v>
       </c>
       <c r="E423" t="n">
-        <v>36482711.01248384</v>
+        <v>28411428.56702535</v>
       </c>
       <c r="F423" t="n">
         <v>34439307.83001465</v>
@@ -11452,16 +11452,16 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>130688425.9137337</v>
+        <v>71878634.25255354</v>
       </c>
       <c r="C424" t="n">
-        <v>41635272.56792323</v>
+        <v>22899399.91235778</v>
       </c>
       <c r="D424" t="n">
-        <v>33354286.00721002</v>
+        <v>18344857.30396551</v>
       </c>
       <c r="E424" t="n">
-        <v>36475658.63119009</v>
+        <v>28406468.58304596</v>
       </c>
       <c r="F424" t="n">
         <v>34437868.11350064</v>
@@ -11478,16 +11478,16 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>129264696.7168752</v>
+        <v>71095583.19428134</v>
       </c>
       <c r="C425" t="n">
-        <v>41551579.90511996</v>
+        <v>22853368.94781597</v>
       </c>
       <c r="D425" t="n">
-        <v>33330649.97824089</v>
+        <v>18331857.48803249</v>
       </c>
       <c r="E425" t="n">
-        <v>36467609.95412827</v>
+        <v>28400796.39463442</v>
       </c>
       <c r="F425" t="n">
         <v>34436177.46910982</v>
@@ -11504,16 +11504,16 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>127824940.3421393</v>
+        <v>70303717.1881766</v>
       </c>
       <c r="C426" t="n">
-        <v>41461269.80616702</v>
+        <v>22803698.39339186</v>
       </c>
       <c r="D426" t="n">
-        <v>33304411.97801409</v>
+        <v>18317426.58790775</v>
       </c>
       <c r="E426" t="n">
-        <v>36458441.97633457</v>
+        <v>28394322.33175599</v>
       </c>
       <c r="F426" t="n">
         <v>34434196.37016419</v>
@@ -11530,16 +11530,16 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>126369220.3787443</v>
+        <v>69503071.20830935</v>
       </c>
       <c r="C427" t="n">
-        <v>41363955.40512525</v>
+        <v>22750175.4728189</v>
       </c>
       <c r="D427" t="n">
-        <v>33275335.76827733</v>
+        <v>18301434.67255254</v>
       </c>
       <c r="E427" t="n">
-        <v>36448019.22341947</v>
+        <v>28386947.39239594</v>
       </c>
       <c r="F427" t="n">
         <v>34431879.83811853</v>
@@ -11556,16 +11556,16 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>124897625.6328697</v>
+        <v>68693694.09807834</v>
       </c>
       <c r="C428" t="n">
-        <v>41259240.43135976</v>
+        <v>22692582.23724787</v>
       </c>
       <c r="D428" t="n">
-        <v>33243169.90920883</v>
+        <v>18283743.45006486</v>
       </c>
       <c r="E428" t="n">
-        <v>36436192.87478816</v>
+        <v>28378562.55475638</v>
       </c>
       <c r="F428" t="n">
         <v>34429176.82389371</v>
@@ -11582,16 +11582,16 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>123410271.3901383</v>
+        <v>67875649.26457606</v>
       </c>
       <c r="C429" t="n">
-        <v>41146720.26629654</v>
+        <v>22630696.1464631</v>
       </c>
       <c r="D429" t="n">
-        <v>33207647.51120739</v>
+        <v>18264206.13116406</v>
       </c>
       <c r="E429" t="n">
-        <v>36422799.87804332</v>
+        <v>28369048.07789423</v>
       </c>
       <c r="F429" t="n">
         <v>34426029.54052179</v>
@@ -11608,16 +11608,16 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>121907300.6516855</v>
+        <v>67049015.358427</v>
       </c>
       <c r="C430" t="n">
-        <v>41025983.13427044</v>
+        <v>22564290.72384874</v>
       </c>
       <c r="D430" t="n">
-        <v>33168486.07443474</v>
+        <v>18242667.34093911</v>
       </c>
       <c r="E430" t="n">
-        <v>36407662.06266557</v>
+        <v>28358272.79660681</v>
       </c>
       <c r="F430" t="n">
         <v>34422372.74663959</v>
@@ -11634,16 +11634,16 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>120388885.3356203</v>
+        <v>66213886.93459117</v>
       </c>
       <c r="C431" t="n">
-        <v>40896611.42899017</v>
+        <v>22493136.2859446</v>
       </c>
       <c r="D431" t="n">
-        <v>33125387.42698353</v>
+        <v>18218963.08484094</v>
       </c>
       <c r="E431" t="n">
-        <v>36390585.26218066</v>
+        <v>28346093.41725042</v>
       </c>
       <c r="F431" t="n">
         <v>34418132.98097623</v>
@@ -11660,16 +11660,16 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>118855227.4354058</v>
+        <v>65370375.08947319</v>
       </c>
       <c r="C432" t="n">
-        <v>40758183.17602621</v>
+        <v>22417000.74681442</v>
       </c>
       <c r="D432" t="n">
-        <v>33078037.77260389</v>
+        <v>18192920.77493214</v>
       </c>
       <c r="E432" t="n">
-        <v>36371358.45515165</v>
+        <v>28332353.82208005</v>
       </c>
       <c r="F432" t="n">
         <v>34413227.74868805</v>
@@ -11686,16 +11686,16 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>117306560.1264533</v>
+        <v>64518608.06954931</v>
       </c>
       <c r="C433" t="n">
-        <v>40610273.63051306</v>
+        <v>22335650.49678219</v>
       </c>
       <c r="D433" t="n">
-        <v>33026107.85884628</v>
+        <v>18164359.32236546</v>
       </c>
       <c r="E433" t="n">
-        <v>36349752.93646275</v>
+        <v>28316884.39060928</v>
       </c>
       <c r="F433" t="n">
         <v>34407564.66120534</v>
@@ -11712,16 +11712,16 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>115743148.8120552</v>
+        <v>63658731.84663031</v>
       </c>
       <c r="C434" t="n">
-        <v>40452457.00796004</v>
+        <v>22248851.35437803</v>
       </c>
       <c r="D434" t="n">
-        <v>32969253.27625361</v>
+        <v>18133089.30193949</v>
       </c>
       <c r="E434" t="n">
-        <v>36325521.53146903</v>
+        <v>28299501.34739784</v>
       </c>
       <c r="F434" t="n">
         <v>34401040.5321708</v>
@@ -11738,16 +11738,16 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>114165292.0996622</v>
+        <v>62790910.65481421</v>
       </c>
       <c r="C435" t="n">
-        <v>40284308.34468918</v>
+        <v>22156369.58957906</v>
       </c>
       <c r="D435" t="n">
-        <v>32907114.89885084</v>
+        <v>18098913.19436796</v>
       </c>
       <c r="E435" t="n">
-        <v>36298397.866653</v>
+        <v>28280006.14656074</v>
       </c>
       <c r="F435" t="n">
         <v>34393540.4330692</v>
@@ -11764,16 +11764,16 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>112573322.6984631</v>
+        <v>61915327.48415467</v>
       </c>
       <c r="C436" t="n">
-        <v>40105405.48298088</v>
+        <v>22057973.01563948</v>
       </c>
       <c r="D436" t="n">
-        <v>32839319.47562408</v>
+        <v>18061625.71159324</v>
       </c>
       <c r="E436" t="n">
-        <v>36268095.7114299</v>
+        <v>28258184.90414354</v>
       </c>
       <c r="F436" t="n">
         <v>34384936.71326934</v>
@@ -11790,16 +11790,16 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>110967608.2292399</v>
+        <v>61032184.52608196</v>
       </c>
       <c r="C437" t="n">
-        <v>39915331.17451622</v>
+        <v>21953432.14598392</v>
       </c>
       <c r="D437" t="n">
-        <v>32765480.38194489</v>
+        <v>18021014.21006969</v>
       </c>
       <c r="E437" t="n">
-        <v>36234308.40665612</v>
+        <v>28233807.89029965</v>
       </c>
       <c r="F437" t="n">
         <v>34375087.99041855</v>
@@ -11816,16 +11816,16 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>109348551.9375632</v>
+        <v>60141703.56565975</v>
       </c>
       <c r="C438" t="n">
-        <v>39713675.29417736</v>
+        <v>21842521.41179756</v>
       </c>
       <c r="D438" t="n">
-        <v>32685198.53897242</v>
+        <v>17976859.19643483</v>
       </c>
       <c r="E438" t="n">
-        <v>36196708.39619037</v>
+        <v>28206629.09392125</v>
       </c>
       <c r="F438" t="n">
         <v>34363838.11843798</v>
@@ -11842,16 +11842,16 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>107716593.3015532</v>
+        <v>59244126.31585425</v>
       </c>
       <c r="C439" t="n">
-        <v>39500037.1547175</v>
+        <v>21725020.43509462</v>
       </c>
       <c r="D439" t="n">
-        <v>32598063.50795278</v>
+        <v>17928934.92937403</v>
       </c>
       <c r="E439" t="n">
-        <v>36154946.87850971</v>
+        <v>28176385.87299005</v>
       </c>
       <c r="F439" t="n">
         <v>34351015.14175388</v>
@@ -11868,16 +11868,16 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>106072208.525676</v>
+        <v>58339714.68912181</v>
       </c>
       <c r="C440" t="n">
-        <v>39274027.91125905</v>
+        <v>21600715.35119248</v>
       </c>
       <c r="D440" t="n">
-        <v>32503654.76502854</v>
+        <v>17877010.1207657</v>
       </c>
       <c r="E440" t="n">
-        <v>36108653.59586309</v>
+        <v>28142798.70440798</v>
       </c>
       <c r="F440" t="n">
         <v>34336430.24585278</v>
@@ -11894,16 +11894,16 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>104415910.9123619</v>
+        <v>57428751.00179907</v>
       </c>
       <c r="C441" t="n">
-        <v>39035273.04304092</v>
+        <v>21469400.17367249</v>
       </c>
       <c r="D441" t="n">
-        <v>32401543.1606751</v>
+        <v>17820848.73837131</v>
       </c>
       <c r="E441" t="n">
-        <v>36057436.77872585</v>
+        <v>28105571.04741618</v>
       </c>
       <c r="F441" t="n">
         <v>34319876.715747</v>
@@ -11920,16 +11920,16 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>102748251.1036346</v>
+        <v>56511538.10699903</v>
       </c>
       <c r="C442" t="n">
-        <v>38783414.89833213</v>
+        <v>21330878.19408267</v>
       </c>
       <c r="D442" t="n">
-        <v>32291292.56619845</v>
+        <v>17760210.91140915</v>
       </c>
       <c r="E442" t="n">
-        <v>36000883.26337207</v>
+        <v>28064389.33489172</v>
       </c>
       <c r="F442" t="n">
         <v>34301128.91546421</v>
@@ -11946,16 +11946,16 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>101069817.1854183</v>
+        <v>55588399.45198005</v>
       </c>
       <c r="C443" t="n">
-        <v>38518115.28698248</v>
+        <v>21184963.40784036</v>
       </c>
       <c r="D443" t="n">
-        <v>32172461.70786983</v>
+        <v>17694853.93932841</v>
       </c>
       <c r="E443" t="n">
-        <v>35938558.80018105</v>
+        <v>28018923.10680192</v>
       </c>
       <c r="F443" t="n">
         <v>34279941.3032027</v>
@@ -11972,16 +11972,16 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>99381234.64775123</v>
+        <v>54659679.05626319</v>
       </c>
       <c r="C444" t="n">
-        <v>38239058.10370971</v>
+        <v>21031481.95704034</v>
       </c>
       <c r="D444" t="n">
-        <v>32044606.18724865</v>
+        <v>17624533.40298676</v>
       </c>
       <c r="E444" t="n">
-        <v>35870008.56981449</v>
+        <v>27968825.299876</v>
       </c>
       <c r="F444" t="n">
         <v>34256047.49829757</v>
@@ -11998,16 +11998,16 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>97683166.19477031</v>
+        <v>53725741.40712368</v>
       </c>
       <c r="C445" t="n">
-        <v>37945951.96395118</v>
+        <v>20870273.58017315</v>
       </c>
       <c r="D445" t="n">
-        <v>31907280.6840726</v>
+        <v>17549004.37623993</v>
       </c>
       <c r="E445" t="n">
-        <v>35794757.92362068</v>
+        <v>27913732.70710171</v>
       </c>
       <c r="F445" t="n">
         <v>34229159.41758954</v>
@@ -12024,16 +12024,16 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>95976311.39904562</v>
+        <v>52786971.26947513</v>
       </c>
       <c r="C446" t="n">
-        <v>37638532.83295571</v>
+        <v>20701193.05812564</v>
       </c>
       <c r="D446" t="n">
-        <v>31760041.33579155</v>
+        <v>17468022.73468535</v>
       </c>
       <c r="E446" t="n">
-        <v>35712313.36352076</v>
+        <v>27853266.61995433</v>
       </c>
       <c r="F446" t="n">
         <v>34198966.50014333</v>
@@ -12050,16 +12050,16 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>94261406.19563103</v>
+        <v>51843773.40759706</v>
       </c>
       <c r="C447" t="n">
-        <v>37316566.62777998</v>
+        <v>20524111.64527899</v>
       </c>
       <c r="D447" t="n">
-        <v>31602448.2854148</v>
+        <v>17381346.55697814</v>
       </c>
       <c r="E447" t="n">
-        <v>35622163.77519617</v>
+        <v>27787033.66530238</v>
       </c>
       <c r="F447" t="n">
         <v>34165135.04049093</v>
@@ -12076,16 +12076,16 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>92539222.21204983</v>
+        <v>50896572.2166274</v>
       </c>
       <c r="C448" t="n">
-        <v>36979851.77100465</v>
+        <v>20338918.47405256</v>
       </c>
       <c r="D448" t="n">
-        <v>31434068.38685539</v>
+        <v>17288737.61277046</v>
       </c>
       <c r="E448" t="n">
-        <v>35523781.92661475</v>
+        <v>27714626.84769563</v>
       </c>
       <c r="F448" t="n">
         <v>34127307.65163541</v>
@@ -12102,16 +12102,16 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>90810565.93135536</v>
+        <v>49945811.26224546</v>
       </c>
       <c r="C449" t="n">
-        <v>36628221.67431588</v>
+        <v>20145521.92087374</v>
       </c>
       <c r="D449" t="n">
-        <v>31254478.05442143</v>
+        <v>17189962.92993179</v>
       </c>
       <c r="E449" t="n">
-        <v>35416626.24180035</v>
+        <v>27635626.80622222</v>
       </c>
       <c r="F449" t="n">
         <v>34085102.87990449</v>
@@ -12128,16 +12128,16 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>89076277.68638128</v>
+        <v>48991952.72750971</v>
       </c>
       <c r="C450" t="n">
-        <v>36261547.12962789</v>
+        <v>19943850.92129534</v>
       </c>
       <c r="D450" t="n">
-        <v>31063266.24055691</v>
+        <v>17084796.4323063</v>
       </c>
       <c r="E450" t="n">
-        <v>35300142.85726937</v>
+        <v>27549603.29331718</v>
       </c>
       <c r="F450" t="n">
         <v>34038114.99434719</v>
@@ -12154,16 +12154,16 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>87337230.48432374</v>
+        <v>48035476.76637805</v>
       </c>
       <c r="C451" t="n">
-        <v>35879738.5851665</v>
+        <v>19733856.22184158</v>
       </c>
       <c r="D451" t="n">
-        <v>30860037.52340885</v>
+        <v>16973020.63787487</v>
       </c>
       <c r="E451" t="n">
-        <v>35173767.96573366</v>
+        <v>27456116.88081912</v>
       </c>
       <c r="F451" t="n">
         <v>33985913.97368007</v>
@@ -12180,16 +12180,16 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>85594328.66187117</v>
+        <v>47076880.76402915</v>
       </c>
       <c r="C452" t="n">
-        <v>35482748.28390631</v>
+        <v>19515511.55614847</v>
       </c>
       <c r="D452" t="n">
-        <v>30644415.28333318</v>
+        <v>16854428.40583325</v>
       </c>
       <c r="E452" t="n">
-        <v>35036930.44851945</v>
+        <v>27354720.89621252</v>
       </c>
       <c r="F452" t="n">
         <v>33928045.71377192</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>13258689.3058886</v>
+        <v>23847147.04472806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>13274170.39476766</v>
+        <v>23874991.41112009</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>13289857.20918677</v>
+        <v>23903205.79653071</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>13305752.37673722</v>
+        <v>23931794.92695915</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>13321858.55140443</v>
+        <v>23960763.57587729</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>13338178.41333757</v>
+        <v>23990116.56381527</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>13354714.66858503</v>
+        <v>24019858.75788571</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>13371470.04879434</v>
+        <v>24049995.07124395</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>13388447.31087535</v>
+        <v>24080530.46248226</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>13405649.23662523</v>
+        <v>24111469.93495544</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>13423078.63231415</v>
+        <v>24142818.53603546</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>13440738.32823034</v>
+        <v>24174581.3562934</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>13458631.17818348</v>
+        <v>24206763.52860603</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>13476760.05896511</v>
+        <v>24239370.22718549</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>13495127.8697653</v>
+        <v>24272406.66653002</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>13513737.53154442</v>
+        <v>24305878.100294</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>13532591.98635931</v>
+        <v>24339789.82007609</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>13551694.19664299</v>
+        <v>24374147.15412356</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>13571047.14443734</v>
+        <v>24408955.46595238</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>13590653.83057825</v>
+        <v>24444220.15288147</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>13610517.27383289</v>
+        <v>24479946.64448103</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>13630640.50998877</v>
+        <v>24516140.40093416</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>13651026.5908947</v>
+        <v>24552806.91131188</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>13671678.58345374</v>
+        <v>24589951.6917619</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>13692599.56856836</v>
+        <v>24627580.28361125</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>13713792.6400384</v>
+        <v>24665698.25138437</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>13735260.90341268</v>
+        <v>24704311.18073734</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>13757007.47479493</v>
+        <v>24743424.67631048</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>13779035.47960566</v>
+        <v>24783044.35950117</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>13801348.05130096</v>
+        <v>24823175.86615981</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>13823948.33005048</v>
+        <v>24863824.84421166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>13846839.46137607</v>
+        <v>24904996.95120861</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>13870024.59475384</v>
+        <v>24946697.85181468</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>13893506.88218201</v>
+        <v>24988933.2152301</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>13917289.47671746</v>
+        <v>25031708.71255923</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>13941375.5309843</v>
+        <v>25075030.01412812</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>13965768.1956581</v>
+        <v>25118902.78675813</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>13990470.61792956</v>
+        <v>25163332.69100262</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>14015485.93995192</v>
+        <v>25208325.37835471</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>14040817.29727694</v>
+        <v>25253886.48843398</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>14066467.81728411</v>
+        <v>25300021.64616132</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>14092440.61760875</v>
+        <v>25346736.45893168</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>14118738.80457456</v>
+        <v>25394036.51379494</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>14145365.47163679</v>
+        <v>25441927.37465567</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>14172323.69784252</v>
+        <v>25490414.57950387</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>14199616.54631479</v>
+        <v>25539503.63768839</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>14227247.06276791</v>
+        <v>25589200.02724683</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>14255218.27406158</v>
+        <v>25639509.19230458</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>14283533.18680144</v>
+        <v>25690436.54055808</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>14312194.78599467</v>
+        <v>25741987.44085667</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>14341206.0337691</v>
+        <v>25794167.2208988</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>14370569.86816476</v>
+        <v>25846981.16505835</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>14400289.20200696</v>
+        <v>25900434.51235803</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>14430366.92187081</v>
+        <v>25954532.45460674</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>14460805.88714653</v>
+        <v>26009280.13471844</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>14491608.92921575</v>
+        <v>26064682.64523081</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>14522778.85074925</v>
+        <v>26120745.02704196</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>14554318.42513623</v>
+        <v>26177472.26838401</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>14586230.39605593</v>
+        <v>26234869.30405264</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>14618517.47720233</v>
+        <v>26292941.0149118</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>14651182.35217273</v>
+        <v>26351692.22769353</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>14684227.67453112</v>
+        <v>26411127.71511163</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>14717656.06805725</v>
+        <v>26471252.19630997</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>14751470.1271923</v>
+        <v>26532070.33766384</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>14785672.41769215</v>
+        <v>26593586.75395503</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>14820265.47749873</v>
+        <v>26655806.00993897</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>14855251.81784019</v>
+        <v>26718732.62232358</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>14890633.9245704</v>
+        <v>26782371.06217851</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>14926414.25975782</v>
+        <v>26846725.75779273</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>14962595.2635334</v>
+        <v>26911801.09799841</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>14999179.35620749</v>
+        <v>26977601.43597822</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>15036168.94066437</v>
+        <v>27044131.09357226</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>15073566.40504337</v>
+        <v>27111394.36610027</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>15111374.1257147</v>
+        <v>27179395.52771394</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>15149594.47055723</v>
+        <v>27248138.83729247</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>15188229.80254569</v>
+        <v>27317628.54489437</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>15227282.48365317</v>
+        <v>27387868.89877667</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>15266754.87907468</v>
+        <v>27458864.15299129</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>15306649.36177641</v>
+        <v>27530618.57556751</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>15346968.31737478</v>
+        <v>27603136.4572873</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>15387714.14934825</v>
+        <v>27676422.1210595</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>15428889.284584</v>
+        <v>27750479.93189586</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>15470496.17926075</v>
+        <v>27825314.30749211</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>15512537.32506761</v>
+        <v>27900929.72941316</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>15555015.25575846</v>
+        <v>27977330.75488183</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>15597932.55403922</v>
+        <v>28054522.02916638</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>15641291.85878542</v>
+        <v>28132508.2985618</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>15685095.87258522</v>
+        <v>28211294.42395726</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>15729347.36960278</v>
+        <v>28290885.39497868</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>15774049.20375475</v>
+        <v>28371286.3446953</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>15819204.31719226</v>
+        <v>28452502.56487534</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>15864815.74907877</v>
+        <v>28534539.52177386</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>15910886.64465343</v>
+        <v>28617402.87243428</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>15957420.26456818</v>
+        <v>28701098.48148199</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>16004419.99448504</v>
+        <v>28785632.43838617</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>16051889.35491984</v>
+        <v>28871011.07516477</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>16099832.01131603</v>
+        <v>28957240.98450333</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>16148251.78433233</v>
+        <v>29044329.0382583</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>16197152.66032554</v>
+        <v>29132282.40631168</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>16246538.80200954</v>
+        <v>29221108.57574208</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>16296414.55926971</v>
+        <v>29310815.37027584</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>16346784.48011153</v>
+        <v>29401410.96997913</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>16397653.32172022</v>
+        <v>29492903.9311498</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>16449026.06160808</v>
+        <v>29585303.20636715</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>16500907.90882462</v>
+        <v>29678618.16465458</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>16553304.31520416</v>
+        <v>29772858.61170942</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>16606220.98662414</v>
+        <v>29868034.8101523</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>16659663.89424743</v>
+        <v>29964157.49974759</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>16713639.28572038</v>
+        <v>30061237.9175443</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>16768153.69629858</v>
+        <v>30159287.81788684</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>16823213.95987125</v>
+        <v>30258319.49224365</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>16878827.21985487</v>
+        <v>30358345.7888005</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>16935000.93992679</v>
+        <v>30459380.13176602</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>16991742.9145687</v>
+        <v>30561436.54033527</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>17049061.27939039</v>
+        <v>30664529.6472579</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>17106964.52120361</v>
+        <v>30768674.71695742</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>17165461.48781686</v>
+        <v>30873887.66314789</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>17224561.39752117</v>
+        <v>30980185.06589518</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>17284273.84823817</v>
+        <v>31087584.18807061</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>17344608.82630166</v>
+        <v>31196102.99114579</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>17405576.714845</v>
+        <v>31305760.15027792</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>17467188.30176675</v>
+        <v>31416575.0686371</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>17529454.78724866</v>
+        <v>31528567.89092808</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>17592387.79080021</v>
+        <v>31641759.51606056</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>17655999.35780571</v>
+        <v>31756171.60892494</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>17720301.96555054</v>
+        <v>31871826.61123125</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>17785308.52870538</v>
+        <v>31988747.75137269</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>17851032.40424716</v>
+        <v>32106959.05327704</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>17917487.3957989</v>
+        <v>32226485.34421189</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>17984687.75737039</v>
+        <v>32347352.26151287</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>18052648.1964849</v>
+        <v>32469586.25820727</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>18121383.87667783</v>
+        <v>32593214.60750816</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>18190910.41935584</v>
+        <v>32718265.40615817</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>18261243.9050064</v>
+        <v>32844767.57660513</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>18332400.87375037</v>
+        <v>32972750.86799589</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>18404398.32523168</v>
+        <v>33102245.85597766</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>18477253.71784081</v>
+        <v>33233283.94130185</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>18550984.96727088</v>
+        <v>33365897.34722649</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>18625610.44440714</v>
+        <v>33500119.11572067</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>18701148.97255345</v>
+        <v>33635983.10247591</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>18777619.82400113</v>
+        <v>33773523.97073491</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>18855042.71594822</v>
+        <v>33912777.18395186</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>18933437.80577923</v>
+        <v>34053778.99730267</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>19012825.68571836</v>
+        <v>34196566.44806799</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>19093227.37687026</v>
+        <v>34341177.34491529</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>19174664.32266642</v>
+        <v>34487650.25611113</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>19257158.38173588</v>
+        <v>34636024.49669856</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>19340731.82022196</v>
+        <v>34786340.11467792</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>19425407.3035691</v>
+        <v>34938637.87623462</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>19511207.88780505</v>
+        <v>35092959.25005923</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>19598157.01034677</v>
+        <v>35249346.39081087</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>19686278.48035935</v>
+        <v>35407842.12177686</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>19775596.46870004</v>
+        <v>35568489.91678584</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>19866135.49748021</v>
+        <v>35731333.88143389</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>19957920.42928082</v>
+        <v>35896418.73368751</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>20050976.45605753</v>
+        <v>36063789.78392825</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>20145329.08777375</v>
+        <v>36233492.914508</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>20241004.14080087</v>
+        <v>36405574.55888569</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>20338027.72612614</v>
+        <v>36580081.68041775</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>20436426.23740982</v>
+        <v>36757061.75087781</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>20536226.33893404</v>
+        <v>36936562.72878141</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>20637454.95348679</v>
+        <v>37118633.037594</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>20740139.25022483</v>
+        <v>37303321.54390127</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>20844306.63255999</v>
+        <v>37490677.53562117</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>20949984.72611364</v>
+        <v>37680750.70033896</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>21057201.3667844</v>
+        <v>37873591.10384568</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>21165984.58897425</v>
+        <v>38069249.16896141</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>21276362.61401753</v>
+        <v>38267775.65472377</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>21388363.83885831</v>
+        <v>38469221.63602312</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>21502016.82502024</v>
+        <v>38673638.4837633</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>21617350.28791247</v>
+        <v>38881077.84562747</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>21734393.0865155</v>
+        <v>39091591.62752698</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>21853174.21348912</v>
+        <v>39305231.97580935</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>21973722.78574396</v>
+        <v>39522051.26030051</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>22096068.03551771</v>
+        <v>39742102.05825403</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>22220239.3019949</v>
+        <v>39965437.13927872</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>22346266.02350885</v>
+        <v>40192109.45131287</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>22474177.73036247</v>
+        <v>40422172.10771178</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>22604004.03830336</v>
+        <v>40655678.37551197</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>22735774.64268711</v>
+        <v>40892681.66493338</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>22869519.31336089</v>
+        <v>41133235.52017681</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>23005267.89029819</v>
+        <v>41377393.61157268</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>23143050.280013</v>
+        <v>41625209.72913142</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>23282896.45278082</v>
+        <v>41876737.77754532</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>23424836.44069141</v>
+        <v>42132031.77268612</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>23568900.33655616</v>
+        <v>42391145.83963969</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>23715118.29369187</v>
+        <v>42654134.21231746</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>23863520.52659953</v>
+        <v>42921051.23467675</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>24014137.31255571</v>
+        <v>43191951.36358361</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>24166998.99413173</v>
+        <v>43466889.17334348</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>24322135.98265363</v>
+        <v>43745919.3619244</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>24479578.76261469</v>
+        <v>44029096.75889341</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>24639357.8970491</v>
+        <v>44316476.33508156</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>24801504.03387474</v>
+        <v>44608113.21399226</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>24966047.91321013</v>
+        <v>44904062.68496133</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>25133020.37566923</v>
+        <v>45204380.21807632</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>25302452.37163606</v>
+        <v>45509121.48085767</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>25474374.97151857</v>
+        <v>45818342.35670169</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>25648819.37698083</v>
+        <v>46132098.96508235</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>25825816.93314953</v>
+        <v>46450447.68350643</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>26005399.1417903</v>
+        <v>46773445.1712122</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>26187597.67544717</v>
+        <v>47101148.39460094</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>26372444.39253245</v>
+        <v>47433614.65437743</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>26559971.35337266</v>
+        <v>47770901.61441064</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>26750210.83718617</v>
+        <v>48113067.33226924</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>26943195.35998517</v>
+        <v>48460170.29142076</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>27138957.69338998</v>
+        <v>48812269.43507066</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>27337530.88434181</v>
+        <v>49169424.20161809</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>27538948.27569989</v>
+        <v>49531694.56170175</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>27743243.52770765</v>
+        <v>49899141.05680934</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>27950450.64031248</v>
+        <v>50271824.83942167</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>28160603.9763224</v>
+        <v>50649807.71466286</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>28373738.28538306</v>
+        <v>51033152.18342477</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>28589888.72875754</v>
+        <v>51421921.48693696</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>28809090.904892</v>
+        <v>51816179.65274837</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>29031380.87574854</v>
+        <v>52215991.54209024</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>29256795.19388817</v>
+        <v>52621422.89858755</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>29485370.9302855</v>
+        <v>53032540.39828666</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>29717145.7028571</v>
+        <v>53449411.70096651</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>29952157.70568618</v>
+        <v>53872105.50270241</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>30190445.73892483</v>
+        <v>54300691.58964821</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>30432049.23935743</v>
+        <v>54735240.89300796</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>30677008.31160665</v>
+        <v>55175825.54516312</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>30925363.75996628</v>
+        <v>55622518.93692695</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>31177157.12084237</v>
+        <v>56075395.77589414</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>31432430.69578844</v>
+        <v>56534532.1458571</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>31691227.58511661</v>
+        <v>57000005.56725975</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>31953591.72207015</v>
+        <v>57471895.05866037</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>32219567.90754193</v>
+        <v>57950281.19917607</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>32489201.84532348</v>
+        <v>58435246.19188239</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>32762540.17787037</v>
+        <v>58926873.9281408</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>33039630.52256956</v>
+        <v>59425250.05282915</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>33320521.50849457</v>
+        <v>59930462.03045028</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>33605262.81363518</v>
+        <v>60442599.21209312</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>33893905.20258793</v>
+        <v>60961752.90322308</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>34186500.56469405</v>
+        <v>61488016.43227731</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>34483101.95261203</v>
+        <v>62021485.22004124</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>34783763.62131124</v>
+        <v>62562256.84978286</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>35088541.06747373</v>
+        <v>63110431.13812105</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>35397491.06929048</v>
+        <v>63666110.20660347</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>35710671.72663943</v>
+        <v>64229398.55397034</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>36028142.50163006</v>
+        <v>64800403.12907887</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>36349964.2595012</v>
+        <v>65379233.40446191</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>36676199.30985682</v>
+        <v>65966001.45049495</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>37006911.44822394</v>
+        <v>66560822.01014215</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>37342165.99791634</v>
+        <v>67163812.57425304</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>37682029.85218649</v>
+        <v>67775093.45737693</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>38026571.51664706</v>
+        <v>68394787.8740624</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>38375861.15194196</v>
+        <v>69023022.0156059</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>38729970.61664546</v>
+        <v>69659925.12721008</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>39088973.51036616</v>
+        <v>70305629.58551115</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>39452945.21703117</v>
+        <v>70960270.97642945</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>39821962.9483228</v>
+        <v>71623988.17329562</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>40196105.78723933</v>
+        <v>72296923.41519858</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>40575454.73174741</v>
+        <v>72979222.38549936</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>40960092.73849232</v>
+        <v>73671034.29044865</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>41350104.76652884</v>
+        <v>74372511.93784094</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>41745577.82103208</v>
+        <v>75083811.81563337</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>42146600.99694541</v>
+        <v>75805094.17045115</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>42553265.52251785</v>
+        <v>76536523.08589409</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>42965664.80268114</v>
+        <v>77278266.56055468</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>43383894.46221051</v>
+        <v>78030496.58564715</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>43808052.38861114</v>
+        <v>78793389.22214416</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>44238238.77466769</v>
+        <v>79567124.67730515</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>44674556.16058692</v>
+        <v>80351887.38047567</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>45117109.47566284</v>
+        <v>81147866.05802564</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>45566006.07938537</v>
+        <v>81955253.80728799</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>46021355.80190908</v>
+        <v>82774248.1693459</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>46483270.98379435</v>
+        <v>83605051.20051104</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>46951866.51492459</v>
+        <v>84447869.54232125</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>47427259.87250137</v>
+        <v>85302914.48987767</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>47909571.15800792</v>
+        <v>86170402.05832821</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>48398923.1330302</v>
+        <v>87050553.04729517</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>48895441.25381423</v>
+        <v>87943593.10303064</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>49399253.70443363</v>
+        <v>88849752.77807102</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>49910491.42843347</v>
+        <v>89769267.58815263</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>50429288.15880994</v>
+        <v>90702378.06613322</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>50955780.44617762</v>
+        <v>91649329.81265272</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>51490107.68496835</v>
+        <v>92610373.54325642</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>52032412.13749952</v>
+        <v>93585765.13168265</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>52582838.95573995</v>
+        <v>94575765.64901222</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>53141536.20059552</v>
+        <v>95580641.39835486</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>53708654.85852794</v>
+        <v>96600663.94474001</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>54284348.85531179</v>
+        <v>97636110.13986093</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>54868775.06672936</v>
+        <v>98687262.14130944</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>55462093.32599108</v>
+        <v>99754407.42592299</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>56064466.42766555</v>
+        <v>100837838.7968535</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>56676060.12789313</v>
+        <v>101937854.3839507</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>57297043.14064948</v>
+        <v>103054757.6370423</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>57927587.12981942</v>
+        <v>104188857.3116781</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>58567866.6968329</v>
+        <v>105340467.4468914</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>59218059.363608</v>
+        <v>106509907.3345207</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>59878345.55054063</v>
+        <v>107697501.4796216</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>60548908.5492719</v>
+        <v>108903579.5514862</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>61229934.48996001</v>
+        <v>110128476.3247782</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>61921612.30277803</v>
+        <v>111372531.6102823</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>62624133.67335222</v>
+        <v>112636090.1747555</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>63337692.9918529</v>
+        <v>113919501.6493623</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>64062487.29544575</v>
+        <v>115223120.4261658</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>64798716.20380729</v>
+        <v>116547305.542147</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>65546581.84740718</v>
+        <v>117892420.5502123</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>66028112.38524285</v>
+        <v>118493488.3365386</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>66517700.07153685</v>
+        <v>119105245.5182933</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>67015491.35058879</v>
+        <v>119727895.7464864</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>67521634.15915583</v>
+        <v>120361644.734226</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>68036277.84197068</v>
+        <v>121006700.1313354</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>68559573.06103618</v>
+        <v>121663271.3904382</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>69091671.69850534</v>
+        <v>122331569.6242577</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>69632726.75296098</v>
+        <v>123011807.4538838</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>70182892.22891229</v>
+        <v>123704198.8477671</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>70742323.01933645</v>
+        <v>124408958.9512142</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>71311174.78109956</v>
+        <v>125126303.9061668</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>71889603.80309869</v>
+        <v>125856450.6610604</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>72477766.86698273</v>
+        <v>126599616.7705767</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>73075821.10031568</v>
+        <v>127356020.1851195</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>73683923.82206358</v>
+        <v>128125879.0298593</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>74302232.38029923</v>
+        <v>128909411.3732213</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>74930903.98203507</v>
+        <v>129706834.9847049</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>75570095.51511177</v>
+        <v>130518367.0819537</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>76219963.36209111</v>
+        <v>131344224.067022</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>76880663.20611945</v>
+        <v>132184621.25181</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>77552349.82875229</v>
+        <v>133039772.5726727</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>78235176.89975275</v>
+        <v>133909890.2942418</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>78929296.75890346</v>
+        <v>134795184.7025359</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>79634860.18989596</v>
+        <v>135695863.7874664</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>80352016.18639143</v>
+        <v>136612132.9148958</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>81080911.71037546</v>
+        <v>137544194.488437</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>81821691.4429611</v>
+        <v>138492247.6012331</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>82574497.52782588</v>
+        <v>139456487.6779971</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>83339469.30750306</v>
+        <v>140437106.1076427</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>84116743.05278169</v>
+        <v>141434289.8668841</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>84906451.6855069</v>
+        <v>142448221.1352315</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>85708724.49510756</v>
+        <v>143479076.9018635</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>86523686.8492175</v>
+        <v>144527028.5649103</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>87351459.89879479</v>
+        <v>145592241.5237325</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>88192160.27818282</v>
+        <v>146674874.764838</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>89045899.80059713</v>
+        <v>147775080.4421349</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>89912785.14956138</v>
+        <v>148893003.452269</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>90792917.56685615</v>
+        <v>150028781.0058571</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>91686392.5375859</v>
+        <v>151182542.1954771</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>92593299.4730047</v>
+        <v>152354407.5613317</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>93513721.39178762</v>
+        <v>153544488.6555575</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>94447734.60046424</v>
+        <v>154752887.6062018</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>95395408.37377764</v>
+        <v>155979696.6819434</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>96356804.63575745</v>
+        <v>157224997.8586753</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>97331977.64234127</v>
+        <v>158488862.3891238</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>98320973.66640033</v>
+        <v>159771350.3767124</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>99323830.68606502</v>
+        <v>161072510.3549247</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>100340578.0772655</v>
+        <v>162392378.8734553</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>101371236.3114343</v>
+        <v>163730980.0924714</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>102415816.6593363</v>
+        <v>165088325.3863359</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>103474320.9020099</v>
+        <v>166464412.9581626</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>104546741.0498212</v>
+        <v>167859227.4666012</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>105633059.0706401</v>
+        <v>169272739.6662508</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>106733246.6281608</v>
+        <v>170704906.0631195</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>107847264.8313816</v>
+        <v>172155668.586537</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>107483689.8412024</v>
+        <v>171506168.1963763</v>
       </c>
       <c r="C358" t="n">
-        <v>1443041.840523935</v>
+        <v>2022331.076652292</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>107116498.8672248</v>
+        <v>170850473.3456461</v>
       </c>
       <c r="C359" t="n">
-        <v>2902858.092956661</v>
+        <v>4068170.421424792</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>106745637.7823251</v>
+        <v>170188505.7449939</v>
       </c>
       <c r="C360" t="n">
-        <v>4379431.530100547</v>
+        <v>6137493.891499075</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>106371051.2639818</v>
+        <v>169520185.9414427</v>
       </c>
       <c r="C361" t="n">
-        <v>5872735.026794255</v>
+        <v>8230263.472692052</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>105992682.7737854</v>
+        <v>168845433.3193823</v>
       </c>
       <c r="C362" t="n">
-        <v>7382731.405940737</v>
+        <v>10346427.06367403</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>105610474.5362955</v>
+        <v>168164166.1009226</v>
       </c>
       <c r="C363" t="n">
-        <v>8909373.301692083</v>
+        <v>12485918.28423099</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>105224367.5172564</v>
+        <v>167476301.3455604</v>
       </c>
       <c r="C364" t="n">
-        <v>10452603.04065483</v>
+        <v>14648656.30878143</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>104834301.4011945</v>
+        <v>166781754.9491317</v>
       </c>
       <c r="C365" t="n">
-        <v>12012352.54192747</v>
+        <v>16834545.7262853</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>104440214.5684363</v>
+        <v>166080441.6420246</v>
       </c>
       <c r="C366" t="n">
-        <v>13588543.23672833</v>
+        <v>19043476.42760758</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>104042044.0715971</v>
+        <v>165372274.9866598</v>
       </c>
       <c r="C367" t="n">
-        <v>15181086.00831117</v>
+        <v>21275323.52131391</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>103639725.6116102</v>
+        <v>164657167.3742555</v>
       </c>
       <c r="C368" t="n">
-        <v>16789881.15279388</v>
+        <v>23529947.27877435</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>103233193.5133855</v>
+        <v>163935030.0209219</v>
       </c>
       <c r="C369" t="n">
-        <v>18414818.36145395</v>
+        <v>25807193.10935175</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>102822380.7012013</v>
+        <v>163205772.9631557</v>
       </c>
       <c r="C370" t="n">
-        <v>20055776.72495867</v>
+        <v>28106891.56633009</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>102407218.673963</v>
+        <v>162469305.0528313</v>
       </c>
       <c r="C371" t="n">
-        <v>21712624.75991165</v>
+        <v>30428858.38411768</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>101987637.4804813</v>
+        <v>161725533.9518209</v>
       </c>
       <c r="C372" t="n">
-        <v>23385220.4580019</v>
+        <v>32772894.54712645</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>101563565.6949495</v>
+        <v>160974366.1264063</v>
       </c>
       <c r="C373" t="n">
-        <v>23385085.32134426</v>
+        <v>32772705.16172218</v>
       </c>
       <c r="D373" t="n">
-        <v>1774076.862792075</v>
+        <v>2561473.504932406</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>101134930.3928287</v>
+        <v>160215706.8416887</v>
       </c>
       <c r="C374" t="n">
-        <v>23384928.96031164</v>
+        <v>32772486.03171045</v>
       </c>
       <c r="D374" t="n">
-        <v>3564392.227859587</v>
+        <v>5146392.720820569</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>100701657.1273815</v>
+        <v>159449460.1562346</v>
       </c>
       <c r="C375" t="n">
-        <v>23384748.27534261</v>
+        <v>32772232.81325366</v>
       </c>
       <c r="D375" t="n">
-        <v>5370767.502380151</v>
+        <v>7754499.789173512</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>100263669.9071226</v>
+        <v>158675528.9172517</v>
       </c>
       <c r="C376" t="n">
-        <v>23384539.75278005</v>
+        <v>32771940.5821855</v>
       </c>
       <c r="D376" t="n">
-        <v>7193013.915424987</v>
+        <v>10385522.15599839</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>99820891.17449307</v>
+        <v>157893814.7566255</v>
       </c>
       <c r="C377" t="n">
-        <v>23384299.41558427</v>
+        <v>32771603.76493859</v>
       </c>
       <c r="D377" t="n">
-        <v>9030932.740728527</v>
+        <v>13039172.89344295</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>99373241.78610089</v>
+        <v>157104218.0882039</v>
       </c>
       <c r="C378" t="n">
-        <v>23384022.76907528</v>
+        <v>32771216.06250566</v>
       </c>
       <c r="D378" t="n">
-        <v>10884315.54780552</v>
+        <v>15715151.06236706</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>98920640.99490483</v>
+        <v>156306638.1067672</v>
       </c>
       <c r="C379" t="n">
-        <v>23383704.74132932</v>
+        <v>32770770.36690916</v>
       </c>
       <c r="D379" t="n">
-        <v>12752944.48125441</v>
+        <v>18413142.11561063</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>98463006.43476373</v>
+        <v>155500972.7891782</v>
       </c>
       <c r="C380" t="n">
-        <v>23383339.61784416</v>
+        <v>32770258.66963878</v>
       </c>
       <c r="D380" t="n">
-        <v>14636592.56795846</v>
+        <v>21132818.34154116</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>98000254.10781096</v>
+        <v>154687118.8982647</v>
       </c>
       <c r="C381" t="n">
-        <v>23382920.97007895</v>
+        <v>32769671.96150462</v>
       </c>
       <c r="D381" t="n">
-        <v>16535024.05176433</v>
+        <v>23873839.34727432</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>97532298.3751563</v>
+        <v>153864971.9900482</v>
       </c>
       <c r="C382" t="n">
-        <v>23382441.5774691</v>
+        <v>32769000.12334611</v>
       </c>
       <c r="D382" t="n">
-        <v>18447994.75508107</v>
+        <v>26635852.58076297</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>97059051.95146503</v>
+        <v>153034426.4249938</v>
       </c>
       <c r="C383" t="n">
-        <v>23381893.34251469</v>
+        <v>32768231.80703367</v>
       </c>
       <c r="D383" t="n">
-        <v>18447960.10272393</v>
+        <v>26635802.54849179</v>
       </c>
       <c r="E383" t="n">
-        <v>1948517.555187612</v>
+        <v>2974777.50832506</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>96580425.90400402</v>
+        <v>152195375.3840225</v>
       </c>
       <c r="C384" t="n">
-        <v>23381267.19854201</v>
+        <v>32767354.30620251</v>
       </c>
       <c r="D384" t="n">
-        <v>18447918.79195437</v>
+        <v>26635742.90257457</v>
       </c>
       <c r="E384" t="n">
-        <v>3911223.499522976</v>
+        <v>5971216.253832061</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>96096329.65679325</v>
+        <v>151347710.8900925</v>
       </c>
       <c r="C385" t="n">
-        <v>23380553.00974491</v>
+        <v>32766353.41616704</v>
       </c>
       <c r="D385" t="n">
-        <v>18447869.62572696</v>
+        <v>26635671.91467573</v>
       </c>
       <c r="E385" t="n">
-        <v>5887849.088185847</v>
+        <v>8988905.947147623</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>95606671.0005459</v>
+        <v>150491323.8362196</v>
       </c>
       <c r="C386" t="n">
-        <v>23379739.46312372</v>
+        <v>32765213.2824799</v>
       </c>
       <c r="D386" t="n">
-        <v>18447811.20820684</v>
+        <v>26635587.56944069</v>
       </c>
       <c r="E386" t="n">
-        <v>7878118.981341582</v>
+        <v>12027426.23037193</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>95111356.10912333</v>
+        <v>149626104.0208774</v>
       </c>
       <c r="C387" t="n">
-        <v>23378813.95195624</v>
+        <v>32763916.23762422</v>
       </c>
       <c r="D387" t="n">
-        <v>18447741.91486496</v>
+        <v>26635487.52131817</v>
       </c>
       <c r="E387" t="n">
-        <v>9881751.762500312</v>
+        <v>15086347.46845125</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>94610289.56328024</v>
+        <v>148751940.1917795</v>
       </c>
       <c r="C388" t="n">
-        <v>23377762.45045974</v>
+        <v>32762442.62536032</v>
       </c>
       <c r="D388" t="n">
-        <v>18447659.85863114</v>
+        <v>26635369.04569108</v>
       </c>
       <c r="E388" t="n">
-        <v>13548500.77271251</v>
+        <v>18165231.57828945</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>94103374.38251451</v>
+        <v>147868720.0991157</v>
       </c>
       <c r="C389" t="n">
-        <v>23376569.3793329</v>
+        <v>32760770.61229132</v>
       </c>
       <c r="D389" t="n">
-        <v>18447562.85168033</v>
+        <v>26635228.98370193</v>
       </c>
       <c r="E389" t="n">
-        <v>17238494.73853675</v>
+        <v>21263632.89377254</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>93590512.06588013</v>
+        <v>146976330.5593709</v>
       </c>
       <c r="C390" t="n">
-        <v>23375217.46190537</v>
+        <v>32758875.98626595</v>
       </c>
       <c r="D390" t="n">
-        <v>18447448.36239576</v>
+        <v>26635063.68011494</v>
       </c>
       <c r="E390" t="n">
-        <v>20951195.20355317</v>
+        <v>24381099.06468127</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>93071602.64266267</v>
+        <v>146074657.5309219</v>
       </c>
       <c r="C391" t="n">
-        <v>23373687.57066928</v>
+        <v>32756731.94130221</v>
       </c>
       <c r="D391" t="n">
-        <v>18447313.46702325</v>
+        <v>26634868.91351273</v>
       </c>
       <c r="E391" t="n">
-        <v>24686056.90914403</v>
+        <v>27517171.98726386</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>92546544.7338497</v>
+        <v>145163586.2026577</v>
       </c>
       <c r="C392" t="n">
-        <v>23371958.56402316</v>
+        <v>32754308.84879442</v>
       </c>
       <c r="D392" t="n">
-        <v>18447154.79550098</v>
+        <v>26634639.81808354</v>
       </c>
       <c r="E392" t="n">
-        <v>28442528.946238</v>
+        <v>30671388.76403836</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>92015235.62536621</v>
+        <v>144243001.0969252</v>
       </c>
       <c r="C393" t="n">
-        <v>23370007.11312395</v>
+        <v>32751574.01485738</v>
       </c>
       <c r="D393" t="n">
-        <v>18446968.47092115</v>
+        <v>26634370.79621388</v>
       </c>
       <c r="E393" t="n">
-        <v>28442499.17413738</v>
+        <v>30671350.78708652</v>
       </c>
       <c r="F393" t="n">
-        <v>3368375.468772976</v>
+        <v>2466909.888318075</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>91477571.35407029</v>
+        <v>143312786.1881467</v>
       </c>
       <c r="C394" t="n">
-        <v>23367807.51881883</v>
+        <v>32748491.42376796</v>
       </c>
       <c r="D394" t="n">
-        <v>18446750.0420539</v>
+        <v>26634055.42106419</v>
       </c>
       <c r="E394" t="n">
-        <v>28442463.03815442</v>
+        <v>30671304.79255827</v>
       </c>
       <c r="F394" t="n">
-        <v>6755032.800206107</v>
+        <v>4947208.933572873</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>90933446.80753221</v>
+        <v>142372825.0384949</v>
       </c>
       <c r="C395" t="n">
-        <v>23365331.51871485</v>
+        <v>32745021.4675855</v>
       </c>
       <c r="D395" t="n">
-        <v>18446494.40834074</v>
+        <v>26633686.32827179</v>
       </c>
       <c r="E395" t="n">
-        <v>28442419.26123695</v>
+        <v>30671249.19361246</v>
       </c>
       <c r="F395" t="n">
-        <v>10159473.22449726</v>
+        <v>7440531.849837014</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>90382755.838634</v>
+        <v>141423000.952043</v>
       </c>
       <c r="C396" t="n">
-        <v>23362548.08454201</v>
+        <v>32741120.66216913</v>
       </c>
       <c r="D396" t="n">
-        <v>18446195.73674527</v>
+        <v>26633255.09589707</v>
       </c>
       <c r="E396" t="n">
-        <v>28442366.32844342</v>
+        <v>30671182.11240382</v>
       </c>
       <c r="F396" t="n">
-        <v>13581197.51824279</v>
+        <v>9946513.018977262</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>89825391.39604294</v>
+        <v>140463197.1488325</v>
       </c>
       <c r="C397" t="n">
-        <v>23359423.21007458</v>
+        <v>32736741.34996303</v>
       </c>
       <c r="D397" t="n">
-        <v>18445847.36983427</v>
+        <v>26632752.11170781</v>
       </c>
       <c r="E397" t="n">
-        <v>28442302.44648821</v>
+        <v>30671101.33149421</v>
       </c>
       <c r="F397" t="n">
-        <v>17019707.18395986</v>
+        <v>12464787.35450574</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>89261245.67161335</v>
+        <v>139493296.9603097</v>
       </c>
       <c r="C398" t="n">
-        <v>23355919.68999604</v>
+        <v>32731831.39008971</v>
       </c>
       <c r="D398" t="n">
-        <v>18445441.72445322</v>
+        <v>26632166.42688335</v>
       </c>
       <c r="E398" t="n">
-        <v>28442225.49717522</v>
+        <v>30671004.23808803</v>
       </c>
       <c r="F398" t="n">
-        <v>20474505.64805768</v>
+        <v>14994991.17894271</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>88690210.26576972</v>
+        <v>138513184.0475898</v>
       </c>
       <c r="C399" t="n">
-        <v>23351996.89022573</v>
+        <v>32726333.83647746</v>
       </c>
       <c r="D399" t="n">
-        <v>18444970.18035797</v>
+        <v>26631485.59521719</v>
       </c>
       <c r="E399" t="n">
-        <v>28442132.98394115</v>
+        <v>30670887.76020541</v>
       </c>
       <c r="F399" t="n">
-        <v>23945099.47401332</v>
+        <v>17536763.11231462</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>88112176.37190978</v>
+        <v>137522742.6439921</v>
       </c>
       <c r="C400" t="n">
-        <v>23347610.51036909</v>
+        <v>32720186.60494961</v>
       </c>
       <c r="D400" t="n">
-        <v>18444422.95817025</v>
+        <v>26630695.49690491</v>
       </c>
       <c r="E400" t="n">
-        <v>28442021.97065619</v>
+        <v>30670748.2938284</v>
       </c>
       <c r="F400" t="n">
-        <v>27430999.5873393</v>
+        <v>20089744.9692884</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>87527034.98084602</v>
+        <v>136521857.8232664</v>
       </c>
       <c r="C401" t="n">
-        <v>23342712.33910966</v>
+        <v>32713322.1304219</v>
       </c>
       <c r="D401" t="n">
-        <v>18443788.98603995</v>
+        <v>26629780.14602654</v>
       </c>
       <c r="E401" t="n">
-        <v>28441889.0117543</v>
+        <v>30670581.6199746</v>
       </c>
       <c r="F401" t="n">
-        <v>30931722.50877457</v>
+        <v>22653582.66232809</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>86934677.10626934</v>
+        <v>135510415.7948952</v>
       </c>
       <c r="C402" t="n">
-        <v>23337250.00352691</v>
+        <v>32705667.01558746</v>
       </c>
       <c r="D402" t="n">
-        <v>18443055.75442254</v>
+        <v>26628721.48086926</v>
       </c>
       <c r="E402" t="n">
-        <v>28441730.07268783</v>
+        <v>30670382.81057159</v>
       </c>
       <c r="F402" t="n">
-        <v>34446791.59195106</v>
+        <v>25227927.10812944</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>86334994.03217439</v>
+        <v>134488304.2277967</v>
       </c>
       <c r="C403" t="n">
-        <v>23331166.71350157</v>
+        <v>32697141.67271724</v>
       </c>
       <c r="D403" t="n">
-        <v>18442209.15841846</v>
+        <v>26627499.13629147</v>
       </c>
       <c r="E403" t="n">
-        <v>28441540.43962352</v>
+        <v>30670146.12192506</v>
       </c>
       <c r="F403" t="n">
-        <v>34446761.33835846</v>
+        <v>25227904.95119135</v>
       </c>
       <c r="G403" t="n">
-        <v>1827603.135091102</v>
+        <v>1827951.922506216</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>85727877.58313221</v>
+        <v>133455412.6036869</v>
       </c>
       <c r="C404" t="n">
-        <v>23324401.00255644</v>
+        <v>32687659.96046487</v>
       </c>
       <c r="D404" t="n">
-        <v>18441233.32717199</v>
+        <v>26626090.197403</v>
       </c>
       <c r="E404" t="n">
-        <v>28441314.61721958</v>
+        <v>30669864.87449495</v>
       </c>
       <c r="F404" t="n">
-        <v>34446724.20007503</v>
+        <v>25227877.75208618</v>
       </c>
       <c r="G404" t="n">
-        <v>3662158.976686927</v>
+        <v>3662857.878400703</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>85113220.41822402</v>
+        <v>132411632.601266</v>
       </c>
       <c r="C405" t="n">
-        <v>23316886.4666758</v>
+        <v>32677128.81783874</v>
       </c>
       <c r="D405" t="n">
-        <v>18440110.43989361</v>
+        <v>26624468.93393189</v>
       </c>
       <c r="E405" t="n">
-        <v>28441046.2132488</v>
+        <v>30669531.31761931</v>
       </c>
       <c r="F405" t="n">
-        <v>34446678.70627014</v>
+        <v>25227844.43361614</v>
       </c>
       <c r="G405" t="n">
-        <v>5503435.892610152</v>
+        <v>5504486.191300484</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>84490916.34937003</v>
+        <v>131356858.5122906</v>
       </c>
       <c r="C406" t="n">
-        <v>23308551.50284828</v>
+        <v>32665447.89778652</v>
       </c>
       <c r="D406" t="n">
-        <v>18438820.52815217</v>
+        <v>26622606.51476691</v>
       </c>
       <c r="E406" t="n">
-        <v>28440727.80876129</v>
+        <v>30669136.47775732</v>
       </c>
       <c r="F406" t="n">
-        <v>34446623.09433991</v>
+        <v>25227803.70489636</v>
       </c>
       <c r="G406" t="n">
-        <v>7351208.48549914</v>
+        <v>7352611.420828149</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>83860860.68469051</v>
+        <v>130290987.6904624</v>
       </c>
       <c r="C407" t="n">
-        <v>23299319.04928609</v>
+        <v>32652509.203129</v>
       </c>
       <c r="D407" t="n">
-        <v>18437341.26418269</v>
+        <v>26620470.70230913</v>
       </c>
       <c r="E407" t="n">
-        <v>28440350.81241555</v>
+        <v>30668669.98876167</v>
       </c>
       <c r="F407" t="n">
-        <v>34446555.25702363</v>
+        <v>25227754.02262433</v>
       </c>
       <c r="G407" t="n">
-        <v>9205258.240385408</v>
+        <v>9207015.010312904</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>83222950.59742653</v>
+        <v>129213921.033919</v>
       </c>
       <c r="C408" t="n">
-        <v>23289106.32948403</v>
+        <v>32638196.72787509</v>
       </c>
       <c r="D408" t="n">
-        <v>18435647.73507478</v>
+        <v>26618025.52643726</v>
       </c>
       <c r="E408" t="n">
-        <v>28439905.29754924</v>
+        <v>30668119.90264172</v>
       </c>
       <c r="F408" t="n">
-        <v>34446472.68098773</v>
+        <v>25227693.54610044</v>
       </c>
       <c r="G408" t="n">
-        <v>11065374.16533187</v>
+        <v>11067485.92755109</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>82577085.52082363</v>
+        <v>128125563.5019443</v>
       </c>
       <c r="C409" t="n">
-        <v>23277824.6024946</v>
+        <v>32622386.10724835</v>
       </c>
       <c r="D409" t="n">
-        <v>18433712.20284452</v>
+        <v>26615230.93809121</v>
       </c>
       <c r="E409" t="n">
-        <v>28439379.82051507</v>
+        <v>30667472.47924223</v>
       </c>
       <c r="F409" t="n">
-        <v>34446372.37571034</v>
+        <v>25227620.08514487</v>
       </c>
       <c r="G409" t="n">
-        <v>12931353.42306985</v>
+        <v>12933821.29656369</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>81923167.56924236</v>
+        <v>127025824.6663294</v>
       </c>
       <c r="C410" t="n">
-        <v>23265378.92200677</v>
+        <v>32604944.28005125</v>
       </c>
       <c r="D410" t="n">
-        <v>18431503.85055238</v>
+        <v>26612042.44270834</v>
       </c>
       <c r="E410" t="n">
-        <v>28438761.21877396</v>
+        <v>30666711.95324371</v>
       </c>
       <c r="F410" t="n">
-        <v>34446250.79137929</v>
+        <v>25227531.03996825</v>
       </c>
       <c r="G410" t="n">
-        <v>14803001.95149782</v>
+        <v>14805827.0182136</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>81261101.98560636</v>
+        <v>125914619.2976032</v>
       </c>
       <c r="C411" t="n">
-        <v>23251667.90702386</v>
+        <v>32585729.16728479</v>
       </c>
       <c r="D411" t="n">
-        <v>18428988.51481023</v>
+        <v>26608410.71400782</v>
       </c>
       <c r="E411" t="n">
-        <v>28438034.38722193</v>
+        <v>30665820.27689153</v>
       </c>
       <c r="F411" t="n">
-        <v>34446103.72439118</v>
+        <v>25227423.33196167</v>
       </c>
       <c r="G411" t="n">
-        <v>16680135.07084122</v>
+        <v>16683318.37748117</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>80590797.61513026</v>
+        <v>124791867.9861233</v>
       </c>
       <c r="C412" t="n">
-        <v>23236583.52713653</v>
+        <v>32564589.37122241</v>
       </c>
       <c r="D412" t="n">
-        <v>18426128.40522332</v>
+        <v>26604281.18891128</v>
       </c>
       <c r="E412" t="n">
-        <v>28437182.03123054</v>
+        <v>30664776.83688613</v>
       </c>
       <c r="F412" t="n">
-        <v>34445926.20891023</v>
+        <v>25227293.32427714</v>
       </c>
       <c r="G412" t="n">
-        <v>18562578.07518523</v>
+        <v>18566120.63510998</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>79912167.40508796</v>
+        <v>123657497.7977705</v>
       </c>
       <c r="C413" t="n">
-        <v>23220010.9055788</v>
+        <v>32541363.89940543</v>
       </c>
       <c r="D413" t="n">
-        <v>18422881.811538</v>
+        <v>26599593.64471259</v>
       </c>
       <c r="E413" t="n">
-        <v>28436184.39490851</v>
+        <v>30663558.14391961</v>
       </c>
       <c r="F413" t="n">
-        <v>34445712.39281445</v>
+        <v>25227136.73097397</v>
       </c>
       <c r="G413" t="n">
-        <v>18562565.59773888</v>
+        <v>18566108.15528238</v>
       </c>
       <c r="H413" t="n">
-        <v>2011806.083753903</v>
+        <v>1907437.904704372</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>79225128.93018459</v>
+        <v>122511442.9637158</v>
       </c>
       <c r="C414" t="n">
-        <v>23201828.14343172</v>
+        <v>32515881.91827585</v>
       </c>
       <c r="D414" t="n">
-        <v>18419202.79951295</v>
+        <v>26594281.75996614</v>
       </c>
       <c r="E414" t="n">
-        <v>28435018.96314641</v>
+        <v>30662137.4934289</v>
       </c>
       <c r="F414" t="n">
-        <v>34445455.39622533</v>
+        <v>25226948.5134095</v>
       </c>
       <c r="G414" t="n">
-        <v>18562550.11421602</v>
+        <v>18566092.66880457</v>
       </c>
       <c r="H414" t="n">
-        <v>4028936.559312068</v>
+        <v>3819923.983200921</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>78529604.94288677</v>
+        <v>121353645.6034454</v>
       </c>
       <c r="C415" t="n">
-        <v>23181906.16850096</v>
+        <v>32487962.54138783</v>
       </c>
       <c r="D415" t="n">
-        <v>18415040.89679961</v>
+        <v>26588272.66095025</v>
       </c>
       <c r="E415" t="n">
-        <v>28433660.13609251</v>
+        <v>30660484.59625641</v>
       </c>
       <c r="F415" t="n">
-        <v>34445147.15068804</v>
+        <v>25226722.76245892</v>
       </c>
       <c r="G415" t="n">
-        <v>18562530.94406728</v>
+        <v>18566073.49499733</v>
       </c>
       <c r="H415" t="n">
-        <v>6051241.418522479</v>
+        <v>5737316.009438396</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>77825523.94784582</v>
+        <v>120184056.4799189</v>
       </c>
       <c r="C416" t="n">
-        <v>23160108.61253392</v>
+        <v>32457414.65733534</v>
       </c>
       <c r="D416" t="n">
-        <v>18410340.77040669</v>
+        <v>26581486.45597919</v>
       </c>
       <c r="E416" t="n">
-        <v>28432078.87482907</v>
+        <v>30658565.17807029</v>
       </c>
       <c r="F416" t="n">
-        <v>34444778.21694522</v>
+        <v>25226452.56505761</v>
       </c>
       <c r="G416" t="n">
-        <v>18562507.26347109</v>
+        <v>18566049.80988183</v>
       </c>
       <c r="H416" t="n">
-        <v>8078583.739307635</v>
+        <v>7659484.164562624</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>77112820.79931138</v>
+        <v>119002635.7854164</v>
       </c>
       <c r="C417" t="n">
-        <v>23136291.72055758</v>
+        <v>32424036.80269495</v>
       </c>
       <c r="D417" t="n">
-        <v>18405041.89763049</v>
+        <v>26573835.76028111</v>
       </c>
       <c r="E417" t="n">
-        <v>28430242.31717868</v>
+        <v>30656340.54660162</v>
       </c>
       <c r="F417" t="n">
-        <v>34444337.57913185</v>
+        <v>25226129.85347483</v>
       </c>
       <c r="G417" t="n">
-        <v>18562478.07770902</v>
+        <v>18566020.61854983</v>
       </c>
       <c r="H417" t="n">
-        <v>10110840.22227753</v>
+        <v>9586311.545691153</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>76391437.32019605</v>
+        <v>117809353.9562926</v>
       </c>
       <c r="C418" t="n">
-        <v>23110304.29620486</v>
+        <v>32387617.08540417</v>
       </c>
       <c r="D418" t="n">
-        <v>18399078.23265778</v>
+        <v>26565225.2146276</v>
       </c>
       <c r="E418" t="n">
-        <v>28428113.36277416</v>
+        <v>30653767.1260091</v>
       </c>
       <c r="F418" t="n">
-        <v>34443812.41311613</v>
+        <v>25225745.23565261</v>
       </c>
       <c r="G418" t="n">
-        <v>18562442.18877956</v>
+        <v>18565984.72277118</v>
       </c>
       <c r="H418" t="n">
-        <v>12147901.69891994</v>
+        <v>11517694.64773972</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>75661322.94119398</v>
+        <v>116604192.5145049</v>
       </c>
       <c r="C419" t="n">
-        <v>23081987.68695115</v>
+        <v>32347933.16407143</v>
       </c>
       <c r="D419" t="n">
-        <v>18392377.87138602</v>
+        <v>26555551.0013897</v>
       </c>
       <c r="E419" t="n">
-        <v>28425650.22677648</v>
+        <v>30650795.95798757</v>
       </c>
       <c r="F419" t="n">
-        <v>34443187.82662466</v>
+        <v>25225287.80488036</v>
       </c>
       <c r="G419" t="n">
-        <v>18562398.15754805</v>
+        <v>18565940.68313656</v>
       </c>
       <c r="H419" t="n">
-        <v>14189673.60884161</v>
+        <v>13453543.8159052</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>74922435.35810326</v>
+        <v>115387144.9334272</v>
       </c>
       <c r="C420" t="n">
-        <v>23051175.81320019</v>
+        <v>32304752.28873809</v>
       </c>
       <c r="D420" t="n">
-        <v>18384862.71735575</v>
+        <v>26544700.36219939</v>
       </c>
       <c r="E420" t="n">
-        <v>28422805.96192618</v>
+        <v>30647372.16959744</v>
       </c>
       <c r="F420" t="n">
-        <v>34442446.56872675</v>
+        <v>25224744.92702867</v>
       </c>
       <c r="G420" t="n">
-        <v>18562344.25965096</v>
+        <v>18565886.77495337</v>
       </c>
       <c r="H420" t="n">
-        <v>16236076.44345424</v>
+        <v>15393783.66633408</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>74174741.2052343</v>
+        <v>114158217.5250874</v>
       </c>
       <c r="C421" t="n">
-        <v>23017695.24513525</v>
+        <v>32257831.40858043</v>
       </c>
       <c r="D421" t="n">
-        <v>18376448.15204674</v>
+        <v>26532551.12191189</v>
       </c>
       <c r="E421" t="n">
-        <v>28419527.94896968</v>
+        <v>30643434.40821034</v>
       </c>
       <c r="F421" t="n">
-        <v>34441568.70621525</v>
+        <v>25224102.00353922</v>
       </c>
       <c r="G421" t="n">
-        <v>18562278.43428794</v>
+        <v>18565820.93702796</v>
       </c>
       <c r="H421" t="n">
-        <v>18287046.1534148</v>
+        <v>17338353.47242573</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>73418216.74252161</v>
+        <v>112917430.3456007</v>
       </c>
       <c r="C422" t="n">
-        <v>22981365.33118436</v>
+        <v>32206917.35194552</v>
       </c>
       <c r="D422" t="n">
-        <v>18367042.71314946</v>
+        <v>26518971.22408282</v>
       </c>
       <c r="E422" t="n">
-        <v>28415757.35591296</v>
+        <v>30638914.24444599</v>
       </c>
       <c r="F422" t="n">
-        <v>34440531.26441859</v>
+        <v>25223342.20836481</v>
       </c>
       <c r="G422" t="n">
-        <v>18562198.2249468</v>
+        <v>18565740.71237934</v>
       </c>
       <c r="H422" t="n">
-        <v>20342534.51703532</v>
+        <v>19287207.51412975</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>72652848.55368944</v>
+        <v>111664818.1151924</v>
       </c>
       <c r="C423" t="n">
-        <v>22941998.38183372</v>
+        <v>32151747.08395393</v>
       </c>
       <c r="D423" t="n">
-        <v>18356547.78478111</v>
+        <v>26503818.28369139</v>
       </c>
       <c r="E423" t="n">
-        <v>28411428.56702535</v>
+        <v>30633735.54451538</v>
       </c>
       <c r="F423" t="n">
-        <v>34439307.83001465</v>
+        <v>25222446.19708081</v>
       </c>
       <c r="G423" t="n">
-        <v>18562100.71101549</v>
+        <v>18565643.17983807</v>
       </c>
       <c r="H423" t="n">
-        <v>22402509.46678167</v>
+        <v>21240315.38750684</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>71878634.25255354</v>
+        <v>110400431.1488349</v>
       </c>
       <c r="C424" t="n">
-        <v>22899399.91235778</v>
+        <v>32092048.04667047</v>
       </c>
       <c r="D424" t="n">
-        <v>18344857.30396551</v>
+        <v>26486939.16334599</v>
       </c>
       <c r="E424" t="n">
-        <v>28406468.58304596</v>
+        <v>30627813.81398834</v>
       </c>
       <c r="F424" t="n">
-        <v>34437868.11350064</v>
+        <v>25221391.78644942</v>
       </c>
       <c r="G424" t="n">
-        <v>18561982.42914178</v>
+        <v>18565524.87539094</v>
       </c>
       <c r="H424" t="n">
-        <v>24466955.37086949</v>
+        <v>23197662.27171603</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>71095583.19428134</v>
+        <v>109124336.2931532</v>
       </c>
       <c r="C425" t="n">
-        <v>22853368.94781597</v>
+        <v>32027538.58653772</v>
       </c>
       <c r="D425" t="n">
-        <v>18331857.48803249</v>
+        <v>26468169.57969389</v>
       </c>
       <c r="E425" t="n">
-        <v>28400796.39463442</v>
+        <v>30621055.51566696</v>
       </c>
       <c r="F425" t="n">
-        <v>34436177.46910982</v>
+        <v>25220153.60281935</v>
       </c>
       <c r="G425" t="n">
-        <v>18561839.28310822</v>
+        <v>18565381.70203879</v>
       </c>
       <c r="H425" t="n">
-        <v>26535873.26685763</v>
+        <v>25159249.15048985</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>70303717.1881766</v>
+        <v>107836617.8649002</v>
       </c>
       <c r="C426" t="n">
-        <v>22803698.39339186</v>
+        <v>31957928.47338261</v>
       </c>
       <c r="D426" t="n">
-        <v>18317426.58790775</v>
+        <v>26447333.74721272</v>
       </c>
       <c r="E426" t="n">
-        <v>28394322.33175599</v>
+        <v>30613357.36496993</v>
       </c>
       <c r="F426" t="n">
-        <v>34434196.37016419</v>
+        <v>25218702.69788787</v>
       </c>
       <c r="G426" t="n">
-        <v>18561666.44089827</v>
+        <v>18565208.82684292</v>
       </c>
       <c r="H426" t="n">
-        <v>28609281.04401257</v>
+        <v>27125092.98503804</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>69503071.20830935</v>
+        <v>106537378.5859524</v>
       </c>
       <c r="C427" t="n">
-        <v>22750175.4728189</v>
+        <v>31882919.51484222</v>
       </c>
       <c r="D427" t="n">
-        <v>18301434.67255254</v>
+        <v>26424244.06697697</v>
       </c>
       <c r="E427" t="n">
-        <v>28386947.39239594</v>
+        <v>30604605.60701155</v>
       </c>
       <c r="F427" t="n">
-        <v>34431879.83811853</v>
+        <v>25217006.13054762</v>
       </c>
       <c r="G427" t="n">
-        <v>18561458.21754138</v>
+        <v>18565000.56374782</v>
       </c>
       <c r="H427" t="n">
-        <v>30687213.57109539</v>
+        <v>29095226.83520526</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>68693694.09807834</v>
+        <v>105226740.5094532</v>
       </c>
       <c r="C428" t="n">
-        <v>22692582.23724787</v>
+        <v>31802206.26950905</v>
       </c>
       <c r="D428" t="n">
-        <v>18283743.45006486</v>
+        <v>26398700.86835776</v>
       </c>
       <c r="E428" t="n">
-        <v>28378562.55475638</v>
+        <v>30594675.28038903</v>
       </c>
       <c r="F428" t="n">
-        <v>34429176.82389371</v>
+        <v>25215026.51379133</v>
       </c>
       <c r="G428" t="n">
-        <v>18561207.94224335</v>
+        <v>18564750.2406862</v>
       </c>
       <c r="H428" t="n">
-        <v>32769722.76608853</v>
+        <v>31069699.92558052</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>67875649.26457606</v>
+        <v>103904845.9314228</v>
       </c>
       <c r="C429" t="n">
-        <v>22630696.1464631</v>
+        <v>31715476.86146838</v>
       </c>
       <c r="D429" t="n">
-        <v>18264206.13116406</v>
+        <v>26370492.21191711</v>
       </c>
       <c r="E429" t="n">
-        <v>28369048.07789423</v>
+        <v>30583429.47356591</v>
       </c>
       <c r="F429" t="n">
-        <v>34426029.54052179</v>
+        <v>25212721.52595861</v>
       </c>
       <c r="G429" t="n">
-        <v>18560907.8082362</v>
+        <v>18564450.04940022</v>
       </c>
       <c r="H429" t="n">
-        <v>34856877.60423929</v>
+        <v>33048577.6531234</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>67049015.358427</v>
+        <v>102571858.2818735</v>
       </c>
       <c r="C430" t="n">
-        <v>22564290.72384874</v>
+        <v>31622413.89819179</v>
       </c>
       <c r="D430" t="n">
-        <v>18242667.34093911</v>
+        <v>26339393.76198711</v>
       </c>
       <c r="E430" t="n">
-        <v>28358272.79660681</v>
+        <v>30570718.58064885</v>
       </c>
       <c r="F430" t="n">
-        <v>34422372.74663959</v>
+        <v>25210043.38598545</v>
       </c>
       <c r="G430" t="n">
-        <v>18560548.7037222</v>
+        <v>18564090.87635322</v>
       </c>
       <c r="H430" t="n">
-        <v>36948764.06065891</v>
+        <v>35031941.53274104</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>66213886.93459117</v>
+        <v>101227962.9892166</v>
       </c>
       <c r="C431" t="n">
-        <v>22493136.2859446</v>
+        <v>31522695.49296313</v>
       </c>
       <c r="D431" t="n">
-        <v>18218963.08484094</v>
+        <v>26305168.73756848</v>
       </c>
       <c r="E431" t="n">
-        <v>28346093.41725042</v>
+        <v>30556379.5642906</v>
       </c>
       <c r="F431" t="n">
-        <v>34418132.98097623</v>
+        <v>25206938.2927629</v>
       </c>
       <c r="G431" t="n">
-        <v>18560120.02224436</v>
+        <v>18563662.11306402</v>
       </c>
       <c r="H431" t="n">
-        <v>39045484.98356903</v>
+        <v>37019889.07711019</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>65370375.08947319</v>
+        <v>99873368.31153184</v>
       </c>
       <c r="C432" t="n">
-        <v>22417000.74681442</v>
+        <v>31415996.39214931</v>
       </c>
       <c r="D432" t="n">
-        <v>18192920.77493214</v>
+        <v>26267567.95023075</v>
       </c>
       <c r="E432" t="n">
-        <v>28332353.82208005</v>
+        <v>30540235.23439993</v>
       </c>
       <c r="F432" t="n">
-        <v>34413227.74868805</v>
+        <v>25203345.82923014</v>
       </c>
       <c r="G432" t="n">
-        <v>18559609.45079338</v>
+        <v>18563151.44417345</v>
       </c>
       <c r="H432" t="n">
-        <v>41147159.8941416</v>
+        <v>39012533.60690111</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>64518608.06954931</v>
+        <v>98508306.12809022</v>
       </c>
       <c r="C433" t="n">
-        <v>22335650.49678219</v>
+        <v>31301989.20669315</v>
       </c>
       <c r="D433" t="n">
-        <v>18164359.32236546</v>
+        <v>26226329.93763596</v>
       </c>
       <c r="E433" t="n">
-        <v>28316884.39060928</v>
+        <v>30522093.55228667</v>
       </c>
       <c r="F433" t="n">
-        <v>34407564.66120534</v>
+        <v>25199198.33242077</v>
       </c>
       <c r="G433" t="n">
-        <v>18559002.73396526</v>
+        <v>18562544.61155694</v>
       </c>
       <c r="H433" t="n">
-        <v>43253924.70873683</v>
+        <v>41010003.98742511</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>63658731.84663031</v>
+        <v>97133032.68438391</v>
       </c>
       <c r="C434" t="n">
-        <v>22248851.35437803</v>
+        <v>31180345.74620487</v>
       </c>
       <c r="D434" t="n">
-        <v>18133089.30193949</v>
+        <v>26181181.20112983</v>
       </c>
       <c r="E434" t="n">
-        <v>28299501.34739784</v>
+        <v>30501746.97080056</v>
       </c>
       <c r="F434" t="n">
-        <v>34401040.5321708</v>
+        <v>25194420.23135183</v>
       </c>
       <c r="G434" t="n">
-        <v>18558283.41251753</v>
+        <v>18561825.15283092</v>
       </c>
       <c r="H434" t="n">
-        <v>45365931.37919906</v>
+        <v>43012444.28759121</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>62790910.65481421</v>
+        <v>95747829.28382841</v>
       </c>
       <c r="C435" t="n">
-        <v>22156369.58957906</v>
+        <v>31050738.45296886</v>
       </c>
       <c r="D435" t="n">
-        <v>18098913.19436796</v>
+        <v>26131836.55553854</v>
       </c>
       <c r="E435" t="n">
-        <v>28280006.14656074</v>
+        <v>30478971.82191736</v>
       </c>
       <c r="F435" t="n">
-        <v>34393540.4330692</v>
+        <v>25188927.3553917</v>
       </c>
       <c r="G435" t="n">
-        <v>18557432.53474237</v>
+        <v>18560974.11267068</v>
       </c>
       <c r="H435" t="n">
-        <v>47483347.4467419</v>
+        <v>45020013.35693464</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>61915327.48415467</v>
+        <v>94353002.9192552</v>
       </c>
       <c r="C436" t="n">
-        <v>22057973.01563948</v>
+        <v>30912841.93207391</v>
       </c>
       <c r="D436" t="n">
-        <v>18061625.71159324</v>
+        <v>26077999.5988676</v>
       </c>
       <c r="E436" t="n">
-        <v>28258184.90414354</v>
+        <v>30453527.76406717</v>
       </c>
       <c r="F436" t="n">
-        <v>34384936.71326934</v>
+        <v>25182626.21656457</v>
       </c>
       <c r="G436" t="n">
-        <v>18556428.33918544</v>
+        <v>18559969.72546888</v>
       </c>
       <c r="H436" t="n">
-        <v>49606355.50482319</v>
+        <v>47032884.31635681</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>61032184.52608196</v>
+        <v>92948886.83733094</v>
       </c>
       <c r="C437" t="n">
-        <v>21953432.14598392</v>
+        <v>30766334.57272531</v>
       </c>
       <c r="D437" t="n">
-        <v>18021014.21006969</v>
+        <v>26019363.30901464</v>
       </c>
       <c r="E437" t="n">
-        <v>28233807.89029965</v>
+        <v>30425157.30226548</v>
       </c>
       <c r="F437" t="n">
-        <v>34375087.99041855</v>
+        <v>25175413.27014184</v>
       </c>
       <c r="G437" t="n">
-        <v>18555245.90739793</v>
+        <v>18558787.06802115</v>
       </c>
       <c r="H437" t="n">
-        <v>51735152.56630816</v>
+        <v>49051243.9581186</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>60141703.56565975</v>
+        <v>91535841.02909866</v>
       </c>
       <c r="C438" t="n">
-        <v>21842521.41179756</v>
+        <v>30610900.2546199</v>
       </c>
       <c r="D438" t="n">
-        <v>17976859.19643483</v>
+        <v>25955610.77387497</v>
       </c>
       <c r="E438" t="n">
-        <v>28206629.09392125</v>
+        <v>30393585.39477525</v>
       </c>
       <c r="F438" t="n">
-        <v>34363838.11843798</v>
+        <v>25167174.15882884</v>
       </c>
       <c r="G438" t="n">
-        <v>18553856.78561871</v>
+        <v>18557397.68113614</v>
       </c>
       <c r="H438" t="n">
-        <v>53869949.33012006</v>
+        <v>51075292.05053561</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>59244126.31585425</v>
+        <v>90114252.63996556</v>
       </c>
       <c r="C439" t="n">
-        <v>21725020.43509462</v>
+        <v>30446230.13207027</v>
       </c>
       <c r="D439" t="n">
-        <v>17928934.92937403</v>
+        <v>25886416.06033457</v>
       </c>
       <c r="E439" t="n">
-        <v>28176385.87299005</v>
+        <v>30358519.16057656</v>
       </c>
       <c r="F439" t="n">
-        <v>34351015.14175388</v>
+        <v>25157782.94687134</v>
       </c>
       <c r="G439" t="n">
-        <v>18552228.57455199</v>
+        <v>18555769.15933481</v>
       </c>
       <c r="H439" t="n">
-        <v>56010969.34251731</v>
+        <v>53105240.5427665</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>58339714.68912181</v>
+        <v>88684536.29264233</v>
       </c>
       <c r="C440" t="n">
-        <v>21600715.35119248</v>
+        <v>30272024.48736774</v>
       </c>
       <c r="D440" t="n">
-        <v>17877010.1207657</v>
+        <v>25811445.22660778</v>
       </c>
       <c r="E440" t="n">
-        <v>28142798.70440798</v>
+        <v>30319647.70232339</v>
       </c>
       <c r="F440" t="n">
-        <v>34336430.24585278</v>
+        <v>25147101.35146962</v>
       </c>
       <c r="G440" t="n">
-        <v>18550324.48673646</v>
+        <v>18553864.70813521</v>
       </c>
       <c r="H440" t="n">
-        <v>58158448.04809024</v>
+        <v>55141312.66504187</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>57428751.00179907</v>
+        <v>87247134.31678464</v>
       </c>
       <c r="C441" t="n">
-        <v>21469400.17367249</v>
+        <v>30087994.64368813</v>
       </c>
       <c r="D441" t="n">
-        <v>17820848.73837131</v>
+        <v>25730357.4811889</v>
       </c>
       <c r="E441" t="n">
-        <v>28105571.04741618</v>
+        <v>30276642.05970332</v>
       </c>
       <c r="F441" t="n">
-        <v>34319876.715747</v>
+        <v>25134977.97998593</v>
       </c>
       <c r="G441" t="n">
-        <v>18548102.87140017</v>
+        <v>18551642.66881657</v>
       </c>
       <c r="H441" t="n">
-        <v>60312631.72557428</v>
+        <v>57183741.91968524</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>56511538.10699903</v>
+        <v>85802516.87939411</v>
       </c>
       <c r="C442" t="n">
-        <v>21330878.19408267</v>
+        <v>29893864.92668547</v>
       </c>
       <c r="D442" t="n">
-        <v>17760210.91140915</v>
+        <v>25642806.49035089</v>
       </c>
       <c r="E442" t="n">
-        <v>28064389.33489172</v>
+        <v>30229155.30816045</v>
       </c>
       <c r="F442" t="n">
-        <v>34301128.91546421</v>
+        <v>25121247.58254936</v>
       </c>
       <c r="G442" t="n">
-        <v>18545516.70716497</v>
+        <v>18549056.01102699</v>
       </c>
       <c r="H442" t="n">
-        <v>62473776.30361293</v>
+        <v>59232770.95831177</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>55588399.45198005</v>
+        <v>84351182.01040336</v>
       </c>
       <c r="C443" t="n">
-        <v>21184963.40784036</v>
+        <v>29689374.66280389</v>
       </c>
       <c r="D443" t="n">
-        <v>17694853.93932841</v>
+        <v>25548441.83464823</v>
       </c>
       <c r="E443" t="n">
-        <v>28018923.10680192</v>
+        <v>30176822.81777358</v>
       </c>
       <c r="F443" t="n">
-        <v>34279941.3032027</v>
+        <v>25105730.33078146</v>
       </c>
       <c r="G443" t="n">
-        <v>18542513.06350823</v>
+        <v>18546051.79414234</v>
       </c>
       <c r="H443" t="n">
-        <v>64642146.05169374</v>
+        <v>61288650.34067553</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>54659679.05626319</v>
+        <v>82893655.51830085</v>
       </c>
       <c r="C444" t="n">
-        <v>21031481.95704034</v>
+        <v>29474280.20128094</v>
       </c>
       <c r="D444" t="n">
-        <v>17624533.40298676</v>
+        <v>25446910.61327359</v>
       </c>
       <c r="E444" t="n">
-        <v>27968825.299876</v>
+        <v>30119262.68667899</v>
       </c>
       <c r="F444" t="n">
-        <v>34256047.49829757</v>
+        <v>25088231.13446667</v>
       </c>
       <c r="G444" t="n">
-        <v>18539032.53250957</v>
+        <v>18542570.59890462</v>
       </c>
       <c r="H444" t="n">
-        <v>66818012.14163259</v>
+        <v>63351637.17078093</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>53725741.40712368</v>
+        <v>81430490.79114088</v>
       </c>
       <c r="C445" t="n">
-        <v>20870273.58017315</v>
+        <v>29248356.94583548</v>
       </c>
       <c r="D445" t="n">
-        <v>17549004.37623993</v>
+        <v>25337859.19339269</v>
       </c>
       <c r="E445" t="n">
-        <v>27913732.70710171</v>
+        <v>30056076.36277159</v>
       </c>
       <c r="F445" t="n">
-        <v>34229159.41758954</v>
+        <v>25068539.00905147</v>
       </c>
       <c r="G445" t="n">
-        <v>18535008.6331071</v>
+        <v>18538545.93156437</v>
       </c>
       <c r="H445" t="n">
-        <v>69001651.07519518</v>
+        <v>65421993.60607594</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>52786971.26947513</v>
+        <v>79962268.47883373</v>
       </c>
       <c r="C446" t="n">
-        <v>20701193.05812564</v>
+        <v>29011401.38114505</v>
       </c>
       <c r="D446" t="n">
-        <v>17468022.73468535</v>
+        <v>25220935.09975363</v>
       </c>
       <c r="E446" t="n">
-        <v>27853266.61995433</v>
+        <v>29986849.46649404</v>
       </c>
       <c r="F446" t="n">
-        <v>34198966.50014333</v>
+        <v>25046426.50784853</v>
       </c>
       <c r="G446" t="n">
-        <v>18530367.19085909</v>
+        <v>18533903.60352414</v>
       </c>
       <c r="H446" t="n">
-        <v>71193342.9737394</v>
+        <v>67499985.23582396</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>51843773.40759706</v>
+        <v>78489596.05321638</v>
       </c>
       <c r="C447" t="n">
-        <v>20524111.64527899</v>
+        <v>28763233.07843856</v>
       </c>
       <c r="D447" t="n">
-        <v>17381346.55697814</v>
+        <v>25095789.03795537</v>
       </c>
       <c r="E447" t="n">
-        <v>27787033.66530238</v>
+        <v>29911152.82631734</v>
       </c>
       <c r="F447" t="n">
-        <v>34165135.04049093</v>
+        <v>25021649.23372144</v>
       </c>
       <c r="G447" t="n">
-        <v>18525025.69705185</v>
+        <v>18528561.09032392</v>
       </c>
       <c r="H447" t="n">
-        <v>73393369.7261406</v>
+        <v>69585879.32511085</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>50896572.2166274</v>
+        <v>77013107.24306276</v>
       </c>
       <c r="C448" t="n">
-        <v>20338918.47405256</v>
+        <v>28503696.66387485</v>
       </c>
       <c r="D448" t="n">
-        <v>17288737.61277046</v>
+        <v>24962077.04278601</v>
       </c>
       <c r="E448" t="n">
-        <v>27714626.84769563</v>
+        <v>29828543.73702043</v>
       </c>
       <c r="F448" t="n">
-        <v>34127307.65163541</v>
+        <v>24993945.44580289</v>
       </c>
       <c r="G448" t="n">
-        <v>18518892.65190484</v>
+        <v>18522426.87472095</v>
       </c>
       <c r="H448" t="n">
-        <v>75602012.99173827</v>
+        <v>71679942.92139453</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>49945811.26224546</v>
+        <v>75533461.34190074</v>
       </c>
       <c r="C449" t="n">
-        <v>20145521.92087374</v>
+        <v>28232663.73286228</v>
       </c>
       <c r="D449" t="n">
-        <v>17189962.92993179</v>
+        <v>24819462.74102956</v>
       </c>
       <c r="E449" t="n">
-        <v>27635626.80622222</v>
+        <v>29738567.44908578</v>
       </c>
       <c r="F449" t="n">
-        <v>34085102.87990449</v>
+        <v>24963035.77742345</v>
       </c>
       <c r="G449" t="n">
-        <v>18511866.89759515</v>
+        <v>18515399.77958697</v>
       </c>
       <c r="H449" t="n">
-        <v>77819552.0556279</v>
+        <v>73782440.82105947</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>48991952.72750971</v>
+        <v>74051342.38725519</v>
       </c>
       <c r="C450" t="n">
-        <v>19943850.92129534</v>
+        <v>27950034.69311189</v>
       </c>
       <c r="D450" t="n">
-        <v>17084796.4323063</v>
+        <v>24667619.71611672</v>
       </c>
       <c r="E450" t="n">
-        <v>27549603.29331718</v>
+        <v>29640758.89544427</v>
       </c>
       <c r="F450" t="n">
-        <v>34038114.99434719</v>
+        <v>24928623.08187123</v>
       </c>
       <c r="G450" t="n">
-        <v>18503836.94784293</v>
+        <v>18507368.2973656</v>
       </c>
       <c r="H450" t="n">
-        <v>80046261.53431274</v>
+        <v>75893633.39409453</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>48035476.76637805</v>
+        <v>72567458.21073027</v>
       </c>
       <c r="C451" t="n">
-        <v>19733856.22184158</v>
+        <v>27655740.5190196</v>
       </c>
       <c r="D451" t="n">
-        <v>16973020.63787487</v>
+        <v>24506233.95998986</v>
       </c>
       <c r="E451" t="n">
-        <v>27456116.88081912</v>
+        <v>29534644.6594313</v>
       </c>
       <c r="F451" t="n">
-        <v>33985913.97368007</v>
+        <v>24890392.42283162</v>
       </c>
       <c r="G451" t="n">
-        <v>18494680.32185555</v>
+        <v>18498209.92388948</v>
       </c>
       <c r="H451" t="n">
-        <v>82282408.93056495</v>
+        <v>78013774.2658025</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>47076880.76402915</v>
+        <v>71082539.35916865</v>
       </c>
       <c r="C452" t="n">
-        <v>19515511.55614847</v>
+        <v>27349744.39995205</v>
       </c>
       <c r="D452" t="n">
-        <v>16854428.40583325</v>
+        <v>24335006.39559487</v>
       </c>
       <c r="E452" t="n">
-        <v>27354720.89621252</v>
+        <v>29419745.18517146</v>
       </c>
       <c r="F452" t="n">
-        <v>33928045.71377192</v>
+        <v>24848011.2263437</v>
       </c>
       <c r="G452" t="n">
-        <v>18484262.89150628</v>
+        <v>18487790.5054343</v>
       </c>
       <c r="H452" t="n">
-        <v>84528252.03729789</v>
+        <v>80143107.8553541</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>23847147.04472806</v>
+        <v>9695672.361900223</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>23874991.41112009</v>
+        <v>9707005.220544508</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>23903205.79653071</v>
+        <v>9718500.923515037</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>23931794.92695915</v>
+        <v>9730161.794971602</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>23960763.57587729</v>
+        <v>9741990.191806855</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>23990116.56381527</v>
+        <v>9753988.50409559</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>24019858.75788571</v>
+        <v>9766159.155549854</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24049995.07124395</v>
+        <v>9778504.603979988</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24080530.46248226</v>
+        <v>9791027.341761731</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>24111469.93495544</v>
+        <v>9803729.896309346</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>24142818.53603546</v>
+        <v>9816614.830554903</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>24174581.3562934</v>
+        <v>9829684.743433839</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24206763.52860603</v>
+        <v>9842942.270376729</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24239370.22718549</v>
+        <v>9856390.083807532</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24272406.66653002</v>
+        <v>9870030.893648183</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24305878.100294</v>
+        <v>9883867.447829781</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24339789.82007609</v>
+        <v>9897902.532810355</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24374147.15412356</v>
+        <v>9912138.974099264</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24408955.46595238</v>
+        <v>9926579.636788435</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24444220.15288147</v>
+        <v>9941227.42609035</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24479946.64448103</v>
+        <v>9956085.287883017</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24516140.40093416</v>
+        <v>9971156.209261885</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>24552806.91131188</v>
+        <v>9986443.21909884</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>24589951.6917619</v>
+        <v>10001949.3886084</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>24627580.28361125</v>
+        <v>10017677.83192108</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>24665698.25138437</v>
+        <v>10033631.70666418</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>24704311.18073734</v>
+        <v>10049814.21454989</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>24743424.67631048</v>
+        <v>10066228.6019709</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>24783044.35950117</v>
+        <v>10082878.16060366</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>24823175.86615981</v>
+        <v>10099766.2280193</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>24863824.84421166</v>
+        <v>10116896.18830216</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>24904996.95120861</v>
+        <v>10134271.47267643</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>24946697.85181468</v>
+        <v>10151895.56014048</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>24988933.2152301</v>
+        <v>10169771.97810935</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>25031708.71255923</v>
+        <v>10187904.3030654</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>25075030.01412812</v>
+        <v>10206296.16121705</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>25118902.78675813</v>
+        <v>10224951.22916591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>25163332.69100262</v>
+        <v>10243873.23458233</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25208325.37835471</v>
+        <v>10263065.95688943</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25253886.48843398</v>
+        <v>10282533.22795574</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25300021.64616132</v>
+        <v>10302278.93279655</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>25346736.45893168</v>
+        <v>10322307.010284</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25394036.51379494</v>
+        <v>10342621.45386625</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25441927.37465567</v>
+        <v>10363226.31229543</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>25490414.57950387</v>
+        <v>10384125.69036489</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>25539503.63768839</v>
+        <v>10405323.74965558</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>25589200.02724683</v>
+        <v>10426824.70929177</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>25639509.19230458</v>
+        <v>10448632.84670626</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>25690436.54055808</v>
+        <v>10470752.498415</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>25741987.44085667</v>
+        <v>10493188.06080158</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>25794167.2208988</v>
+        <v>10515943.99091133</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>25846981.16505835</v>
+        <v>10539024.80725532</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>25900434.51235803</v>
+        <v>10562435.09062448</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>25954532.45460674</v>
+        <v>10586179.48491371</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>26009280.13471844</v>
+        <v>10610262.69795632</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>26064682.64523081</v>
+        <v>10634689.50236881</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>26120745.02704196</v>
+        <v>10659464.73640613</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>26177472.26838401</v>
+        <v>10684593.30482758</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>26234869.30405264</v>
+        <v>10710080.1797735</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26292941.0149118</v>
+        <v>10735930.40165268</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26351692.22769353</v>
+        <v>10762149.08004098</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26411127.71511163</v>
+        <v>10788741.39459092</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>26471252.19630997</v>
+        <v>10815712.59595278</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>26532070.33766384</v>
+        <v>10843068.00670681</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>26593586.75395503</v>
+        <v>10870813.02230725</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>26655806.00993897</v>
+        <v>10898953.11203802</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>26718732.62232358</v>
+        <v>10927493.81998018</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>26782371.06217851</v>
+        <v>10956440.76599146</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>26846725.75779273</v>
+        <v>10985799.646698</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>26911801.09799841</v>
+        <v>11015576.23649827</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>26977601.43597822</v>
+        <v>11045776.38857969</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>27044131.09357226</v>
+        <v>11076406.03594766</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>27111394.36610027</v>
+        <v>11107471.19246759</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>27179395.52771394</v>
+        <v>11138977.95391976</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>27248138.83729247</v>
+        <v>11170932.49906752</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>27317628.54489437</v>
+        <v>11203341.09073866</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>27387868.89877667</v>
+        <v>11236210.07692041</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>27458864.15299129</v>
+        <v>11269545.89186809</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>27530618.57556751</v>
+        <v>11303355.05722772</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>27603136.4572873</v>
+        <v>11337644.18317267</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>27676422.1210595</v>
+        <v>11372419.96955466</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>27750479.93189586</v>
+        <v>11407689.20706925</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>27825314.30749211</v>
+        <v>11443458.77843606</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>27900929.72941316</v>
+        <v>11479735.65959391</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>27977330.75488183</v>
+        <v>11516526.92091119</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>28054522.02916638</v>
+        <v>11553839.72841149</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>28132508.2985618</v>
+        <v>11591681.34501506</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>28211294.42395726</v>
+        <v>11630059.13179595</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>28290885.39497868</v>
+        <v>11668980.54925544</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>28371286.3446953</v>
+        <v>11708453.15861168</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>28452502.56487534</v>
+        <v>11748484.62310623</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>28534539.52177386</v>
+        <v>11789082.70932723</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>28617402.87243428</v>
+        <v>11830255.28855001</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>28701098.48148199</v>
+        <v>11872010.33809512</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>28785632.43838617</v>
+        <v>11914355.94270406</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>28871011.07516477</v>
+        <v>11957300.29593331</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>28957240.98450333</v>
+        <v>12000851.70156661</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>29044329.0382583</v>
+        <v>12045018.57504612</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>29132282.40631168</v>
+        <v>12089809.44492255</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>29221108.57574208</v>
+        <v>12135232.95432488</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>29310815.37027584</v>
+        <v>12181297.86244976</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>29401410.96997913</v>
+        <v>12228013.04607123</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>29492903.9311498</v>
+        <v>12275387.50107087</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>29585303.20636715</v>
+        <v>12323430.34398899</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>29678618.16465458</v>
+        <v>12372150.81359733</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>29772858.61170942</v>
+        <v>12421558.27249331</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>29868034.8101523</v>
+        <v>12471662.20871687</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>29964157.49974759</v>
+        <v>12522472.23738977</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>30061237.9175443</v>
+        <v>12573998.10237828</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>30159287.81788684</v>
+        <v>12626249.67797949</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>30258319.49224365</v>
+        <v>12679236.97063185</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>30358345.7888005</v>
+        <v>12732970.12065051</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>30459380.13176602</v>
+        <v>12787459.40398787</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>30561436.54033527</v>
+        <v>12842715.23402008</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>30664529.6472579</v>
+        <v>12898748.16336001</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>30768674.71695742</v>
+        <v>12955568.88569734</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>30873887.66314789</v>
+        <v>13013188.2376662</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>30980185.06589518</v>
+        <v>13071617.20074144</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>31087584.18807061</v>
+        <v>13130866.90316385</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>31196102.99114579</v>
+        <v>13190948.62189518</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>31305760.15027792</v>
+        <v>13251873.7846037</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>31416575.0686371</v>
+        <v>13313653.97168118</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>31528567.89092808</v>
+        <v>13376300.91829175</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>31641759.51606056</v>
+        <v>13439826.516454</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>31756171.60892494</v>
+        <v>13504242.81715662</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>31871826.61123125</v>
+        <v>13569562.03250892</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>31988747.75137269</v>
+        <v>13635796.53792692</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>32106959.05327704</v>
+        <v>13702958.87435607</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>32226485.34421189</v>
+        <v>13771061.75053161</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>32347352.26151287</v>
+        <v>13840118.04527754</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>32469586.25820727</v>
+        <v>13910140.80984533</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>32593214.60750816</v>
+        <v>13981143.27029366</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>32718265.40615817</v>
+        <v>14053138.82991003</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>32844767.57660513</v>
+        <v>14126141.0716758</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>32972750.86799589</v>
+        <v>14200163.76077566</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>33102245.85597766</v>
+        <v>14275220.847153</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>33233283.94130185</v>
+        <v>14351326.46811267</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>33365897.34722649</v>
+        <v>14428494.95097212</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>33500119.11572067</v>
+        <v>14506740.81576288</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>33635983.10247591</v>
+        <v>14586078.77798374</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>33773523.97073491</v>
+        <v>14666523.75140705</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>33912777.18395186</v>
+        <v>14748090.85094008</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>34053778.99730267</v>
+        <v>14830795.39554305</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>34196566.44806799</v>
+        <v>14914652.91120554</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>34341177.34491529</v>
+        <v>14999679.1339833</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>34487650.25611113</v>
+        <v>15085890.01309722</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>34636024.49669856</v>
+        <v>15173301.71409665</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>34786340.11467792</v>
+        <v>15261930.62208906</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>34938637.87623462</v>
+        <v>15351793.34503818</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>35092959.25005923</v>
+        <v>15442906.71713287</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>35249346.39081087</v>
+        <v>15535287.80222931</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35407842.12177686</v>
+        <v>15628953.89736838</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>35568489.91678584</v>
+        <v>15723922.5363714</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>35731333.88143389</v>
+        <v>15820211.49351645</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>35896418.73368751</v>
+        <v>15917838.78729788</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36063789.78392825</v>
+        <v>16016822.6842724</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36233492.914508</v>
+        <v>16117181.70299388</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36405574.55888569</v>
+        <v>16218934.61804062</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>36580081.68041775</v>
+        <v>16322100.46413776</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>36757061.75087781</v>
+        <v>16426698.54037822</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>36936562.72878141</v>
+        <v>16532748.41454573</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37118633.037594</v>
+        <v>16640269.92754311</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>37303321.54390127</v>
+        <v>16749283.19792987</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>37490677.53562117</v>
+        <v>16859808.62657239</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>37680750.70033896</v>
+        <v>16971866.90141099</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>37873591.10384568</v>
+        <v>17085479.00234786</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>38069249.16896141</v>
+        <v>17200666.20625976</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>38267775.65472377</v>
+        <v>17317450.09214025</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>38469221.63602312</v>
+        <v>17435852.54637557</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>38673638.4837633</v>
+        <v>17555895.76815904</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>38881077.84562747</v>
+        <v>17677602.27504877</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>39091591.62752698</v>
+        <v>17800994.90867335</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39305231.97580935</v>
+        <v>17926096.84059139</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>39522051.26030051</v>
+        <v>18052931.57830921</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>39742102.05825403</v>
+        <v>18181522.97146324</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>39965437.13927872</v>
+        <v>18311895.21817188</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40192109.45131287</v>
+        <v>18444072.8715635</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>40422172.10771178</v>
+        <v>18578080.84648603</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>40655678.37551197</v>
+        <v>18713944.42640477</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>40892681.66493338</v>
+        <v>18851689.27049476</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41133235.52017681</v>
+        <v>18991341.42093436</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>41377393.61157268</v>
+        <v>19132927.31040715</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>41625209.72913142</v>
+        <v>19276473.76981882</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>41876737.77754532</v>
+        <v>19422008.03623695</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42132031.77268612</v>
+        <v>19569557.76106072</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>42391145.83963969</v>
+        <v>19719151.01842863</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>42654134.21231746</v>
+        <v>19870816.31387223</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>42921051.23467675</v>
+        <v>20024582.59322388</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43191951.36358361</v>
+        <v>20180479.25178745</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>43466889.17334348</v>
+        <v>20338536.14378025</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>43745919.3619244</v>
+        <v>20498783.59205541</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44029096.75889341</v>
+        <v>20661252.39811417</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>44316476.33508156</v>
+        <v>20825973.85241689</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>44608113.21399226</v>
+        <v>20992979.74500339</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>44904062.68496133</v>
+        <v>21162302.37643192</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45204380.21807632</v>
+        <v>21333974.56904737</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>45509121.48085767</v>
+        <v>21508029.67858928</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>45818342.35670169</v>
+        <v>21684501.60615016</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46132098.96508235</v>
+        <v>21863424.81049542</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>46450447.68350643</v>
+        <v>22044834.32075616</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>46773445.1712122</v>
+        <v>22228765.74950629</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47101148.39460094</v>
+        <v>22415255.30623602</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>47433614.65437743</v>
+        <v>22604339.81123344</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>47770901.61441064</v>
+        <v>22796056.70988701</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48113067.33226924</v>
+        <v>22990444.08742106</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>48460170.29142076</v>
+        <v>23187540.68407764</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>48812269.43507066</v>
+        <v>23387385.91075727</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>49169424.20161809</v>
+        <v>23590019.86513237</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>49531694.56170175</v>
+        <v>23795483.34824644</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>49899141.05680934</v>
+        <v>24003817.88161332</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>50271824.83942167</v>
+        <v>24215065.72482998</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>50649807.71466286</v>
+        <v>24429269.8937171</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>51033152.18342477</v>
+        <v>24646474.17900203</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>51421921.48693696</v>
+        <v>24866723.16555851</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>51816179.65274837</v>
+        <v>25090062.25221749</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52215991.54209024</v>
+        <v>25316537.67216452</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>52621422.89858755</v>
+        <v>25546196.51393788</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53032540.39828666</v>
+        <v>25779086.74304309</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>53449411.70096651</v>
+        <v>26015257.22419832</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>53872105.50270241</v>
+        <v>26254757.74422655</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>54300691.58964821</v>
+        <v>26497639.03560865</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>54735240.89300796</v>
+        <v>26743952.80071365</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55175825.54516312</v>
+        <v>26993751.73672004</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>55622518.93692695</v>
+        <v>27247089.56124463</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56075395.77589414</v>
+        <v>27504021.03869202</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>56534532.1458571</v>
+        <v>27764602.00734144</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57000005.56725975</v>
+        <v>28028889.40718381</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>57471895.05866037</v>
+        <v>28296941.30852427</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>57950281.19917607</v>
+        <v>28568816.94136381</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>58435246.19188239</v>
+        <v>28844576.72557406</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>58926873.9281408</v>
+        <v>29124282.30187779</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>59425250.05282915</v>
+        <v>29407996.56364841</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>59930462.03045028</v>
+        <v>29695783.68954087</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>60442599.21209312</v>
+        <v>29987709.17696475</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>60961752.90322308</v>
+        <v>30283839.87641161</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>61488016.43227731</v>
+        <v>30584244.02664578</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>62021485.22004124</v>
+        <v>30888991.29076863</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>62562256.84978286</v>
+        <v>31198152.79316443</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>63110431.13812105</v>
+        <v>31511801.15733529</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>63666110.20660347</v>
+        <v>31830010.54463127</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>64229398.55397034</v>
+        <v>32152856.69388111</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>64800403.12907887</v>
+        <v>32480416.96192703</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>65379233.40446191</v>
+        <v>32812770.36506567</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>65966001.45049495</v>
+        <v>33149997.6213965</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>66560822.01014215</v>
+        <v>33492181.19407579</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>67163812.57425304</v>
+        <v>33839405.33547442</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>67775093.45737693</v>
+        <v>34191756.13223365</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>68394787.8740624</v>
+        <v>34549321.55121271</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>69023022.0156059</v>
+        <v>34912191.48631865</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>69659925.12721008</v>
+        <v>35280457.80620689</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>70305629.58551115</v>
+        <v>35654214.40283831</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>70960270.97642945</v>
+        <v>36033557.24087589</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>71623988.17329562</v>
+        <v>36418584.407901</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>72296923.41519858</v>
+        <v>36809396.16542633</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>72979222.38549936</v>
+        <v>37206095.00067859</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>73671034.29044865</v>
+        <v>37608785.67912204</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>74372511.93784094</v>
+        <v>38017575.29768816</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>75083811.81563337</v>
+        <v>38432573.33867447</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>75805094.17045115</v>
+        <v>38853891.72427063</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>76536523.08589409</v>
+        <v>39281644.87166534</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>77278266.56055468</v>
+        <v>39715949.74868374</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>78030496.58564715</v>
+        <v>40156925.92989929</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>78793389.22214416</v>
+        <v>40604695.65315895</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>79567124.67730515</v>
+        <v>41059383.87645704</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>80351887.38047567</v>
+        <v>41521118.33508353</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>81147866.05802564</v>
+        <v>41990029.59897158</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>81955253.80728799</v>
+        <v>42466251.13015902</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>82774248.1693459</v>
+        <v>42949919.34027401</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>83605051.20051104</v>
+        <v>43441173.64794815</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>84447869.54232125</v>
+        <v>43940156.53605271</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>85302914.48987767</v>
+        <v>44447013.60864801</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>86170402.05832821</v>
+        <v>44961893.64752594</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>87050553.04729517</v>
+        <v>45484948.66822096</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>87943593.10303064</v>
+        <v>46016333.97535396</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>88849752.77807102</v>
+        <v>46556208.21716736</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>89769267.58815263</v>
+        <v>47104733.43909996</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>90702378.06613322</v>
+        <v>47662075.13624197</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>91649329.81265272</v>
+        <v>48228402.30450094</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>92610373.54325642</v>
+        <v>48803887.4903012</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>93585765.13168265</v>
+        <v>49388706.83862841</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>94575765.64901222</v>
+        <v>49983040.13922306</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>95580641.39835486</v>
+        <v>50587070.87071481</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>96600663.94474001</v>
+        <v>51200986.24248153</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>97636110.13986093</v>
+        <v>51824977.23400524</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>98687262.14130944</v>
+        <v>52459238.63148832</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>99754407.42592299</v>
+        <v>53103969.06148097</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>100837838.7968535</v>
+        <v>53759371.02126293</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>101937854.3839507</v>
+        <v>54425650.90571023</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>103054757.6370423</v>
+        <v>55103019.03036811</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>104188857.3116781</v>
+        <v>55791689.65044039</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>105340467.4468914</v>
+        <v>56491880.97539606</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>106509907.3345207</v>
+        <v>57203815.17888243</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>107697501.4796216</v>
+        <v>57927718.40362633</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>108903579.5514862</v>
+        <v>58663820.76099204</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>110128476.3247782</v>
+        <v>59412356.32485838</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>111372531.6102823</v>
+        <v>60173563.11946703</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>112636090.1747555</v>
+        <v>60947683.10088371</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>113919501.6493623</v>
+        <v>61734962.13170975</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>115223120.4261658</v>
+        <v>62535649.94867027</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>116547305.542147</v>
+        <v>63350000.12270029</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>117892420.5502123</v>
+        <v>64178270.01114311</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>118493488.3365386</v>
+        <v>64726086.67833296</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>119105245.5182933</v>
+        <v>65283675.84788347</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>119727895.7464864</v>
+        <v>65851225.26935561</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>120361644.734226</v>
+        <v>66428925.1421724</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>121006700.1313354</v>
+        <v>67016968.04558025</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>121663271.3904382</v>
+        <v>67615548.86146355</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>122331569.6242577</v>
+        <v>68224864.68973963</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>123011807.4538838</v>
+        <v>68845114.75606532</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>123704198.8477671</v>
+        <v>69476500.31158422</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>124408958.9512142</v>
+        <v>70119224.52445634</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>125126303.9061668</v>
+        <v>70773492.36291233</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>125856450.6610604</v>
+        <v>71439510.46958317</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>126599616.7705767</v>
+        <v>72117487.02686647</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>127356020.1851195</v>
+        <v>72807631.61310005</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>128125879.0298593</v>
+        <v>73510155.04932469</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>128909411.3732213</v>
+        <v>74225269.23643386</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>129706834.9847049</v>
+        <v>74953186.9825207</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>130518367.0819537</v>
+        <v>75694121.82025182</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>131344224.067022</v>
+        <v>76448287.81411676</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>132184621.25181</v>
+        <v>77215899.35741983</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>133039772.5726727</v>
+        <v>77997170.95890841</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>133909890.2942418</v>
+        <v>78792317.01895134</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>134795184.7025359</v>
+        <v>79601551.59521312</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>135695863.7874664</v>
+        <v>80425088.15779369</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>136612132.9148958</v>
+        <v>81263139.33383675</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>137544194.488437</v>
+        <v>82115916.6416432</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>138492247.6012331</v>
+        <v>82983630.21435677</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>139456487.6779971</v>
+        <v>83866488.51333128</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>140437106.1076427</v>
+        <v>84764698.031323</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>141434289.8668841</v>
+        <v>85678462.98569384</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>142448221.1352315</v>
+        <v>86607985.00185342</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>143479076.9018635</v>
+        <v>87553462.7872116</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>144527028.5649103</v>
+        <v>88515091.79595737</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>145592241.5237325</v>
+        <v>89493063.88503008</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>146674874.764838</v>
+        <v>90487566.96169284</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>147775080.4421349</v>
+        <v>91498784.62317191</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>148893003.452269</v>
+        <v>92526895.78887075</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>150028781.0058571</v>
+        <v>93572074.32572487</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>151182542.1954771</v>
+        <v>94634488.66731</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>152354407.5613317</v>
+        <v>95714301.42737043</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>153544488.6555575</v>
+        <v>96811669.00848573</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>154752887.6062018</v>
+        <v>97926741.20664677</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>155979696.6819434</v>
+        <v>99059660.81256197</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>157224997.8586753</v>
+        <v>100210563.2105653</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>158488862.3891238</v>
+        <v>101379575.9760492</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>159771350.3767124</v>
+        <v>102566818.4723878</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>161072510.3549247</v>
+        <v>103772401.4483721</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>162392378.8734553</v>
+        <v>104996426.6372079</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>163730980.0924714</v>
+        <v>106238986.3581855</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>165088325.3863359</v>
+        <v>107500163.1221539</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>166464412.9581626</v>
+        <v>108780029.2419787</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>167859227.4666012</v>
+        <v>110078646.4491858</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>169272739.6662508</v>
+        <v>111396065.5180285</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>170704906.0631195</v>
+        <v>112732325.8982324</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>172155668.586537</v>
+        <v>114087455.3576964</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>171506168.1963763</v>
+        <v>113740892.4031882</v>
       </c>
       <c r="C358" t="n">
-        <v>2022331.076652292</v>
+        <v>1739921.44973151</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>170850473.3456461</v>
+        <v>113390388.1968461</v>
       </c>
       <c r="C359" t="n">
-        <v>4068170.421424792</v>
+        <v>3502929.017608067</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>170188505.7449939</v>
+        <v>113035879.7080173</v>
       </c>
       <c r="C360" t="n">
-        <v>6137493.891499075</v>
+        <v>5289077.035909278</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>169520185.9414427</v>
+        <v>112677302.5148444</v>
       </c>
       <c r="C361" t="n">
-        <v>8230263.472692052</v>
+        <v>7098408.112183771</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>168845433.3193823</v>
+        <v>112314590.7762134</v>
       </c>
       <c r="C362" t="n">
-        <v>10346427.06367403</v>
+        <v>8930952.866286047</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>168164166.1009226</v>
+        <v>111947677.2028171</v>
       </c>
       <c r="C363" t="n">
-        <v>12485918.28423099</v>
+        <v>10786729.68621264</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>167476301.3455604</v>
+        <v>111576493.0273478</v>
       </c>
       <c r="C364" t="n">
-        <v>14648656.30878143</v>
+        <v>12665744.50398965</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>166781754.9491317</v>
+        <v>111200967.973851</v>
       </c>
       <c r="C365" t="n">
-        <v>16834545.7262853</v>
+        <v>14567990.59281687</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>166080441.6420246</v>
+        <v>110821030.2262828</v>
       </c>
       <c r="C366" t="n">
-        <v>19043476.42760758</v>
+        <v>16493448.38662496</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>165372274.9866598</v>
+        <v>110436606.3963361</v>
       </c>
       <c r="C367" t="n">
-        <v>21275323.52131391</v>
+        <v>18442085.32314349</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>164657167.3742555</v>
+        <v>110047621.4906128</v>
       </c>
       <c r="C368" t="n">
-        <v>23529947.27877435</v>
+        <v>20413855.71150536</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>163935030.0209219</v>
+        <v>109653998.8772478</v>
       </c>
       <c r="C369" t="n">
-        <v>25807193.10935175</v>
+        <v>22408700.62534066</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>163205772.9631557</v>
+        <v>109255660.2521074</v>
       </c>
       <c r="C370" t="n">
-        <v>28106891.56633009</v>
+        <v>24426547.82222181</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>162469305.0528313</v>
+        <v>108852525.6047162</v>
       </c>
       <c r="C371" t="n">
-        <v>30428858.38411768</v>
+        <v>26467311.69023044</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>161725533.9518209</v>
+        <v>108444513.1840865</v>
       </c>
       <c r="C372" t="n">
-        <v>32772894.54712645</v>
+        <v>28530893.22231153</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>160974366.1264063</v>
+        <v>108031539.464664</v>
       </c>
       <c r="C373" t="n">
-        <v>32772705.16172218</v>
+        <v>28530729.23980999</v>
       </c>
       <c r="D373" t="n">
-        <v>2561473.504932406</v>
+        <v>2271286.657172748</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>160215706.8416887</v>
+        <v>107613519.1126264</v>
       </c>
       <c r="C374" t="n">
-        <v>32772486.03171045</v>
+        <v>28530539.48986818</v>
       </c>
       <c r="D374" t="n">
-        <v>5146392.720820569</v>
+        <v>4567181.156594841</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>159449460.1562346</v>
+        <v>107190364.9528131</v>
       </c>
       <c r="C375" t="n">
-        <v>32772232.81325366</v>
+        <v>28530320.2073346</v>
       </c>
       <c r="D375" t="n">
-        <v>7754499.789173512</v>
+        <v>6887536.216845581</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>158675528.9172517</v>
+        <v>106761987.9365982</v>
       </c>
       <c r="C376" t="n">
-        <v>32771940.5821855</v>
+        <v>28530067.12370107</v>
       </c>
       <c r="D376" t="n">
-        <v>10385522.15599839</v>
+        <v>9232190.723502863</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>157893814.7566255</v>
+        <v>106328297.1110572</v>
       </c>
       <c r="C377" t="n">
-        <v>32771603.76493859</v>
+        <v>28529775.40714133</v>
       </c>
       <c r="D377" t="n">
-        <v>13039172.89344295</v>
+        <v>11600969.92403166</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>157104218.0882039</v>
+        <v>105889199.5898239</v>
       </c>
       <c r="C378" t="n">
-        <v>32771216.06250566</v>
+        <v>28529439.59649504</v>
       </c>
       <c r="D378" t="n">
-        <v>15715151.06236706</v>
+        <v>13993685.66099824</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>156306638.1067672</v>
+        <v>105444600.5260718</v>
       </c>
       <c r="C379" t="n">
-        <v>32770770.36690916</v>
+        <v>28529053.52873991</v>
       </c>
       <c r="D379" t="n">
-        <v>18413142.11561063</v>
+        <v>16410136.64380682</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>155500972.7891782</v>
+        <v>104994403.0881056</v>
       </c>
       <c r="C380" t="n">
-        <v>32770258.66963878</v>
+        <v>28528610.25948106</v>
       </c>
       <c r="D380" t="n">
-        <v>21132818.34154116</v>
+        <v>18850108.75899645</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>154687118.8982647</v>
+        <v>104538508.4380905</v>
       </c>
       <c r="C381" t="n">
-        <v>32769671.96150462</v>
+        <v>28528101.97597652</v>
       </c>
       <c r="D381" t="n">
-        <v>23873839.34727432</v>
+        <v>21313375.41896889</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>153864971.9900482</v>
+        <v>104076815.7145022</v>
       </c>
       <c r="C382" t="n">
-        <v>32769000.12334611</v>
+        <v>28527519.90221056</v>
       </c>
       <c r="D382" t="n">
-        <v>26635852.58076297</v>
+        <v>23799697.94884344</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>153034426.4249938</v>
+        <v>103609222.0189251</v>
       </c>
       <c r="C383" t="n">
-        <v>32768231.80703367</v>
+        <v>28526854.19552423</v>
       </c>
       <c r="D383" t="n">
-        <v>26635802.54849179</v>
+        <v>23799653.3738803</v>
       </c>
       <c r="E383" t="n">
-        <v>2974777.50832506</v>
+        <v>2836290.0994693</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>152195375.3840225</v>
+        <v>103135622.4078819</v>
       </c>
       <c r="C384" t="n">
-        <v>32767354.30620251</v>
+        <v>28526093.83431373</v>
       </c>
       <c r="D384" t="n">
-        <v>26635742.90257457</v>
+        <v>23799600.23186814</v>
       </c>
       <c r="E384" t="n">
-        <v>5971216.253832061</v>
+        <v>5698072.906197999</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>151347710.8900925</v>
+        <v>102655909.8904275</v>
       </c>
       <c r="C385" t="n">
-        <v>32766353.41616704</v>
+        <v>28525226.49631535</v>
       </c>
       <c r="D385" t="n">
-        <v>26635671.91467573</v>
+        <v>23799536.98222324</v>
       </c>
       <c r="E385" t="n">
-        <v>8988905.947147623</v>
+        <v>8585042.426957449</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>150491323.8362196</v>
+        <v>102169975.432295</v>
       </c>
       <c r="C386" t="n">
-        <v>32765213.2824799</v>
+        <v>28524238.42700892</v>
       </c>
       <c r="D386" t="n">
-        <v>26635587.56944069</v>
+        <v>23799461.82844562</v>
       </c>
       <c r="E386" t="n">
-        <v>12027426.23037193</v>
+        <v>11496881.46064549</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>149626104.0208774</v>
+        <v>101677707.9674325</v>
       </c>
       <c r="C387" t="n">
-        <v>32763916.23762422</v>
+        <v>28523114.29769276</v>
       </c>
       <c r="D387" t="n">
-        <v>26635487.52131817</v>
+        <v>23799372.67960662</v>
       </c>
       <c r="E387" t="n">
-        <v>15086347.46845125</v>
+        <v>14433262.28201086</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>148751940.1917795</v>
+        <v>101178994.41782</v>
       </c>
       <c r="C388" t="n">
-        <v>32762442.62536032</v>
+        <v>28521837.0528111</v>
       </c>
       <c r="D388" t="n">
-        <v>26635369.04569108</v>
+        <v>23799267.10675777</v>
       </c>
       <c r="E388" t="n">
-        <v>18165231.57828945</v>
+        <v>17393847.36759705</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>147868720.0991157</v>
+        <v>100673719.72251</v>
       </c>
       <c r="C389" t="n">
-        <v>32760770.61229132</v>
+        <v>28520387.74615278</v>
       </c>
       <c r="D389" t="n">
-        <v>26635228.98370193</v>
+        <v>23799142.29371268</v>
       </c>
       <c r="E389" t="n">
-        <v>21263632.89377254</v>
+        <v>20378290.16260163</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>146976330.5593709</v>
+        <v>100161766.8768802</v>
       </c>
       <c r="C390" t="n">
-        <v>32758875.98626595</v>
+        <v>28518745.36558608</v>
       </c>
       <c r="D390" t="n">
-        <v>26635063.68011494</v>
+        <v>23798994.98161432</v>
       </c>
       <c r="E390" t="n">
-        <v>24381099.06468127</v>
+        <v>23386235.88714422</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>146074657.5309219</v>
+        <v>99643016.98313522</v>
       </c>
       <c r="C391" t="n">
-        <v>32756731.94130221</v>
+        <v>28516886.64605139</v>
       </c>
       <c r="D391" t="n">
-        <v>26634868.91351273</v>
+        <v>23798821.40666085</v>
       </c>
       <c r="E391" t="n">
-        <v>27517171.98726386</v>
+        <v>26417322.38022636</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>145163586.2026577</v>
+        <v>99117349.31313661</v>
       </c>
       <c r="C392" t="n">
-        <v>32754308.84879442</v>
+        <v>28514785.87060177</v>
       </c>
       <c r="D392" t="n">
-        <v>26634639.81808354</v>
+        <v>23798617.23032529</v>
       </c>
       <c r="E392" t="n">
-        <v>30671388.76403836</v>
+        <v>29471180.9794566</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>144243001.0969252</v>
+        <v>98584641.38468005</v>
       </c>
       <c r="C393" t="n">
-        <v>32751574.01485738</v>
+        <v>28512414.65936035</v>
       </c>
       <c r="D393" t="n">
-        <v>26634370.79621388</v>
+        <v>23798377.46136766</v>
       </c>
       <c r="E393" t="n">
-        <v>30671350.78708652</v>
+        <v>29471144.59989012</v>
       </c>
       <c r="F393" t="n">
-        <v>2466909.888318075</v>
+        <v>2368242.085839625</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>143312786.1881467</v>
+        <v>98044769.05237201</v>
       </c>
       <c r="C394" t="n">
-        <v>32748491.42376796</v>
+        <v>28509741.74635637</v>
       </c>
       <c r="D394" t="n">
-        <v>26634055.42106419</v>
+        <v>23798096.36890502</v>
       </c>
       <c r="E394" t="n">
-        <v>30671304.79255827</v>
+        <v>29471100.5383073</v>
       </c>
       <c r="F394" t="n">
-        <v>4947208.933572873</v>
+        <v>4753441.083043808</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>142372825.0384949</v>
+        <v>97497606.61428739</v>
       </c>
       <c r="C395" t="n">
-        <v>32745021.4675855</v>
+        <v>28506732.74430619</v>
       </c>
       <c r="D395" t="n">
-        <v>26633686.32827179</v>
+        <v>23797767.3857746</v>
       </c>
       <c r="E395" t="n">
-        <v>30671249.19361246</v>
+        <v>29471047.2739115</v>
       </c>
       <c r="F395" t="n">
-        <v>7440531.849837014</v>
+        <v>7155303.650630143</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>141423000.952043</v>
+        <v>96943026.93561304</v>
       </c>
       <c r="C396" t="n">
-        <v>32741120.66216913</v>
+        <v>28503349.89752501</v>
       </c>
       <c r="D396" t="n">
-        <v>26633255.09589707</v>
+        <v>23797383.00140016</v>
       </c>
       <c r="E396" t="n">
-        <v>30671182.11240382</v>
+        <v>29470983.00693635</v>
       </c>
       <c r="F396" t="n">
-        <v>9946513.018977262</v>
+        <v>9573534.606066367</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>140463197.1488325</v>
+        <v>96380901.59049448</v>
       </c>
       <c r="C397" t="n">
-        <v>32736741.34996303</v>
+        <v>28499551.82328716</v>
       </c>
       <c r="D397" t="n">
-        <v>26632752.11170781</v>
+        <v>23796934.64335252</v>
       </c>
       <c r="E397" t="n">
-        <v>30671101.33149421</v>
+        <v>29470905.61205127</v>
       </c>
       <c r="F397" t="n">
-        <v>12464787.35450574</v>
+        <v>12007837.74781365</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>139493296.9603097</v>
+        <v>95811101.02331267</v>
       </c>
       <c r="C398" t="n">
-        <v>32731831.39008971</v>
+        <v>28495293.24210065</v>
       </c>
       <c r="D398" t="n">
-        <v>26632166.42688335</v>
+        <v>23796412.54678339</v>
       </c>
       <c r="E398" t="n">
-        <v>30671004.23808803</v>
+        <v>29470812.58488266</v>
       </c>
       <c r="F398" t="n">
-        <v>14994991.17894271</v>
+        <v>14457916.69816121</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>138513184.0475898</v>
+        <v>95233494.73061176</v>
       </c>
       <c r="C399" t="n">
-        <v>32726333.83647746</v>
+        <v>28490524.69752224</v>
       </c>
       <c r="D399" t="n">
-        <v>26631485.59521719</v>
+        <v>23795805.61090868</v>
       </c>
       <c r="E399" t="n">
-        <v>30670887.76020541</v>
+        <v>29470700.98080031</v>
       </c>
       <c r="F399" t="n">
-        <v>17536763.11231462</v>
+        <v>16923475.76427627</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>137522742.6439921</v>
+        <v>94647951.46488956</v>
       </c>
       <c r="C400" t="n">
-        <v>32720186.60494961</v>
+        <v>28485192.26631587</v>
       </c>
       <c r="D400" t="n">
-        <v>26630695.49690491</v>
+        <v>23795101.24172468</v>
       </c>
       <c r="E400" t="n">
-        <v>30670748.2938284</v>
+        <v>29470567.34504252</v>
       </c>
       <c r="F400" t="n">
-        <v>20089744.9692884</v>
+        <v>19404220.81525202</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>136521857.8232664</v>
+        <v>94054339.46143508</v>
       </c>
       <c r="C401" t="n">
-        <v>32713322.1304219</v>
+        <v>28479237.2599465</v>
       </c>
       <c r="D401" t="n">
-        <v>26629780.14602654</v>
+        <v>23794285.18016007</v>
       </c>
       <c r="E401" t="n">
-        <v>30670581.6199746</v>
+        <v>29470407.63317641</v>
       </c>
       <c r="F401" t="n">
-        <v>22653582.66232809</v>
+        <v>21899860.17280244</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>135510415.7948952</v>
+        <v>93452526.68936427</v>
       </c>
       <c r="C402" t="n">
-        <v>32705667.01558746</v>
+        <v>28472595.91860485</v>
       </c>
       <c r="D402" t="n">
-        <v>26628721.48086926</v>
+        <v>23793341.31489949</v>
       </c>
       <c r="E402" t="n">
-        <v>30670382.81057159</v>
+        <v>29470217.12081134</v>
       </c>
       <c r="F402" t="n">
-        <v>25227927.10812944</v>
+        <v>24410105.51310105</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>134488304.2277967</v>
+        <v>92842381.12795375</v>
       </c>
       <c r="C403" t="n">
-        <v>32697141.67271724</v>
+        <v>28465199.09917449</v>
       </c>
       <c r="D403" t="n">
-        <v>26627499.13629147</v>
+        <v>23792251.47916351</v>
       </c>
       <c r="E403" t="n">
-        <v>30670146.12192506</v>
+        <v>29469990.30140657</v>
       </c>
       <c r="F403" t="n">
-        <v>25227904.95119135</v>
+        <v>24410084.1421664</v>
       </c>
       <c r="G403" t="n">
-        <v>1827951.922506216</v>
+        <v>1335664.068407629</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>133455412.6036869</v>
+        <v>92223771.06931278</v>
       </c>
       <c r="C404" t="n">
-        <v>32687659.96046487</v>
+        <v>28456971.95878051</v>
       </c>
       <c r="D404" t="n">
-        <v>26626090.197403</v>
+        <v>23790995.23079514</v>
       </c>
       <c r="E404" t="n">
-        <v>30669864.87449495</v>
+        <v>29469720.77093826</v>
       </c>
       <c r="F404" t="n">
-        <v>25227877.75208618</v>
+        <v>24410057.90695288</v>
       </c>
       <c r="G404" t="n">
-        <v>3662857.878400703</v>
+        <v>2678760.352933767</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>132411632.601266</v>
+        <v>91596565.44835334</v>
       </c>
       <c r="C405" t="n">
-        <v>32677128.81783874</v>
+        <v>28447833.63579693</v>
       </c>
       <c r="D405" t="n">
-        <v>26624468.93393189</v>
+        <v>23789549.61508849</v>
       </c>
       <c r="E405" t="n">
-        <v>30669531.31761931</v>
+        <v>29469401.09811935</v>
       </c>
       <c r="F405" t="n">
-        <v>25227844.43361614</v>
+        <v>24410025.76803293</v>
       </c>
       <c r="G405" t="n">
-        <v>5504486.191300484</v>
+        <v>4029145.086679429</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>131356858.5122906</v>
+        <v>90960634.20092924</v>
       </c>
       <c r="C406" t="n">
-        <v>32665447.89778652</v>
+        <v>28437696.93043679</v>
       </c>
       <c r="D406" t="n">
-        <v>26622606.51476691</v>
+        <v>23787888.90990101</v>
       </c>
       <c r="E406" t="n">
-        <v>30669136.47775732</v>
+        <v>29469022.67879992</v>
       </c>
       <c r="F406" t="n">
-        <v>25227803.70489636</v>
+        <v>24409986.47973177</v>
       </c>
       <c r="G406" t="n">
-        <v>7352611.420828149</v>
+        <v>5386678.324782329</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>130290987.6904624</v>
+        <v>90315848.65090454</v>
       </c>
       <c r="C407" t="n">
-        <v>32652509.203129</v>
+        <v>28426467.98730234</v>
       </c>
       <c r="D407" t="n">
-        <v>26620470.70230913</v>
+        <v>23785984.35271915</v>
       </c>
       <c r="E407" t="n">
-        <v>30668669.98876167</v>
+        <v>29468575.57311689</v>
       </c>
       <c r="F407" t="n">
-        <v>25227754.02262433</v>
+        <v>24409938.552734</v>
       </c>
       <c r="G407" t="n">
-        <v>9207015.010312904</v>
+        <v>6751224.448091226</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>129213921.033919</v>
+        <v>89662081.92679003</v>
       </c>
       <c r="C408" t="n">
-        <v>32638196.72787509</v>
+        <v>28414045.98253082</v>
       </c>
       <c r="D408" t="n">
-        <v>26618025.52643726</v>
+        <v>23783803.84950009</v>
       </c>
       <c r="E408" t="n">
-        <v>30668119.90264172</v>
+        <v>29468048.32391447</v>
       </c>
       <c r="F408" t="n">
-        <v>25227693.54610044</v>
+        <v>24409880.21065485</v>
       </c>
       <c r="G408" t="n">
-        <v>11067485.92755109</v>
+        <v>8122652.666206669</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>128125563.5019443</v>
+        <v>88999209.40844351</v>
       </c>
       <c r="C409" t="n">
-        <v>32622386.10724835</v>
+        <v>28400322.81843102</v>
       </c>
       <c r="D409" t="n">
-        <v>26615230.93809121</v>
+        <v>23781311.66529057</v>
       </c>
       <c r="E409" t="n">
-        <v>30667472.47924223</v>
+        <v>29467427.75492152</v>
       </c>
       <c r="F409" t="n">
-        <v>25227620.08514487</v>
+        <v>24409809.33975014</v>
       </c>
       <c r="G409" t="n">
-        <v>12933821.29656369</v>
+        <v>9500837.518367607</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>127025824.6663294</v>
+        <v>88327109.20417413</v>
       </c>
       <c r="C410" t="n">
-        <v>32604944.28005125</v>
+        <v>28385182.82876418</v>
       </c>
       <c r="D410" t="n">
-        <v>26612042.44270834</v>
+        <v>23778468.09682883</v>
       </c>
       <c r="E410" t="n">
-        <v>30666711.95324371</v>
+        <v>29466698.74715387</v>
       </c>
       <c r="F410" t="n">
-        <v>25227531.03996825</v>
+        <v>24409723.43085364</v>
       </c>
       <c r="G410" t="n">
-        <v>14805827.0182136</v>
+        <v>10885659.37059114</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>125914619.2976032</v>
+        <v>87645662.65841582</v>
       </c>
       <c r="C411" t="n">
-        <v>32585729.16728479</v>
+        <v>28368502.49807759</v>
       </c>
       <c r="D411" t="n">
-        <v>26608410.71400782</v>
+        <v>23775229.12756873</v>
       </c>
       <c r="E411" t="n">
-        <v>30665820.27689153</v>
+        <v>29465843.99200976</v>
       </c>
       <c r="F411" t="n">
-        <v>25227423.33196167</v>
+        <v>24409619.51254264</v>
       </c>
       <c r="G411" t="n">
-        <v>16683318.37748117</v>
+        <v>12277004.90740795</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>124791867.9861233</v>
+        <v>86954754.88994348</v>
       </c>
       <c r="C412" t="n">
-        <v>32564589.37122241</v>
+        <v>28350150.19874446</v>
       </c>
       <c r="D412" t="n">
-        <v>26604281.18891128</v>
+        <v>23771546.06582646</v>
       </c>
       <c r="E412" t="n">
-        <v>30664776.83688613</v>
+        <v>29464843.71955107</v>
       </c>
       <c r="F412" t="n">
-        <v>25227293.32427714</v>
+        <v>24409494.07444012</v>
       </c>
       <c r="G412" t="n">
-        <v>18566120.63510998</v>
+        <v>13674767.61645375</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>123657497.7977705</v>
+        <v>86254275.36039996</v>
       </c>
       <c r="C413" t="n">
-        <v>32541363.89940543</v>
+        <v>28329985.94959864</v>
       </c>
       <c r="D413" t="n">
-        <v>26599593.64471259</v>
+        <v>23767365.16703994</v>
       </c>
       <c r="E413" t="n">
-        <v>30663558.14391961</v>
+        <v>29463675.40051286</v>
       </c>
       <c r="F413" t="n">
-        <v>25227136.73097397</v>
+        <v>24409342.97946984</v>
       </c>
       <c r="G413" t="n">
-        <v>18566108.15528238</v>
+        <v>13674758.45435192</v>
       </c>
       <c r="H413" t="n">
-        <v>1907437.904704372</v>
+        <v>1601865.328694141</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>122511442.9637158</v>
+        <v>85544118.47267658</v>
       </c>
       <c r="C414" t="n">
-        <v>32515881.91827585</v>
+        <v>28307861.20026978</v>
       </c>
       <c r="D414" t="n">
-        <v>26594281.75996614</v>
+        <v>23762627.24144951</v>
       </c>
       <c r="E414" t="n">
-        <v>30662137.4934289</v>
+        <v>29462313.42066533</v>
       </c>
       <c r="F414" t="n">
-        <v>25226948.5134095</v>
+        <v>24409161.36378685</v>
       </c>
       <c r="G414" t="n">
-        <v>18566092.66880457</v>
+        <v>13674747.08449526</v>
       </c>
       <c r="H414" t="n">
-        <v>3819923.983200921</v>
+        <v>3210836.661849929</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>121353645.6034454</v>
+        <v>84824184.1984527</v>
       </c>
       <c r="C415" t="n">
-        <v>32487962.54138783</v>
+        <v>28283618.64552265</v>
       </c>
       <c r="D415" t="n">
-        <v>26588272.66095025</v>
+        <v>23757267.24885434</v>
       </c>
       <c r="E415" t="n">
-        <v>30660484.59625641</v>
+        <v>29460728.72626748</v>
       </c>
       <c r="F415" t="n">
-        <v>25226722.76245892</v>
+        <v>24408943.52301478</v>
       </c>
       <c r="G415" t="n">
-        <v>18566073.49499733</v>
+        <v>13674733.00696278</v>
       </c>
       <c r="H415" t="n">
-        <v>5737316.009438396</v>
+        <v>4826819.542439925</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>120184056.4799189</v>
+        <v>84094378.73394701</v>
       </c>
       <c r="C416" t="n">
-        <v>32457414.65733534</v>
+        <v>28257092.07407568</v>
       </c>
       <c r="D416" t="n">
-        <v>26581486.45597919</v>
+        <v>23751213.88247129</v>
       </c>
       <c r="E416" t="n">
-        <v>30658565.17807029</v>
+        <v>29458888.43950611</v>
       </c>
       <c r="F416" t="n">
-        <v>25226452.56505761</v>
+        <v>24408682.78333316</v>
       </c>
       <c r="G416" t="n">
-        <v>18566049.80988183</v>
+        <v>13674715.6165629</v>
       </c>
       <c r="H416" t="n">
-        <v>7659484.164562624</v>
+        <v>6449729.481760096</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>119002635.7854164</v>
+        <v>83354615.18266699</v>
       </c>
       <c r="C417" t="n">
-        <v>32424036.80269495</v>
+        <v>28228106.25651616</v>
       </c>
       <c r="D417" t="n">
-        <v>26573835.76028111</v>
+        <v>23744389.14431946</v>
       </c>
       <c r="E417" t="n">
-        <v>30656340.54660162</v>
+        <v>29456755.44301047</v>
       </c>
       <c r="F417" t="n">
-        <v>25226129.85347483</v>
+        <v>24408371.35587585</v>
       </c>
       <c r="G417" t="n">
-        <v>18566020.61854983</v>
+        <v>13674694.18253018</v>
       </c>
       <c r="H417" t="n">
-        <v>9586311.545691153</v>
+        <v>8079492.461438875</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>117809353.9562926</v>
+        <v>82604814.26366533</v>
       </c>
       <c r="C418" t="n">
-        <v>32387617.08540417</v>
+        <v>28196476.87703672</v>
       </c>
       <c r="D418" t="n">
-        <v>26565225.2146276</v>
+        <v>23736707.91497232</v>
       </c>
       <c r="E418" t="n">
-        <v>30653767.1260091</v>
+        <v>29454287.93277555</v>
       </c>
       <c r="F418" t="n">
-        <v>25225745.23565261</v>
+        <v>24408000.17282901</v>
       </c>
       <c r="G418" t="n">
-        <v>18565984.72277118</v>
+        <v>13674667.82472133</v>
       </c>
       <c r="H418" t="n">
-        <v>11517694.64773972</v>
+        <v>9716045.417162614</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>116604192.5145049</v>
+        <v>81844905.04352567</v>
       </c>
       <c r="C419" t="n">
-        <v>32347933.16407143</v>
+        <v>28162010.51378473</v>
       </c>
       <c r="D419" t="n">
-        <v>26555551.0013897</v>
+        <v>23728077.52095619</v>
       </c>
       <c r="E419" t="n">
-        <v>30650795.95798757</v>
+        <v>29451438.93912034</v>
       </c>
       <c r="F419" t="n">
-        <v>25225287.80488036</v>
+        <v>24407558.70355519</v>
       </c>
       <c r="G419" t="n">
-        <v>18565940.68313656</v>
+        <v>13674635.4857939</v>
       </c>
       <c r="H419" t="n">
-        <v>13453543.8159052</v>
+        <v>11359336.70189708</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>115387144.9334272</v>
+        <v>81074825.69000193</v>
       </c>
       <c r="C420" t="n">
-        <v>32304752.28873809</v>
+        <v>28124504.67263934</v>
       </c>
       <c r="D420" t="n">
-        <v>26544700.36219939</v>
+        <v>23718397.30352472</v>
       </c>
       <c r="E420" t="n">
-        <v>30647372.16959744</v>
+        <v>29448155.81565266</v>
       </c>
       <c r="F420" t="n">
-        <v>25224744.92702867</v>
+        <v>24407034.74902504</v>
       </c>
       <c r="G420" t="n">
-        <v>18565886.77495337</v>
+        <v>13674595.89879229</v>
       </c>
       <c r="H420" t="n">
-        <v>15393783.66633408</v>
+        <v>13009326.52629475</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>114158217.5250874</v>
+        <v>80294524.24493542</v>
       </c>
       <c r="C421" t="n">
-        <v>32257831.40858043</v>
+        <v>28083747.87920408</v>
       </c>
       <c r="D421" t="n">
-        <v>26532551.12191189</v>
+        <v>23707558.19300044</v>
       </c>
       <c r="E421" t="n">
-        <v>30643434.40821034</v>
+        <v>29444379.69661449</v>
       </c>
       <c r="F421" t="n">
-        <v>25224102.00353922</v>
+        <v>24406414.21281112</v>
       </c>
       <c r="G421" t="n">
-        <v>18565820.93702796</v>
+        <v>13674547.54950381</v>
       </c>
       <c r="H421" t="n">
-        <v>17338353.47242573</v>
+        <v>14665987.37388355</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>112917430.3456007</v>
+        <v>79503959.41376771</v>
       </c>
       <c r="C422" t="n">
-        <v>32206917.35194552</v>
+        <v>28039519.83372256</v>
       </c>
       <c r="D422" t="n">
-        <v>26518971.22408282</v>
+        <v>23695442.29333837</v>
       </c>
       <c r="E422" t="n">
-        <v>30638914.24444599</v>
+        <v>29440044.92344091</v>
       </c>
       <c r="F422" t="n">
-        <v>25223342.20836481</v>
+        <v>24405680.84689599</v>
       </c>
       <c r="G422" t="n">
-        <v>18565740.71237934</v>
+        <v>13674488.63288221</v>
       </c>
       <c r="H422" t="n">
-        <v>19287207.51412975</v>
+        <v>16329304.38852905</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>111664818.1151924</v>
+        <v>78703101.36865789</v>
       </c>
       <c r="C423" t="n">
-        <v>32151747.08395393</v>
+        <v>27991591.63348645</v>
       </c>
       <c r="D423" t="n">
-        <v>26503818.28369139</v>
+        <v>23681922.48202919</v>
       </c>
       <c r="E423" t="n">
-        <v>30633735.54451538</v>
+        <v>29435078.44188486</v>
       </c>
       <c r="F423" t="n">
-        <v>25222446.19708081</v>
+        <v>24404815.97057183</v>
       </c>
       <c r="G423" t="n">
-        <v>18565643.17983807</v>
+        <v>13674417.00276884</v>
       </c>
       <c r="H423" t="n">
-        <v>21240315.38750684</v>
+        <v>17999275.73155776</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>110400431.1488349</v>
+        <v>77891932.56191067</v>
       </c>
       <c r="C424" t="n">
-        <v>32092048.04667047</v>
+        <v>27939726.06710447</v>
       </c>
       <c r="D424" t="n">
-        <v>26486939.16334599</v>
+        <v>23666862.03091118</v>
       </c>
       <c r="E424" t="n">
-        <v>30627813.81398834</v>
+        <v>29429399.17163814</v>
       </c>
       <c r="F424" t="n">
-        <v>25221391.78644942</v>
+        <v>24403798.16076744</v>
       </c>
       <c r="G424" t="n">
-        <v>18565524.87539094</v>
+        <v>13674330.11407323</v>
       </c>
       <c r="H424" t="n">
-        <v>23197662.27171603</v>
+        <v>19675912.90580979</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>109124336.2931532</v>
+        <v>77070448.54611646</v>
       </c>
       <c r="C425" t="n">
-        <v>32027538.58653772</v>
+        <v>27883677.98473597</v>
       </c>
       <c r="D425" t="n">
-        <v>26468169.57969389</v>
+        <v>23650114.25389488</v>
       </c>
       <c r="E425" t="n">
-        <v>30621055.51566696</v>
+        <v>29422917.35101669</v>
       </c>
       <c r="F425" t="n">
-        <v>25220153.60281935</v>
+        <v>24402602.91223463</v>
       </c>
       <c r="G425" t="n">
-        <v>18565381.70203879</v>
+        <v>13674224.95650604</v>
       </c>
       <c r="H425" t="n">
-        <v>25159249.15048985</v>
+        <v>21359241.04377377</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>107836617.8649002</v>
+        <v>76238658.79711339</v>
       </c>
       <c r="C426" t="n">
-        <v>31957928.47338261</v>
+        <v>27823194.74805948</v>
       </c>
       <c r="D426" t="n">
-        <v>26447333.74721272</v>
+        <v>23631522.18801203</v>
       </c>
       <c r="E426" t="n">
-        <v>30613357.36496993</v>
+        <v>29415533.85997217</v>
       </c>
       <c r="F426" t="n">
-        <v>25218702.69788787</v>
+        <v>24401202.26616611</v>
       </c>
       <c r="G426" t="n">
-        <v>18565208.82684292</v>
+        <v>13674097.97888953</v>
       </c>
       <c r="H426" t="n">
-        <v>27125092.98503804</v>
+        <v>23049299.15682341</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>106537378.5859524</v>
+        <v>75396587.53559566</v>
       </c>
       <c r="C427" t="n">
-        <v>31882919.51484222</v>
+        <v>27758016.76334341</v>
       </c>
       <c r="D427" t="n">
-        <v>26424244.06697697</v>
+        <v>23610918.31457315</v>
       </c>
       <c r="E427" t="n">
-        <v>30604605.60701155</v>
+        <v>29407139.52544052</v>
       </c>
       <c r="F427" t="n">
-        <v>25217006.13054762</v>
+        <v>24399564.40600472</v>
       </c>
       <c r="G427" t="n">
-        <v>18565000.56374782</v>
+        <v>13673945.00300617</v>
       </c>
       <c r="H427" t="n">
-        <v>29095226.83520526</v>
+        <v>24746140.34244654</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>105226740.5094532</v>
+        <v>74544274.54292381</v>
       </c>
       <c r="C428" t="n">
-        <v>31802206.26950905</v>
+        <v>27687878.10051255</v>
       </c>
       <c r="D428" t="n">
-        <v>26398700.86835776</v>
+        <v>23588124.32754481</v>
       </c>
       <c r="E428" t="n">
-        <v>30594675.28038903</v>
+        <v>29397614.41383479</v>
       </c>
       <c r="F428" t="n">
-        <v>25215026.51379133</v>
+        <v>24397653.21944578</v>
       </c>
       <c r="G428" t="n">
-        <v>18564750.2406862</v>
+        <v>13673761.12588554</v>
       </c>
       <c r="H428" t="n">
-        <v>31069699.92558052</v>
+        <v>26449831.94621703</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>103904845.9314228</v>
+        <v>73681775.96644026</v>
       </c>
       <c r="C429" t="n">
-        <v>31715476.86146838</v>
+        <v>27612507.20055784</v>
       </c>
       <c r="D429" t="n">
-        <v>26370492.21191711</v>
+        <v>23562950.95652932</v>
       </c>
       <c r="E429" t="n">
-        <v>30583429.47356591</v>
+        <v>29386827.11632971</v>
       </c>
       <c r="F429" t="n">
-        <v>25212721.52595861</v>
+        <v>24395427.82593474</v>
       </c>
       <c r="G429" t="n">
-        <v>18564450.04940022</v>
+        <v>13673540.60937642</v>
       </c>
       <c r="H429" t="n">
-        <v>33048577.6531234</v>
+        <v>28160455.67511537</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>102571858.2818735</v>
+        <v>72809165.10936081</v>
       </c>
       <c r="C430" t="n">
-        <v>31622413.89819179</v>
+        <v>27531627.67302174</v>
       </c>
       <c r="D430" t="n">
-        <v>26339393.76198711</v>
+        <v>23535197.85193611</v>
       </c>
       <c r="E430" t="n">
-        <v>30570718.58064885</v>
+        <v>29374634.03345941</v>
       </c>
       <c r="F430" t="n">
-        <v>25210043.38598545</v>
+        <v>24392842.06932528</v>
       </c>
       <c r="G430" t="n">
-        <v>18564090.87635322</v>
+        <v>13673276.75580727</v>
       </c>
       <c r="H430" t="n">
-        <v>35031941.53274104</v>
+        <v>29878107.65865881</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>101227962.9892166</v>
+        <v>71926533.20010686</v>
       </c>
       <c r="C431" t="n">
-        <v>31522695.49296313</v>
+        <v>27444959.18460518</v>
       </c>
       <c r="D431" t="n">
-        <v>26305168.73756848</v>
+        <v>23504653.54006335</v>
       </c>
       <c r="E431" t="n">
-        <v>30556379.5642906</v>
+        <v>29360878.66644857</v>
       </c>
       <c r="F431" t="n">
-        <v>25206938.2927629</v>
+        <v>24389843.97579406</v>
       </c>
       <c r="G431" t="n">
-        <v>18563662.11306402</v>
+        <v>13672961.7685063</v>
       </c>
       <c r="H431" t="n">
-        <v>37019889.07711019</v>
+        <v>31602898.4541514</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>99873368.31153184</v>
+        <v>71033990.13576154</v>
       </c>
       <c r="C432" t="n">
-        <v>31415996.39214931</v>
+        <v>27352218.43919124</v>
       </c>
       <c r="D432" t="n">
-        <v>26267567.95023075</v>
+        <v>23471095.45585287</v>
       </c>
       <c r="E432" t="n">
-        <v>30540235.23439993</v>
+        <v>29345390.92360909</v>
       </c>
       <c r="F432" t="n">
-        <v>25203345.82923014</v>
+        <v>24386375.17760869</v>
       </c>
       <c r="G432" t="n">
-        <v>18563151.44417345</v>
+        <v>13672586.59593621</v>
       </c>
       <c r="H432" t="n">
-        <v>39012533.60690111</v>
+        <v>33334952.99221291</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>98508306.12809022</v>
+        <v>70131665.19418462</v>
       </c>
       <c r="C433" t="n">
-        <v>31301989.20669315</v>
+        <v>27253120.24876601</v>
       </c>
       <c r="D433" t="n">
-        <v>26226329.93763596</v>
+        <v>23434290.0610285</v>
       </c>
       <c r="E433" t="n">
-        <v>30522093.55228667</v>
+        <v>29327986.45104496</v>
       </c>
       <c r="F433" t="n">
-        <v>25199198.33242077</v>
+        <v>24382370.30391965</v>
       </c>
       <c r="G433" t="n">
-        <v>18562544.61155694</v>
+        <v>13672140.75820103</v>
       </c>
       <c r="H433" t="n">
-        <v>41010003.98742511</v>
+        <v>35074410.45859902</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>97133032.68438391</v>
+        <v>69219707.70920721</v>
       </c>
       <c r="C434" t="n">
-        <v>31180345.74620487</v>
+        <v>27147378.69384563</v>
       </c>
       <c r="D434" t="n">
-        <v>26181181.20112983</v>
+        <v>23393993.05517067</v>
       </c>
       <c r="E434" t="n">
-        <v>30501746.97080056</v>
+        <v>29308465.99780307</v>
       </c>
       <c r="F434" t="n">
-        <v>25194420.23135183</v>
+        <v>24377756.34039448</v>
       </c>
       <c r="G434" t="n">
-        <v>18561825.15283092</v>
+        <v>13671612.15470719</v>
       </c>
       <c r="H434" t="n">
-        <v>43012444.28759121</v>
+        <v>36821424.10817546</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>95747829.28382841</v>
+        <v>68298287.7032475</v>
       </c>
       <c r="C435" t="n">
-        <v>31050738.45296886</v>
+        <v>27034708.37109581</v>
       </c>
       <c r="D435" t="n">
-        <v>26131836.55553854</v>
+        <v>23349949.68700803</v>
       </c>
       <c r="E435" t="n">
-        <v>30478971.82191736</v>
+        <v>29286614.82646886</v>
       </c>
       <c r="F435" t="n">
-        <v>25188927.3553917</v>
+        <v>24372451.96023433</v>
       </c>
       <c r="G435" t="n">
-        <v>18560974.11267068</v>
+        <v>13670986.85181223</v>
       </c>
       <c r="H435" t="n">
-        <v>45020013.35693464</v>
+        <v>38576161.00677256</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>94353002.9192552</v>
+        <v>67367596.47165263</v>
       </c>
       <c r="C436" t="n">
-        <v>30912841.93207391</v>
+        <v>26914825.72486342</v>
       </c>
       <c r="D436" t="n">
-        <v>26077999.5988676</v>
+        <v>23301895.17281392</v>
       </c>
       <c r="E436" t="n">
-        <v>30453527.76406717</v>
+        <v>29262202.18101544</v>
       </c>
       <c r="F436" t="n">
-        <v>25182626.21656457</v>
+        <v>24366366.82990741</v>
       </c>
       <c r="G436" t="n">
-        <v>18559969.72546888</v>
+        <v>13670248.84937581</v>
       </c>
       <c r="H436" t="n">
-        <v>47032884.31635681</v>
+        <v>40338801.69651059</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>92948886.83733094</v>
+        <v>66427847.11307646</v>
       </c>
       <c r="C437" t="n">
-        <v>30766334.57272531</v>
+        <v>26787450.4583381</v>
       </c>
       <c r="D437" t="n">
-        <v>26019363.30901464</v>
+        <v>23249555.22827397</v>
       </c>
       <c r="E437" t="n">
-        <v>30425157.30226548</v>
+        <v>29234980.82445193</v>
       </c>
       <c r="F437" t="n">
-        <v>25175413.27014184</v>
+        <v>24359400.89379634</v>
       </c>
       <c r="G437" t="n">
-        <v>18558787.06802115</v>
+        <v>13669379.82524336</v>
       </c>
       <c r="H437" t="n">
-        <v>49051243.9581186</v>
+        <v>42109539.78007233</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>91535841.02909866</v>
+        <v>65479275.00025242</v>
       </c>
       <c r="C438" t="n">
-        <v>30610900.2546199</v>
+        <v>26652307.01903505</v>
       </c>
       <c r="D438" t="n">
-        <v>25955610.77387497</v>
+        <v>23192646.71953828</v>
       </c>
       <c r="E438" t="n">
-        <v>30393585.39477525</v>
+        <v>29204686.65946075</v>
       </c>
       <c r="F438" t="n">
-        <v>25167174.15882884</v>
+        <v>24351443.64288374</v>
       </c>
       <c r="G438" t="n">
-        <v>18557397.68113614</v>
+        <v>13668358.85684733</v>
       </c>
       <c r="H438" t="n">
-        <v>51075292.05053561</v>
+        <v>43888581.41929197</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>90114252.63996556</v>
+        <v>64522138.18561715</v>
       </c>
       <c r="C439" t="n">
-        <v>30446230.13207027</v>
+        <v>26509126.15224825</v>
       </c>
       <c r="D439" t="n">
-        <v>25886416.06033457</v>
+        <v>23130878.43838191</v>
       </c>
       <c r="E439" t="n">
-        <v>30358519.16057656</v>
+        <v>29171038.44574218</v>
       </c>
       <c r="F439" t="n">
-        <v>25157782.94687134</v>
+        <v>24342373.3735824</v>
       </c>
       <c r="G439" t="n">
-        <v>18555769.15933481</v>
+        <v>13667162.11930731</v>
       </c>
       <c r="H439" t="n">
-        <v>53105240.5427665</v>
+        <v>45676144.74335275</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>88684536.29264233</v>
+        <v>63556717.73638686</v>
       </c>
       <c r="C440" t="n">
-        <v>30272024.48736774</v>
+        <v>26357646.51507921</v>
       </c>
       <c r="D440" t="n">
-        <v>25811445.22660778</v>
+        <v>23063952.00547253</v>
       </c>
       <c r="E440" t="n">
-        <v>30319647.70232339</v>
+        <v>29133737.62817419</v>
       </c>
       <c r="F440" t="n">
-        <v>25147101.35146962</v>
+        <v>24332056.44384532</v>
       </c>
       <c r="G440" t="n">
-        <v>18553864.70813521</v>
+        <v>13665762.5596538</v>
       </c>
       <c r="H440" t="n">
-        <v>55141312.66504187</v>
+        <v>47472459.16182491</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>87247134.31678464</v>
+        <v>62583317.99388082</v>
       </c>
       <c r="C441" t="n">
-        <v>30087994.64368813</v>
+        <v>26197616.34261169</v>
       </c>
       <c r="D441" t="n">
-        <v>25730357.4811889</v>
+        <v>22991562.90468248</v>
       </c>
       <c r="E441" t="n">
-        <v>30276642.05970332</v>
+        <v>29092468.29012521</v>
       </c>
       <c r="F441" t="n">
-        <v>25134977.97998593</v>
+        <v>24320346.53475393</v>
       </c>
       <c r="G441" t="n">
-        <v>18551642.66881657</v>
+        <v>13664129.54709256</v>
       </c>
       <c r="H441" t="n">
-        <v>57183741.91968524</v>
+        <v>49277764.5777564</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>85802516.87939411</v>
+        <v>61602266.75213329</v>
       </c>
       <c r="C442" t="n">
-        <v>29893864.92668547</v>
+        <v>26028795.15679145</v>
       </c>
       <c r="D442" t="n">
-        <v>25642806.49035089</v>
+        <v>22913401.65019057</v>
       </c>
       <c r="E442" t="n">
-        <v>30229155.30816045</v>
+        <v>29046897.24630312</v>
       </c>
       <c r="F442" t="n">
-        <v>25121247.58254936</v>
+        <v>24307083.9268642</v>
       </c>
       <c r="G442" t="n">
-        <v>18549056.01102699</v>
+        <v>13662228.49957222</v>
       </c>
       <c r="H442" t="n">
-        <v>59232770.95831177</v>
+        <v>51092310.4960402</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>84351182.01040336</v>
+        <v>60613915.35112891</v>
       </c>
       <c r="C443" t="n">
-        <v>29689374.66280389</v>
+        <v>25850955.50759573</v>
       </c>
       <c r="D443" t="n">
-        <v>25548441.83464823</v>
+        <v>22829155.0867997</v>
       </c>
       <c r="E443" t="n">
-        <v>30176822.81777358</v>
+        <v>28996674.28936474</v>
       </c>
       <c r="F443" t="n">
-        <v>25105730.33078146</v>
+        <v>24292094.80167454</v>
       </c>
       <c r="G443" t="n">
-        <v>18546051.79414234</v>
+        <v>13660020.48731736</v>
       </c>
       <c r="H443" t="n">
-        <v>61288650.34067553</v>
+        <v>52916355.02233933</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>82893655.51830085</v>
+        <v>59618638.68034253</v>
       </c>
       <c r="C444" t="n">
-        <v>29474280.20128094</v>
+        <v>25663884.73515424</v>
       </c>
       <c r="D444" t="n">
-        <v>25446910.61327359</v>
+        <v>22738507.82246101</v>
       </c>
       <c r="E444" t="n">
-        <v>30119262.68667899</v>
+        <v>28941432.60412655</v>
       </c>
       <c r="F444" t="n">
-        <v>25088231.13446667</v>
+        <v>24275190.57964544</v>
       </c>
       <c r="G444" t="n">
-        <v>18542570.59890462</v>
+        <v>13657461.81444556</v>
       </c>
       <c r="H444" t="n">
-        <v>63351637.17078093</v>
+        <v>54750163.74796375</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>81430490.79114088</v>
+        <v>58616835.08865856</v>
       </c>
       <c r="C445" t="n">
-        <v>29248356.94583548</v>
+        <v>25467386.74062646</v>
       </c>
       <c r="D445" t="n">
-        <v>25337859.19339269</v>
+        <v>22641143.79045366</v>
       </c>
       <c r="E445" t="n">
-        <v>30056076.36277159</v>
+        <v>28880789.36259026</v>
       </c>
       <c r="F445" t="n">
-        <v>25068539.00905147</v>
+        <v>24256167.30722691</v>
       </c>
       <c r="G445" t="n">
-        <v>18538545.93156437</v>
+        <v>13654503.58029916</v>
       </c>
       <c r="H445" t="n">
-        <v>65421993.60607594</v>
+        <v>56594008.51625975</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>79962268.47883373</v>
+        <v>57608926.19718783</v>
       </c>
       <c r="C446" t="n">
-        <v>29011401.38114505</v>
+        <v>25261283.75286277</v>
       </c>
       <c r="D446" t="n">
-        <v>25220935.09975363</v>
+        <v>22536747.93703565</v>
       </c>
       <c r="E446" t="n">
-        <v>29986849.46649404</v>
+        <v>28814346.51211233</v>
       </c>
       <c r="F446" t="n">
-        <v>25046426.50784853</v>
+        <v>24234805.10631223</v>
       </c>
       <c r="G446" t="n">
-        <v>18533903.60352414</v>
+        <v>13651091.22269083</v>
       </c>
       <c r="H446" t="n">
-        <v>67499985.23582396</v>
+        <v>58448166.06631098</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>78489596.05321638</v>
+        <v>56595356.61198718</v>
       </c>
       <c r="C447" t="n">
-        <v>28763233.07843856</v>
+        <v>25045418.07719526</v>
       </c>
       <c r="D447" t="n">
-        <v>25095789.03795537</v>
+        <v>22425008.02867277</v>
       </c>
       <c r="E447" t="n">
-        <v>29911152.82631734</v>
+        <v>28741691.76789027</v>
       </c>
       <c r="F447" t="n">
-        <v>25021649.23372144</v>
+        <v>24210867.70040827</v>
       </c>
       <c r="G447" t="n">
-        <v>18528561.09032392</v>
+        <v>13647164.04588283</v>
       </c>
       <c r="H447" t="n">
-        <v>69585879.32511085</v>
+        <v>60312916.55006076</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>77013107.24306276</v>
+        <v>55576593.53421979</v>
       </c>
       <c r="C448" t="n">
-        <v>28503696.66387485</v>
+        <v>24819653.81212946</v>
       </c>
       <c r="D448" t="n">
-        <v>24962077.04278601</v>
+        <v>22305616.57118807</v>
       </c>
       <c r="E448" t="n">
-        <v>29828543.73702043</v>
+        <v>28662399.81950479</v>
       </c>
       <c r="F448" t="n">
-        <v>24993945.44580289</v>
+        <v>24184102.03256672</v>
       </c>
       <c r="G448" t="n">
-        <v>18522426.87472095</v>
+        <v>13642654.73679087</v>
       </c>
       <c r="H448" t="n">
-        <v>71679942.92139453</v>
+        <v>62188541.91936381</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>75533461.34190074</v>
+        <v>54553126.26586524</v>
       </c>
       <c r="C449" t="n">
-        <v>28232663.73286228</v>
+        <v>24583878.51925558</v>
       </c>
       <c r="D449" t="n">
-        <v>24819462.74102956</v>
+        <v>22178272.83137522</v>
       </c>
       <c r="E449" t="n">
-        <v>29738567.44908578</v>
+        <v>28576033.75953847</v>
       </c>
       <c r="F449" t="n">
-        <v>24963035.77742345</v>
+        <v>24154237.99072807</v>
       </c>
       <c r="G449" t="n">
-        <v>18515399.77958697</v>
+        <v>13637488.87361784</v>
       </c>
       <c r="H449" t="n">
-        <v>73782440.82105947</v>
+        <v>64075324.17996677</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>74051342.38725519</v>
+        <v>53525465.6096973</v>
       </c>
       <c r="C450" t="n">
-        <v>27950034.69311189</v>
+        <v>24338004.83137858</v>
       </c>
       <c r="D450" t="n">
-        <v>24667619.71611672</v>
+        <v>22042684.94981059</v>
       </c>
       <c r="E450" t="n">
-        <v>29640758.89544427</v>
+        <v>28482146.74029242</v>
       </c>
       <c r="F450" t="n">
-        <v>24928623.08187123</v>
+        <v>24120988.25656094</v>
       </c>
       <c r="G450" t="n">
-        <v>18507368.2973656</v>
+        <v>13631584.43187377</v>
       </c>
       <c r="H450" t="n">
-        <v>75893633.39409453</v>
+        <v>65973543.51000278</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>72567458.21073027</v>
+        <v>52494143.16288871</v>
       </c>
       <c r="C451" t="n">
-        <v>27655740.5190196</v>
+        <v>24081971.98369047</v>
       </c>
       <c r="D451" t="n">
-        <v>24506233.95998986</v>
+        <v>21898572.13180467</v>
       </c>
       <c r="E451" t="n">
-        <v>29534644.6594313</v>
+        <v>28380283.86234642</v>
       </c>
       <c r="F451" t="n">
-        <v>24890392.42283162</v>
+        <v>24084048.2941049</v>
       </c>
       <c r="G451" t="n">
-        <v>18498209.92388948</v>
+        <v>13624851.29351629</v>
       </c>
       <c r="H451" t="n">
-        <v>78013774.2658025</v>
+        <v>67883476.24129462</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>71082539.35916865</v>
+        <v>51459710.50427138</v>
       </c>
       <c r="C452" t="n">
-        <v>27349744.39995205</v>
+        <v>23815747.25278708</v>
       </c>
       <c r="D452" t="n">
-        <v>24335006.39559487</v>
+        <v>21745666.90168299</v>
       </c>
       <c r="E452" t="n">
-        <v>29419745.18517146</v>
+        <v>28269984.29616802</v>
       </c>
       <c r="F452" t="n">
-        <v>24848011.2263437</v>
+        <v>24043096.49451581</v>
       </c>
       <c r="G452" t="n">
-        <v>18487790.5054343</v>
+        <v>13617190.76574001</v>
       </c>
       <c r="H452" t="n">
-        <v>80143107.8553541</v>
+        <v>69805392.70257474</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_SFH.xlsx
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>9718500.923515037</v>
+        <v>9718500.923515035</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>9730161.794971602</v>
+        <v>9730161.7949716</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>9741990.191806855</v>
+        <v>9741990.191806857</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>9753988.50409559</v>
+        <v>9753988.504095592</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>9766159.155549854</v>
+        <v>9766159.155549852</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>9791027.341761731</v>
+        <v>9791027.341761734</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>9803729.896309346</v>
+        <v>9803729.896309348</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>9829684.743433839</v>
+        <v>9829684.743433835</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>9842942.270376729</v>
+        <v>9842942.270376727</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>9883867.447829781</v>
+        <v>9883867.447829787</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>9897902.532810355</v>
+        <v>9897902.532810358</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>9926579.636788435</v>
+        <v>9926579.636788433</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>9941227.42609035</v>
+        <v>9941227.426090352</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>9986443.21909884</v>
+        <v>9986443.219098838</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>10049814.21454989</v>
+        <v>10049814.21454988</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>10066228.6019709</v>
+        <v>10066228.60197088</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>10099766.2280193</v>
+        <v>10099766.22801929</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>10151895.56014048</v>
+        <v>10151895.56014047</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>10169771.97810935</v>
+        <v>10169771.97810936</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>10187904.3030654</v>
+        <v>10187904.30306541</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>10206296.16121705</v>
+        <v>10206296.16121706</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>10263065.95688943</v>
+        <v>10263065.95688944</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>10282533.22795574</v>
+        <v>10282533.22795575</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>10302278.93279655</v>
+        <v>10302278.93279654</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>10322307.010284</v>
+        <v>10322307.01028401</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>10384125.69036489</v>
+        <v>10384125.69036488</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>10515943.99091133</v>
+        <v>10515943.99091132</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>10586179.48491371</v>
+        <v>10586179.48491372</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>10610262.69795632</v>
+        <v>10610262.69795633</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>10659464.73640613</v>
+        <v>10659464.73640612</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>10735930.40165268</v>
+        <v>10735930.40165269</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>10762149.08004098</v>
+        <v>10762149.08004097</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>10843068.00670681</v>
+        <v>10843068.0067068</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>10956440.76599146</v>
+        <v>10956440.76599147</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>10985799.646698</v>
+        <v>10985799.64669799</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>11045776.38857969</v>
+        <v>11045776.3885797</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>11076406.03594766</v>
+        <v>11076406.03594767</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>11236210.07692041</v>
+        <v>11236210.07692042</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>11269545.89186809</v>
+        <v>11269545.89186811</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>11303355.05722772</v>
+        <v>11303355.05722771</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>11337644.18317267</v>
+        <v>11337644.18317266</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>11407689.20706925</v>
+        <v>11407689.20706924</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>11443458.77843606</v>
+        <v>11443458.77843605</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>11516526.92091119</v>
+        <v>11516526.92091118</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>11591681.34501506</v>
+        <v>11591681.34501504</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>11668980.54925544</v>
+        <v>11668980.54925542</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>11830255.28855001</v>
+        <v>11830255.28855003</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>11914355.94270406</v>
+        <v>11914355.94270407</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>11957300.29593331</v>
+        <v>11957300.29593332</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>12089809.44492255</v>
+        <v>12089809.44492254</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>12135232.95432488</v>
+        <v>12135232.95432486</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>12181297.86244976</v>
+        <v>12181297.86244975</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>12421558.27249331</v>
+        <v>12421558.27249332</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>12471662.20871687</v>
+        <v>12471662.20871686</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>12522472.23738977</v>
+        <v>12522472.23738976</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>12679236.97063185</v>
+        <v>12679236.97063186</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>12787459.40398787</v>
+        <v>12787459.40398786</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>12842715.23402008</v>
+        <v>12842715.23402007</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>12955568.88569734</v>
+        <v>12955568.88569733</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>13130866.90316385</v>
+        <v>13130866.90316386</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>13251873.7846037</v>
+        <v>13251873.78460371</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>13313653.97168118</v>
+        <v>13313653.97168117</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>13702958.87435607</v>
+        <v>13702958.87435608</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>13771061.75053161</v>
+        <v>13771061.75053163</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>14126141.0716758</v>
+        <v>14126141.07167579</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>14200163.76077566</v>
+        <v>14200163.76077564</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>14351326.46811267</v>
+        <v>14351326.46811268</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>14506740.81576288</v>
+        <v>14506740.81576289</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>14586078.77798374</v>
+        <v>14586078.77798375</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>14666523.75140705</v>
+        <v>14666523.75140704</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>14914652.91120554</v>
+        <v>14914652.91120555</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>15085890.01309722</v>
+        <v>15085890.0130972</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>15261930.62208906</v>
+        <v>15261930.62208905</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>15351793.34503818</v>
+        <v>15351793.34503817</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>15442906.71713287</v>
+        <v>15442906.71713288</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>15535287.80222931</v>
+        <v>15535287.80222932</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>15917838.78729788</v>
+        <v>15917838.78729789</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>16117181.70299388</v>
+        <v>16117181.70299389</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>16218934.61804062</v>
+        <v>16218934.61804063</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>16532748.41454573</v>
+        <v>16532748.41454572</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>16640269.92754311</v>
+        <v>16640269.92754312</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>16749283.19792987</v>
+        <v>16749283.19792988</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>16971866.90141099</v>
+        <v>16971866.901411</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>17200666.20625976</v>
+        <v>17200666.20625975</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>17317450.09214025</v>
+        <v>17317450.09214024</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>17677602.27504877</v>
+        <v>17677602.27504876</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>17800994.90867335</v>
+        <v>17800994.90867336</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>18052931.57830921</v>
+        <v>18052931.57830922</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>18181522.97146324</v>
+        <v>18181522.97146323</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>18444072.8715635</v>
+        <v>18444072.87156349</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>18578080.84648603</v>
+        <v>18578080.84648602</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>18851689.27049476</v>
+        <v>18851689.27049475</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>18991341.42093436</v>
+        <v>18991341.42093437</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>19132927.31040715</v>
+        <v>19132927.31040714</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>19870816.31387223</v>
+        <v>19870816.31387221</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>20338536.14378025</v>
+        <v>20338536.14378024</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>20498783.59205541</v>
+        <v>20498783.59205543</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>20825973.85241689</v>
+        <v>20825973.8524169</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>21162302.37643192</v>
+        <v>21162302.37643191</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>21508029.67858928</v>
+        <v>21508029.6785893</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>21863424.81049542</v>
+        <v>21863424.81049543</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>22044834.32075616</v>
+        <v>22044834.32075617</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>22228765.74950629</v>
+        <v>22228765.74950631</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>23387385.91075727</v>
+        <v>23387385.91075729</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>23590019.86513237</v>
+        <v>23590019.86513235</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>24003817.88161332</v>
+        <v>24003817.88161334</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>24646474.17900203</v>
+        <v>24646474.17900204</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>24866723.16555851</v>
+        <v>24866723.1655585</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>25090062.25221749</v>
+        <v>25090062.25221751</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>25546196.51393788</v>
+        <v>25546196.51393789</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>25779086.74304309</v>
+        <v>25779086.74304311</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>26254757.74422655</v>
+        <v>26254757.74422656</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>26497639.03560865</v>
+        <v>26497639.03560864</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>26743952.80071365</v>
+        <v>26743952.80071364</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>26993751.73672004</v>
+        <v>26993751.73672007</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>28296941.30852427</v>
+        <v>28296941.30852425</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>28568816.94136381</v>
+        <v>28568816.94136379</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>28844576.72557406</v>
+        <v>28844576.72557404</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>29124282.30187779</v>
+        <v>29124282.30187778</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>29407996.56364841</v>
+        <v>29407996.56364842</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>29695783.68954087</v>
+        <v>29695783.68954088</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>29987709.17696475</v>
+        <v>29987709.17696476</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>30283839.87641161</v>
+        <v>30283839.87641162</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>30888991.29076863</v>
+        <v>30888991.29076866</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>31198152.79316443</v>
+        <v>31198152.79316444</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>31830010.54463127</v>
+        <v>31830010.54463125</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>32152856.69388111</v>
+        <v>32152856.69388112</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>32480416.96192703</v>
+        <v>32480416.96192702</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>32812770.36506567</v>
+        <v>32812770.36506569</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>33839405.33547442</v>
+        <v>33839405.33547441</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>34191756.13223365</v>
+        <v>34191756.13223363</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>34549321.55121271</v>
+        <v>34549321.55121273</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>34912191.48631865</v>
+        <v>34912191.48631866</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>35280457.80620689</v>
+        <v>35280457.8062069</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>35654214.40283831</v>
+        <v>35654214.40283832</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>36033557.24087589</v>
+        <v>36033557.24087587</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>36418584.407901</v>
+        <v>36418584.40790101</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>37206095.00067859</v>
+        <v>37206095.00067858</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>37608785.67912204</v>
+        <v>37608785.67912202</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>38432573.33867447</v>
+        <v>38432573.33867446</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>39281644.87166534</v>
+        <v>39281644.87166531</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>40156925.92989929</v>
+        <v>40156925.92989926</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>40604695.65315895</v>
+        <v>40604695.65315897</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>41059383.87645704</v>
+        <v>41059383.87645703</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>41521118.33508353</v>
+        <v>41521118.33508355</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>41990029.59897158</v>
+        <v>41990029.5989716</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>42949919.34027401</v>
+        <v>42949919.34027402</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>43441173.64794815</v>
+        <v>43441173.64794812</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>43940156.53605271</v>
+        <v>43940156.5360527</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>44447013.60864801</v>
+        <v>44447013.60864799</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>45484948.66822096</v>
+        <v>45484948.66822097</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>46016333.97535396</v>
+        <v>46016333.97535397</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>46556208.21716736</v>
+        <v>46556208.21716735</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>47104733.43909996</v>
+        <v>47104733.43910001</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>47662075.13624197</v>
+        <v>47662075.13624196</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>48803887.4903012</v>
+        <v>48803887.49030118</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>49388706.83862841</v>
+        <v>49388706.83862839</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>49983040.13922306</v>
+        <v>49983040.13922305</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>50587070.87071481</v>
+        <v>50587070.8707148</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>51200986.24248153</v>
+        <v>51200986.24248151</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>52459238.63148832</v>
+        <v>52459238.63148835</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>53103969.06148097</v>
+        <v>53103969.06148098</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>53759371.02126293</v>
+        <v>53759371.02126291</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>54425650.90571023</v>
+        <v>54425650.90571021</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>55103019.03036811</v>
+        <v>55103019.03036812</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>55791689.65044039</v>
+        <v>55791689.6504404</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>56491880.97539606</v>
+        <v>56491880.97539604</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>57203815.17888243</v>
+        <v>57203815.17888246</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>57927718.40362633</v>
+        <v>57927718.40362632</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>58663820.76099204</v>
+        <v>58663820.76099198</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>59412356.32485838</v>
+        <v>59412356.3248584</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>60173563.11946703</v>
+        <v>60173563.11946704</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>60947683.10088371</v>
+        <v>60947683.10088374</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>62535649.94867027</v>
+        <v>62535649.94867028</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>64726086.67833296</v>
+        <v>64726086.67833164</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>65283675.84788347</v>
+        <v>65283675.84788086</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>65851225.26935561</v>
+        <v>65851225.26935175</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>66428925.1421724</v>
+        <v>66428925.14216737</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>67016968.04558025</v>
+        <v>67016968.04557414</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>67615548.86146355</v>
+        <v>67615548.8614563</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>68224864.68973963</v>
+        <v>68224864.68973143</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>68845114.75606532</v>
+        <v>68845114.75605616</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>69476500.31158422</v>
+        <v>69476500.31157409</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>70119224.52445634</v>
+        <v>70119224.5244454</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>70773492.36291233</v>
+        <v>70773492.3629006</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>71439510.46958317</v>
+        <v>71439510.46957065</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>72117487.02686647</v>
+        <v>72117487.02685332</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>72807631.61310005</v>
+        <v>72807631.61308631</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>73510155.04932469</v>
+        <v>73510155.04931045</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>74225269.23643386</v>
+        <v>74225269.23641914</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>74953186.9825207</v>
+        <v>74953186.98250555</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>75694121.82025182</v>
+        <v>75694121.82023634</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>76448287.81411676</v>
+        <v>76448287.81410097</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>77215899.35741983</v>
+        <v>77215899.35740392</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>77997170.95890841</v>
+        <v>77997170.95889227</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>78792317.01895134</v>
+        <v>78792317.0189352</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>79601551.59521312</v>
+        <v>79601551.59519692</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>80425088.15779369</v>
+        <v>80425088.15777755</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>81263139.33383675</v>
+        <v>81263139.33382085</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>82115916.6416432</v>
+        <v>82115916.64162752</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>82983630.21435677</v>
+        <v>82983630.2143414</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>83866488.51333128</v>
+        <v>83866488.51331632</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>84764698.031323</v>
+        <v>84764698.03130849</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>85678462.98569384</v>
+        <v>85678462.98567991</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>86607985.00185342</v>
+        <v>86607985.00184019</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>87553462.7872116</v>
+        <v>87553462.78719899</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>88515091.79595737</v>
+        <v>88515091.79594548</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>89493063.88503008</v>
+        <v>89493063.88501903</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>90487566.96169284</v>
+        <v>90487566.96168289</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>91498784.62317191</v>
+        <v>91498784.623163</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>92526895.78887075</v>
+        <v>92526895.7888629</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>93572074.32572487</v>
+        <v>93572074.32571827</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>94634488.66731</v>
+        <v>94634488.66730471</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>95714301.42737043</v>
+        <v>95714301.42736657</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>96811669.00848573</v>
+        <v>96811669.00848325</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>97926741.20664677</v>
+        <v>97926741.20664583</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>99059660.81256197</v>
+        <v>99059660.81256269</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>100210563.2105653</v>
+        <v>100210563.2105678</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>101379575.9760492</v>
+        <v>101379575.9760534</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>102566818.4723878</v>
+        <v>102566818.4723941</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>103772401.4483721</v>
+        <v>103772401.4483803</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>104996426.6372079</v>
+        <v>104996426.6372182</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>106238986.3581855</v>
+        <v>106238986.3581979</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>107500163.1221539</v>
+        <v>107500163.1221686</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>108780029.2419787</v>
+        <v>108780029.2419957</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>110078646.4491858</v>
+        <v>110078646.4492053</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>111396065.5180285</v>
+        <v>111396065.5180505</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>112732325.8982324</v>
+        <v>112732325.898257</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>114087455.3576964</v>
+        <v>114087455.3577237</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>113740892.4031882</v>
+        <v>113740892.4032307</v>
       </c>
       <c r="C358" t="n">
-        <v>1739921.44973151</v>
+        <v>1739921.449718872</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>113390388.1968461</v>
+        <v>113390388.1969044</v>
       </c>
       <c r="C359" t="n">
-        <v>3502929.017608067</v>
+        <v>3502929.017582319</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>113035879.7080173</v>
+        <v>113035879.7080919</v>
       </c>
       <c r="C360" t="n">
-        <v>5289077.035909278</v>
+        <v>5289077.035869949</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>112677302.5148444</v>
+        <v>112677302.514936</v>
       </c>
       <c r="C361" t="n">
-        <v>7098408.112183771</v>
+        <v>7098408.112130389</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>112314590.7762134</v>
+        <v>112314590.7763225</v>
       </c>
       <c r="C362" t="n">
-        <v>8930952.866286047</v>
+        <v>8930952.86621807</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>111947677.2028171</v>
+        <v>111947677.2029442</v>
       </c>
       <c r="C363" t="n">
-        <v>10786729.68621264</v>
+        <v>10786729.68612958</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>111576493.0273478</v>
+        <v>111576493.0274936</v>
       </c>
       <c r="C364" t="n">
-        <v>12665744.50398965</v>
+        <v>12665744.50389101</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>111200967.973851</v>
+        <v>111200967.9740158</v>
       </c>
       <c r="C365" t="n">
-        <v>14567990.59281687</v>
+        <v>14567990.59270211</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>110821030.2262828</v>
+        <v>110821030.2264675</v>
       </c>
       <c r="C366" t="n">
-        <v>16493448.38662496</v>
+        <v>16493448.38649359</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>110436606.3963361</v>
+        <v>110436606.3965411</v>
       </c>
       <c r="C367" t="n">
-        <v>18442085.32314349</v>
+        <v>18442085.32299503</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>110047621.4906128</v>
+        <v>110047621.4908387</v>
       </c>
       <c r="C368" t="n">
-        <v>20413855.71150536</v>
+        <v>20413855.71133929</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>109653998.8772478</v>
+        <v>109653998.877495</v>
       </c>
       <c r="C369" t="n">
-        <v>22408700.62534066</v>
+        <v>22408700.62515648</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>109255660.2521074</v>
+        <v>109255660.2523768</v>
       </c>
       <c r="C370" t="n">
-        <v>24426547.82222181</v>
+        <v>24426547.82201896</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>108852525.6047162</v>
+        <v>108852525.605008</v>
       </c>
       <c r="C371" t="n">
-        <v>26467311.69023044</v>
+        <v>26467311.69000842</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>108444513.1840865</v>
+        <v>108444513.1844014</v>
       </c>
       <c r="C372" t="n">
-        <v>28530893.22231153</v>
+        <v>28530893.2220699</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>108031539.464664</v>
+        <v>108031539.4650025</v>
       </c>
       <c r="C373" t="n">
-        <v>28530729.23980999</v>
+        <v>28530729.23956816</v>
       </c>
       <c r="D373" t="n">
-        <v>2271286.657172748</v>
+        <v>2271286.657150987</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>107613519.1126264</v>
+        <v>107613519.112989</v>
       </c>
       <c r="C374" t="n">
-        <v>28530539.48986818</v>
+        <v>28530539.48962612</v>
       </c>
       <c r="D374" t="n">
-        <v>4567181.156594841</v>
+        <v>4567181.156550879</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>107190364.9528131</v>
+        <v>107190364.9532005</v>
       </c>
       <c r="C375" t="n">
-        <v>28530320.2073346</v>
+        <v>28530320.20709227</v>
       </c>
       <c r="D375" t="n">
-        <v>6887536.216845581</v>
+        <v>6887536.21677893</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>106761987.9365982</v>
+        <v>106761987.9370108</v>
       </c>
       <c r="C376" t="n">
-        <v>28530067.12370107</v>
+        <v>28530067.12345845</v>
       </c>
       <c r="D376" t="n">
-        <v>9232190.723502863</v>
+        <v>9232190.723412961</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>106328297.1110572</v>
+        <v>106328297.1114956</v>
       </c>
       <c r="C377" t="n">
-        <v>28529775.40714133</v>
+        <v>28529775.40689836</v>
       </c>
       <c r="D377" t="n">
-        <v>11600969.92403166</v>
+        <v>11600969.92391809</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>105889199.5898239</v>
+        <v>105889199.5902884</v>
       </c>
       <c r="C378" t="n">
-        <v>28529439.59649504</v>
+        <v>28529439.59625169</v>
       </c>
       <c r="D378" t="n">
-        <v>13993685.66099824</v>
+        <v>13993685.66086046</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>105444600.5260718</v>
+        <v>105444600.526563</v>
       </c>
       <c r="C379" t="n">
-        <v>28529053.52873991</v>
+        <v>28529053.52849611</v>
       </c>
       <c r="D379" t="n">
-        <v>16410136.64380682</v>
+        <v>16410136.64364449</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>104994403.0881056</v>
+        <v>104994403.0886238</v>
       </c>
       <c r="C380" t="n">
-        <v>28528610.25948106</v>
+        <v>28528610.25923676</v>
       </c>
       <c r="D380" t="n">
-        <v>18850108.75899645</v>
+        <v>18850108.75880914</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>104538508.4380905</v>
+        <v>104538508.4386363</v>
       </c>
       <c r="C381" t="n">
-        <v>28528101.97597652</v>
+        <v>28528101.97573165</v>
       </c>
       <c r="D381" t="n">
-        <v>21313375.41896889</v>
+        <v>21313375.41875614</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>104076815.7145022</v>
+        <v>104076815.715076</v>
       </c>
       <c r="C382" t="n">
-        <v>28527519.90221056</v>
+        <v>28527519.90196506</v>
       </c>
       <c r="D382" t="n">
-        <v>23799697.94884344</v>
+        <v>23799697.94860491</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>103609222.0189251</v>
+        <v>103609222.0195273</v>
       </c>
       <c r="C383" t="n">
-        <v>28526854.19552423</v>
+        <v>28526854.19527801</v>
       </c>
       <c r="D383" t="n">
-        <v>23799653.3738803</v>
+        <v>23799653.37364168</v>
       </c>
       <c r="E383" t="n">
-        <v>2836290.0994693</v>
+        <v>2836290.099439837</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>103135622.4078819</v>
+        <v>103135622.4085128</v>
       </c>
       <c r="C384" t="n">
-        <v>28526093.83431373</v>
+        <v>28526093.8340667</v>
       </c>
       <c r="D384" t="n">
-        <v>23799600.23186814</v>
+        <v>23799600.23162942</v>
       </c>
       <c r="E384" t="n">
-        <v>5698072.906197999</v>
+        <v>5698072.906138768</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>102655909.8904275</v>
+        <v>102655909.8910875</v>
       </c>
       <c r="C385" t="n">
-        <v>28525226.49631535</v>
+        <v>28525226.4960674</v>
       </c>
       <c r="D385" t="n">
-        <v>23799536.98222324</v>
+        <v>23799536.98198441</v>
       </c>
       <c r="E385" t="n">
-        <v>8585042.426957449</v>
+        <v>8585042.426868064</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>102169975.432295</v>
+        <v>102169975.4329845</v>
       </c>
       <c r="C386" t="n">
-        <v>28524238.42700892</v>
+        <v>28524238.42675997</v>
       </c>
       <c r="D386" t="n">
-        <v>23799461.82844562</v>
+        <v>23799461.82820664</v>
       </c>
       <c r="E386" t="n">
-        <v>11496881.46064549</v>
+        <v>11496881.46052573</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>101677707.9674325</v>
+        <v>101677707.9681518</v>
       </c>
       <c r="C387" t="n">
-        <v>28523114.29769276</v>
+        <v>28523114.29744267</v>
       </c>
       <c r="D387" t="n">
-        <v>23799372.67960662</v>
+        <v>23799372.67936748</v>
       </c>
       <c r="E387" t="n">
-        <v>14433262.28201086</v>
+        <v>14433262.2818605</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>101178994.41782</v>
+        <v>101178994.4185693</v>
       </c>
       <c r="C388" t="n">
-        <v>28521837.0528111</v>
+        <v>28521837.05255974</v>
       </c>
       <c r="D388" t="n">
-        <v>23799267.10675777</v>
+        <v>23799267.10651844</v>
       </c>
       <c r="E388" t="n">
-        <v>17393847.36759705</v>
+        <v>17393847.36741584</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>100673719.72251</v>
+        <v>100673719.7232897</v>
       </c>
       <c r="C389" t="n">
-        <v>28520387.74615278</v>
+        <v>28520387.7459</v>
       </c>
       <c r="D389" t="n">
-        <v>23799142.29371268</v>
+        <v>23799142.29347313</v>
       </c>
       <c r="E389" t="n">
-        <v>20378290.16260163</v>
+        <v>20378290.16238951</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>100161766.8768802</v>
+        <v>100161766.8776903</v>
       </c>
       <c r="C390" t="n">
-        <v>28518745.36558608</v>
+        <v>28518745.36533171</v>
       </c>
       <c r="D390" t="n">
-        <v>23798994.98161432</v>
+        <v>23798994.98137451</v>
       </c>
       <c r="E390" t="n">
-        <v>23386235.88714422</v>
+        <v>23386235.88690105</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>99643016.98313522</v>
+        <v>99643016.98397602</v>
       </c>
       <c r="C391" t="n">
-        <v>28516886.64605139</v>
+        <v>28516886.64579526</v>
       </c>
       <c r="D391" t="n">
-        <v>23798821.40666085</v>
+        <v>23798821.40642074</v>
       </c>
       <c r="E391" t="n">
-        <v>26417322.38022636</v>
+        <v>26417322.37995224</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>99117349.31313661</v>
+        <v>99117349.31400816</v>
       </c>
       <c r="C392" t="n">
-        <v>28514785.87060177</v>
+        <v>28514785.87034368</v>
       </c>
       <c r="D392" t="n">
-        <v>23798617.23032529</v>
+        <v>23798617.23008484</v>
       </c>
       <c r="E392" t="n">
-        <v>29471180.9794566</v>
+        <v>29471180.97915148</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>98584641.38468005</v>
+        <v>98584641.38558273</v>
       </c>
       <c r="C393" t="n">
-        <v>28512414.65936035</v>
+        <v>28512414.6591001</v>
       </c>
       <c r="D393" t="n">
-        <v>23798377.46136766</v>
+        <v>23798377.46112681</v>
       </c>
       <c r="E393" t="n">
-        <v>29471144.59989012</v>
+        <v>29471144.59958494</v>
       </c>
       <c r="F393" t="n">
-        <v>2368242.085839625</v>
+        <v>2368242.085815954</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>98044769.05237201</v>
+        <v>98044769.05330563</v>
       </c>
       <c r="C394" t="n">
-        <v>28509741.74635637</v>
+        <v>28509741.74609371</v>
       </c>
       <c r="D394" t="n">
-        <v>23798096.36890502</v>
+        <v>23798096.36866371</v>
       </c>
       <c r="E394" t="n">
-        <v>29471100.5383073</v>
+        <v>29471100.53800203</v>
       </c>
       <c r="F394" t="n">
-        <v>4753441.083043808</v>
+        <v>4753441.082996571</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>97497606.61428739</v>
+        <v>97497606.61525218</v>
       </c>
       <c r="C395" t="n">
-        <v>28506732.74430619</v>
+        <v>28506732.74404087</v>
       </c>
       <c r="D395" t="n">
-        <v>23797767.3857746</v>
+        <v>23797767.38553277</v>
       </c>
       <c r="E395" t="n">
-        <v>29471047.2739115</v>
+        <v>29471047.27360612</v>
       </c>
       <c r="F395" t="n">
-        <v>7155303.650630143</v>
+        <v>7155303.650559546</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>96943026.93561304</v>
+        <v>96943026.93660893</v>
       </c>
       <c r="C396" t="n">
-        <v>28503349.89752501</v>
+        <v>28503349.89725674</v>
       </c>
       <c r="D396" t="n">
-        <v>23797383.00140016</v>
+        <v>23797383.00115773</v>
       </c>
       <c r="E396" t="n">
-        <v>29470983.00693635</v>
+        <v>29470983.00663085</v>
       </c>
       <c r="F396" t="n">
-        <v>9573534.606066367</v>
+        <v>9573534.605972704</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>96380901.59049448</v>
+        <v>96380901.5915215</v>
       </c>
       <c r="C397" t="n">
-        <v>28499551.82328716</v>
+        <v>28499551.82301566</v>
       </c>
       <c r="D397" t="n">
-        <v>23796934.64335252</v>
+        <v>23796934.6431094</v>
       </c>
       <c r="E397" t="n">
-        <v>29470905.61205127</v>
+        <v>29470905.61174563</v>
       </c>
       <c r="F397" t="n">
-        <v>12007837.74781365</v>
+        <v>12007837.74769726</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>95811101.02331267</v>
+        <v>95811101.0243707</v>
       </c>
       <c r="C398" t="n">
-        <v>28495293.24210065</v>
+        <v>28495293.24182558</v>
       </c>
       <c r="D398" t="n">
-        <v>23796412.54678339</v>
+        <v>23796412.54653948</v>
       </c>
       <c r="E398" t="n">
-        <v>29470812.58488266</v>
+        <v>29470812.58457685</v>
       </c>
       <c r="F398" t="n">
-        <v>14457916.69816121</v>
+        <v>14457916.69802253</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>95233494.73061176</v>
+        <v>95233494.73170063</v>
       </c>
       <c r="C399" t="n">
-        <v>28490524.69752224</v>
+        <v>28490524.69724325</v>
       </c>
       <c r="D399" t="n">
-        <v>23795805.61090868</v>
+        <v>23795805.61066387</v>
       </c>
       <c r="E399" t="n">
-        <v>29470700.98080031</v>
+        <v>29470700.98049429</v>
       </c>
       <c r="F399" t="n">
-        <v>16923475.76427627</v>
+        <v>16923475.76411577</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>94647951.46488956</v>
+        <v>94647951.4660092</v>
       </c>
       <c r="C400" t="n">
-        <v>28485192.26631587</v>
+        <v>28485192.26603257</v>
       </c>
       <c r="D400" t="n">
-        <v>23795101.24172468</v>
+        <v>23795101.24147885</v>
       </c>
       <c r="E400" t="n">
-        <v>29470567.34504252</v>
+        <v>29470567.34473627</v>
       </c>
       <c r="F400" t="n">
-        <v>19404220.81525202</v>
+        <v>19404220.81507027</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>94054339.46143508</v>
+        <v>94054339.46258518</v>
       </c>
       <c r="C401" t="n">
-        <v>28479237.2599465</v>
+        <v>28479237.25965849</v>
       </c>
       <c r="D401" t="n">
-        <v>23794285.18016007</v>
+        <v>23794285.17991307</v>
       </c>
       <c r="E401" t="n">
-        <v>29470407.63317641</v>
+        <v>29470407.63286988</v>
       </c>
       <c r="F401" t="n">
-        <v>21899860.17280244</v>
+        <v>21899860.17260009</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>93452526.68936427</v>
+        <v>93452526.69054469</v>
       </c>
       <c r="C402" t="n">
-        <v>28472595.91860485</v>
+        <v>28472595.91831169</v>
       </c>
       <c r="D402" t="n">
-        <v>23793341.31489949</v>
+        <v>23793341.31465116</v>
       </c>
       <c r="E402" t="n">
-        <v>29470217.12081134</v>
+        <v>29470217.12050449</v>
       </c>
       <c r="F402" t="n">
-        <v>24410105.51310105</v>
+        <v>24410105.51287887</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>92842381.12795375</v>
+        <v>92842381.12916419</v>
       </c>
       <c r="C403" t="n">
-        <v>28465199.09917449</v>
+        <v>28465199.0988757</v>
       </c>
       <c r="D403" t="n">
-        <v>23792251.47916351</v>
+        <v>23792251.47891369</v>
       </c>
       <c r="E403" t="n">
-        <v>29469990.30140657</v>
+        <v>29469990.30109935</v>
       </c>
       <c r="F403" t="n">
-        <v>24410084.1421664</v>
+        <v>24410084.14194417</v>
       </c>
       <c r="G403" t="n">
-        <v>1335664.068407629</v>
+        <v>1335664.068397576</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>92223771.06931278</v>
+        <v>92223771.07055281</v>
       </c>
       <c r="C404" t="n">
-        <v>28456971.95878051</v>
+        <v>28456971.95847557</v>
       </c>
       <c r="D404" t="n">
-        <v>23790995.23079514</v>
+        <v>23790995.23054362</v>
       </c>
       <c r="E404" t="n">
-        <v>29469720.77093826</v>
+        <v>29469720.77063059</v>
       </c>
       <c r="F404" t="n">
-        <v>24410057.90695288</v>
+        <v>24410057.90673063</v>
       </c>
       <c r="G404" t="n">
-        <v>2678760.352933767</v>
+        <v>2678760.352914186</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>91596565.44835334</v>
+        <v>91596565.44962263</v>
       </c>
       <c r="C405" t="n">
-        <v>28447833.63579693</v>
+        <v>28447833.63548531</v>
       </c>
       <c r="D405" t="n">
-        <v>23789549.61508849</v>
+        <v>23789549.61483506</v>
       </c>
       <c r="E405" t="n">
-        <v>29469401.09811935</v>
+        <v>29469401.09781116</v>
       </c>
       <c r="F405" t="n">
-        <v>24410025.76803293</v>
+        <v>24410025.76781062</v>
       </c>
       <c r="G405" t="n">
-        <v>4029145.086679429</v>
+        <v>4029145.086650841</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>90960634.20092924</v>
+        <v>90960634.20222732</v>
       </c>
       <c r="C406" t="n">
-        <v>28437696.93043679</v>
+        <v>28437696.93011791</v>
       </c>
       <c r="D406" t="n">
-        <v>23787888.90990101</v>
+        <v>23787888.90964542</v>
       </c>
       <c r="E406" t="n">
-        <v>29469022.67879992</v>
+        <v>29469022.67849113</v>
       </c>
       <c r="F406" t="n">
-        <v>24409986.47973177</v>
+        <v>24409986.47950939</v>
       </c>
       <c r="G406" t="n">
-        <v>5386678.324782329</v>
+        <v>5386678.324745348</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>90315848.65090454</v>
+        <v>90315848.65223095</v>
       </c>
       <c r="C407" t="n">
-        <v>28426467.98730234</v>
+        <v>28426467.98697558</v>
       </c>
       <c r="D407" t="n">
-        <v>23785984.35271915</v>
+        <v>23785984.35246115</v>
       </c>
       <c r="E407" t="n">
-        <v>29468575.57311689</v>
+        <v>29468575.57280742</v>
       </c>
       <c r="F407" t="n">
-        <v>24409938.552734</v>
+        <v>24409938.55251154</v>
       </c>
       <c r="G407" t="n">
-        <v>6751224.448091226</v>
+        <v>6751224.448046547</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>89662081.92679003</v>
+        <v>89662081.92814422</v>
       </c>
       <c r="C408" t="n">
-        <v>28414045.98253082</v>
+        <v>28414045.98219553</v>
       </c>
       <c r="D408" t="n">
-        <v>23783803.84950009</v>
+        <v>23783803.84923938</v>
       </c>
       <c r="E408" t="n">
-        <v>29468048.32391447</v>
+        <v>29468048.32360419</v>
       </c>
       <c r="F408" t="n">
-        <v>24409880.21065485</v>
+        <v>24409880.21043231</v>
       </c>
       <c r="G408" t="n">
-        <v>8122652.666206669</v>
+        <v>8122652.666154986</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>88999209.40844351</v>
+        <v>88999209.40982494</v>
       </c>
       <c r="C409" t="n">
-        <v>28400322.81843102</v>
+        <v>28400322.8180865</v>
       </c>
       <c r="D409" t="n">
-        <v>23781311.66529057</v>
+        <v>23781311.66502682</v>
       </c>
       <c r="E409" t="n">
-        <v>29467427.75492152</v>
+        <v>29467427.75461031</v>
       </c>
       <c r="F409" t="n">
-        <v>24409809.33975014</v>
+        <v>24409809.33952749</v>
       </c>
       <c r="G409" t="n">
-        <v>9500837.518367607</v>
+        <v>9500837.518309709</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>88327109.20417413</v>
+        <v>88327109.20558214</v>
       </c>
       <c r="C410" t="n">
-        <v>28385182.82876418</v>
+        <v>28385182.82840971</v>
       </c>
       <c r="D410" t="n">
-        <v>23778468.09682883</v>
+        <v>23778468.09656169</v>
       </c>
       <c r="E410" t="n">
-        <v>29466698.74715387</v>
+        <v>29466698.74684159</v>
       </c>
       <c r="F410" t="n">
-        <v>24409723.43085364</v>
+        <v>24409723.43063086</v>
       </c>
       <c r="G410" t="n">
-        <v>10885659.37059114</v>
+        <v>10885659.37052788</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>87645662.65841582</v>
+        <v>87645662.65984975</v>
       </c>
       <c r="C411" t="n">
-        <v>28368502.49807759</v>
+        <v>28368502.49771237</v>
       </c>
       <c r="D411" t="n">
-        <v>23775229.12756873</v>
+        <v>23775229.1272978</v>
       </c>
       <c r="E411" t="n">
-        <v>29465843.99200976</v>
+        <v>29465843.99169626</v>
       </c>
       <c r="F411" t="n">
-        <v>24409619.51254264</v>
+        <v>24409619.5123197</v>
       </c>
       <c r="G411" t="n">
-        <v>12277004.90740795</v>
+        <v>12277004.90734023</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>86954754.88994348</v>
+        <v>86954754.89140262</v>
       </c>
       <c r="C412" t="n">
-        <v>28350150.19874446</v>
+        <v>28350150.19836771</v>
       </c>
       <c r="D412" t="n">
-        <v>23771546.06582646</v>
+        <v>23771546.06555132</v>
       </c>
       <c r="E412" t="n">
-        <v>29464843.71955107</v>
+        <v>29464843.71923617</v>
       </c>
       <c r="F412" t="n">
-        <v>24409494.07444012</v>
+        <v>24409494.07421701</v>
       </c>
       <c r="G412" t="n">
-        <v>13674767.61645375</v>
+        <v>13674767.6163826</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>86254275.36039996</v>
+        <v>86254275.36188349</v>
       </c>
       <c r="C413" t="n">
-        <v>28329985.94959864</v>
+        <v>28329985.94920948</v>
       </c>
       <c r="D413" t="n">
-        <v>23767365.16703994</v>
+        <v>23767365.16676012</v>
       </c>
       <c r="E413" t="n">
-        <v>29463675.40051286</v>
+        <v>29463675.40019635</v>
       </c>
       <c r="F413" t="n">
-        <v>24409342.97946984</v>
+        <v>24409342.97924651</v>
       </c>
       <c r="G413" t="n">
-        <v>13674758.45435192</v>
+        <v>13674758.45428076</v>
       </c>
       <c r="H413" t="n">
-        <v>1601865.328694141</v>
+        <v>1601865.328691474</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>85544118.47267658</v>
+        <v>85544118.47418374</v>
       </c>
       <c r="C414" t="n">
-        <v>28307861.20026978</v>
+        <v>28307861.19986733</v>
       </c>
       <c r="D414" t="n">
-        <v>23762627.24144951</v>
+        <v>23762627.24116451</v>
       </c>
       <c r="E414" t="n">
-        <v>29462313.42066533</v>
+        <v>29462313.42034698</v>
       </c>
       <c r="F414" t="n">
-        <v>24409161.36378685</v>
+        <v>24409161.36356326</v>
       </c>
       <c r="G414" t="n">
-        <v>13674747.08449526</v>
+        <v>13674747.08442408</v>
       </c>
       <c r="H414" t="n">
-        <v>3210836.661849929</v>
+        <v>3210836.661845865</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>84824184.1984527</v>
+        <v>84824184.19998258</v>
       </c>
       <c r="C415" t="n">
-        <v>28283618.64552265</v>
+        <v>28283618.645106</v>
       </c>
       <c r="D415" t="n">
-        <v>23757267.24885434</v>
+        <v>23757267.24856361</v>
       </c>
       <c r="E415" t="n">
-        <v>29460728.72626748</v>
+        <v>29460728.72594703</v>
       </c>
       <c r="F415" t="n">
-        <v>24408943.52301478</v>
+        <v>24408943.52279089</v>
       </c>
       <c r="G415" t="n">
-        <v>13674733.00696278</v>
+        <v>13674733.00689159</v>
       </c>
       <c r="H415" t="n">
-        <v>4826819.542439925</v>
+        <v>4826819.54243581</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>84094378.73394701</v>
+        <v>84094378.73549877</v>
       </c>
       <c r="C416" t="n">
-        <v>28257092.07407568</v>
+        <v>28257092.07364384</v>
       </c>
       <c r="D416" t="n">
-        <v>23751213.88247129</v>
+        <v>23751213.88217423</v>
       </c>
       <c r="E416" t="n">
-        <v>29458888.43950611</v>
+        <v>29458888.43918329</v>
       </c>
       <c r="F416" t="n">
-        <v>24408682.78333316</v>
+        <v>24408682.78310892</v>
       </c>
       <c r="G416" t="n">
-        <v>13674715.6165629</v>
+        <v>13674715.61649168</v>
       </c>
       <c r="H416" t="n">
-        <v>6449729.481760096</v>
+        <v>6449729.481757402</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>83354615.18266699</v>
+        <v>83354615.18423963</v>
       </c>
       <c r="C417" t="n">
-        <v>28228106.25651616</v>
+        <v>28228106.25606814</v>
       </c>
       <c r="D417" t="n">
-        <v>23744389.14431946</v>
+        <v>23744389.14401544</v>
       </c>
       <c r="E417" t="n">
-        <v>29456755.44301047</v>
+        <v>29456755.44268494</v>
       </c>
       <c r="F417" t="n">
-        <v>24408371.35587585</v>
+        <v>24408371.3556512</v>
       </c>
       <c r="G417" t="n">
-        <v>13674694.18253018</v>
+        <v>13674694.18245894</v>
       </c>
       <c r="H417" t="n">
-        <v>8079492.461438875</v>
+        <v>8079492.461439228</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>82604814.26366533</v>
+        <v>82604814.26525788</v>
       </c>
       <c r="C418" t="n">
-        <v>28196476.87703672</v>
+        <v>28196476.87657147</v>
       </c>
       <c r="D418" t="n">
-        <v>23736707.91497232</v>
+        <v>23736707.91466064</v>
       </c>
       <c r="E418" t="n">
-        <v>29454287.93277555</v>
+        <v>29454287.93244697</v>
       </c>
       <c r="F418" t="n">
-        <v>24408000.17282901</v>
+        <v>24408000.17260389</v>
       </c>
       <c r="G418" t="n">
-        <v>13674667.82472133</v>
+        <v>13674667.82465006</v>
       </c>
       <c r="H418" t="n">
-        <v>9716045.417162614</v>
+        <v>9716045.417167637</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>81844905.04352567</v>
+        <v>81844905.04513715</v>
       </c>
       <c r="C419" t="n">
-        <v>28162010.51378473</v>
+        <v>28162010.51330119</v>
       </c>
       <c r="D419" t="n">
-        <v>23728077.52095619</v>
+        <v>23728077.5206361</v>
       </c>
       <c r="E419" t="n">
-        <v>29451438.93912034</v>
+        <v>29451438.9387883</v>
       </c>
       <c r="F419" t="n">
-        <v>24407558.70355519</v>
+        <v>24407558.7033295</v>
       </c>
       <c r="G419" t="n">
-        <v>13674635.4857939</v>
+        <v>13674635.4857226</v>
       </c>
       <c r="H419" t="n">
-        <v>11359336.70189708</v>
+        <v>11359336.70190853</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>81074825.69000193</v>
+        <v>81074825.69163118</v>
       </c>
       <c r="C420" t="n">
-        <v>28124504.67263934</v>
+        <v>28124504.67213639</v>
       </c>
       <c r="D420" t="n">
-        <v>23718397.30352472</v>
+        <v>23718397.30319542</v>
       </c>
       <c r="E420" t="n">
-        <v>29448155.81565266</v>
+        <v>29448155.81531673</v>
       </c>
       <c r="F420" t="n">
-        <v>24407034.74902504</v>
+        <v>24407034.7487987</v>
       </c>
       <c r="G420" t="n">
-        <v>13674595.89879229</v>
+        <v>13674595.89872094</v>
       </c>
       <c r="H420" t="n">
-        <v>13009326.52629475</v>
+        <v>13009326.5263145</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>80294524.24493542</v>
+        <v>80294524.24658145</v>
       </c>
       <c r="C421" t="n">
-        <v>28083747.87920408</v>
+        <v>28083747.8786806</v>
       </c>
       <c r="D421" t="n">
-        <v>23707558.19300044</v>
+        <v>23707558.19266108</v>
       </c>
       <c r="E421" t="n">
-        <v>29444379.69661449</v>
+        <v>29444379.69627418</v>
       </c>
       <c r="F421" t="n">
-        <v>24406414.21281112</v>
+        <v>24406414.21258403</v>
       </c>
       <c r="G421" t="n">
-        <v>13674547.54950381</v>
+        <v>13674547.54943241</v>
       </c>
       <c r="H421" t="n">
-        <v>14665987.37388355</v>
+        <v>14665987.37391351</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>79503959.41376771</v>
+        <v>79503959.41542937</v>
       </c>
       <c r="C422" t="n">
-        <v>28039519.83372256</v>
+        <v>28039519.8331774</v>
       </c>
       <c r="D422" t="n">
-        <v>23695442.29333837</v>
+        <v>23695442.29298804</v>
       </c>
       <c r="E422" t="n">
-        <v>29440044.92344091</v>
+        <v>29440044.92309569</v>
       </c>
       <c r="F422" t="n">
-        <v>24405680.84689599</v>
+        <v>24405680.84666802</v>
       </c>
       <c r="G422" t="n">
-        <v>13674488.63288221</v>
+        <v>13674488.63281075</v>
       </c>
       <c r="H422" t="n">
-        <v>16329304.38852905</v>
+        <v>16329304.38857122</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>78703101.36865789</v>
+        <v>78703101.37033401</v>
       </c>
       <c r="C423" t="n">
-        <v>27991591.63348645</v>
+        <v>27991591.63291843</v>
       </c>
       <c r="D423" t="n">
-        <v>23681922.48202919</v>
+        <v>23681922.48166693</v>
       </c>
       <c r="E423" t="n">
-        <v>29435078.44188486</v>
+        <v>29435078.44153413</v>
       </c>
       <c r="F423" t="n">
-        <v>24404815.97057183</v>
+        <v>24404815.97034287</v>
       </c>
       <c r="G423" t="n">
-        <v>13674417.00276884</v>
+        <v>13674417.00269731</v>
       </c>
       <c r="H423" t="n">
-        <v>17999275.73155776</v>
+        <v>17999275.7316143</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>77891932.56191067</v>
+        <v>77891932.56360003</v>
       </c>
       <c r="C424" t="n">
-        <v>27939726.06710447</v>
+        <v>27939726.0665124</v>
       </c>
       <c r="D424" t="n">
-        <v>23666862.03091118</v>
+        <v>23666862.03053597</v>
       </c>
       <c r="E424" t="n">
-        <v>29429399.17163814</v>
+        <v>29429399.17128128</v>
       </c>
       <c r="F424" t="n">
-        <v>24403798.16076744</v>
+        <v>24403798.16053731</v>
       </c>
       <c r="G424" t="n">
-        <v>13674330.11407323</v>
+        <v>13674330.11400161</v>
       </c>
       <c r="H424" t="n">
-        <v>19675912.90580979</v>
+        <v>19675912.90588294</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>77070448.54611646</v>
+        <v>77070448.5478179</v>
       </c>
       <c r="C425" t="n">
-        <v>27883677.98473597</v>
+        <v>27883677.98411865</v>
       </c>
       <c r="D425" t="n">
-        <v>23650114.25389488</v>
+        <v>23650114.25350562</v>
       </c>
       <c r="E425" t="n">
-        <v>29422917.35101669</v>
+        <v>29422917.35065297</v>
       </c>
       <c r="F425" t="n">
-        <v>24402602.91223463</v>
+        <v>24402602.91200316</v>
       </c>
       <c r="G425" t="n">
-        <v>13674224.95650604</v>
+        <v>13674224.95643432</v>
       </c>
       <c r="H425" t="n">
-        <v>21359241.04377377</v>
+        <v>21359241.04386583</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>76238658.79711339</v>
+        <v>76238658.79882568</v>
       </c>
       <c r="C426" t="n">
-        <v>27823194.74805948</v>
+        <v>27823194.74741568</v>
       </c>
       <c r="D426" t="n">
-        <v>23631522.18801203</v>
+        <v>23631522.18760759</v>
       </c>
       <c r="E426" t="n">
-        <v>29415533.85997217</v>
+        <v>29415533.85960084</v>
       </c>
       <c r="F426" t="n">
-        <v>24401202.26616611</v>
+        <v>24401202.26593312</v>
       </c>
       <c r="G426" t="n">
-        <v>13674097.97888953</v>
+        <v>13674097.97881769</v>
       </c>
       <c r="H426" t="n">
-        <v>23049299.15682341</v>
+        <v>23049299.15693677</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>75396587.53559566</v>
+        <v>75396587.53731751</v>
       </c>
       <c r="C427" t="n">
-        <v>27758016.76334341</v>
+        <v>27758016.76267195</v>
       </c>
       <c r="D427" t="n">
-        <v>23610918.31457315</v>
+        <v>23610918.31415235</v>
       </c>
       <c r="E427" t="n">
-        <v>29407139.52544052</v>
+        <v>29407139.52506073</v>
       </c>
       <c r="F427" t="n">
-        <v>24399564.40600472</v>
+        <v>24399564.40576997</v>
       </c>
       <c r="G427" t="n">
-        <v>13673945.00300617</v>
+        <v>13673945.00293419</v>
       </c>
       <c r="H427" t="n">
-        <v>24746140.34244654</v>
+        <v>24746140.34258372</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>74544274.54292381</v>
+        <v>74544274.54465401</v>
       </c>
       <c r="C428" t="n">
-        <v>27687878.10051255</v>
+        <v>27687878.0998122</v>
       </c>
       <c r="D428" t="n">
-        <v>23588124.32754481</v>
+        <v>23588124.32710639</v>
       </c>
       <c r="E428" t="n">
-        <v>29397614.41383479</v>
+        <v>29397614.41344565</v>
       </c>
       <c r="F428" t="n">
-        <v>24397653.21944578</v>
+        <v>24397653.21920904</v>
       </c>
       <c r="G428" t="n">
-        <v>13673761.12588554</v>
+        <v>13673761.12581339</v>
       </c>
       <c r="H428" t="n">
-        <v>26449831.94621703</v>
+        <v>26449831.94638065</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>73681775.96644026</v>
+        <v>73681775.96817747</v>
       </c>
       <c r="C429" t="n">
-        <v>27612507.20055784</v>
+        <v>27612507.19982741</v>
       </c>
       <c r="D429" t="n">
-        <v>23562950.95652932</v>
+        <v>23562950.95607198</v>
       </c>
       <c r="E429" t="n">
-        <v>29386827.11632971</v>
+        <v>29386827.11593024</v>
       </c>
       <c r="F429" t="n">
-        <v>24395427.82593474</v>
+        <v>24395427.82569572</v>
       </c>
       <c r="G429" t="n">
-        <v>13673540.60937642</v>
+        <v>13673540.60930408</v>
       </c>
       <c r="H429" t="n">
-        <v>28160455.67511537</v>
+        <v>28160455.67530806</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>72809165.10936081</v>
+        <v>72809165.11110374</v>
       </c>
       <c r="C430" t="n">
-        <v>27531627.67302174</v>
+        <v>27531627.67226005</v>
       </c>
       <c r="D430" t="n">
-        <v>23535197.85193611</v>
+        <v>23535197.85145849</v>
       </c>
       <c r="E430" t="n">
-        <v>29374634.03345941</v>
+        <v>29374634.03304855</v>
       </c>
       <c r="F430" t="n">
-        <v>24392842.06932528</v>
+        <v>24392842.06908369</v>
       </c>
       <c r="G430" t="n">
-        <v>13673276.75580727</v>
+        <v>13673276.75573469</v>
       </c>
       <c r="H430" t="n">
-        <v>29878107.65865881</v>
+        <v>29878107.65888341</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>71926533.20010686</v>
+        <v>71926533.20185429</v>
       </c>
       <c r="C431" t="n">
-        <v>27444959.18460518</v>
+        <v>27444959.18381108</v>
       </c>
       <c r="D431" t="n">
-        <v>23504653.54006335</v>
+        <v>23504653.53956405</v>
       </c>
       <c r="E431" t="n">
-        <v>29360878.66644857</v>
+        <v>29360878.66602519</v>
       </c>
       <c r="F431" t="n">
-        <v>24389843.97579406</v>
+        <v>24389843.97554955</v>
       </c>
       <c r="G431" t="n">
-        <v>13672961.7685063</v>
+        <v>13672961.76843345</v>
       </c>
       <c r="H431" t="n">
-        <v>31602898.4541514</v>
+        <v>31602898.45441069</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>71033990.13576154</v>
+        <v>71033990.13751209</v>
       </c>
       <c r="C432" t="n">
-        <v>27352218.43919124</v>
+        <v>27352218.43836362</v>
       </c>
       <c r="D432" t="n">
-        <v>23471095.45585287</v>
+        <v>23471095.45533044</v>
       </c>
       <c r="E432" t="n">
-        <v>29345390.92360909</v>
+        <v>29345390.92317198</v>
       </c>
       <c r="F432" t="n">
-        <v>24386375.17760869</v>
+        <v>24386375.17736088</v>
       </c>
       <c r="G432" t="n">
-        <v>13672586.59593621</v>
+        <v>13672586.59586305</v>
       </c>
       <c r="H432" t="n">
-        <v>33334952.99221291</v>
+        <v>33334952.99250975</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>70131665.19418462</v>
+        <v>70131665.19593701</v>
       </c>
       <c r="C433" t="n">
-        <v>27253120.24876601</v>
+        <v>27253120.24790376</v>
       </c>
       <c r="D433" t="n">
-        <v>23434290.0610285</v>
+        <v>23434290.06048145</v>
       </c>
       <c r="E433" t="n">
-        <v>29327986.45104496</v>
+        <v>29327986.45059283</v>
       </c>
       <c r="F433" t="n">
-        <v>24382370.30391965</v>
+        <v>24382370.30366812</v>
       </c>
       <c r="G433" t="n">
-        <v>13672140.75820103</v>
+        <v>13672140.7581275</v>
       </c>
       <c r="H433" t="n">
-        <v>35074410.45859902</v>
+        <v>35074410.45893645</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>69219707.70920721</v>
+        <v>69219707.71096015</v>
       </c>
       <c r="C434" t="n">
-        <v>27147378.69384563</v>
+        <v>27147378.69294772</v>
       </c>
       <c r="D434" t="n">
-        <v>23393993.05517067</v>
+        <v>23393993.05459747</v>
       </c>
       <c r="E434" t="n">
-        <v>29308465.99780307</v>
+        <v>29308465.99733453</v>
       </c>
       <c r="F434" t="n">
-        <v>24377756.34039448</v>
+        <v>24377756.34013876</v>
       </c>
       <c r="G434" t="n">
-        <v>13671612.15470719</v>
+        <v>13671612.15463324</v>
       </c>
       <c r="H434" t="n">
-        <v>36821424.10817546</v>
+        <v>36821424.10855658</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>68298287.7032475</v>
+        <v>68298287.70499969</v>
       </c>
       <c r="C435" t="n">
-        <v>27034708.37109581</v>
+        <v>27034708.37016127</v>
       </c>
       <c r="D435" t="n">
-        <v>23349949.68700803</v>
+        <v>23349949.68640715</v>
       </c>
       <c r="E435" t="n">
-        <v>29286614.82646886</v>
+        <v>29286614.82598247</v>
       </c>
       <c r="F435" t="n">
-        <v>24372451.96023433</v>
+        <v>24372451.95997392</v>
       </c>
       <c r="G435" t="n">
-        <v>13670986.85181223</v>
+        <v>13670986.85173779</v>
       </c>
       <c r="H435" t="n">
-        <v>38576161.00677256</v>
+        <v>38576161.00720047</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>67367596.47165263</v>
+        <v>67367596.47340278</v>
       </c>
       <c r="C436" t="n">
-        <v>26914825.72486342</v>
+        <v>26914825.72389133</v>
       </c>
       <c r="D436" t="n">
-        <v>23301895.17281392</v>
+        <v>23301895.17218377</v>
       </c>
       <c r="E436" t="n">
-        <v>29262202.18101544</v>
+        <v>29262202.18050966</v>
       </c>
       <c r="F436" t="n">
-        <v>24366366.82990741</v>
+        <v>24366366.82964174</v>
       </c>
       <c r="G436" t="n">
-        <v>13670248.84937581</v>
+        <v>13670248.8493008</v>
       </c>
       <c r="H436" t="n">
-        <v>40338801.69651059</v>
+        <v>40338801.69698837</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>66427847.11307646</v>
+        <v>66427847.11482333</v>
       </c>
       <c r="C437" t="n">
-        <v>26787450.4583381</v>
+        <v>26787450.45732762</v>
       </c>
       <c r="D437" t="n">
-        <v>23249555.22827397</v>
+        <v>23249555.22761297</v>
       </c>
       <c r="E437" t="n">
-        <v>29234980.82445193</v>
+        <v>29234980.82392512</v>
       </c>
       <c r="F437" t="n">
-        <v>24359400.89379634</v>
+        <v>24359400.89352481</v>
       </c>
       <c r="G437" t="n">
-        <v>13669379.82524336</v>
+        <v>13669379.8251677</v>
       </c>
       <c r="H437" t="n">
-        <v>42109539.78007233</v>
+        <v>42109539.78060324</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>65479275.00025242</v>
+        <v>65479275.00199471</v>
       </c>
       <c r="C438" t="n">
-        <v>26652307.01903505</v>
+        <v>26652307.01798541</v>
       </c>
       <c r="D438" t="n">
-        <v>23192646.71953828</v>
+        <v>23192646.71884482</v>
       </c>
       <c r="E438" t="n">
-        <v>29204686.65946075</v>
+        <v>29204686.65891122</v>
       </c>
       <c r="F438" t="n">
-        <v>24351443.64288374</v>
+        <v>24351443.64260569</v>
       </c>
       <c r="G438" t="n">
-        <v>13668358.85684733</v>
+        <v>13668358.85677092</v>
       </c>
       <c r="H438" t="n">
-        <v>43888581.41929197</v>
+        <v>43888581.41987923</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>64522138.18561715</v>
+        <v>64522138.18735366</v>
       </c>
       <c r="C439" t="n">
-        <v>26509126.15224825</v>
+        <v>26509126.15115879</v>
       </c>
       <c r="D439" t="n">
-        <v>23130878.43838191</v>
+        <v>23130878.43765441</v>
       </c>
       <c r="E439" t="n">
-        <v>29171038.44574218</v>
+        <v>29171038.44516814</v>
       </c>
       <c r="F439" t="n">
-        <v>24342373.3735824</v>
+        <v>24342373.3732971</v>
       </c>
       <c r="G439" t="n">
-        <v>13667162.11930731</v>
+        <v>13667162.11923005</v>
       </c>
       <c r="H439" t="n">
-        <v>45676144.74335275</v>
+        <v>45676144.74399959</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>63556717.73638686</v>
+        <v>63556717.73811632</v>
       </c>
       <c r="C440" t="n">
-        <v>26357646.51507921</v>
+        <v>26357646.51394934</v>
       </c>
       <c r="D440" t="n">
-        <v>23063952.00547253</v>
+        <v>23063952.0047094</v>
       </c>
       <c r="E440" t="n">
-        <v>29133737.62817419</v>
+        <v>29133737.62757378</v>
       </c>
       <c r="F440" t="n">
-        <v>24332056.44384532</v>
+        <v>24332056.44355199</v>
       </c>
       <c r="G440" t="n">
-        <v>13665762.5596538</v>
+        <v>13665762.55957556</v>
       </c>
       <c r="H440" t="n">
-        <v>47472459.16182491</v>
+        <v>47472459.16253462</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>62583317.99388082</v>
+        <v>62583317.99560209</v>
       </c>
       <c r="C441" t="n">
-        <v>26197616.34261169</v>
+        <v>26197616.34144094</v>
       </c>
       <c r="D441" t="n">
-        <v>22991562.90468248</v>
+        <v>22991562.90388215</v>
       </c>
       <c r="E441" t="n">
-        <v>29092468.29012521</v>
+        <v>29092468.28949651</v>
       </c>
       <c r="F441" t="n">
-        <v>24320346.53475393</v>
+        <v>24320346.53445174</v>
       </c>
       <c r="G441" t="n">
-        <v>13664129.54709256</v>
+        <v>13664129.5470132</v>
       </c>
       <c r="H441" t="n">
-        <v>49277764.5777564</v>
+        <v>49277764.57853227</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>61602266.75213329</v>
+        <v>61602266.75384519</v>
       </c>
       <c r="C442" t="n">
-        <v>26028795.15679145</v>
+        <v>26028795.15557948</v>
       </c>
       <c r="D442" t="n">
-        <v>22913401.65019057</v>
+        <v>22913401.64935153</v>
       </c>
       <c r="E442" t="n">
-        <v>29046897.24630312</v>
+        <v>29046897.24564415</v>
       </c>
       <c r="F442" t="n">
-        <v>24307083.9268642</v>
+        <v>24307083.92655224</v>
       </c>
       <c r="G442" t="n">
-        <v>13662228.49957222</v>
+        <v>13662228.49949159</v>
       </c>
       <c r="H442" t="n">
-        <v>51092310.4960402</v>
+        <v>51092310.49688549</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>60613915.35112891</v>
+        <v>60613915.35283028</v>
       </c>
       <c r="C443" t="n">
-        <v>25850955.50759573</v>
+        <v>25850955.50634228</v>
       </c>
       <c r="D443" t="n">
-        <v>22829155.0867997</v>
+        <v>22829155.08592046</v>
       </c>
       <c r="E443" t="n">
-        <v>28996674.28936474</v>
+        <v>28996674.28867345</v>
       </c>
       <c r="F443" t="n">
-        <v>24292094.80167454</v>
+        <v>24292094.80135183</v>
       </c>
       <c r="G443" t="n">
-        <v>13660020.48731736</v>
+        <v>13660020.4872353</v>
       </c>
       <c r="H443" t="n">
-        <v>52916355.02233933</v>
+        <v>52916355.02325723</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>59618638.68034253</v>
+        <v>59618638.68203223</v>
       </c>
       <c r="C444" t="n">
-        <v>25663884.73515424</v>
+        <v>25663884.73385922</v>
       </c>
       <c r="D444" t="n">
-        <v>22738507.82246101</v>
+        <v>22738507.82154014</v>
       </c>
       <c r="E444" t="n">
-        <v>28941432.60412655</v>
+        <v>28941432.60340084</v>
       </c>
       <c r="F444" t="n">
-        <v>24275190.57964544</v>
+        <v>24275190.57931094</v>
       </c>
       <c r="G444" t="n">
-        <v>13657461.81444556</v>
+        <v>13657461.81436186</v>
       </c>
       <c r="H444" t="n">
-        <v>54750163.74796375</v>
+        <v>54750163.74895752</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>58616835.08865856</v>
+        <v>58616835.0903356</v>
       </c>
       <c r="C445" t="n">
-        <v>25467386.74062646</v>
+        <v>25467386.73928989</v>
       </c>
       <c r="D445" t="n">
-        <v>22641143.79045366</v>
+        <v>22641143.78948979</v>
       </c>
       <c r="E445" t="n">
-        <v>28880789.36259026</v>
+        <v>28880789.36182801</v>
       </c>
       <c r="F445" t="n">
-        <v>24256167.30722691</v>
+        <v>24256167.30687953</v>
       </c>
       <c r="G445" t="n">
-        <v>13654503.58029916</v>
+        <v>13654503.58021364</v>
       </c>
       <c r="H445" t="n">
-        <v>56594008.51625975</v>
+        <v>56594008.51733252</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>57608926.19718783</v>
+        <v>57608926.19885115</v>
       </c>
       <c r="C446" t="n">
-        <v>25261283.75286277</v>
+        <v>25261283.75148483</v>
       </c>
       <c r="D446" t="n">
-        <v>22536747.93703565</v>
+        <v>22536747.93602751</v>
       </c>
       <c r="E446" t="n">
-        <v>28814346.51211233</v>
+        <v>28814346.51131138</v>
       </c>
       <c r="F446" t="n">
-        <v>24234805.10631223</v>
+        <v>24234805.10595081</v>
       </c>
       <c r="G446" t="n">
-        <v>13651091.22269083</v>
+        <v>13651091.22260325</v>
       </c>
       <c r="H446" t="n">
-        <v>58448166.06631098</v>
+        <v>58448166.06746589</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>56595356.61198718</v>
+        <v>56595356.61363577</v>
       </c>
       <c r="C447" t="n">
-        <v>25045418.07719526</v>
+        <v>25045418.07577627</v>
       </c>
       <c r="D447" t="n">
-        <v>22425008.02867277</v>
+        <v>22425008.02761918</v>
       </c>
       <c r="E447" t="n">
-        <v>28741691.76789027</v>
+        <v>28741691.76704846</v>
       </c>
       <c r="F447" t="n">
-        <v>24210867.70040827</v>
+        <v>24210867.70003157</v>
       </c>
       <c r="G447" t="n">
-        <v>13647164.04588283</v>
+        <v>13647164.04579294</v>
       </c>
       <c r="H447" t="n">
-        <v>60312916.55006076</v>
+        <v>60312916.55130073</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>55576593.53421979</v>
+        <v>55576593.53585271</v>
       </c>
       <c r="C448" t="n">
-        <v>24819653.81212946</v>
+        <v>24819653.81066987</v>
       </c>
       <c r="D448" t="n">
-        <v>22305616.57118807</v>
+        <v>22305616.57008794</v>
       </c>
       <c r="E448" t="n">
-        <v>28662399.81950479</v>
+        <v>28662399.81861994</v>
       </c>
       <c r="F448" t="n">
-        <v>24184102.03256672</v>
+        <v>24184102.03217344</v>
       </c>
       <c r="G448" t="n">
-        <v>13642654.73679087</v>
+        <v>13642654.7366984</v>
       </c>
       <c r="H448" t="n">
-        <v>62188541.91936381</v>
+        <v>62188541.9206918</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>54553126.26586524</v>
+        <v>54553126.26748158</v>
       </c>
       <c r="C449" t="n">
-        <v>24583878.51925558</v>
+        <v>24583878.51775603</v>
       </c>
       <c r="D449" t="n">
-        <v>22178272.83137522</v>
+        <v>22178272.83022758</v>
       </c>
       <c r="E449" t="n">
-        <v>28576033.75953847</v>
+        <v>28576033.7586084</v>
       </c>
       <c r="F449" t="n">
-        <v>24154237.99072807</v>
+        <v>24154237.99031686</v>
       </c>
       <c r="G449" t="n">
-        <v>13637488.87361784</v>
+        <v>13637488.87352249</v>
       </c>
       <c r="H449" t="n">
-        <v>64075324.17996677</v>
+        <v>64075324.1813856</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>53525465.6096973</v>
+        <v>53525465.61129614</v>
       </c>
       <c r="C450" t="n">
-        <v>24338004.83137858</v>
+        <v>24338004.82983983</v>
       </c>
       <c r="D450" t="n">
-        <v>22042684.94981059</v>
+        <v>22042684.94861462</v>
       </c>
       <c r="E450" t="n">
-        <v>28482146.74029242</v>
+        <v>28482146.73931498</v>
       </c>
       <c r="F450" t="n">
-        <v>24120988.25656094</v>
+        <v>24120988.25613039</v>
       </c>
       <c r="G450" t="n">
-        <v>13631584.43187377</v>
+        <v>13631584.43177522</v>
       </c>
       <c r="H450" t="n">
-        <v>65973543.51000278</v>
+        <v>65973543.51151506</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>52494143.16288871</v>
+        <v>52494143.16446931</v>
       </c>
       <c r="C451" t="n">
-        <v>24081971.98369047</v>
+        <v>24081971.98211347</v>
       </c>
       <c r="D451" t="n">
-        <v>21898572.13180467</v>
+        <v>21898572.1305597</v>
       </c>
       <c r="E451" t="n">
-        <v>28380283.86234642</v>
+        <v>28380283.86131952</v>
       </c>
       <c r="F451" t="n">
-        <v>24084048.2941049</v>
+        <v>24084048.29365352</v>
       </c>
       <c r="G451" t="n">
-        <v>13624851.29351629</v>
+        <v>13624851.29341418</v>
       </c>
       <c r="H451" t="n">
-        <v>67883476.24129462</v>
+        <v>67883476.24290285</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>51459710.50427138</v>
+        <v>51459710.50583289</v>
       </c>
       <c r="C452" t="n">
-        <v>23815747.25278708</v>
+        <v>23815747.25117293</v>
       </c>
       <c r="D452" t="n">
-        <v>21745666.90168299</v>
+        <v>21745666.90038848</v>
       </c>
       <c r="E452" t="n">
-        <v>28269984.29616802</v>
+        <v>28269984.29508961</v>
       </c>
       <c r="F452" t="n">
-        <v>24043096.49451581</v>
+        <v>24043096.49404211</v>
       </c>
       <c r="G452" t="n">
-        <v>13617190.76574001</v>
+        <v>13617190.76563397</v>
       </c>
       <c r="H452" t="n">
-        <v>69805392.70257474</v>
+        <v>69805392.7042814</v>
       </c>
     </row>
   </sheetData>
